--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -8371,7 +8371,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>3156691</v>
+        <v>3156794</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8383,76 +8383,76 @@
         <v>44396.58333333334</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K89">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L89">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M89">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
-        <v>1.333</v>
+        <v>2.05</v>
       </c>
       <c r="O89">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P89">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="Q89">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1.09</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>3156794</v>
+        <v>3156691</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8472,76 +8472,76 @@
         <v>44396.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L90">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M90">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>2.05</v>
+        <v>1.333</v>
       </c>
       <c r="O90">
+        <v>5</v>
+      </c>
+      <c r="P90">
+        <v>8</v>
+      </c>
+      <c r="Q90">
+        <v>-1.5</v>
+      </c>
+      <c r="R90">
+        <v>2.09</v>
+      </c>
+      <c r="S90">
+        <v>1.81</v>
+      </c>
+      <c r="T90">
         <v>3.25</v>
       </c>
-      <c r="P90">
-        <v>3.75</v>
-      </c>
-      <c r="Q90">
-        <v>-0.5</v>
-      </c>
-      <c r="R90">
-        <v>2.05</v>
-      </c>
-      <c r="S90">
-        <v>1.8</v>
-      </c>
-      <c r="T90">
-        <v>2.25</v>
-      </c>
       <c r="U90">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X90">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1.09</v>
       </c>
       <c r="AA90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>3156697</v>
+        <v>3156798</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9006,67 +9006,67 @@
         <v>44403.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K96">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="L96">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.25</v>
+        <v>1.615</v>
       </c>
       <c r="N96">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
         <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AA96">
         <v>-1</v>
@@ -9075,7 +9075,7 @@
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>3156698</v>
+        <v>3156697</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9095,76 +9095,76 @@
         <v>44403.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H97">
+        <v>2</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
       <c r="J97" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L97">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="N97">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q97">
         <v>0.25</v>
       </c>
       <c r="R97">
-        <v>2.01</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.89</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>3156798</v>
+        <v>3156698</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9184,76 +9184,76 @@
         <v>44403.58333333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K98">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="N98">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="Q98">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -10418,7 +10418,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>3156803</v>
+        <v>3156706</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10430,34 +10430,34 @@
         <v>44417.58333333334</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K112">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N112">
         <v>1.909</v>
       </c>
       <c r="O112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
         <v>4</v>
@@ -10484,10 +10484,10 @@
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y112">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
         <v>-1</v>
@@ -10496,10 +10496,10 @@
         <v>0.925</v>
       </c>
       <c r="AB112">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>3156706</v>
+        <v>3156803</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10519,34 +10519,34 @@
         <v>44417.58333333334</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K113">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="L113">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N113">
         <v>1.909</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P113">
         <v>4</v>
@@ -10573,10 +10573,10 @@
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z113">
         <v>-1</v>
@@ -10585,10 +10585,10 @@
         <v>0.925</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11130,7 +11130,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>3156708</v>
+        <v>3156807</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11142,40 +11142,40 @@
         <v>44424.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
         <v>0</v>
       </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
       <c r="J120" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K120">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L120">
         <v>3.4</v>
       </c>
       <c r="M120">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N120">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="O120">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
         <v>1.8</v>
@@ -11184,34 +11184,34 @@
         <v>2.05</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11219,7 +11219,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>3156807</v>
+        <v>3156708</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11231,40 +11231,40 @@
         <v>44424.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>0</v>
-      </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L121">
         <v>3.4</v>
       </c>
       <c r="M121">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="N121">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
         <v>1.8</v>
@@ -11273,34 +11273,34 @@
         <v>2.05</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -13177,7 +13177,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>3994082</v>
+        <v>3156815</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13189,76 +13189,76 @@
         <v>44452.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K143">
+        <v>3.5</v>
+      </c>
+      <c r="L143">
+        <v>3.3</v>
+      </c>
+      <c r="M143">
+        <v>2.1</v>
+      </c>
+      <c r="N143">
+        <v>3.6</v>
+      </c>
+      <c r="O143">
+        <v>3.2</v>
+      </c>
+      <c r="P143">
+        <v>2.1</v>
+      </c>
+      <c r="Q143">
+        <v>0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.925</v>
+      </c>
+      <c r="S143">
+        <v>1.925</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
         <v>2.05</v>
       </c>
-      <c r="L143">
-        <v>3.5</v>
-      </c>
-      <c r="M143">
-        <v>3.4</v>
-      </c>
-      <c r="N143">
-        <v>1.85</v>
-      </c>
-      <c r="O143">
-        <v>3.8</v>
-      </c>
-      <c r="P143">
-        <v>3.8</v>
-      </c>
-      <c r="Q143">
+      <c r="V143">
+        <v>1.8</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>2.2</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0.4625</v>
+      </c>
+      <c r="AA143">
         <v>-0.5</v>
       </c>
-      <c r="R143">
-        <v>1.9</v>
-      </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.9</v>
-      </c>
-      <c r="V143">
-        <v>1.95</v>
-      </c>
-      <c r="W143">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>3156815</v>
+        <v>3156816</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13278,76 +13278,76 @@
         <v>44452.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K144">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L144">
         <v>3.3</v>
       </c>
       <c r="M144">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N144">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q144">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R144">
-        <v>1.925</v>
+        <v>2.04</v>
       </c>
       <c r="S144">
-        <v>1.925</v>
+        <v>1.86</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z144">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>3156816</v>
+        <v>3994082</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13367,73 +13367,73 @@
         <v>44452.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K145">
+        <v>2.05</v>
+      </c>
+      <c r="L145">
+        <v>3.5</v>
+      </c>
+      <c r="M145">
+        <v>3.4</v>
+      </c>
+      <c r="N145">
+        <v>1.85</v>
+      </c>
+      <c r="O145">
+        <v>3.8</v>
+      </c>
+      <c r="P145">
+        <v>3.8</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
         <v>2.75</v>
       </c>
-      <c r="L145">
-        <v>3.3</v>
-      </c>
-      <c r="M145">
-        <v>2.5</v>
-      </c>
-      <c r="N145">
-        <v>2.875</v>
-      </c>
-      <c r="O145">
-        <v>3.3</v>
-      </c>
-      <c r="P145">
-        <v>2.4</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>2.04</v>
-      </c>
-      <c r="S145">
-        <v>1.86</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA145">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -15313,7 +15313,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>3161250</v>
+        <v>3156733</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15325,76 +15325,76 @@
         <v>44466.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K167">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M167">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="N167">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O167">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P167">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="Q167">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R167">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V167">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W167">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X167">
         <v>-1</v>
       </c>
       <c r="Y167">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z167">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB167">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>3156733</v>
+        <v>3161250</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15503,76 +15503,76 @@
         <v>44466.58333333334</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K169">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L169">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M169">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="N169">
+        <v>3.75</v>
+      </c>
+      <c r="O169">
+        <v>3.5</v>
+      </c>
+      <c r="P169">
+        <v>2</v>
+      </c>
+      <c r="Q169">
+        <v>0.5</v>
+      </c>
+      <c r="R169">
+        <v>1.8</v>
+      </c>
+      <c r="S169">
+        <v>2.05</v>
+      </c>
+      <c r="T169">
+        <v>2.5</v>
+      </c>
+      <c r="U169">
+        <v>1.85</v>
+      </c>
+      <c r="V169">
+        <v>2</v>
+      </c>
+      <c r="W169">
         <v>2.75</v>
       </c>
-      <c r="O169">
-        <v>3.1</v>
-      </c>
-      <c r="P169">
-        <v>2.625</v>
-      </c>
-      <c r="Q169">
-        <v>0</v>
-      </c>
-      <c r="R169">
-        <v>2.025</v>
-      </c>
-      <c r="S169">
-        <v>1.825</v>
-      </c>
-      <c r="T169">
-        <v>2.25</v>
-      </c>
-      <c r="U169">
-        <v>1.825</v>
-      </c>
-      <c r="V169">
-        <v>2.025</v>
-      </c>
-      <c r="W169">
-        <v>-1</v>
-      </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC169">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>4568210</v>
+        <v>4567878</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,10 +22356,10 @@
         <v>44654.52083333334</v>
       </c>
       <c r="F246" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G246" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22371,40 +22371,40 @@
         <v>51</v>
       </c>
       <c r="K246">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="L246">
+        <v>3.6</v>
+      </c>
+      <c r="M246">
+        <v>1.727</v>
+      </c>
+      <c r="N246">
         <v>4</v>
-      </c>
-      <c r="M246">
-        <v>5</v>
-      </c>
-      <c r="N246">
-        <v>1.8</v>
       </c>
       <c r="O246">
         <v>3.5</v>
       </c>
       <c r="P246">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q246">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R246">
-        <v>1.84</v>
+        <v>1.925</v>
       </c>
       <c r="S246">
-        <v>2.06</v>
+        <v>1.925</v>
       </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U246">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V246">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W246">
         <v>-1</v>
@@ -22413,19 +22413,19 @@
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>3.333</v>
+        <v>0.95</v>
       </c>
       <c r="Z246">
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>1.06</v>
+        <v>0.925</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>4567878</v>
+        <v>4568210</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,10 +22445,10 @@
         <v>44654.52083333334</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -22460,40 +22460,40 @@
         <v>51</v>
       </c>
       <c r="K247">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="L247">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M247">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N247">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O247">
         <v>3.5</v>
       </c>
       <c r="P247">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="Q247">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>1.925</v>
+        <v>1.84</v>
       </c>
       <c r="S247">
-        <v>1.925</v>
+        <v>2.06</v>
       </c>
       <c r="T247">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V247">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
         <v>-1</v>
@@ -22502,19 +22502,19 @@
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0.95</v>
+        <v>3.333</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>0.925</v>
+        <v>1.06</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -23056,7 +23056,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>4568212</v>
+        <v>4568215</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23068,10 +23068,10 @@
         <v>44661.52083333334</v>
       </c>
       <c r="F254" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H254">
         <v>1</v>
@@ -23083,43 +23083,43 @@
         <v>49</v>
       </c>
       <c r="K254">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L254">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M254">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="N254">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O254">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P254">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="Q254">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R254">
-        <v>1.975</v>
+        <v>1.87</v>
       </c>
       <c r="S254">
-        <v>1.875</v>
+        <v>2.03</v>
       </c>
       <c r="T254">
         <v>2.25</v>
       </c>
       <c r="U254">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V254">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W254">
-        <v>0.95</v>
+        <v>2.4</v>
       </c>
       <c r="X254">
         <v>-1</v>
@@ -23128,7 +23128,7 @@
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.9750000000000001</v>
+        <v>0.8700000000000001</v>
       </c>
       <c r="AA254">
         <v>-1</v>
@@ -23137,7 +23137,7 @@
         <v>-1</v>
       </c>
       <c r="AC254">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23145,7 +23145,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>4568215</v>
+        <v>4568212</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23157,10 +23157,10 @@
         <v>44661.52083333334</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G255" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H255">
         <v>1</v>
@@ -23172,43 +23172,43 @@
         <v>49</v>
       </c>
       <c r="K255">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M255">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="N255">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O255">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P255">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="Q255">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.87</v>
+        <v>1.975</v>
       </c>
       <c r="S255">
-        <v>2.03</v>
+        <v>1.875</v>
       </c>
       <c r="T255">
         <v>2.25</v>
       </c>
       <c r="U255">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W255">
-        <v>2.4</v>
+        <v>0.95</v>
       </c>
       <c r="X255">
         <v>-1</v>
@@ -23217,7 +23217,7 @@
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.8700000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA255">
         <v>-1</v>
@@ -23226,7 +23226,7 @@
         <v>-1</v>
       </c>
       <c r="AC255">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23857,7 +23857,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>4568221</v>
+        <v>4568218</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23869,40 +23869,40 @@
         <v>44668.52083333334</v>
       </c>
       <c r="F263" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G263" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K263">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L263">
         <v>3.5</v>
       </c>
       <c r="M263">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="N263">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="O263">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P263">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="Q263">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R263">
         <v>1.975</v>
@@ -23911,34 +23911,34 @@
         <v>1.875</v>
       </c>
       <c r="T263">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U263">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>2.7</v>
       </c>
       <c r="Z263">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB263">
         <v>-1</v>
       </c>
       <c r="AC263">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23946,7 +23946,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>4574105</v>
+        <v>4568221</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23958,40 +23958,40 @@
         <v>44668.52083333334</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G264" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
         <v>49</v>
       </c>
       <c r="K264">
-        <v>1.533</v>
+        <v>1.95</v>
       </c>
       <c r="L264">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M264">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="N264">
-        <v>1.571</v>
+        <v>2.25</v>
       </c>
       <c r="O264">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P264">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q264">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R264">
         <v>1.975</v>
@@ -24003,13 +24003,13 @@
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V264">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W264">
-        <v>0.571</v>
+        <v>1.25</v>
       </c>
       <c r="X264">
         <v>-1</v>
@@ -24024,10 +24024,10 @@
         <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24035,7 +24035,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>4568218</v>
+        <v>4574105</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24047,40 +24047,40 @@
         <v>44668.52083333334</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K265">
-        <v>2.05</v>
+        <v>1.533</v>
       </c>
       <c r="L265">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M265">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N265">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P265">
-        <v>3.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R265">
         <v>1.975</v>
@@ -24089,34 +24089,34 @@
         <v>1.875</v>
       </c>
       <c r="T265">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U265">
+        <v>1.95</v>
+      </c>
+      <c r="V265">
         <v>1.9</v>
       </c>
-      <c r="V265">
-        <v>1.95</v>
-      </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>2.7</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC265">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>4568234</v>
+        <v>4568233</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,76 +25115,76 @@
         <v>44676.58333333334</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G277" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277" t="s">
+        <v>49</v>
+      </c>
+      <c r="K277">
+        <v>1.5</v>
+      </c>
+      <c r="L277">
+        <v>4</v>
+      </c>
+      <c r="M277">
+        <v>5</v>
+      </c>
+      <c r="N277">
+        <v>1.363</v>
+      </c>
+      <c r="O277">
+        <v>5.25</v>
+      </c>
+      <c r="P277">
+        <v>8</v>
+      </c>
+      <c r="Q277">
+        <v>-1.5</v>
+      </c>
+      <c r="R277">
+        <v>2</v>
+      </c>
+      <c r="S277">
+        <v>1.85</v>
+      </c>
+      <c r="T277">
         <v>3</v>
       </c>
-      <c r="J277" t="s">
-        <v>51</v>
-      </c>
-      <c r="K277">
-        <v>3.8</v>
-      </c>
-      <c r="L277">
-        <v>3.8</v>
-      </c>
-      <c r="M277">
-        <v>1.727</v>
-      </c>
-      <c r="N277">
-        <v>4.75</v>
-      </c>
-      <c r="O277">
-        <v>4.2</v>
-      </c>
-      <c r="P277">
-        <v>1.666</v>
-      </c>
-      <c r="Q277">
-        <v>0.75</v>
-      </c>
-      <c r="R277">
-        <v>2.05</v>
-      </c>
-      <c r="S277">
-        <v>1.8</v>
-      </c>
-      <c r="T277">
-        <v>2.75</v>
-      </c>
       <c r="U277">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V277">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W277">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA277">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB277">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC277">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>4568233</v>
+        <v>4568234</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,76 +25204,76 @@
         <v>44676.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G278" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
         <v>3</v>
       </c>
-      <c r="I278">
-        <v>1</v>
-      </c>
       <c r="J278" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K278">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M278">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N278">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="O278">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P278">
-        <v>8</v>
+        <v>1.666</v>
       </c>
       <c r="Q278">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R278">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S278">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T278">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U278">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V278">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W278">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z278">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA278">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB278">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC278">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -25993,7 +25993,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>4568240</v>
+        <v>4574102</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -26005,76 +26005,76 @@
         <v>44683.58333333334</v>
       </c>
       <c r="F287" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G287" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J287" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K287">
+        <v>1.615</v>
+      </c>
+      <c r="L287">
+        <v>4</v>
+      </c>
+      <c r="M287">
+        <v>5</v>
+      </c>
+      <c r="N287">
+        <v>1.6</v>
+      </c>
+      <c r="O287">
+        <v>3.8</v>
+      </c>
+      <c r="P287">
+        <v>5.5</v>
+      </c>
+      <c r="Q287">
+        <v>-1</v>
+      </c>
+      <c r="R287">
+        <v>2.05</v>
+      </c>
+      <c r="S287">
+        <v>1.75</v>
+      </c>
+      <c r="T287">
         <v>2.5</v>
       </c>
-      <c r="L287">
-        <v>3.2</v>
-      </c>
-      <c r="M287">
-        <v>2.75</v>
-      </c>
-      <c r="N287">
-        <v>2.25</v>
-      </c>
-      <c r="O287">
-        <v>3.25</v>
-      </c>
-      <c r="P287">
-        <v>3.25</v>
-      </c>
-      <c r="Q287">
-        <v>-0.25</v>
-      </c>
-      <c r="R287">
-        <v>1.98</v>
-      </c>
-      <c r="S287">
-        <v>1.92</v>
-      </c>
-      <c r="T287">
-        <v>2.25</v>
-      </c>
       <c r="U287">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V287">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W287">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X287">
         <v>-1</v>
       </c>
       <c r="Y287">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z287">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA287">
-        <v>0.9199999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB287">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC287">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="288" spans="1:29">
@@ -26082,7 +26082,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>4574102</v>
+        <v>4568240</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26094,76 +26094,76 @@
         <v>44683.58333333334</v>
       </c>
       <c r="F288" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G288" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K288">
-        <v>1.615</v>
+        <v>2.5</v>
       </c>
       <c r="L288">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M288">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N288">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O288">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P288">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q288">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R288">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="S288">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="T288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U288">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V288">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W288">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X288">
         <v>-1</v>
       </c>
       <c r="Y288">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Z288">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC288">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>4568247</v>
+        <v>4568244</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,55 +26717,55 @@
         <v>44690.58333333334</v>
       </c>
       <c r="F295" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G295" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
         <v>51</v>
       </c>
       <c r="K295">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L295">
+        <v>3.5</v>
+      </c>
+      <c r="M295">
+        <v>2</v>
+      </c>
+      <c r="N295">
+        <v>4</v>
+      </c>
+      <c r="O295">
         <v>3.6</v>
       </c>
-      <c r="M295">
-        <v>3.2</v>
-      </c>
-      <c r="N295">
-        <v>2.375</v>
-      </c>
-      <c r="O295">
-        <v>3.8</v>
-      </c>
       <c r="P295">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q295">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R295">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S295">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U295">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V295">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26774,19 +26774,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>1.7</v>
+        <v>0.909</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB295">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26794,7 +26794,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>4568244</v>
+        <v>4568247</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26806,55 +26806,55 @@
         <v>44690.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G296" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J296" t="s">
         <v>51</v>
       </c>
       <c r="K296">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L296">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M296">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N296">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O296">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P296">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q296">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R296">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S296">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T296">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U296">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V296">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26863,19 +26863,19 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0.909</v>
+        <v>1.7</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB296">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC296">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>4568250</v>
+        <v>4568252</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27518,76 +27518,76 @@
         <v>44696.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G304" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304">
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K304">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L304">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M304">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N304">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O304">
         <v>3.3</v>
       </c>
       <c r="P304">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q304">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R304">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S304">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T304">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U304">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V304">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W304">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X304">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y304">
         <v>-1</v>
       </c>
       <c r="Z304">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB304">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC304">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27595,7 +27595,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>4568252</v>
+        <v>4568250</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27607,76 +27607,76 @@
         <v>44696.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G305" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305">
         <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K305">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L305">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M305">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N305">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O305">
         <v>3.3</v>
       </c>
       <c r="P305">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q305">
+        <v>-0.25</v>
+      </c>
+      <c r="R305">
+        <v>2.05</v>
+      </c>
+      <c r="S305">
+        <v>1.8</v>
+      </c>
+      <c r="T305">
+        <v>2.75</v>
+      </c>
+      <c r="U305">
+        <v>1.975</v>
+      </c>
+      <c r="V305">
+        <v>1.875</v>
+      </c>
+      <c r="W305">
+        <v>1.375</v>
+      </c>
+      <c r="X305">
+        <v>-1</v>
+      </c>
+      <c r="Y305">
+        <v>-1</v>
+      </c>
+      <c r="Z305">
+        <v>1.05</v>
+      </c>
+      <c r="AA305">
+        <v>-1</v>
+      </c>
+      <c r="AB305">
+        <v>0.4875</v>
+      </c>
+      <c r="AC305">
         <v>-0.5</v>
-      </c>
-      <c r="R305">
-        <v>1.975</v>
-      </c>
-      <c r="S305">
-        <v>1.875</v>
-      </c>
-      <c r="T305">
-        <v>2.25</v>
-      </c>
-      <c r="U305">
-        <v>2</v>
-      </c>
-      <c r="V305">
-        <v>1.85</v>
-      </c>
-      <c r="W305">
-        <v>-1</v>
-      </c>
-      <c r="X305">
-        <v>2.3</v>
-      </c>
-      <c r="Y305">
-        <v>-1</v>
-      </c>
-      <c r="Z305">
-        <v>-1</v>
-      </c>
-      <c r="AA305">
-        <v>0.875</v>
-      </c>
-      <c r="AB305">
-        <v>-0.5</v>
-      </c>
-      <c r="AC305">
-        <v>0.425</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>4568263</v>
+        <v>4574098</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,76 +29120,76 @@
         <v>44710.52083333334</v>
       </c>
       <c r="F322" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G322" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H322">
         <v>1</v>
       </c>
       <c r="I322">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K322">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="L322">
+        <v>3.5</v>
+      </c>
+      <c r="M322">
+        <v>1.75</v>
+      </c>
+      <c r="N322">
         <v>3.75</v>
       </c>
-      <c r="M322">
-        <v>1.571</v>
-      </c>
-      <c r="N322">
-        <v>7</v>
-      </c>
       <c r="O322">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P322">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="Q322">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R322">
-        <v>1.825</v>
+        <v>1.79</v>
       </c>
       <c r="S322">
-        <v>2.025</v>
+        <v>2.11</v>
       </c>
       <c r="T322">
         <v>2.25</v>
       </c>
       <c r="U322">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V322">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X322">
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AA322">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC322">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>4574098</v>
+        <v>4568263</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,76 +29209,76 @@
         <v>44710.52083333334</v>
       </c>
       <c r="F323" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H323">
         <v>1</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K323">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="L323">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M323">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="N323">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="O323">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P323">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="Q323">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R323">
-        <v>1.79</v>
+        <v>1.825</v>
       </c>
       <c r="S323">
-        <v>2.11</v>
+        <v>2.025</v>
       </c>
       <c r="T323">
         <v>2.25</v>
       </c>
       <c r="U323">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V323">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W323">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z323">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AA323">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB323">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC323">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29642,7 +29642,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>4568269</v>
+        <v>4567888</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29654,13 +29654,13 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F328" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G328" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H328">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I328">
         <v>1</v>
@@ -29669,43 +29669,43 @@
         <v>49</v>
       </c>
       <c r="K328">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="L328">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M328">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N328">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="O328">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P328">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q328">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R328">
+        <v>2.04</v>
+      </c>
+      <c r="S328">
         <v>1.86</v>
-      </c>
-      <c r="S328">
-        <v>2.04</v>
       </c>
       <c r="T328">
         <v>3</v>
       </c>
       <c r="U328">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V328">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W328">
-        <v>0.363</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29714,16 +29714,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
+        <v>-1</v>
+      </c>
+      <c r="AA328">
         <v>0.8600000000000001</v>
       </c>
-      <c r="AA328">
-        <v>-1</v>
-      </c>
       <c r="AB328">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29731,7 +29731,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>4567888</v>
+        <v>4568269</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29743,13 +29743,13 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F329" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G329" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I329">
         <v>1</v>
@@ -29758,43 +29758,43 @@
         <v>49</v>
       </c>
       <c r="K329">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="L329">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M329">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N329">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="O329">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P329">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q329">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R329">
+        <v>1.86</v>
+      </c>
+      <c r="S329">
         <v>2.04</v>
-      </c>
-      <c r="S329">
-        <v>1.86</v>
       </c>
       <c r="T329">
         <v>3</v>
       </c>
       <c r="U329">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V329">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W329">
-        <v>0.2849999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29803,16 +29803,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA329">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC329">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30265,7 +30265,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>4574096</v>
+        <v>4568275</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30277,13 +30277,13 @@
         <v>44745.41666666666</v>
       </c>
       <c r="F335" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G335" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H335">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I335">
         <v>0</v>
@@ -30292,43 +30292,43 @@
         <v>49</v>
       </c>
       <c r="K335">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L335">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M335">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N335">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O335">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P335">
+        <v>3</v>
+      </c>
+      <c r="Q335">
+        <v>-0.25</v>
+      </c>
+      <c r="R335">
+        <v>1.98</v>
+      </c>
+      <c r="S335">
+        <v>1.92</v>
+      </c>
+      <c r="T335">
         <v>2.5</v>
       </c>
-      <c r="Q335">
-        <v>0</v>
-      </c>
-      <c r="R335">
-        <v>2.075</v>
-      </c>
-      <c r="S335">
-        <v>1.725</v>
-      </c>
-      <c r="T335">
-        <v>2.25</v>
-      </c>
       <c r="U335">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V335">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W335">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -30337,16 +30337,16 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>1.075</v>
+        <v>0.98</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30354,7 +30354,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>4568275</v>
+        <v>4574096</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30366,13 +30366,13 @@
         <v>44745.41666666666</v>
       </c>
       <c r="F336" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G336" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -30381,43 +30381,43 @@
         <v>49</v>
       </c>
       <c r="K336">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L336">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M336">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N336">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O336">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P336">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q336">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R336">
-        <v>1.98</v>
+        <v>2.075</v>
       </c>
       <c r="S336">
-        <v>1.92</v>
+        <v>1.725</v>
       </c>
       <c r="T336">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U336">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V336">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W336">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="X336">
         <v>-1</v>
@@ -30426,16 +30426,16 @@
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>0.98</v>
+        <v>1.075</v>
       </c>
       <c r="AA336">
         <v>-1</v>
       </c>
       <c r="AB336">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC336">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -34448,7 +34448,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>4568310</v>
+        <v>4568313</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34460,10 +34460,10 @@
         <v>44787.52083333334</v>
       </c>
       <c r="F382" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G382" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H382">
         <v>1</v>
@@ -34475,40 +34475,40 @@
         <v>50</v>
       </c>
       <c r="K382">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L382">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M382">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N382">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O382">
         <v>3.6</v>
       </c>
       <c r="P382">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q382">
         <v>-0.5</v>
       </c>
       <c r="R382">
+        <v>1.85</v>
+      </c>
+      <c r="S382">
+        <v>2</v>
+      </c>
+      <c r="T382">
+        <v>3</v>
+      </c>
+      <c r="U382">
         <v>1.925</v>
       </c>
-      <c r="S382">
+      <c r="V382">
         <v>1.925</v>
-      </c>
-      <c r="T382">
-        <v>2.75</v>
-      </c>
-      <c r="U382">
-        <v>2</v>
-      </c>
-      <c r="V382">
-        <v>1.85</v>
       </c>
       <c r="W382">
         <v>-1</v>
@@ -34523,13 +34523,13 @@
         <v>-1</v>
       </c>
       <c r="AA382">
+        <v>1</v>
+      </c>
+      <c r="AB382">
+        <v>-1</v>
+      </c>
+      <c r="AC382">
         <v>0.925</v>
-      </c>
-      <c r="AB382">
-        <v>-1</v>
-      </c>
-      <c r="AC382">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34537,7 +34537,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>4568313</v>
+        <v>4568310</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34549,10 +34549,10 @@
         <v>44787.52083333334</v>
       </c>
       <c r="F383" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G383" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H383">
         <v>1</v>
@@ -34564,40 +34564,40 @@
         <v>50</v>
       </c>
       <c r="K383">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L383">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M383">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N383">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O383">
         <v>3.6</v>
       </c>
       <c r="P383">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q383">
         <v>-0.5</v>
       </c>
       <c r="R383">
+        <v>1.925</v>
+      </c>
+      <c r="S383">
+        <v>1.925</v>
+      </c>
+      <c r="T383">
+        <v>2.75</v>
+      </c>
+      <c r="U383">
+        <v>2</v>
+      </c>
+      <c r="V383">
         <v>1.85</v>
-      </c>
-      <c r="S383">
-        <v>2</v>
-      </c>
-      <c r="T383">
-        <v>3</v>
-      </c>
-      <c r="U383">
-        <v>1.925</v>
-      </c>
-      <c r="V383">
-        <v>1.925</v>
       </c>
       <c r="W383">
         <v>-1</v>
@@ -34612,13 +34612,13 @@
         <v>-1</v>
       </c>
       <c r="AA383">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB383">
         <v>-1</v>
       </c>
       <c r="AC383">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -35961,7 +35961,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>4567897</v>
+        <v>4568324</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35973,10 +35973,10 @@
         <v>44801.52083333334</v>
       </c>
       <c r="F399" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G399" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H399">
         <v>0</v>
@@ -35988,40 +35988,40 @@
         <v>51</v>
       </c>
       <c r="K399">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L399">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M399">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="N399">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O399">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P399">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q399">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R399">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S399">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T399">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U399">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V399">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W399">
         <v>-1</v>
@@ -36030,19 +36030,19 @@
         <v>-1</v>
       </c>
       <c r="Y399">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB399">
         <v>-1</v>
       </c>
       <c r="AC399">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36050,7 +36050,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>4568324</v>
+        <v>4567897</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36062,10 +36062,10 @@
         <v>44801.52083333334</v>
       </c>
       <c r="F400" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G400" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H400">
         <v>0</v>
@@ -36077,40 +36077,40 @@
         <v>51</v>
       </c>
       <c r="K400">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="L400">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M400">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N400">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O400">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P400">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="Q400">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R400">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S400">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T400">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U400">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V400">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W400">
         <v>-1</v>
@@ -36119,19 +36119,19 @@
         <v>-1</v>
       </c>
       <c r="Y400">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="Z400">
         <v>-1</v>
       </c>
       <c r="AA400">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB400">
         <v>-1</v>
       </c>
       <c r="AC400">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36584,7 +36584,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4568332</v>
+        <v>4574087</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36596,73 +36596,73 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F406" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G406" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I406">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J406" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K406">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M406">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N406">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O406">
         <v>3.25</v>
       </c>
       <c r="P406">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q406">
         <v>-0.25</v>
       </c>
       <c r="R406">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="S406">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="T406">
         <v>2.25</v>
       </c>
       <c r="U406">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V406">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W406">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA406">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC406">
         <v>-1</v>
@@ -36673,7 +36673,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>4574087</v>
+        <v>4568331</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36685,58 +36685,58 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F407" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G407" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H407">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I407">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
         <v>49</v>
       </c>
       <c r="K407">
+        <v>1.65</v>
+      </c>
+      <c r="L407">
+        <v>3.8</v>
+      </c>
+      <c r="M407">
+        <v>5</v>
+      </c>
+      <c r="N407">
+        <v>1.571</v>
+      </c>
+      <c r="O407">
+        <v>4</v>
+      </c>
+      <c r="P407">
+        <v>5.75</v>
+      </c>
+      <c r="Q407">
+        <v>-1</v>
+      </c>
+      <c r="R407">
+        <v>2.05</v>
+      </c>
+      <c r="S407">
         <v>1.8</v>
       </c>
-      <c r="L407">
-        <v>3.6</v>
-      </c>
-      <c r="M407">
-        <v>4.5</v>
-      </c>
-      <c r="N407">
-        <v>2.1</v>
-      </c>
-      <c r="O407">
-        <v>3.25</v>
-      </c>
-      <c r="P407">
-        <v>3.5</v>
-      </c>
-      <c r="Q407">
-        <v>-0.25</v>
-      </c>
-      <c r="R407">
-        <v>1.86</v>
-      </c>
-      <c r="S407">
-        <v>2.04</v>
-      </c>
       <c r="T407">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U407">
+        <v>2.025</v>
+      </c>
+      <c r="V407">
         <v>1.825</v>
       </c>
-      <c r="V407">
-        <v>2.025</v>
-      </c>
       <c r="W407">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="X407">
         <v>-1</v>
@@ -36745,16 +36745,16 @@
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0.8600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB407">
+        <v>-1</v>
+      </c>
+      <c r="AC407">
         <v>0.825</v>
-      </c>
-      <c r="AC407">
-        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36762,7 +36762,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>4568331</v>
+        <v>4568332</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36774,76 +36774,76 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F408" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G408" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H408">
         <v>1</v>
       </c>
       <c r="I408">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J408" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K408">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="L408">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M408">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N408">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="O408">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P408">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q408">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R408">
+        <v>2</v>
+      </c>
+      <c r="S408">
+        <v>1.85</v>
+      </c>
+      <c r="T408">
+        <v>2.25</v>
+      </c>
+      <c r="U408">
         <v>2.05</v>
       </c>
-      <c r="S408">
+      <c r="V408">
         <v>1.8</v>
       </c>
-      <c r="T408">
-        <v>2.5</v>
-      </c>
-      <c r="U408">
-        <v>2.025</v>
-      </c>
-      <c r="V408">
-        <v>1.825</v>
-      </c>
       <c r="W408">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA408">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB408">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC408">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -37118,7 +37118,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>4568334</v>
+        <v>4568337</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37130,76 +37130,76 @@
         <v>44815.41666666666</v>
       </c>
       <c r="F412" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G412" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H412">
         <v>0</v>
       </c>
       <c r="I412">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J412" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K412">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="L412">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M412">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="N412">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="O412">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P412">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q412">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R412">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S412">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T412">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U412">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V412">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W412">
         <v>-1</v>
       </c>
       <c r="X412">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y412">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z412">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA412">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AB412">
         <v>-1</v>
       </c>
       <c r="AC412">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37207,7 +37207,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>4568337</v>
+        <v>4568334</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37219,76 +37219,76 @@
         <v>44815.41666666666</v>
       </c>
       <c r="F413" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G413" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H413">
         <v>0</v>
       </c>
       <c r="I413">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J413" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K413">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="L413">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M413">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="N413">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="O413">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="P413">
-        <v>1.444</v>
+        <v>3.5</v>
       </c>
       <c r="Q413">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R413">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S413">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T413">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U413">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V413">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W413">
         <v>-1</v>
       </c>
       <c r="X413">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y413">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z413">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA413">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AB413">
         <v>-1</v>
       </c>
       <c r="AC413">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -38720,7 +38720,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>4568348</v>
+        <v>4568347</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38732,76 +38732,76 @@
         <v>44836.52083333334</v>
       </c>
       <c r="F430" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G430" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J430" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K430">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L430">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M430">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N430">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O430">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P430">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q430">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R430">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S430">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T430">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U430">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V430">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W430">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X430">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y430">
         <v>-1</v>
       </c>
       <c r="Z430">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA430">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB430">
         <v>-1</v>
       </c>
       <c r="AC430">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="431" spans="1:29">
@@ -38809,7 +38809,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>4568347</v>
+        <v>4568348</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -38821,76 +38821,76 @@
         <v>44836.52083333334</v>
       </c>
       <c r="F431" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G431" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J431" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K431">
+        <v>1.6</v>
+      </c>
+      <c r="L431">
+        <v>3.8</v>
+      </c>
+      <c r="M431">
+        <v>5.5</v>
+      </c>
+      <c r="N431">
+        <v>1.571</v>
+      </c>
+      <c r="O431">
         <v>4</v>
       </c>
-      <c r="L431">
-        <v>3.4</v>
-      </c>
-      <c r="M431">
-        <v>1.909</v>
-      </c>
-      <c r="N431">
-        <v>3.2</v>
-      </c>
-      <c r="O431">
-        <v>3.4</v>
-      </c>
       <c r="P431">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q431">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R431">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S431">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T431">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U431">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V431">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W431">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X431">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y431">
         <v>-1</v>
       </c>
       <c r="Z431">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA431">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB431">
         <v>-1</v>
       </c>
       <c r="AC431">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="432" spans="1:29">
@@ -40856,7 +40856,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>4567903</v>
+        <v>4568368</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40868,49 +40868,49 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F454" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G454" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J454" t="s">
         <v>51</v>
       </c>
       <c r="K454">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L454">
         <v>3.5</v>
       </c>
       <c r="M454">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N454">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O454">
         <v>3.6</v>
       </c>
       <c r="P454">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q454">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R454">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S454">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T454">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U454">
         <v>1.925</v>
@@ -40925,13 +40925,13 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB454">
         <v>0.925</v>
@@ -40945,7 +40945,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4568365</v>
+        <v>4567903</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40957,40 +40957,40 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F455" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G455" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H455">
+        <v>2</v>
+      </c>
+      <c r="I455">
         <v>3</v>
       </c>
-      <c r="I455">
-        <v>1</v>
-      </c>
       <c r="J455" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K455">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L455">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M455">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="N455">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O455">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P455">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q455">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R455">
         <v>1.925</v>
@@ -40999,31 +40999,31 @@
         <v>1.925</v>
       </c>
       <c r="T455">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U455">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V455">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W455">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X455">
         <v>-1</v>
       </c>
       <c r="Y455">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z455">
+        <v>-1</v>
+      </c>
+      <c r="AA455">
         <v>0.925</v>
       </c>
-      <c r="AA455">
-        <v>-1</v>
-      </c>
       <c r="AB455">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC455">
         <v>-1</v>
@@ -41034,7 +41034,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4568368</v>
+        <v>4568365</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41046,73 +41046,73 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F456" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G456" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H456">
+        <v>3</v>
+      </c>
+      <c r="I456">
         <v>1</v>
       </c>
-      <c r="I456">
-        <v>2</v>
-      </c>
       <c r="J456" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K456">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L456">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M456">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N456">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O456">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P456">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q456">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R456">
+        <v>1.925</v>
+      </c>
+      <c r="S456">
+        <v>1.925</v>
+      </c>
+      <c r="T456">
+        <v>2.75</v>
+      </c>
+      <c r="U456">
         <v>1.9</v>
       </c>
-      <c r="S456">
+      <c r="V456">
         <v>1.95</v>
       </c>
-      <c r="T456">
-        <v>2.25</v>
-      </c>
-      <c r="U456">
-        <v>1.925</v>
-      </c>
-      <c r="V456">
-        <v>1.925</v>
-      </c>
       <c r="W456">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z456">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA456">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB456">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC456">
         <v>-1</v>
@@ -42814,7 +42814,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>4568382</v>
+        <v>4568386</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42826,55 +42826,55 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F476" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G476" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J476" t="s">
         <v>51</v>
       </c>
       <c r="K476">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L476">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M476">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="N476">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O476">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P476">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q476">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R476">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S476">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T476">
         <v>3</v>
       </c>
       <c r="U476">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V476">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W476">
         <v>-1</v>
@@ -42883,19 +42883,19 @@
         <v>-1</v>
       </c>
       <c r="Y476">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="Z476">
         <v>-1</v>
       </c>
       <c r="AA476">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB476">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC476">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42903,7 +42903,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>4567906</v>
+        <v>4568382</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42915,76 +42915,76 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F477" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G477" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J477" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K477">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L477">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M477">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N477">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O477">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P477">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q477">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R477">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S477">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T477">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U477">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V477">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W477">
         <v>-1</v>
       </c>
       <c r="X477">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y477">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z477">
         <v>-1</v>
       </c>
       <c r="AA477">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB477">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC477">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -42992,7 +42992,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>4568385</v>
+        <v>4567906</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43004,76 +43004,76 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F478" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G478" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478">
         <v>2</v>
       </c>
       <c r="J478" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K478">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="L478">
+        <v>4.5</v>
+      </c>
+      <c r="M478">
         <v>4.75</v>
       </c>
-      <c r="M478">
-        <v>1.4</v>
-      </c>
       <c r="N478">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="O478">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P478">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="Q478">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R478">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S478">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T478">
         <v>3.25</v>
       </c>
       <c r="U478">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V478">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W478">
         <v>-1</v>
       </c>
       <c r="X478">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y478">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z478">
         <v>-1</v>
       </c>
       <c r="AA478">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB478">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC478">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43081,7 +43081,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>4568386</v>
+        <v>4568385</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43093,55 +43093,55 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F479" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G479" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J479" t="s">
         <v>51</v>
       </c>
       <c r="K479">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="L479">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M479">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="N479">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O479">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P479">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="Q479">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R479">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S479">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T479">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U479">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V479">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W479">
         <v>-1</v>
@@ -43150,19 +43150,19 @@
         <v>-1</v>
       </c>
       <c r="Y479">
-        <v>1.55</v>
+        <v>0.444</v>
       </c>
       <c r="Z479">
         <v>-1</v>
       </c>
       <c r="AA479">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB479">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC479">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -45128,7 +45128,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>5981873</v>
+        <v>5982124</v>
       </c>
       <c r="C502" t="s">
         <v>28</v>
@@ -45140,10 +45140,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F502" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G502" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H502">
         <v>2</v>
@@ -45155,43 +45155,43 @@
         <v>49</v>
       </c>
       <c r="K502">
+        <v>1.85</v>
+      </c>
+      <c r="L502">
+        <v>3.4</v>
+      </c>
+      <c r="M502">
+        <v>3.8</v>
+      </c>
+      <c r="N502">
+        <v>1.8</v>
+      </c>
+      <c r="O502">
         <v>3.6</v>
       </c>
-      <c r="L502">
-        <v>3.3</v>
-      </c>
-      <c r="M502">
-        <v>1.909</v>
-      </c>
-      <c r="N502">
-        <v>3.4</v>
-      </c>
-      <c r="O502">
-        <v>3.5</v>
-      </c>
       <c r="P502">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q502">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R502">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S502">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T502">
         <v>2.5</v>
       </c>
       <c r="U502">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V502">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W502">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X502">
         <v>-1</v>
@@ -45200,7 +45200,7 @@
         <v>-1</v>
       </c>
       <c r="Z502">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AA502">
         <v>-1</v>
@@ -45209,7 +45209,7 @@
         <v>-1</v>
       </c>
       <c r="AC502">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="503" spans="1:29">
@@ -45217,7 +45217,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>5982124</v>
+        <v>5981873</v>
       </c>
       <c r="C503" t="s">
         <v>28</v>
@@ -45229,10 +45229,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F503" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G503" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H503">
         <v>2</v>
@@ -45244,61 +45244,61 @@
         <v>49</v>
       </c>
       <c r="K503">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="L503">
+        <v>3.3</v>
+      </c>
+      <c r="M503">
+        <v>1.909</v>
+      </c>
+      <c r="N503">
         <v>3.4</v>
       </c>
-      <c r="M503">
-        <v>3.8</v>
-      </c>
-      <c r="N503">
+      <c r="O503">
+        <v>3.5</v>
+      </c>
+      <c r="P503">
+        <v>2.1</v>
+      </c>
+      <c r="Q503">
+        <v>0.25</v>
+      </c>
+      <c r="R503">
+        <v>2.05</v>
+      </c>
+      <c r="S503">
         <v>1.8</v>
-      </c>
-      <c r="O503">
-        <v>3.6</v>
-      </c>
-      <c r="P503">
-        <v>4.5</v>
-      </c>
-      <c r="Q503">
-        <v>-0.75</v>
-      </c>
-      <c r="R503">
-        <v>2.07</v>
-      </c>
-      <c r="S503">
-        <v>1.83</v>
       </c>
       <c r="T503">
         <v>2.5</v>
       </c>
       <c r="U503">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V503">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W503">
+        <v>2.4</v>
+      </c>
+      <c r="X503">
+        <v>-1</v>
+      </c>
+      <c r="Y503">
+        <v>-1</v>
+      </c>
+      <c r="Z503">
+        <v>1.05</v>
+      </c>
+      <c r="AA503">
+        <v>-1</v>
+      </c>
+      <c r="AB503">
+        <v>-1</v>
+      </c>
+      <c r="AC503">
         <v>0.8</v>
-      </c>
-      <c r="X503">
-        <v>-1</v>
-      </c>
-      <c r="Y503">
-        <v>-1</v>
-      </c>
-      <c r="Z503">
-        <v>1.07</v>
-      </c>
-      <c r="AA503">
-        <v>-1</v>
-      </c>
-      <c r="AB503">
-        <v>-1</v>
-      </c>
-      <c r="AC503">
-        <v>0.875</v>
       </c>
     </row>
     <row r="504" spans="1:29">
@@ -46552,7 +46552,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>5981876</v>
+        <v>5982137</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46564,76 +46564,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F518" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G518" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H518">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I518">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J518" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K518">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L518">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M518">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N518">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O518">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P518">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q518">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R518">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S518">
         <v>1.85</v>
       </c>
       <c r="T518">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U518">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V518">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W518">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X518">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y518">
         <v>-1</v>
       </c>
       <c r="Z518">
-        <v>1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA518">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB518">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC518">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46641,7 +46641,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>5982137</v>
+        <v>5981876</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46653,76 +46653,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F519" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G519" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I519">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J519" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K519">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L519">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M519">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N519">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O519">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P519">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q519">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R519">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S519">
         <v>1.85</v>
       </c>
       <c r="T519">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U519">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V519">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W519">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X519">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>0.5249999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA519">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB519">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC519">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46997,7 +46997,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>5982141</v>
+        <v>5982142</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -47009,76 +47009,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F523" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G523" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J523" t="s">
         <v>50</v>
       </c>
       <c r="K523">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L523">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M523">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N523">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O523">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P523">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q523">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R523">
+        <v>2</v>
+      </c>
+      <c r="S523">
+        <v>1.85</v>
+      </c>
+      <c r="T523">
+        <v>2</v>
+      </c>
+      <c r="U523">
         <v>1.975</v>
       </c>
-      <c r="S523">
+      <c r="V523">
         <v>1.875</v>
       </c>
-      <c r="T523">
-        <v>2.25</v>
-      </c>
-      <c r="U523">
-        <v>1.875</v>
-      </c>
-      <c r="V523">
-        <v>1.975</v>
-      </c>
       <c r="W523">
         <v>-1</v>
       </c>
       <c r="X523">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y523">
         <v>-1</v>
       </c>
       <c r="Z523">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA523">
+        <v>-0</v>
+      </c>
+      <c r="AB523">
+        <v>-1</v>
+      </c>
+      <c r="AC523">
         <v>0.875</v>
-      </c>
-      <c r="AB523">
-        <v>0.875</v>
-      </c>
-      <c r="AC523">
-        <v>-1</v>
       </c>
     </row>
     <row r="524" spans="1:29">
@@ -47175,7 +47175,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>5982142</v>
+        <v>5982141</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47187,76 +47187,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F525" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G525" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J525" t="s">
         <v>50</v>
       </c>
       <c r="K525">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L525">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M525">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N525">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O525">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P525">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q525">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R525">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S525">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T525">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U525">
+        <v>1.875</v>
+      </c>
+      <c r="V525">
         <v>1.975</v>
       </c>
-      <c r="V525">
-        <v>1.875</v>
-      </c>
       <c r="W525">
         <v>-1</v>
       </c>
       <c r="X525">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y525">
         <v>-1</v>
       </c>
       <c r="Z525">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA525">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB525">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC525">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -47264,7 +47264,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>5982138</v>
+        <v>5982143</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47276,76 +47276,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F526" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G526" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H526">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J526" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K526">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L526">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M526">
         <v>3.6</v>
       </c>
       <c r="N526">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O526">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P526">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q526">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S526">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T526">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U526">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V526">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W526">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X526">
         <v>-1</v>
       </c>
       <c r="Y526">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z526">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA526">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB526">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC526">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47353,7 +47353,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>5982143</v>
+        <v>5982139</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47365,76 +47365,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F527" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G527" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H527">
+        <v>2</v>
+      </c>
+      <c r="I527">
         <v>0</v>
       </c>
-      <c r="I527">
-        <v>1</v>
-      </c>
       <c r="J527" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K527">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L527">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M527">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N527">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O527">
         <v>3.25</v>
       </c>
       <c r="P527">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q527">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R527">
+        <v>1.875</v>
+      </c>
+      <c r="S527">
         <v>1.975</v>
-      </c>
-      <c r="S527">
-        <v>1.875</v>
       </c>
       <c r="T527">
         <v>2.5</v>
       </c>
       <c r="U527">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V527">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W527">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X527">
         <v>-1</v>
       </c>
       <c r="Y527">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z527">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA527">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB527">
         <v>-1</v>
       </c>
       <c r="AC527">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="528" spans="1:29">
@@ -47442,7 +47442,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>5982139</v>
+        <v>5982138</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47454,13 +47454,13 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F528" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G528" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I528">
         <v>0</v>
@@ -47469,43 +47469,43 @@
         <v>49</v>
       </c>
       <c r="K528">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L528">
         <v>3.4</v>
       </c>
       <c r="M528">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N528">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O528">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P528">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q528">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R528">
+        <v>2</v>
+      </c>
+      <c r="S528">
+        <v>1.85</v>
+      </c>
+      <c r="T528">
+        <v>2.75</v>
+      </c>
+      <c r="U528">
+        <v>1.975</v>
+      </c>
+      <c r="V528">
         <v>1.875</v>
       </c>
-      <c r="S528">
-        <v>1.975</v>
-      </c>
-      <c r="T528">
-        <v>2.5</v>
-      </c>
-      <c r="U528">
-        <v>2</v>
-      </c>
-      <c r="V528">
-        <v>1.85</v>
-      </c>
       <c r="W528">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="X528">
         <v>-1</v>
@@ -47514,16 +47514,16 @@
         <v>-1</v>
       </c>
       <c r="Z528">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA528">
         <v>-1</v>
       </c>
       <c r="AB528">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC528">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="529" spans="1:29">
@@ -47798,7 +47798,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>5982149</v>
+        <v>5982146</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -47810,55 +47810,55 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F532" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G532" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I532">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J532" t="s">
         <v>51</v>
       </c>
       <c r="K532">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L532">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M532">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N532">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O532">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P532">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q532">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R532">
-        <v>2.07</v>
+        <v>1.925</v>
       </c>
       <c r="S532">
-        <v>1.83</v>
+        <v>1.925</v>
       </c>
       <c r="T532">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U532">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V532">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W532">
         <v>-1</v>
@@ -47867,19 +47867,19 @@
         <v>-1</v>
       </c>
       <c r="Y532">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z532">
         <v>-1</v>
       </c>
       <c r="AA532">
-        <v>0.8300000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB532">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC532">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533" spans="1:29">
@@ -47887,7 +47887,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>5982148</v>
+        <v>5982149</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47899,19 +47899,19 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F533" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G533" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H533">
         <v>0</v>
       </c>
       <c r="I533">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J533" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K533">
         <v>2.625</v>
@@ -47923,52 +47923,52 @@
         <v>2.5</v>
       </c>
       <c r="N533">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O533">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P533">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q533">
         <v>0</v>
       </c>
       <c r="R533">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S533">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T533">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U533">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V533">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W533">
         <v>-1</v>
       </c>
       <c r="X533">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y533">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z533">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA533">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB533">
         <v>-1</v>
       </c>
       <c r="AC533">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="534" spans="1:29">
@@ -47976,7 +47976,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>5982146</v>
+        <v>5982148</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47988,46 +47988,46 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F534" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G534" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H534">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J534" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K534">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L534">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M534">
+        <v>2.5</v>
+      </c>
+      <c r="N534">
+        <v>2.8</v>
+      </c>
+      <c r="O534">
+        <v>3.5</v>
+      </c>
+      <c r="P534">
+        <v>2.4</v>
+      </c>
+      <c r="Q534">
+        <v>0</v>
+      </c>
+      <c r="R534">
         <v>2.1</v>
       </c>
-      <c r="N534">
-        <v>3.1</v>
-      </c>
-      <c r="O534">
-        <v>3.6</v>
-      </c>
-      <c r="P534">
-        <v>2.2</v>
-      </c>
-      <c r="Q534">
-        <v>0.25</v>
-      </c>
-      <c r="R534">
-        <v>1.925</v>
-      </c>
       <c r="S534">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T534">
         <v>2.75</v>
@@ -48042,22 +48042,22 @@
         <v>-1</v>
       </c>
       <c r="X534">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y534">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z534">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA534">
+        <v>-0</v>
+      </c>
+      <c r="AB534">
+        <v>-1</v>
+      </c>
+      <c r="AC534">
         <v>0.925</v>
-      </c>
-      <c r="AB534">
-        <v>0.925</v>
-      </c>
-      <c r="AC534">
-        <v>-1</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -53316,7 +53316,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>5982187</v>
+        <v>5982186</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53328,10 +53328,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F594" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G594" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H594">
         <v>1</v>
@@ -53343,31 +53343,31 @@
         <v>51</v>
       </c>
       <c r="K594">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L594">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M594">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N594">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O594">
         <v>3.6</v>
       </c>
       <c r="P594">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q594">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R594">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S594">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T594">
         <v>2.5</v>
@@ -53385,13 +53385,13 @@
         <v>-1</v>
       </c>
       <c r="Y594">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z594">
         <v>-1</v>
       </c>
       <c r="AA594">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB594">
         <v>0.95</v>
@@ -53405,7 +53405,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>5982186</v>
+        <v>5982187</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53417,10 +53417,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F595" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G595" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H595">
         <v>1</v>
@@ -53432,31 +53432,31 @@
         <v>51</v>
       </c>
       <c r="K595">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L595">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M595">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N595">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O595">
         <v>3.6</v>
       </c>
       <c r="P595">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q595">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R595">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S595">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T595">
         <v>2.5</v>
@@ -53474,13 +53474,13 @@
         <v>-1</v>
       </c>
       <c r="Y595">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z595">
         <v>-1</v>
       </c>
       <c r="AA595">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB595">
         <v>0.95</v>
@@ -53761,7 +53761,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>5982191</v>
+        <v>5982192</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53773,76 +53773,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F599" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G599" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H599">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I599">
         <v>1</v>
       </c>
       <c r="J599" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K599">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L599">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M599">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N599">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O599">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P599">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q599">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R599">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S599">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T599">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U599">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V599">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W599">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X599">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y599">
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA599">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB599">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC599">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -53850,7 +53850,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>5982192</v>
+        <v>5982191</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53862,76 +53862,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F600" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G600" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I600">
         <v>1</v>
       </c>
       <c r="J600" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K600">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L600">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M600">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N600">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O600">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P600">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q600">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R600">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S600">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="T600">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U600">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V600">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W600">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X600">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y600">
         <v>-1</v>
       </c>
       <c r="Z600">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA600">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB600">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC600">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -54651,7 +54651,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>5982198</v>
+        <v>5982201</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54663,76 +54663,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F609" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G609" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I609">
         <v>0</v>
       </c>
       <c r="J609" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K609">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L609">
+        <v>4.333</v>
+      </c>
+      <c r="M609">
+        <v>6.5</v>
+      </c>
+      <c r="N609">
+        <v>1.85</v>
+      </c>
+      <c r="O609">
         <v>3.4</v>
       </c>
-      <c r="M609">
-        <v>2.45</v>
-      </c>
-      <c r="N609">
-        <v>2.05</v>
-      </c>
-      <c r="O609">
-        <v>3.3</v>
-      </c>
       <c r="P609">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q609">
         <v>-0.5</v>
       </c>
       <c r="R609">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S609">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T609">
         <v>2.25</v>
       </c>
       <c r="U609">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V609">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W609">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X609">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y609">
         <v>-1</v>
       </c>
       <c r="Z609">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA609">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB609">
         <v>-1</v>
       </c>
       <c r="AC609">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="610" spans="1:29">
@@ -54740,7 +54740,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>5982201</v>
+        <v>5982198</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54752,76 +54752,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F610" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G610" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610">
         <v>0</v>
       </c>
       <c r="J610" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K610">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L610">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M610">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N610">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O610">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P610">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q610">
         <v>-0.5</v>
       </c>
       <c r="R610">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S610">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T610">
         <v>2.25</v>
       </c>
       <c r="U610">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V610">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W610">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X610">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y610">
         <v>-1</v>
       </c>
       <c r="Z610">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA610">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB610">
         <v>-1</v>
       </c>
       <c r="AC610">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="611" spans="1:29">
@@ -55185,7 +55185,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>5981900</v>
+        <v>5982204</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55197,76 +55197,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F615" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G615" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615">
         <v>1</v>
       </c>
       <c r="J615" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K615">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L615">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M615">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N615">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O615">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P615">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q615">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R615">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S615">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T615">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U615">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V615">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W615">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X615">
         <v>-1</v>
       </c>
       <c r="Y615">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z615">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA615">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB615">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC615">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55274,7 +55274,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>5982204</v>
+        <v>5981900</v>
       </c>
       <c r="C616" t="s">
         <v>28</v>
@@ -55286,76 +55286,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F616" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G616" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616">
         <v>1</v>
       </c>
       <c r="J616" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K616">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L616">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M616">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N616">
+        <v>3.25</v>
+      </c>
+      <c r="O616">
+        <v>3.3</v>
+      </c>
+      <c r="P616">
+        <v>2.25</v>
+      </c>
+      <c r="Q616">
+        <v>0.25</v>
+      </c>
+      <c r="R616">
+        <v>1.9</v>
+      </c>
+      <c r="S616">
         <v>1.95</v>
       </c>
-      <c r="O616">
-        <v>3.6</v>
-      </c>
-      <c r="P616">
-        <v>3.75</v>
-      </c>
-      <c r="Q616">
-        <v>-0.5</v>
-      </c>
-      <c r="R616">
+      <c r="T616">
+        <v>2.25</v>
+      </c>
+      <c r="U616">
         <v>1.975</v>
       </c>
-      <c r="S616">
+      <c r="V616">
         <v>1.875</v>
       </c>
-      <c r="T616">
-        <v>2.5</v>
-      </c>
-      <c r="U616">
-        <v>1.85</v>
-      </c>
-      <c r="V616">
-        <v>2</v>
-      </c>
       <c r="W616">
+        <v>-1</v>
+      </c>
+      <c r="X616">
+        <v>-1</v>
+      </c>
+      <c r="Y616">
+        <v>1.25</v>
+      </c>
+      <c r="Z616">
+        <v>-1</v>
+      </c>
+      <c r="AA616">
         <v>0.95</v>
       </c>
-      <c r="X616">
-        <v>-1</v>
-      </c>
-      <c r="Y616">
-        <v>-1</v>
-      </c>
-      <c r="Z616">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA616">
-        <v>-1</v>
-      </c>
       <c r="AB616">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC616">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="617" spans="1:29">
@@ -55452,7 +55452,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>5981899</v>
+        <v>5982208</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55464,76 +55464,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F618" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G618" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H618">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618">
         <v>1</v>
       </c>
       <c r="J618" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K618">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L618">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M618">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N618">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O618">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P618">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q618">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R618">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S618">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T618">
         <v>2.75</v>
       </c>
       <c r="U618">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V618">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W618">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X618">
         <v>-1</v>
       </c>
       <c r="Y618">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z618">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA618">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB618">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC618">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -55541,7 +55541,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5982208</v>
+        <v>5981899</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55553,76 +55553,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F619" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G619" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I619">
         <v>1</v>
       </c>
       <c r="J619" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K619">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L619">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M619">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N619">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O619">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P619">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="Q619">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R619">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S619">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T619">
         <v>2.75</v>
       </c>
       <c r="U619">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V619">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W619">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA619">
+        <v>-1</v>
+      </c>
+      <c r="AB619">
         <v>0.825</v>
       </c>
-      <c r="AB619">
-        <v>-1</v>
-      </c>
       <c r="AC619">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -55719,7 +55719,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>5982211</v>
+        <v>5982212</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55731,49 +55731,49 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F621" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G621" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H621">
         <v>1</v>
       </c>
       <c r="I621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J621" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K621">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="L621">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M621">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N621">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="O621">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P621">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="Q621">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R621">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S621">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T621">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U621">
         <v>2</v>
@@ -55782,25 +55782,25 @@
         <v>1.85</v>
       </c>
       <c r="W621">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X621">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y621">
         <v>-1</v>
       </c>
       <c r="Z621">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA621">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB621">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC621">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="622" spans="1:29">
@@ -55808,7 +55808,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>5982212</v>
+        <v>5982211</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55820,49 +55820,49 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F622" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G622" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H622">
         <v>1</v>
       </c>
       <c r="I622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J622" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K622">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="L622">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M622">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N622">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="O622">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P622">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="Q622">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R622">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S622">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T622">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U622">
         <v>2</v>
@@ -55871,25 +55871,25 @@
         <v>1.85</v>
       </c>
       <c r="W622">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X622">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y622">
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA622">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB622">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC622">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55897,7 +55897,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5982215</v>
+        <v>5982210</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55909,73 +55909,73 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F623" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G623" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H623">
+        <v>3</v>
+      </c>
+      <c r="I623">
         <v>0</v>
       </c>
-      <c r="I623">
-        <v>3</v>
-      </c>
       <c r="J623" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K623">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L623">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M623">
+        <v>3.6</v>
+      </c>
+      <c r="N623">
+        <v>2.25</v>
+      </c>
+      <c r="O623">
+        <v>3.25</v>
+      </c>
+      <c r="P623">
+        <v>3.3</v>
+      </c>
+      <c r="Q623">
+        <v>-0.25</v>
+      </c>
+      <c r="R623">
+        <v>1.99</v>
+      </c>
+      <c r="S623">
+        <v>1.91</v>
+      </c>
+      <c r="T623">
         <v>2.5</v>
       </c>
-      <c r="N623">
-        <v>2.8</v>
-      </c>
-      <c r="O623">
-        <v>3.4</v>
-      </c>
-      <c r="P623">
-        <v>2.5</v>
-      </c>
-      <c r="Q623">
-        <v>0</v>
-      </c>
-      <c r="R623">
-        <v>2.06</v>
-      </c>
-      <c r="S623">
-        <v>1.84</v>
-      </c>
-      <c r="T623">
-        <v>2</v>
-      </c>
       <c r="U623">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V623">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W623">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X623">
         <v>-1</v>
       </c>
       <c r="Y623">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z623">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA623">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB623">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC623">
         <v>-1</v>
@@ -55986,7 +55986,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>5982210</v>
+        <v>5982215</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -55998,73 +55998,73 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F624" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G624" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H624">
+        <v>0</v>
+      </c>
+      <c r="I624">
         <v>3</v>
       </c>
-      <c r="I624">
+      <c r="J624" t="s">
+        <v>51</v>
+      </c>
+      <c r="K624">
+        <v>2.75</v>
+      </c>
+      <c r="L624">
+        <v>3.1</v>
+      </c>
+      <c r="M624">
+        <v>2.5</v>
+      </c>
+      <c r="N624">
+        <v>2.8</v>
+      </c>
+      <c r="O624">
+        <v>3.4</v>
+      </c>
+      <c r="P624">
+        <v>2.5</v>
+      </c>
+      <c r="Q624">
         <v>0</v>
       </c>
-      <c r="J624" t="s">
-        <v>49</v>
-      </c>
-      <c r="K624">
-        <v>2.05</v>
-      </c>
-      <c r="L624">
-        <v>3.2</v>
-      </c>
-      <c r="M624">
-        <v>3.6</v>
-      </c>
-      <c r="N624">
-        <v>2.25</v>
-      </c>
-      <c r="O624">
-        <v>3.25</v>
-      </c>
-      <c r="P624">
-        <v>3.3</v>
-      </c>
-      <c r="Q624">
-        <v>-0.25</v>
-      </c>
       <c r="R624">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="S624">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T624">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U624">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V624">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W624">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X624">
         <v>-1</v>
       </c>
       <c r="Y624">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z624">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA624">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB624">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC624">
         <v>-1</v>
@@ -60258,7 +60258,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5982249</v>
+        <v>5982246</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60270,10 +60270,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F672" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G672" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H672">
         <v>0</v>
@@ -60285,41 +60285,41 @@
         <v>51</v>
       </c>
       <c r="K672">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L672">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M672">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N672">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O672">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P672">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q672">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R672">
+        <v>2.05</v>
+      </c>
+      <c r="S672">
         <v>1.85</v>
-      </c>
-      <c r="S672">
-        <v>2</v>
       </c>
       <c r="T672">
         <v>2.75</v>
       </c>
       <c r="U672">
+        <v>1.975</v>
+      </c>
+      <c r="V672">
         <v>1.875</v>
       </c>
-      <c r="V672">
-        <v>1.975</v>
-      </c>
       <c r="W672">
         <v>-1</v>
       </c>
@@ -60327,19 +60327,19 @@
         <v>-1</v>
       </c>
       <c r="Y672">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z672">
         <v>-1</v>
       </c>
       <c r="AA672">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB672">
         <v>-1</v>
       </c>
       <c r="AC672">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="673" spans="1:29">
@@ -60347,7 +60347,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>5982246</v>
+        <v>5982249</v>
       </c>
       <c r="C673" t="s">
         <v>28</v>
@@ -60359,10 +60359,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F673" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G673" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H673">
         <v>0</v>
@@ -60374,41 +60374,41 @@
         <v>51</v>
       </c>
       <c r="K673">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L673">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M673">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N673">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O673">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P673">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q673">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R673">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S673">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T673">
         <v>2.75</v>
       </c>
       <c r="U673">
+        <v>1.875</v>
+      </c>
+      <c r="V673">
         <v>1.975</v>
       </c>
-      <c r="V673">
-        <v>1.875</v>
-      </c>
       <c r="W673">
         <v>-1</v>
       </c>
@@ -60416,19 +60416,19 @@
         <v>-1</v>
       </c>
       <c r="Y673">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z673">
         <v>-1</v>
       </c>
       <c r="AA673">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB673">
         <v>-1</v>
       </c>
       <c r="AC673">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="674" spans="1:29">
@@ -60614,7 +60614,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>5982255</v>
+        <v>5982256</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60626,58 +60626,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F676" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G676" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I676">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J676" t="s">
         <v>49</v>
       </c>
       <c r="K676">
+        <v>1.666</v>
+      </c>
+      <c r="L676">
+        <v>4</v>
+      </c>
+      <c r="M676">
+        <v>4.75</v>
+      </c>
+      <c r="N676">
         <v>1.571</v>
       </c>
-      <c r="L676">
+      <c r="O676">
         <v>4.2</v>
       </c>
-      <c r="M676">
-        <v>5.25</v>
-      </c>
-      <c r="N676">
-        <v>1.85</v>
-      </c>
-      <c r="O676">
-        <v>3.75</v>
-      </c>
       <c r="P676">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q676">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R676">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S676">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T676">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U676">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V676">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W676">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X676">
         <v>-1</v>
@@ -60686,16 +60686,16 @@
         <v>-1</v>
       </c>
       <c r="Z676">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA676">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB676">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC676">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60703,7 +60703,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5982256</v>
+        <v>5982255</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60715,58 +60715,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F677" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G677" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H677">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J677" t="s">
         <v>49</v>
       </c>
       <c r="K677">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L677">
+        <v>4.2</v>
+      </c>
+      <c r="M677">
+        <v>5.25</v>
+      </c>
+      <c r="N677">
+        <v>1.85</v>
+      </c>
+      <c r="O677">
+        <v>3.75</v>
+      </c>
+      <c r="P677">
         <v>4</v>
       </c>
-      <c r="M677">
-        <v>4.75</v>
-      </c>
-      <c r="N677">
-        <v>1.571</v>
-      </c>
-      <c r="O677">
-        <v>4.2</v>
-      </c>
-      <c r="P677">
-        <v>5.5</v>
-      </c>
       <c r="Q677">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R677">
+        <v>1.9</v>
+      </c>
+      <c r="S677">
+        <v>1.95</v>
+      </c>
+      <c r="T677">
+        <v>3</v>
+      </c>
+      <c r="U677">
+        <v>1.875</v>
+      </c>
+      <c r="V677">
         <v>1.975</v>
       </c>
-      <c r="S677">
-        <v>1.875</v>
-      </c>
-      <c r="T677">
-        <v>2.75</v>
-      </c>
-      <c r="U677">
-        <v>1.825</v>
-      </c>
-      <c r="V677">
-        <v>2.025</v>
-      </c>
       <c r="W677">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X677">
         <v>-1</v>
@@ -60775,16 +60775,16 @@
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA677">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB677">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC677">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="678" spans="1:29">

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -31155,7 +31155,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>4574095</v>
+        <v>4568281</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31167,76 +31167,76 @@
         <v>44753.58333333334</v>
       </c>
       <c r="F345" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G345" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K345">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L345">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M345">
         <v>5</v>
       </c>
       <c r="N345">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O345">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P345">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q345">
         <v>-1</v>
       </c>
       <c r="R345">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S345">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T345">
         <v>2.75</v>
       </c>
       <c r="U345">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V345">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X345">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA345">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC345">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31244,7 +31244,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>4568281</v>
+        <v>4574095</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31256,76 +31256,76 @@
         <v>44753.58333333334</v>
       </c>
       <c r="F346" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G346" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H346">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K346">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="L346">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M346">
         <v>5</v>
       </c>
       <c r="N346">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O346">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P346">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q346">
         <v>-1</v>
       </c>
       <c r="R346">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S346">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T346">
         <v>2.75</v>
       </c>
       <c r="U346">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V346">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W346">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X346">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB346">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -36584,7 +36584,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4574087</v>
+        <v>4568332</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36596,73 +36596,73 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F406" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G406" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I406">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J406" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K406">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L406">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M406">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N406">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O406">
         <v>3.25</v>
       </c>
       <c r="P406">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q406">
         <v>-0.25</v>
       </c>
       <c r="R406">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="S406">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="T406">
         <v>2.25</v>
       </c>
       <c r="U406">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V406">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W406">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z406">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB406">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC406">
         <v>-1</v>
@@ -36762,7 +36762,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>4568332</v>
+        <v>4574087</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36774,73 +36774,73 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F408" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G408" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I408">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J408" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K408">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L408">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M408">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N408">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O408">
         <v>3.25</v>
       </c>
       <c r="P408">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q408">
         <v>-0.25</v>
       </c>
       <c r="R408">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="S408">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="T408">
         <v>2.25</v>
       </c>
       <c r="U408">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V408">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W408">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA408">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB408">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC408">
         <v>-1</v>
@@ -39432,7 +39432,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>4568353</v>
+        <v>4568351</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39444,76 +39444,76 @@
         <v>44843.52083333334</v>
       </c>
       <c r="F438" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G438" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H438">
+        <v>2</v>
+      </c>
+      <c r="I438">
         <v>0</v>
       </c>
-      <c r="I438">
-        <v>1</v>
-      </c>
       <c r="J438" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K438">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L438">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M438">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="N438">
-        <v>1.952</v>
+        <v>1.5</v>
       </c>
       <c r="O438">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P438">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q438">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R438">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="S438">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="T438">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U438">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V438">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W438">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z438">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA438">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB438">
         <v>-1</v>
       </c>
       <c r="AC438">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39521,7 +39521,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>4568351</v>
+        <v>4568353</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39533,76 +39533,76 @@
         <v>44843.52083333334</v>
       </c>
       <c r="F439" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G439" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J439" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K439">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L439">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M439">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="N439">
-        <v>1.5</v>
+        <v>1.952</v>
       </c>
       <c r="O439">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P439">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q439">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R439">
+        <v>1.97</v>
+      </c>
+      <c r="S439">
+        <v>1.93</v>
+      </c>
+      <c r="T439">
+        <v>3</v>
+      </c>
+      <c r="U439">
+        <v>2.025</v>
+      </c>
+      <c r="V439">
         <v>1.825</v>
       </c>
-      <c r="S439">
-        <v>2.025</v>
-      </c>
-      <c r="T439">
-        <v>2.75</v>
-      </c>
-      <c r="U439">
-        <v>1.9</v>
-      </c>
-      <c r="V439">
-        <v>1.95</v>
-      </c>
       <c r="W439">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X439">
         <v>-1</v>
       </c>
       <c r="Y439">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z439">
+        <v>-1</v>
+      </c>
+      <c r="AA439">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AB439">
+        <v>-1</v>
+      </c>
+      <c r="AC439">
         <v>0.825</v>
-      </c>
-      <c r="AA439">
-        <v>-1</v>
-      </c>
-      <c r="AB439">
-        <v>-1</v>
-      </c>
-      <c r="AC439">
-        <v>0.95</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -40500,7 +40500,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>4568364</v>
+        <v>4568367</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -40512,76 +40512,76 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F450" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G450" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H450">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J450" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K450">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="L450">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M450">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N450">
-        <v>2.55</v>
+        <v>1.7</v>
       </c>
       <c r="O450">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P450">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q450">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R450">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S450">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T450">
         <v>2.75</v>
       </c>
       <c r="U450">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V450">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W450">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X450">
         <v>-1</v>
       </c>
       <c r="Y450">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z450">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA450">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB450">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC450">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="451" spans="1:29">
@@ -40589,7 +40589,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>4568369</v>
+        <v>4568364</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40601,55 +40601,55 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F451" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G451" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I451">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J451" t="s">
         <v>51</v>
       </c>
       <c r="K451">
-        <v>3.9</v>
+        <v>2.45</v>
       </c>
       <c r="L451">
+        <v>3.5</v>
+      </c>
+      <c r="M451">
+        <v>2.6</v>
+      </c>
+      <c r="N451">
+        <v>2.55</v>
+      </c>
+      <c r="O451">
         <v>3.6</v>
       </c>
-      <c r="M451">
-        <v>1.85</v>
-      </c>
-      <c r="N451">
-        <v>3.5</v>
-      </c>
-      <c r="O451">
-        <v>3.75</v>
-      </c>
       <c r="P451">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Q451">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R451">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S451">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T451">
         <v>2.75</v>
       </c>
       <c r="U451">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V451">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W451">
         <v>-1</v>
@@ -40658,16 +40658,16 @@
         <v>-1</v>
       </c>
       <c r="Y451">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="Z451">
         <v>-1</v>
       </c>
       <c r="AA451">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB451">
-        <v>0.4875</v>
+        <v>0.4125</v>
       </c>
       <c r="AC451">
         <v>-0.5</v>
@@ -40678,7 +40678,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>4568367</v>
+        <v>4568369</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40690,76 +40690,76 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F452" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G452" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J452" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K452">
-        <v>1.533</v>
+        <v>3.9</v>
       </c>
       <c r="L452">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M452">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N452">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O452">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P452">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q452">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R452">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S452">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T452">
         <v>2.75</v>
       </c>
       <c r="U452">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V452">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W452">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z452">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA452">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB452">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC452">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -40856,7 +40856,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>4568368</v>
+        <v>4567903</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40868,49 +40868,49 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F454" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G454" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J454" t="s">
         <v>51</v>
       </c>
       <c r="K454">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L454">
         <v>3.5</v>
       </c>
       <c r="M454">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N454">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O454">
         <v>3.6</v>
       </c>
       <c r="P454">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q454">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R454">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S454">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T454">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U454">
         <v>1.925</v>
@@ -40925,13 +40925,13 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB454">
         <v>0.925</v>
@@ -40945,7 +40945,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4567903</v>
+        <v>4568365</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40957,40 +40957,40 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F455" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G455" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I455">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J455" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K455">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L455">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M455">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N455">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O455">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P455">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q455">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R455">
         <v>1.925</v>
@@ -40999,31 +40999,31 @@
         <v>1.925</v>
       </c>
       <c r="T455">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U455">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V455">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W455">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X455">
         <v>-1</v>
       </c>
       <c r="Y455">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z455">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA455">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB455">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC455">
         <v>-1</v>
@@ -41034,7 +41034,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4568365</v>
+        <v>4568368</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41046,73 +41046,73 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F456" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G456" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H456">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J456" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K456">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L456">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M456">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N456">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O456">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P456">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="Q456">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R456">
+        <v>1.9</v>
+      </c>
+      <c r="S456">
+        <v>1.95</v>
+      </c>
+      <c r="T456">
+        <v>2.25</v>
+      </c>
+      <c r="U456">
         <v>1.925</v>
       </c>
-      <c r="S456">
+      <c r="V456">
         <v>1.925</v>
       </c>
-      <c r="T456">
-        <v>2.75</v>
-      </c>
-      <c r="U456">
-        <v>1.9</v>
-      </c>
-      <c r="V456">
-        <v>1.95</v>
-      </c>
       <c r="W456">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z456">
+        <v>-1</v>
+      </c>
+      <c r="AA456">
+        <v>0.95</v>
+      </c>
+      <c r="AB456">
         <v>0.925</v>
-      </c>
-      <c r="AA456">
-        <v>-1</v>
-      </c>
-      <c r="AB456">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC456">
         <v>-1</v>
@@ -41568,7 +41568,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>4568375</v>
+        <v>4568374</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41580,76 +41580,76 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F462" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G462" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H462">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J462" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K462">
+        <v>3.1</v>
+      </c>
+      <c r="L462">
+        <v>3.6</v>
+      </c>
+      <c r="M462">
         <v>2.1</v>
       </c>
-      <c r="L462">
+      <c r="N462">
         <v>3.5</v>
       </c>
-      <c r="M462">
-        <v>3.2</v>
-      </c>
-      <c r="N462">
-        <v>2.25</v>
-      </c>
       <c r="O462">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P462">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q462">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R462">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S462">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T462">
         <v>2.25</v>
       </c>
       <c r="U462">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V462">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W462">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X462">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
+        <v>0.5125</v>
+      </c>
+      <c r="AA462">
+        <v>-0.5</v>
+      </c>
+      <c r="AB462">
+        <v>-1</v>
+      </c>
+      <c r="AC462">
         <v>1</v>
-      </c>
-      <c r="AA462">
-        <v>-1</v>
-      </c>
-      <c r="AB462">
-        <v>0.825</v>
-      </c>
-      <c r="AC462">
-        <v>-1</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41746,7 +41746,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>4568374</v>
+        <v>4568375</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41758,76 +41758,76 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F464" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G464" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J464" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K464">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L464">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M464">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N464">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O464">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P464">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q464">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R464">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S464">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T464">
         <v>2.25</v>
       </c>
       <c r="U464">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V464">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W464">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X464">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA464">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB464">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC464">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -45929,7 +45929,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>5982130</v>
+        <v>5982129</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45941,13 +45941,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F511" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G511" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511">
         <v>0</v>
@@ -45956,43 +45956,43 @@
         <v>49</v>
       </c>
       <c r="K511">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L511">
         <v>3.3</v>
       </c>
       <c r="M511">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N511">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O511">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P511">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q511">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R511">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S511">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T511">
         <v>2.25</v>
       </c>
       <c r="U511">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V511">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W511">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X511">
         <v>-1</v>
@@ -46001,16 +46001,16 @@
         <v>-1</v>
       </c>
       <c r="Z511">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA511">
         <v>-1</v>
       </c>
       <c r="AB511">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC511">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -46018,7 +46018,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>5982129</v>
+        <v>5982130</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46030,13 +46030,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F512" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G512" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512">
         <v>0</v>
@@ -46045,43 +46045,43 @@
         <v>49</v>
       </c>
       <c r="K512">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L512">
         <v>3.3</v>
       </c>
       <c r="M512">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N512">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O512">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P512">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q512">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R512">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S512">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T512">
         <v>2.25</v>
       </c>
       <c r="U512">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V512">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W512">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X512">
         <v>-1</v>
@@ -46090,16 +46090,16 @@
         <v>-1</v>
       </c>
       <c r="Z512">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA512">
         <v>-1</v>
       </c>
       <c r="AB512">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC512">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="513" spans="1:29">
@@ -46374,7 +46374,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>5982134</v>
+        <v>5982135</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46386,49 +46386,49 @@
         <v>45045.52083333334</v>
       </c>
       <c r="F516" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G516" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H516">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J516" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K516">
-        <v>1.285</v>
+        <v>1.7</v>
       </c>
       <c r="L516">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M516">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="N516">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O516">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P516">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q516">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R516">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S516">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T516">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U516">
         <v>1.95</v>
@@ -46437,25 +46437,25 @@
         <v>1.9</v>
       </c>
       <c r="W516">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X516">
         <v>-1</v>
       </c>
       <c r="Y516">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z516">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA516">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB516">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC516">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="517" spans="1:29">
@@ -46463,7 +46463,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>5982135</v>
+        <v>5982134</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46475,49 +46475,49 @@
         <v>45045.52083333334</v>
       </c>
       <c r="F517" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G517" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J517" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K517">
-        <v>1.7</v>
+        <v>1.285</v>
       </c>
       <c r="L517">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M517">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="N517">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O517">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P517">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q517">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R517">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S517">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T517">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U517">
         <v>1.95</v>
@@ -46526,25 +46526,25 @@
         <v>1.9</v>
       </c>
       <c r="W517">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X517">
         <v>-1</v>
       </c>
       <c r="Y517">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z517">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA517">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB517">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC517">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -46552,7 +46552,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>5982137</v>
+        <v>5981876</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46564,76 +46564,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F518" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G518" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I518">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J518" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K518">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L518">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M518">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N518">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O518">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P518">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q518">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R518">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S518">
         <v>1.85</v>
       </c>
       <c r="T518">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U518">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V518">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W518">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X518">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y518">
         <v>-1</v>
       </c>
       <c r="Z518">
-        <v>0.5249999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA518">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB518">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC518">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46641,7 +46641,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>5981876</v>
+        <v>5982137</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46653,76 +46653,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F519" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G519" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H519">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I519">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J519" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K519">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L519">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M519">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N519">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O519">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P519">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q519">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R519">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S519">
         <v>1.85</v>
       </c>
       <c r="T519">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U519">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V519">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W519">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X519">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA519">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB519">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC519">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46997,7 +46997,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>5982142</v>
+        <v>5982141</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -47009,76 +47009,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F523" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G523" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J523" t="s">
         <v>50</v>
       </c>
       <c r="K523">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L523">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M523">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N523">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O523">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P523">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q523">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R523">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S523">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T523">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U523">
+        <v>1.875</v>
+      </c>
+      <c r="V523">
         <v>1.975</v>
       </c>
-      <c r="V523">
-        <v>1.875</v>
-      </c>
       <c r="W523">
         <v>-1</v>
       </c>
       <c r="X523">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y523">
         <v>-1</v>
       </c>
       <c r="Z523">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA523">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB523">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC523">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524" spans="1:29">
@@ -47175,7 +47175,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>5982141</v>
+        <v>5982142</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47187,76 +47187,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F525" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G525" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J525" t="s">
         <v>50</v>
       </c>
       <c r="K525">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L525">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M525">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N525">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O525">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P525">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q525">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R525">
+        <v>2</v>
+      </c>
+      <c r="S525">
+        <v>1.85</v>
+      </c>
+      <c r="T525">
+        <v>2</v>
+      </c>
+      <c r="U525">
         <v>1.975</v>
       </c>
-      <c r="S525">
+      <c r="V525">
         <v>1.875</v>
       </c>
-      <c r="T525">
-        <v>2.25</v>
-      </c>
-      <c r="U525">
-        <v>1.875</v>
-      </c>
-      <c r="V525">
-        <v>1.975</v>
-      </c>
       <c r="W525">
         <v>-1</v>
       </c>
       <c r="X525">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y525">
         <v>-1</v>
       </c>
       <c r="Z525">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA525">
+        <v>-0</v>
+      </c>
+      <c r="AB525">
+        <v>-1</v>
+      </c>
+      <c r="AC525">
         <v>0.875</v>
-      </c>
-      <c r="AB525">
-        <v>0.875</v>
-      </c>
-      <c r="AC525">
-        <v>-1</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -52782,7 +52782,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5981895</v>
+        <v>5982185</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52794,10 +52794,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F588" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G588" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -52809,40 +52809,40 @@
         <v>51</v>
       </c>
       <c r="K588">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L588">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M588">
         <v>2</v>
       </c>
       <c r="N588">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O588">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P588">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q588">
         <v>0.25</v>
       </c>
       <c r="R588">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S588">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T588">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U588">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V588">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W588">
         <v>-1</v>
@@ -52851,19 +52851,19 @@
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z588">
         <v>-1</v>
       </c>
       <c r="AA588">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB588">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AC588">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52871,7 +52871,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5982185</v>
+        <v>5981895</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52883,10 +52883,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F589" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G589" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H589">
         <v>1</v>
@@ -52898,40 +52898,40 @@
         <v>51</v>
       </c>
       <c r="K589">
+        <v>3.4</v>
+      </c>
+      <c r="L589">
+        <v>3.4</v>
+      </c>
+      <c r="M589">
+        <v>2</v>
+      </c>
+      <c r="N589">
         <v>3.3</v>
       </c>
-      <c r="L589">
-        <v>3.6</v>
-      </c>
-      <c r="M589">
-        <v>2</v>
-      </c>
-      <c r="N589">
-        <v>3</v>
-      </c>
       <c r="O589">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P589">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q589">
         <v>0.25</v>
       </c>
       <c r="R589">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S589">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T589">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U589">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V589">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W589">
         <v>-1</v>
@@ -52940,19 +52940,19 @@
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z589">
         <v>-1</v>
       </c>
       <c r="AA589">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB589">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AC589">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53583,7 +53583,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53595,76 +53595,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F597" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G597" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H597">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I597">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J597" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K597">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L597">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M597">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N597">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O597">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P597">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q597">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R597">
+        <v>1.95</v>
+      </c>
+      <c r="S597">
         <v>1.9</v>
       </c>
-      <c r="S597">
-        <v>1.95</v>
-      </c>
       <c r="T597">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U597">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V597">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W597">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X597">
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z597">
+        <v>-1</v>
+      </c>
+      <c r="AA597">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA597">
-        <v>-1</v>
-      </c>
       <c r="AB597">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC597">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53672,7 +53672,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53684,76 +53684,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F598" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G598" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I598">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J598" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K598">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L598">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M598">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N598">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O598">
+        <v>5.5</v>
+      </c>
+      <c r="P598">
+        <v>7.5</v>
+      </c>
+      <c r="Q598">
+        <v>-1.5</v>
+      </c>
+      <c r="R598">
+        <v>1.9</v>
+      </c>
+      <c r="S598">
+        <v>1.95</v>
+      </c>
+      <c r="T598">
         <v>3.5</v>
       </c>
-      <c r="P598">
-        <v>2.55</v>
-      </c>
-      <c r="Q598">
-        <v>0</v>
-      </c>
-      <c r="R598">
+      <c r="U598">
         <v>1.95</v>
       </c>
-      <c r="S598">
+      <c r="V598">
         <v>1.9</v>
       </c>
-      <c r="T598">
-        <v>2.75</v>
-      </c>
-      <c r="U598">
-        <v>1.825</v>
-      </c>
-      <c r="V598">
-        <v>2.025</v>
-      </c>
       <c r="W598">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X598">
         <v>-1</v>
       </c>
       <c r="Y598">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z598">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA598">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB598">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC598">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -54651,7 +54651,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>5982201</v>
+        <v>5982198</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54663,76 +54663,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F609" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G609" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609">
         <v>0</v>
       </c>
       <c r="J609" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K609">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L609">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M609">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N609">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O609">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P609">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q609">
         <v>-0.5</v>
       </c>
       <c r="R609">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S609">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T609">
         <v>2.25</v>
       </c>
       <c r="U609">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V609">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W609">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X609">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y609">
         <v>-1</v>
       </c>
       <c r="Z609">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA609">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB609">
         <v>-1</v>
       </c>
       <c r="AC609">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="610" spans="1:29">
@@ -54740,7 +54740,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>5982198</v>
+        <v>5982201</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54752,76 +54752,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F610" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G610" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I610">
         <v>0</v>
       </c>
       <c r="J610" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K610">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L610">
+        <v>4.333</v>
+      </c>
+      <c r="M610">
+        <v>6.5</v>
+      </c>
+      <c r="N610">
+        <v>1.85</v>
+      </c>
+      <c r="O610">
         <v>3.4</v>
       </c>
-      <c r="M610">
-        <v>2.45</v>
-      </c>
-      <c r="N610">
-        <v>2.05</v>
-      </c>
-      <c r="O610">
-        <v>3.3</v>
-      </c>
       <c r="P610">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q610">
         <v>-0.5</v>
       </c>
       <c r="R610">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S610">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T610">
         <v>2.25</v>
       </c>
       <c r="U610">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V610">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W610">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X610">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y610">
         <v>-1</v>
       </c>
       <c r="Z610">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA610">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB610">
         <v>-1</v>
       </c>
       <c r="AC610">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="611" spans="1:29">
@@ -60614,7 +60614,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>5982256</v>
+        <v>5982255</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60626,58 +60626,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F676" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G676" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H676">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J676" t="s">
         <v>49</v>
       </c>
       <c r="K676">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L676">
+        <v>4.2</v>
+      </c>
+      <c r="M676">
+        <v>5.25</v>
+      </c>
+      <c r="N676">
+        <v>1.85</v>
+      </c>
+      <c r="O676">
+        <v>3.75</v>
+      </c>
+      <c r="P676">
         <v>4</v>
       </c>
-      <c r="M676">
-        <v>4.75</v>
-      </c>
-      <c r="N676">
-        <v>1.571</v>
-      </c>
-      <c r="O676">
-        <v>4.2</v>
-      </c>
-      <c r="P676">
-        <v>5.5</v>
-      </c>
       <c r="Q676">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R676">
+        <v>1.9</v>
+      </c>
+      <c r="S676">
+        <v>1.95</v>
+      </c>
+      <c r="T676">
+        <v>3</v>
+      </c>
+      <c r="U676">
+        <v>1.875</v>
+      </c>
+      <c r="V676">
         <v>1.975</v>
       </c>
-      <c r="S676">
-        <v>1.875</v>
-      </c>
-      <c r="T676">
-        <v>2.75</v>
-      </c>
-      <c r="U676">
-        <v>1.825</v>
-      </c>
-      <c r="V676">
-        <v>2.025</v>
-      </c>
       <c r="W676">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X676">
         <v>-1</v>
@@ -60686,16 +60686,16 @@
         <v>-1</v>
       </c>
       <c r="Z676">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA676">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB676">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC676">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60703,7 +60703,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5982255</v>
+        <v>5982256</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60715,58 +60715,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F677" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G677" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I677">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J677" t="s">
         <v>49</v>
       </c>
       <c r="K677">
+        <v>1.666</v>
+      </c>
+      <c r="L677">
+        <v>4</v>
+      </c>
+      <c r="M677">
+        <v>4.75</v>
+      </c>
+      <c r="N677">
         <v>1.571</v>
       </c>
-      <c r="L677">
+      <c r="O677">
         <v>4.2</v>
       </c>
-      <c r="M677">
-        <v>5.25</v>
-      </c>
-      <c r="N677">
-        <v>1.85</v>
-      </c>
-      <c r="O677">
-        <v>3.75</v>
-      </c>
       <c r="P677">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q677">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R677">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S677">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T677">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U677">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V677">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W677">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X677">
         <v>-1</v>
@@ -60775,16 +60775,16 @@
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA677">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB677">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC677">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -61682,7 +61682,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>5981917</v>
+        <v>5982259</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61694,49 +61694,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F688" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G688" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H688">
+        <v>2</v>
+      </c>
+      <c r="I688">
+        <v>2</v>
+      </c>
+      <c r="J688" t="s">
+        <v>50</v>
+      </c>
+      <c r="K688">
+        <v>2.55</v>
+      </c>
+      <c r="L688">
+        <v>3.4</v>
+      </c>
+      <c r="M688">
+        <v>2.6</v>
+      </c>
+      <c r="N688">
+        <v>2.6</v>
+      </c>
+      <c r="O688">
+        <v>3.6</v>
+      </c>
+      <c r="P688">
+        <v>2.6</v>
+      </c>
+      <c r="Q688">
         <v>0</v>
       </c>
-      <c r="I688">
-        <v>1</v>
-      </c>
-      <c r="J688" t="s">
-        <v>51</v>
-      </c>
-      <c r="K688">
-        <v>5.5</v>
-      </c>
-      <c r="L688">
-        <v>4</v>
-      </c>
-      <c r="M688">
-        <v>1.571</v>
-      </c>
-      <c r="N688">
-        <v>7</v>
-      </c>
-      <c r="O688">
-        <v>4.2</v>
-      </c>
-      <c r="P688">
-        <v>1.5</v>
-      </c>
-      <c r="Q688">
-        <v>1.25</v>
-      </c>
       <c r="R688">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S688">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T688">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U688">
         <v>1.9</v>
@@ -61748,22 +61748,22 @@
         <v>-1</v>
       </c>
       <c r="X688">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y688">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA688">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB688">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC688">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -61771,7 +61771,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>5982259</v>
+        <v>5981917</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61783,49 +61783,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F689" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G689" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J689" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K689">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="L689">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M689">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N689">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="O689">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P689">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q689">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R689">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S689">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T689">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U689">
         <v>1.9</v>
@@ -61837,22 +61837,22 @@
         <v>-1</v>
       </c>
       <c r="X689">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y689">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z689">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA689">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB689">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC689">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="690" spans="1:29">

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -31155,7 +31155,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>4568281</v>
+        <v>4574095</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31167,76 +31167,76 @@
         <v>44753.58333333334</v>
       </c>
       <c r="F345" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G345" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H345">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K345">
-        <v>1.7</v>
+        <v>1.666</v>
       </c>
       <c r="L345">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M345">
         <v>5</v>
       </c>
       <c r="N345">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="O345">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P345">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q345">
         <v>-1</v>
       </c>
       <c r="R345">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S345">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T345">
         <v>2.75</v>
       </c>
       <c r="U345">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V345">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W345">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X345">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y345">
         <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB345">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC345">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31244,7 +31244,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>4574095</v>
+        <v>4568281</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31256,76 +31256,76 @@
         <v>44753.58333333334</v>
       </c>
       <c r="F346" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G346" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K346">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="L346">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M346">
         <v>5</v>
       </c>
       <c r="N346">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O346">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P346">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q346">
         <v>-1</v>
       </c>
       <c r="R346">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S346">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T346">
         <v>2.75</v>
       </c>
       <c r="U346">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V346">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X346">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
         <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA346">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC346">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31600,7 +31600,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>4568287</v>
+        <v>4568285</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31612,43 +31612,43 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F350" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G350" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H350">
         <v>1</v>
       </c>
       <c r="I350">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K350">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L350">
         <v>3.4</v>
       </c>
       <c r="M350">
+        <v>4.5</v>
+      </c>
+      <c r="N350">
+        <v>1.8</v>
+      </c>
+      <c r="O350">
         <v>3.4</v>
       </c>
-      <c r="N350">
-        <v>2.1</v>
-      </c>
-      <c r="O350">
-        <v>3.3</v>
-      </c>
       <c r="P350">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q350">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R350">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S350">
         <v>2.05</v>
@@ -31657,31 +31657,31 @@
         <v>2.25</v>
       </c>
       <c r="U350">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V350">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W350">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X350">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y350">
         <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA350">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB350">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31689,7 +31689,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>4568285</v>
+        <v>4568288</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31701,13 +31701,13 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F351" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G351" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I351">
         <v>0</v>
@@ -31716,43 +31716,43 @@
         <v>49</v>
       </c>
       <c r="K351">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L351">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M351">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N351">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O351">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P351">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q351">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R351">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S351">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T351">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U351">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V351">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W351">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X351">
         <v>-1</v>
@@ -31761,7 +31761,7 @@
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA351">
         <v>-1</v>
@@ -31770,7 +31770,7 @@
         <v>-1</v>
       </c>
       <c r="AC351">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31778,7 +31778,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>4568288</v>
+        <v>4568286</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31790,13 +31790,13 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F352" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G352" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -31808,40 +31808,40 @@
         <v>1.909</v>
       </c>
       <c r="L352">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M352">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N352">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O352">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P352">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q352">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R352">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S352">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T352">
         <v>3</v>
       </c>
       <c r="U352">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V352">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W352">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31850,16 +31850,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA352">
         <v>-1</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC352">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31867,7 +31867,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>4568286</v>
+        <v>4568287</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31879,76 +31879,76 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F353" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G353" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H353">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J353" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K353">
         <v>1.909</v>
       </c>
       <c r="L353">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M353">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N353">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O353">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P353">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q353">
+        <v>-0.25</v>
+      </c>
+      <c r="R353">
+        <v>1.85</v>
+      </c>
+      <c r="S353">
+        <v>2.05</v>
+      </c>
+      <c r="T353">
+        <v>2.25</v>
+      </c>
+      <c r="U353">
+        <v>2.05</v>
+      </c>
+      <c r="V353">
+        <v>1.8</v>
+      </c>
+      <c r="W353">
+        <v>-1</v>
+      </c>
+      <c r="X353">
+        <v>2.3</v>
+      </c>
+      <c r="Y353">
+        <v>-1</v>
+      </c>
+      <c r="Z353">
         <v>-0.5</v>
       </c>
-      <c r="R353">
-        <v>1.975</v>
-      </c>
-      <c r="S353">
-        <v>1.875</v>
-      </c>
-      <c r="T353">
-        <v>3</v>
-      </c>
-      <c r="U353">
-        <v>1.925</v>
-      </c>
-      <c r="V353">
-        <v>1.925</v>
-      </c>
-      <c r="W353">
-        <v>0.909</v>
-      </c>
-      <c r="X353">
-        <v>-1</v>
-      </c>
-      <c r="Y353">
-        <v>-1</v>
-      </c>
-      <c r="Z353">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA353">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB353">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC353">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32668,7 +32668,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4568293</v>
+        <v>4568296</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32680,55 +32680,55 @@
         <v>44767.58333333334</v>
       </c>
       <c r="F362" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G362" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H362">
         <v>0</v>
       </c>
       <c r="I362">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J362" t="s">
         <v>51</v>
       </c>
       <c r="K362">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="L362">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M362">
-        <v>4.333</v>
+        <v>1.45</v>
       </c>
       <c r="N362">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="O362">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P362">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q362">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R362">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S362">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T362">
         <v>2.75</v>
       </c>
       <c r="U362">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V362">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W362">
         <v>-1</v>
@@ -32737,19 +32737,19 @@
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z362">
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC362">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32757,7 +32757,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>4568296</v>
+        <v>4568293</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32769,55 +32769,55 @@
         <v>44767.58333333334</v>
       </c>
       <c r="F363" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G363" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H363">
         <v>0</v>
       </c>
       <c r="I363">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J363" t="s">
         <v>51</v>
       </c>
       <c r="K363">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="L363">
+        <v>3.6</v>
+      </c>
+      <c r="M363">
         <v>4.333</v>
       </c>
-      <c r="M363">
-        <v>1.45</v>
-      </c>
       <c r="N363">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="O363">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P363">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q363">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R363">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S363">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T363">
         <v>2.75</v>
       </c>
       <c r="U363">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V363">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W363">
         <v>-1</v>
@@ -32826,19 +32826,19 @@
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z363">
         <v>-1</v>
       </c>
       <c r="AA363">
+        <v>0.95</v>
+      </c>
+      <c r="AB363">
+        <v>-1</v>
+      </c>
+      <c r="AC363">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB363">
-        <v>0.4875</v>
-      </c>
-      <c r="AC363">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -35961,7 +35961,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>4568324</v>
+        <v>4567897</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35973,10 +35973,10 @@
         <v>44801.52083333334</v>
       </c>
       <c r="F399" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G399" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H399">
         <v>0</v>
@@ -35988,40 +35988,40 @@
         <v>51</v>
       </c>
       <c r="K399">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="L399">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M399">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N399">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O399">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P399">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="Q399">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R399">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S399">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T399">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U399">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V399">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W399">
         <v>-1</v>
@@ -36030,19 +36030,19 @@
         <v>-1</v>
       </c>
       <c r="Y399">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB399">
         <v>-1</v>
       </c>
       <c r="AC399">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36050,7 +36050,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>4567897</v>
+        <v>4568324</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36062,10 +36062,10 @@
         <v>44801.52083333334</v>
       </c>
       <c r="F400" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G400" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H400">
         <v>0</v>
@@ -36077,40 +36077,40 @@
         <v>51</v>
       </c>
       <c r="K400">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L400">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M400">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="N400">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O400">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P400">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q400">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R400">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S400">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T400">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U400">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V400">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W400">
         <v>-1</v>
@@ -36119,19 +36119,19 @@
         <v>-1</v>
       </c>
       <c r="Y400">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z400">
         <v>-1</v>
       </c>
       <c r="AA400">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB400">
         <v>-1</v>
       </c>
       <c r="AC400">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36584,7 +36584,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4568332</v>
+        <v>4574087</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36596,73 +36596,73 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F406" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G406" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I406">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J406" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K406">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M406">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N406">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O406">
         <v>3.25</v>
       </c>
       <c r="P406">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q406">
         <v>-0.25</v>
       </c>
       <c r="R406">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="S406">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="T406">
         <v>2.25</v>
       </c>
       <c r="U406">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V406">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W406">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA406">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC406">
         <v>-1</v>
@@ -36762,7 +36762,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>4574087</v>
+        <v>4568332</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36774,73 +36774,73 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F408" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G408" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H408">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I408">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J408" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K408">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L408">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M408">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N408">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O408">
         <v>3.25</v>
       </c>
       <c r="P408">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q408">
         <v>-0.25</v>
       </c>
       <c r="R408">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="S408">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="T408">
         <v>2.25</v>
       </c>
       <c r="U408">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V408">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W408">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z408">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA408">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB408">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC408">
         <v>-1</v>
@@ -39432,7 +39432,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>4568351</v>
+        <v>4568353</v>
       </c>
       <c r="C438" t="s">
         <v>28</v>
@@ -39444,76 +39444,76 @@
         <v>44843.52083333334</v>
       </c>
       <c r="F438" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G438" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J438" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K438">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L438">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M438">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="N438">
-        <v>1.5</v>
+        <v>1.952</v>
       </c>
       <c r="O438">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P438">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q438">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R438">
+        <v>1.97</v>
+      </c>
+      <c r="S438">
+        <v>1.93</v>
+      </c>
+      <c r="T438">
+        <v>3</v>
+      </c>
+      <c r="U438">
+        <v>2.025</v>
+      </c>
+      <c r="V438">
         <v>1.825</v>
       </c>
-      <c r="S438">
-        <v>2.025</v>
-      </c>
-      <c r="T438">
-        <v>2.75</v>
-      </c>
-      <c r="U438">
-        <v>1.9</v>
-      </c>
-      <c r="V438">
-        <v>1.95</v>
-      </c>
       <c r="W438">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X438">
         <v>-1</v>
       </c>
       <c r="Y438">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z438">
+        <v>-1</v>
+      </c>
+      <c r="AA438">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="AB438">
+        <v>-1</v>
+      </c>
+      <c r="AC438">
         <v>0.825</v>
-      </c>
-      <c r="AA438">
-        <v>-1</v>
-      </c>
-      <c r="AB438">
-        <v>-1</v>
-      </c>
-      <c r="AC438">
-        <v>0.95</v>
       </c>
     </row>
     <row r="439" spans="1:29">
@@ -39521,7 +39521,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>4568353</v>
+        <v>4568351</v>
       </c>
       <c r="C439" t="s">
         <v>28</v>
@@ -39533,76 +39533,76 @@
         <v>44843.52083333334</v>
       </c>
       <c r="F439" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G439" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H439">
+        <v>2</v>
+      </c>
+      <c r="I439">
         <v>0</v>
       </c>
-      <c r="I439">
-        <v>1</v>
-      </c>
       <c r="J439" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K439">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L439">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M439">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="N439">
-        <v>1.952</v>
+        <v>1.5</v>
       </c>
       <c r="O439">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P439">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q439">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R439">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="S439">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="T439">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U439">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V439">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W439">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X439">
         <v>-1</v>
       </c>
       <c r="Y439">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z439">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA439">
-        <v>0.9299999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB439">
         <v>-1</v>
       </c>
       <c r="AC439">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="440" spans="1:29">
@@ -41568,7 +41568,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>4568374</v>
+        <v>4568375</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41580,76 +41580,76 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F462" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G462" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J462" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K462">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L462">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M462">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N462">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="O462">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P462">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q462">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R462">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S462">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T462">
         <v>2.25</v>
       </c>
       <c r="U462">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V462">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W462">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X462">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y462">
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA462">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB462">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC462">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41746,7 +41746,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>4568375</v>
+        <v>4568374</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41758,76 +41758,76 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F464" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G464" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H464">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J464" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K464">
+        <v>3.1</v>
+      </c>
+      <c r="L464">
+        <v>3.6</v>
+      </c>
+      <c r="M464">
         <v>2.1</v>
       </c>
-      <c r="L464">
+      <c r="N464">
         <v>3.5</v>
       </c>
-      <c r="M464">
-        <v>3.2</v>
-      </c>
-      <c r="N464">
-        <v>2.25</v>
-      </c>
       <c r="O464">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P464">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q464">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R464">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S464">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T464">
         <v>2.25</v>
       </c>
       <c r="U464">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V464">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W464">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X464">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
+        <v>0.5125</v>
+      </c>
+      <c r="AA464">
+        <v>-0.5</v>
+      </c>
+      <c r="AB464">
+        <v>-1</v>
+      </c>
+      <c r="AC464">
         <v>1</v>
-      </c>
-      <c r="AA464">
-        <v>-1</v>
-      </c>
-      <c r="AB464">
-        <v>0.825</v>
-      </c>
-      <c r="AC464">
-        <v>-1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -42814,7 +42814,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>4568386</v>
+        <v>4568382</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42826,55 +42826,55 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F476" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G476" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J476" t="s">
         <v>51</v>
       </c>
       <c r="K476">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L476">
+        <v>3.5</v>
+      </c>
+      <c r="M476">
+        <v>3.3</v>
+      </c>
+      <c r="N476">
+        <v>1.85</v>
+      </c>
+      <c r="O476">
         <v>3.75</v>
       </c>
-      <c r="M476">
-        <v>2.6</v>
-      </c>
-      <c r="N476">
-        <v>2.5</v>
-      </c>
-      <c r="O476">
-        <v>3.8</v>
-      </c>
       <c r="P476">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q476">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R476">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S476">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T476">
         <v>3</v>
       </c>
       <c r="U476">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V476">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W476">
         <v>-1</v>
@@ -42883,19 +42883,19 @@
         <v>-1</v>
       </c>
       <c r="Y476">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="Z476">
         <v>-1</v>
       </c>
       <c r="AA476">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB476">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC476">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42903,7 +42903,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>4568382</v>
+        <v>4567906</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42915,76 +42915,76 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F477" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G477" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477">
+        <v>2</v>
+      </c>
+      <c r="J477" t="s">
+        <v>50</v>
+      </c>
+      <c r="K477">
+        <v>1.571</v>
+      </c>
+      <c r="L477">
+        <v>4.5</v>
+      </c>
+      <c r="M477">
+        <v>4.75</v>
+      </c>
+      <c r="N477">
+        <v>1.65</v>
+      </c>
+      <c r="O477">
+        <v>4.5</v>
+      </c>
+      <c r="P477">
+        <v>4.5</v>
+      </c>
+      <c r="Q477">
+        <v>-1</v>
+      </c>
+      <c r="R477">
+        <v>2.05</v>
+      </c>
+      <c r="S477">
+        <v>1.8</v>
+      </c>
+      <c r="T477">
+        <v>3.25</v>
+      </c>
+      <c r="U477">
+        <v>2</v>
+      </c>
+      <c r="V477">
+        <v>1.85</v>
+      </c>
+      <c r="W477">
+        <v>-1</v>
+      </c>
+      <c r="X477">
+        <v>3.5</v>
+      </c>
+      <c r="Y477">
+        <v>-1</v>
+      </c>
+      <c r="Z477">
+        <v>-1</v>
+      </c>
+      <c r="AA477">
+        <v>0.8</v>
+      </c>
+      <c r="AB477">
         <v>1</v>
       </c>
-      <c r="J477" t="s">
-        <v>51</v>
-      </c>
-      <c r="K477">
-        <v>2.1</v>
-      </c>
-      <c r="L477">
-        <v>3.5</v>
-      </c>
-      <c r="M477">
-        <v>3.3</v>
-      </c>
-      <c r="N477">
-        <v>1.85</v>
-      </c>
-      <c r="O477">
-        <v>3.75</v>
-      </c>
-      <c r="P477">
-        <v>4</v>
-      </c>
-      <c r="Q477">
-        <v>-0.5</v>
-      </c>
-      <c r="R477">
-        <v>1.875</v>
-      </c>
-      <c r="S477">
-        <v>1.975</v>
-      </c>
-      <c r="T477">
-        <v>3</v>
-      </c>
-      <c r="U477">
-        <v>2.025</v>
-      </c>
-      <c r="V477">
-        <v>1.825</v>
-      </c>
-      <c r="W477">
-        <v>-1</v>
-      </c>
-      <c r="X477">
-        <v>-1</v>
-      </c>
-      <c r="Y477">
-        <v>3</v>
-      </c>
-      <c r="Z477">
-        <v>-1</v>
-      </c>
-      <c r="AA477">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB477">
-        <v>-1</v>
-      </c>
       <c r="AC477">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -42992,7 +42992,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>4567906</v>
+        <v>4568385</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43004,76 +43004,76 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F478" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G478" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478">
         <v>2</v>
       </c>
       <c r="J478" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K478">
-        <v>1.571</v>
+        <v>7</v>
       </c>
       <c r="L478">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M478">
+        <v>1.4</v>
+      </c>
+      <c r="N478">
+        <v>7</v>
+      </c>
+      <c r="O478">
         <v>4.75</v>
       </c>
-      <c r="N478">
-        <v>1.65</v>
-      </c>
-      <c r="O478">
-        <v>4.5</v>
-      </c>
       <c r="P478">
-        <v>4.5</v>
+        <v>1.444</v>
       </c>
       <c r="Q478">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R478">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S478">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T478">
         <v>3.25</v>
       </c>
       <c r="U478">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V478">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W478">
         <v>-1</v>
       </c>
       <c r="X478">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y478">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z478">
         <v>-1</v>
       </c>
       <c r="AA478">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB478">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC478">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43081,7 +43081,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>4568385</v>
+        <v>4568386</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43093,55 +43093,55 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F479" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G479" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J479" t="s">
         <v>51</v>
       </c>
       <c r="K479">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="L479">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M479">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="N479">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O479">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P479">
-        <v>1.444</v>
+        <v>2.55</v>
       </c>
       <c r="Q479">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R479">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S479">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T479">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U479">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V479">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W479">
         <v>-1</v>
@@ -43150,19 +43150,19 @@
         <v>-1</v>
       </c>
       <c r="Y479">
-        <v>0.444</v>
+        <v>1.55</v>
       </c>
       <c r="Z479">
         <v>-1</v>
       </c>
       <c r="AA479">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB479">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC479">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -45929,7 +45929,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>5982129</v>
+        <v>5982130</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45941,13 +45941,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F511" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G511" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I511">
         <v>0</v>
@@ -45956,43 +45956,43 @@
         <v>49</v>
       </c>
       <c r="K511">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L511">
         <v>3.3</v>
       </c>
       <c r="M511">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N511">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O511">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P511">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q511">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R511">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S511">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T511">
         <v>2.25</v>
       </c>
       <c r="U511">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V511">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W511">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X511">
         <v>-1</v>
@@ -46001,16 +46001,16 @@
         <v>-1</v>
       </c>
       <c r="Z511">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA511">
         <v>-1</v>
       </c>
       <c r="AB511">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC511">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -46018,7 +46018,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>5982130</v>
+        <v>5982129</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46030,13 +46030,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F512" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G512" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I512">
         <v>0</v>
@@ -46045,43 +46045,43 @@
         <v>49</v>
       </c>
       <c r="K512">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L512">
         <v>3.3</v>
       </c>
       <c r="M512">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N512">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O512">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P512">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q512">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R512">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S512">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T512">
         <v>2.25</v>
       </c>
       <c r="U512">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V512">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W512">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X512">
         <v>-1</v>
@@ -46090,16 +46090,16 @@
         <v>-1</v>
       </c>
       <c r="Z512">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA512">
         <v>-1</v>
       </c>
       <c r="AB512">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC512">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="513" spans="1:29">
@@ -46374,7 +46374,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>5982135</v>
+        <v>5982134</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46386,49 +46386,49 @@
         <v>45045.52083333334</v>
       </c>
       <c r="F516" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G516" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I516">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J516" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K516">
-        <v>1.7</v>
+        <v>1.285</v>
       </c>
       <c r="L516">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M516">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="N516">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O516">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P516">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q516">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R516">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S516">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T516">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U516">
         <v>1.95</v>
@@ -46437,25 +46437,25 @@
         <v>1.9</v>
       </c>
       <c r="W516">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X516">
         <v>-1</v>
       </c>
       <c r="Y516">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z516">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA516">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB516">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC516">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="517" spans="1:29">
@@ -46463,7 +46463,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>5982134</v>
+        <v>5982135</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46475,49 +46475,49 @@
         <v>45045.52083333334</v>
       </c>
       <c r="F517" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G517" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H517">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J517" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K517">
-        <v>1.285</v>
+        <v>1.7</v>
       </c>
       <c r="L517">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M517">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="N517">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O517">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P517">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q517">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R517">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S517">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T517">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U517">
         <v>1.95</v>
@@ -46526,25 +46526,25 @@
         <v>1.9</v>
       </c>
       <c r="W517">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X517">
         <v>-1</v>
       </c>
       <c r="Y517">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z517">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA517">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB517">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC517">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -46552,7 +46552,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>5981876</v>
+        <v>5982137</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46564,76 +46564,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F518" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G518" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H518">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I518">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J518" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K518">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L518">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M518">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N518">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O518">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P518">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q518">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R518">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S518">
         <v>1.85</v>
       </c>
       <c r="T518">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U518">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V518">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W518">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X518">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y518">
         <v>-1</v>
       </c>
       <c r="Z518">
-        <v>1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA518">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB518">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC518">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46641,7 +46641,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>5982137</v>
+        <v>5981876</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46653,76 +46653,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F519" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G519" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I519">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J519" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K519">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L519">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M519">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N519">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O519">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P519">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q519">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R519">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S519">
         <v>1.85</v>
       </c>
       <c r="T519">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U519">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V519">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W519">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X519">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>0.5249999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA519">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB519">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC519">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46997,7 +46997,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>5982141</v>
+        <v>5982142</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -47009,76 +47009,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F523" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G523" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J523" t="s">
         <v>50</v>
       </c>
       <c r="K523">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L523">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M523">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N523">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O523">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P523">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q523">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R523">
+        <v>2</v>
+      </c>
+      <c r="S523">
+        <v>1.85</v>
+      </c>
+      <c r="T523">
+        <v>2</v>
+      </c>
+      <c r="U523">
         <v>1.975</v>
       </c>
-      <c r="S523">
+      <c r="V523">
         <v>1.875</v>
       </c>
-      <c r="T523">
-        <v>2.25</v>
-      </c>
-      <c r="U523">
-        <v>1.875</v>
-      </c>
-      <c r="V523">
-        <v>1.975</v>
-      </c>
       <c r="W523">
         <v>-1</v>
       </c>
       <c r="X523">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y523">
         <v>-1</v>
       </c>
       <c r="Z523">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA523">
+        <v>-0</v>
+      </c>
+      <c r="AB523">
+        <v>-1</v>
+      </c>
+      <c r="AC523">
         <v>0.875</v>
-      </c>
-      <c r="AB523">
-        <v>0.875</v>
-      </c>
-      <c r="AC523">
-        <v>-1</v>
       </c>
     </row>
     <row r="524" spans="1:29">
@@ -47175,7 +47175,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>5982142</v>
+        <v>5982141</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47187,76 +47187,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F525" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G525" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J525" t="s">
         <v>50</v>
       </c>
       <c r="K525">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L525">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M525">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N525">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O525">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P525">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q525">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R525">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S525">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T525">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U525">
+        <v>1.875</v>
+      </c>
+      <c r="V525">
         <v>1.975</v>
       </c>
-      <c r="V525">
-        <v>1.875</v>
-      </c>
       <c r="W525">
         <v>-1</v>
       </c>
       <c r="X525">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y525">
         <v>-1</v>
       </c>
       <c r="Z525">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA525">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB525">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC525">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -52782,7 +52782,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5982185</v>
+        <v>5981895</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52794,10 +52794,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F588" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G588" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -52809,40 +52809,40 @@
         <v>51</v>
       </c>
       <c r="K588">
+        <v>3.4</v>
+      </c>
+      <c r="L588">
+        <v>3.4</v>
+      </c>
+      <c r="M588">
+        <v>2</v>
+      </c>
+      <c r="N588">
         <v>3.3</v>
       </c>
-      <c r="L588">
-        <v>3.6</v>
-      </c>
-      <c r="M588">
-        <v>2</v>
-      </c>
-      <c r="N588">
-        <v>3</v>
-      </c>
       <c r="O588">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P588">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q588">
         <v>0.25</v>
       </c>
       <c r="R588">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S588">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T588">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U588">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V588">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W588">
         <v>-1</v>
@@ -52851,19 +52851,19 @@
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z588">
         <v>-1</v>
       </c>
       <c r="AA588">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB588">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AC588">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52871,7 +52871,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5981895</v>
+        <v>5982185</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52883,10 +52883,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F589" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G589" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H589">
         <v>1</v>
@@ -52898,40 +52898,40 @@
         <v>51</v>
       </c>
       <c r="K589">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L589">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M589">
         <v>2</v>
       </c>
       <c r="N589">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O589">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P589">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q589">
         <v>0.25</v>
       </c>
       <c r="R589">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S589">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T589">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U589">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V589">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W589">
         <v>-1</v>
@@ -52940,19 +52940,19 @@
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z589">
         <v>-1</v>
       </c>
       <c r="AA589">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB589">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53583,7 +53583,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53595,76 +53595,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F597" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G597" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I597">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J597" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K597">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L597">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M597">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N597">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O597">
+        <v>5.5</v>
+      </c>
+      <c r="P597">
+        <v>7.5</v>
+      </c>
+      <c r="Q597">
+        <v>-1.5</v>
+      </c>
+      <c r="R597">
+        <v>1.9</v>
+      </c>
+      <c r="S597">
+        <v>1.95</v>
+      </c>
+      <c r="T597">
         <v>3.5</v>
       </c>
-      <c r="P597">
-        <v>2.55</v>
-      </c>
-      <c r="Q597">
-        <v>0</v>
-      </c>
-      <c r="R597">
+      <c r="U597">
         <v>1.95</v>
       </c>
-      <c r="S597">
+      <c r="V597">
         <v>1.9</v>
       </c>
-      <c r="T597">
-        <v>2.75</v>
-      </c>
-      <c r="U597">
-        <v>1.825</v>
-      </c>
-      <c r="V597">
-        <v>2.025</v>
-      </c>
       <c r="W597">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X597">
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z597">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA597">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB597">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC597">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53672,7 +53672,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53684,76 +53684,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F598" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G598" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H598">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I598">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J598" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K598">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L598">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M598">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N598">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O598">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P598">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q598">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R598">
+        <v>1.95</v>
+      </c>
+      <c r="S598">
         <v>1.9</v>
       </c>
-      <c r="S598">
-        <v>1.95</v>
-      </c>
       <c r="T598">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U598">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V598">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W598">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X598">
         <v>-1</v>
       </c>
       <c r="Y598">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z598">
+        <v>-1</v>
+      </c>
+      <c r="AA598">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA598">
-        <v>-1</v>
-      </c>
       <c r="AB598">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC598">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -54651,7 +54651,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>5982198</v>
+        <v>5982201</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54663,76 +54663,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F609" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G609" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I609">
         <v>0</v>
       </c>
       <c r="J609" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K609">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L609">
+        <v>4.333</v>
+      </c>
+      <c r="M609">
+        <v>6.5</v>
+      </c>
+      <c r="N609">
+        <v>1.85</v>
+      </c>
+      <c r="O609">
         <v>3.4</v>
       </c>
-      <c r="M609">
-        <v>2.45</v>
-      </c>
-      <c r="N609">
-        <v>2.05</v>
-      </c>
-      <c r="O609">
-        <v>3.3</v>
-      </c>
       <c r="P609">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q609">
         <v>-0.5</v>
       </c>
       <c r="R609">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S609">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T609">
         <v>2.25</v>
       </c>
       <c r="U609">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V609">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W609">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X609">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y609">
         <v>-1</v>
       </c>
       <c r="Z609">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA609">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB609">
         <v>-1</v>
       </c>
       <c r="AC609">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="610" spans="1:29">
@@ -54740,7 +54740,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>5982201</v>
+        <v>5982198</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54752,76 +54752,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F610" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G610" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I610">
         <v>0</v>
       </c>
       <c r="J610" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K610">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L610">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M610">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N610">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O610">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P610">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q610">
         <v>-0.5</v>
       </c>
       <c r="R610">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S610">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T610">
         <v>2.25</v>
       </c>
       <c r="U610">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V610">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W610">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X610">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y610">
         <v>-1</v>
       </c>
       <c r="Z610">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA610">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB610">
         <v>-1</v>
       </c>
       <c r="AC610">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="611" spans="1:29">
@@ -60614,7 +60614,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>5982255</v>
+        <v>5982256</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60626,58 +60626,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F676" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G676" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I676">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J676" t="s">
         <v>49</v>
       </c>
       <c r="K676">
+        <v>1.666</v>
+      </c>
+      <c r="L676">
+        <v>4</v>
+      </c>
+      <c r="M676">
+        <v>4.75</v>
+      </c>
+      <c r="N676">
         <v>1.571</v>
       </c>
-      <c r="L676">
+      <c r="O676">
         <v>4.2</v>
       </c>
-      <c r="M676">
-        <v>5.25</v>
-      </c>
-      <c r="N676">
-        <v>1.85</v>
-      </c>
-      <c r="O676">
-        <v>3.75</v>
-      </c>
       <c r="P676">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q676">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R676">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S676">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T676">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U676">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V676">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W676">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X676">
         <v>-1</v>
@@ -60686,16 +60686,16 @@
         <v>-1</v>
       </c>
       <c r="Z676">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA676">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB676">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC676">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60703,7 +60703,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5982256</v>
+        <v>5982255</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60715,58 +60715,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F677" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G677" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H677">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I677">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J677" t="s">
         <v>49</v>
       </c>
       <c r="K677">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L677">
+        <v>4.2</v>
+      </c>
+      <c r="M677">
+        <v>5.25</v>
+      </c>
+      <c r="N677">
+        <v>1.85</v>
+      </c>
+      <c r="O677">
+        <v>3.75</v>
+      </c>
+      <c r="P677">
         <v>4</v>
       </c>
-      <c r="M677">
-        <v>4.75</v>
-      </c>
-      <c r="N677">
-        <v>1.571</v>
-      </c>
-      <c r="O677">
-        <v>4.2</v>
-      </c>
-      <c r="P677">
-        <v>5.5</v>
-      </c>
       <c r="Q677">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R677">
+        <v>1.9</v>
+      </c>
+      <c r="S677">
+        <v>1.95</v>
+      </c>
+      <c r="T677">
+        <v>3</v>
+      </c>
+      <c r="U677">
+        <v>1.875</v>
+      </c>
+      <c r="V677">
         <v>1.975</v>
       </c>
-      <c r="S677">
-        <v>1.875</v>
-      </c>
-      <c r="T677">
-        <v>2.75</v>
-      </c>
-      <c r="U677">
-        <v>1.825</v>
-      </c>
-      <c r="V677">
-        <v>2.025</v>
-      </c>
       <c r="W677">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X677">
         <v>-1</v>
@@ -60775,16 +60775,16 @@
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA677">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB677">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC677">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -61682,7 +61682,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>5982259</v>
+        <v>5981917</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61694,49 +61694,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F688" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G688" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J688" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K688">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="L688">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M688">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N688">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="O688">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P688">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q688">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R688">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S688">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T688">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U688">
         <v>1.9</v>
@@ -61748,22 +61748,22 @@
         <v>-1</v>
       </c>
       <c r="X688">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y688">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z688">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA688">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB688">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC688">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -61771,7 +61771,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>5981917</v>
+        <v>5982259</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61783,49 +61783,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F689" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G689" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H689">
+        <v>2</v>
+      </c>
+      <c r="I689">
+        <v>2</v>
+      </c>
+      <c r="J689" t="s">
+        <v>50</v>
+      </c>
+      <c r="K689">
+        <v>2.55</v>
+      </c>
+      <c r="L689">
+        <v>3.4</v>
+      </c>
+      <c r="M689">
+        <v>2.6</v>
+      </c>
+      <c r="N689">
+        <v>2.6</v>
+      </c>
+      <c r="O689">
+        <v>3.6</v>
+      </c>
+      <c r="P689">
+        <v>2.6</v>
+      </c>
+      <c r="Q689">
         <v>0</v>
       </c>
-      <c r="I689">
-        <v>1</v>
-      </c>
-      <c r="J689" t="s">
-        <v>51</v>
-      </c>
-      <c r="K689">
-        <v>5.5</v>
-      </c>
-      <c r="L689">
-        <v>4</v>
-      </c>
-      <c r="M689">
-        <v>1.571</v>
-      </c>
-      <c r="N689">
-        <v>7</v>
-      </c>
-      <c r="O689">
-        <v>4.2</v>
-      </c>
-      <c r="P689">
-        <v>1.5</v>
-      </c>
-      <c r="Q689">
-        <v>1.25</v>
-      </c>
       <c r="R689">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S689">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T689">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U689">
         <v>1.9</v>
@@ -61837,22 +61837,22 @@
         <v>-1</v>
       </c>
       <c r="X689">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y689">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z689">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA689">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB689">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC689">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="690" spans="1:29">

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -27506,7 +27506,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>4568252</v>
+        <v>4568250</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27518,76 +27518,76 @@
         <v>44696.52083333334</v>
       </c>
       <c r="F304" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G304" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304">
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K304">
-        <v>1.727</v>
+        <v>2.45</v>
       </c>
       <c r="L304">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M304">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="N304">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O304">
         <v>3.3</v>
       </c>
       <c r="P304">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q304">
+        <v>-0.25</v>
+      </c>
+      <c r="R304">
+        <v>2.05</v>
+      </c>
+      <c r="S304">
+        <v>1.8</v>
+      </c>
+      <c r="T304">
+        <v>2.75</v>
+      </c>
+      <c r="U304">
+        <v>1.975</v>
+      </c>
+      <c r="V304">
+        <v>1.875</v>
+      </c>
+      <c r="W304">
+        <v>1.375</v>
+      </c>
+      <c r="X304">
+        <v>-1</v>
+      </c>
+      <c r="Y304">
+        <v>-1</v>
+      </c>
+      <c r="Z304">
+        <v>1.05</v>
+      </c>
+      <c r="AA304">
+        <v>-1</v>
+      </c>
+      <c r="AB304">
+        <v>0.4875</v>
+      </c>
+      <c r="AC304">
         <v>-0.5</v>
-      </c>
-      <c r="R304">
-        <v>1.975</v>
-      </c>
-      <c r="S304">
-        <v>1.875</v>
-      </c>
-      <c r="T304">
-        <v>2.25</v>
-      </c>
-      <c r="U304">
-        <v>2</v>
-      </c>
-      <c r="V304">
-        <v>1.85</v>
-      </c>
-      <c r="W304">
-        <v>-1</v>
-      </c>
-      <c r="X304">
-        <v>2.3</v>
-      </c>
-      <c r="Y304">
-        <v>-1</v>
-      </c>
-      <c r="Z304">
-        <v>-1</v>
-      </c>
-      <c r="AA304">
-        <v>0.875</v>
-      </c>
-      <c r="AB304">
-        <v>-0.5</v>
-      </c>
-      <c r="AC304">
-        <v>0.425</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27595,7 +27595,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>4568250</v>
+        <v>4568252</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27607,76 +27607,76 @@
         <v>44696.52083333334</v>
       </c>
       <c r="F305" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G305" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305">
         <v>1</v>
       </c>
       <c r="J305" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K305">
-        <v>2.45</v>
+        <v>1.727</v>
       </c>
       <c r="L305">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M305">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N305">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O305">
         <v>3.3</v>
       </c>
       <c r="P305">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q305">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R305">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S305">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T305">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U305">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V305">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W305">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X305">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y305">
         <v>-1</v>
       </c>
       <c r="Z305">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA305">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB305">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC305">
-        <v>-0.5</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="306" spans="1:29">
@@ -31600,7 +31600,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>4568285</v>
+        <v>4568286</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31612,13 +31612,13 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F350" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G350" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I350">
         <v>0</v>
@@ -31627,43 +31627,43 @@
         <v>49</v>
       </c>
       <c r="K350">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L350">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M350">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="N350">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O350">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P350">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q350">
         <v>-0.5</v>
       </c>
       <c r="R350">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S350">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T350">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U350">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V350">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W350">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="X350">
         <v>-1</v>
@@ -31672,16 +31672,16 @@
         <v>-1</v>
       </c>
       <c r="Z350">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA350">
         <v>-1</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC350">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31778,7 +31778,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>4568286</v>
+        <v>4568285</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31790,13 +31790,13 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F352" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G352" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H352">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -31805,43 +31805,43 @@
         <v>49</v>
       </c>
       <c r="K352">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L352">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M352">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="N352">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O352">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P352">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q352">
         <v>-0.5</v>
       </c>
       <c r="R352">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S352">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T352">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U352">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V352">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W352">
-        <v>0.909</v>
+        <v>0.8</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31850,16 +31850,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA352">
         <v>-1</v>
       </c>
       <c r="AB352">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC352">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -40500,7 +40500,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>4568367</v>
+        <v>4568369</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -40512,76 +40512,76 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F450" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G450" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J450" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K450">
-        <v>1.533</v>
+        <v>3.9</v>
       </c>
       <c r="L450">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M450">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N450">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O450">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P450">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q450">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R450">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S450">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T450">
         <v>2.75</v>
       </c>
       <c r="U450">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V450">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W450">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X450">
         <v>-1</v>
       </c>
       <c r="Y450">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z450">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA450">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB450">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC450">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="451" spans="1:29">
@@ -40678,7 +40678,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>4568369</v>
+        <v>4568367</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40690,76 +40690,76 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F452" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G452" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H452">
+        <v>2</v>
+      </c>
+      <c r="I452">
         <v>0</v>
       </c>
-      <c r="I452">
-        <v>3</v>
-      </c>
       <c r="J452" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K452">
-        <v>3.9</v>
+        <v>1.533</v>
       </c>
       <c r="L452">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M452">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N452">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="O452">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P452">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q452">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R452">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S452">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T452">
         <v>2.75</v>
       </c>
       <c r="U452">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V452">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W452">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z452">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA452">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB452">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC452">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -41479,7 +41479,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>4568370</v>
+        <v>4568374</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41491,76 +41491,76 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F461" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G461" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H461">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I461">
         <v>0</v>
       </c>
       <c r="J461" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K461">
-        <v>1.111</v>
+        <v>3.1</v>
       </c>
       <c r="L461">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M461">
-        <v>17</v>
+        <v>2.1</v>
       </c>
       <c r="N461">
-        <v>1.125</v>
+        <v>3.5</v>
       </c>
       <c r="O461">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="P461">
-        <v>17</v>
+        <v>2.1</v>
       </c>
       <c r="Q461">
-        <v>-2.5</v>
+        <v>0.25</v>
       </c>
       <c r="R461">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S461">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T461">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U461">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V461">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W461">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X461">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y461">
         <v>-1</v>
       </c>
       <c r="Z461">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AA461">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB461">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC461">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41568,7 +41568,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>4568375</v>
+        <v>4568370</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41580,58 +41580,58 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F462" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G462" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H462">
         <v>4</v>
       </c>
       <c r="I462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J462" t="s">
         <v>49</v>
       </c>
       <c r="K462">
-        <v>2.1</v>
+        <v>1.111</v>
       </c>
       <c r="L462">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="M462">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="N462">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="O462">
-        <v>3.4</v>
+        <v>10</v>
       </c>
       <c r="P462">
-        <v>3.2</v>
+        <v>17</v>
       </c>
       <c r="Q462">
-        <v>-0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R462">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S462">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T462">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U462">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V462">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W462">
-        <v>1.25</v>
+        <v>0.125</v>
       </c>
       <c r="X462">
         <v>-1</v>
@@ -41640,16 +41640,16 @@
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA462">
         <v>-1</v>
       </c>
       <c r="AB462">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC462">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41657,7 +41657,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>4574080</v>
+        <v>4568375</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41669,76 +41669,76 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F463" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G463" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I463">
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K463">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L463">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M463">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="N463">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="O463">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P463">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q463">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R463">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S463">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T463">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U463">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V463">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W463">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X463">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AA463">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB463">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC463">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41746,7 +41746,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>4568374</v>
+        <v>4574080</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41758,67 +41758,67 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F464" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G464" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I464">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J464" t="s">
         <v>50</v>
       </c>
       <c r="K464">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L464">
         <v>3.6</v>
       </c>
       <c r="M464">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N464">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O464">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P464">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q464">
         <v>0.25</v>
       </c>
       <c r="R464">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S464">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T464">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U464">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V464">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W464">
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0.5125</v>
+        <v>0.4875</v>
       </c>
       <c r="AA464">
         <v>-0.5</v>
@@ -41827,7 +41827,7 @@
         <v>-1</v>
       </c>
       <c r="AC464">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -46552,7 +46552,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>5982137</v>
+        <v>5981876</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46564,76 +46564,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F518" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G518" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I518">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J518" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K518">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L518">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M518">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N518">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O518">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P518">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q518">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R518">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S518">
         <v>1.85</v>
       </c>
       <c r="T518">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U518">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V518">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W518">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X518">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y518">
         <v>-1</v>
       </c>
       <c r="Z518">
-        <v>0.5249999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA518">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB518">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC518">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46641,7 +46641,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>5981876</v>
+        <v>5982137</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46653,76 +46653,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F519" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G519" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H519">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I519">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J519" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K519">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L519">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M519">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N519">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O519">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P519">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q519">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R519">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S519">
         <v>1.85</v>
       </c>
       <c r="T519">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U519">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V519">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W519">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X519">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y519">
         <v>-1</v>
       </c>
       <c r="Z519">
-        <v>1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA519">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB519">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC519">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -46997,7 +46997,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>5982142</v>
+        <v>5982141</v>
       </c>
       <c r="C523" t="s">
         <v>28</v>
@@ -47009,76 +47009,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F523" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G523" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J523" t="s">
         <v>50</v>
       </c>
       <c r="K523">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L523">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M523">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N523">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O523">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P523">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q523">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R523">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S523">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T523">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U523">
+        <v>1.875</v>
+      </c>
+      <c r="V523">
         <v>1.975</v>
       </c>
-      <c r="V523">
-        <v>1.875</v>
-      </c>
       <c r="W523">
         <v>-1</v>
       </c>
       <c r="X523">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y523">
         <v>-1</v>
       </c>
       <c r="Z523">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA523">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB523">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC523">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524" spans="1:29">
@@ -47175,7 +47175,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>5982141</v>
+        <v>5982142</v>
       </c>
       <c r="C525" t="s">
         <v>28</v>
@@ -47187,76 +47187,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F525" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G525" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J525" t="s">
         <v>50</v>
       </c>
       <c r="K525">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L525">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M525">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N525">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O525">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P525">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q525">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R525">
+        <v>2</v>
+      </c>
+      <c r="S525">
+        <v>1.85</v>
+      </c>
+      <c r="T525">
+        <v>2</v>
+      </c>
+      <c r="U525">
         <v>1.975</v>
       </c>
-      <c r="S525">
+      <c r="V525">
         <v>1.875</v>
       </c>
-      <c r="T525">
-        <v>2.25</v>
-      </c>
-      <c r="U525">
-        <v>1.875</v>
-      </c>
-      <c r="V525">
-        <v>1.975</v>
-      </c>
       <c r="W525">
         <v>-1</v>
       </c>
       <c r="X525">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y525">
         <v>-1</v>
       </c>
       <c r="Z525">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA525">
+        <v>-0</v>
+      </c>
+      <c r="AB525">
+        <v>-1</v>
+      </c>
+      <c r="AC525">
         <v>0.875</v>
-      </c>
-      <c r="AB525">
-        <v>0.875</v>
-      </c>
-      <c r="AC525">
-        <v>-1</v>
       </c>
     </row>
     <row r="526" spans="1:29">
@@ -53583,7 +53583,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53595,76 +53595,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F597" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G597" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H597">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I597">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J597" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K597">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L597">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M597">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N597">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O597">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P597">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q597">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R597">
+        <v>1.95</v>
+      </c>
+      <c r="S597">
         <v>1.9</v>
       </c>
-      <c r="S597">
-        <v>1.95</v>
-      </c>
       <c r="T597">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U597">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V597">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W597">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X597">
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z597">
+        <v>-1</v>
+      </c>
+      <c r="AA597">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA597">
-        <v>-1</v>
-      </c>
       <c r="AB597">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC597">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53672,7 +53672,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53684,76 +53684,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F598" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G598" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I598">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J598" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K598">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L598">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M598">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N598">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O598">
+        <v>5.5</v>
+      </c>
+      <c r="P598">
+        <v>7.5</v>
+      </c>
+      <c r="Q598">
+        <v>-1.5</v>
+      </c>
+      <c r="R598">
+        <v>1.9</v>
+      </c>
+      <c r="S598">
+        <v>1.95</v>
+      </c>
+      <c r="T598">
         <v>3.5</v>
       </c>
-      <c r="P598">
-        <v>2.55</v>
-      </c>
-      <c r="Q598">
-        <v>0</v>
-      </c>
-      <c r="R598">
+      <c r="U598">
         <v>1.95</v>
       </c>
-      <c r="S598">
+      <c r="V598">
         <v>1.9</v>
       </c>
-      <c r="T598">
-        <v>2.75</v>
-      </c>
-      <c r="U598">
-        <v>1.825</v>
-      </c>
-      <c r="V598">
-        <v>2.025</v>
-      </c>
       <c r="W598">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X598">
         <v>-1</v>
       </c>
       <c r="Y598">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z598">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA598">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB598">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC598">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -54651,7 +54651,7 @@
         <v>607</v>
       </c>
       <c r="B609">
-        <v>5982201</v>
+        <v>5982198</v>
       </c>
       <c r="C609" t="s">
         <v>28</v>
@@ -54663,76 +54663,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F609" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G609" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I609">
         <v>0</v>
       </c>
       <c r="J609" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K609">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L609">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M609">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N609">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O609">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P609">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q609">
         <v>-0.5</v>
       </c>
       <c r="R609">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S609">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T609">
         <v>2.25</v>
       </c>
       <c r="U609">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V609">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W609">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X609">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y609">
         <v>-1</v>
       </c>
       <c r="Z609">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA609">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB609">
         <v>-1</v>
       </c>
       <c r="AC609">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="610" spans="1:29">
@@ -54740,7 +54740,7 @@
         <v>608</v>
       </c>
       <c r="B610">
-        <v>5982198</v>
+        <v>5982201</v>
       </c>
       <c r="C610" t="s">
         <v>28</v>
@@ -54752,76 +54752,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F610" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G610" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I610">
         <v>0</v>
       </c>
       <c r="J610" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K610">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L610">
+        <v>4.333</v>
+      </c>
+      <c r="M610">
+        <v>6.5</v>
+      </c>
+      <c r="N610">
+        <v>1.85</v>
+      </c>
+      <c r="O610">
         <v>3.4</v>
       </c>
-      <c r="M610">
-        <v>2.45</v>
-      </c>
-      <c r="N610">
-        <v>2.05</v>
-      </c>
-      <c r="O610">
-        <v>3.3</v>
-      </c>
       <c r="P610">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q610">
         <v>-0.5</v>
       </c>
       <c r="R610">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S610">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T610">
         <v>2.25</v>
       </c>
       <c r="U610">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V610">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W610">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X610">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y610">
         <v>-1</v>
       </c>
       <c r="Z610">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA610">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB610">
         <v>-1</v>
       </c>
       <c r="AC610">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="611" spans="1:29">

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -45128,7 +45128,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>5982124</v>
+        <v>5981873</v>
       </c>
       <c r="C502" t="s">
         <v>28</v>
@@ -45140,10 +45140,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F502" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G502" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H502">
         <v>2</v>
@@ -45155,61 +45155,61 @@
         <v>49</v>
       </c>
       <c r="K502">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="L502">
+        <v>3.3</v>
+      </c>
+      <c r="M502">
+        <v>1.909</v>
+      </c>
+      <c r="N502">
         <v>3.4</v>
       </c>
-      <c r="M502">
-        <v>3.8</v>
-      </c>
-      <c r="N502">
+      <c r="O502">
+        <v>3.5</v>
+      </c>
+      <c r="P502">
+        <v>2.1</v>
+      </c>
+      <c r="Q502">
+        <v>0.25</v>
+      </c>
+      <c r="R502">
+        <v>2.05</v>
+      </c>
+      <c r="S502">
         <v>1.8</v>
-      </c>
-      <c r="O502">
-        <v>3.6</v>
-      </c>
-      <c r="P502">
-        <v>4.5</v>
-      </c>
-      <c r="Q502">
-        <v>-0.75</v>
-      </c>
-      <c r="R502">
-        <v>2.07</v>
-      </c>
-      <c r="S502">
-        <v>1.83</v>
       </c>
       <c r="T502">
         <v>2.5</v>
       </c>
       <c r="U502">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V502">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W502">
+        <v>2.4</v>
+      </c>
+      <c r="X502">
+        <v>-1</v>
+      </c>
+      <c r="Y502">
+        <v>-1</v>
+      </c>
+      <c r="Z502">
+        <v>1.05</v>
+      </c>
+      <c r="AA502">
+        <v>-1</v>
+      </c>
+      <c r="AB502">
+        <v>-1</v>
+      </c>
+      <c r="AC502">
         <v>0.8</v>
-      </c>
-      <c r="X502">
-        <v>-1</v>
-      </c>
-      <c r="Y502">
-        <v>-1</v>
-      </c>
-      <c r="Z502">
-        <v>1.07</v>
-      </c>
-      <c r="AA502">
-        <v>-1</v>
-      </c>
-      <c r="AB502">
-        <v>-1</v>
-      </c>
-      <c r="AC502">
-        <v>0.875</v>
       </c>
     </row>
     <row r="503" spans="1:29">
@@ -45217,7 +45217,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>5981873</v>
+        <v>5982124</v>
       </c>
       <c r="C503" t="s">
         <v>28</v>
@@ -45229,10 +45229,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F503" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G503" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H503">
         <v>2</v>
@@ -45244,43 +45244,43 @@
         <v>49</v>
       </c>
       <c r="K503">
+        <v>1.85</v>
+      </c>
+      <c r="L503">
+        <v>3.4</v>
+      </c>
+      <c r="M503">
+        <v>3.8</v>
+      </c>
+      <c r="N503">
+        <v>1.8</v>
+      </c>
+      <c r="O503">
         <v>3.6</v>
       </c>
-      <c r="L503">
-        <v>3.3</v>
-      </c>
-      <c r="M503">
-        <v>1.909</v>
-      </c>
-      <c r="N503">
-        <v>3.4</v>
-      </c>
-      <c r="O503">
-        <v>3.5</v>
-      </c>
       <c r="P503">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q503">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R503">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S503">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T503">
         <v>2.5</v>
       </c>
       <c r="U503">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V503">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W503">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X503">
         <v>-1</v>
@@ -45289,7 +45289,7 @@
         <v>-1</v>
       </c>
       <c r="Z503">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AA503">
         <v>-1</v>
@@ -45298,7 +45298,7 @@
         <v>-1</v>
       </c>
       <c r="AC503">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="504" spans="1:29">
@@ -47264,7 +47264,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>5982143</v>
+        <v>5982138</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47276,76 +47276,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F526" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G526" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H526">
+        <v>6</v>
+      </c>
+      <c r="I526">
         <v>0</v>
       </c>
-      <c r="I526">
-        <v>1</v>
-      </c>
       <c r="J526" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K526">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L526">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M526">
         <v>3.6</v>
       </c>
       <c r="N526">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O526">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P526">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q526">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R526">
+        <v>2</v>
+      </c>
+      <c r="S526">
+        <v>1.85</v>
+      </c>
+      <c r="T526">
+        <v>2.75</v>
+      </c>
+      <c r="U526">
         <v>1.975</v>
       </c>
-      <c r="S526">
+      <c r="V526">
         <v>1.875</v>
       </c>
-      <c r="T526">
-        <v>2.5</v>
-      </c>
-      <c r="U526">
-        <v>1.925</v>
-      </c>
-      <c r="V526">
-        <v>1.925</v>
-      </c>
       <c r="W526">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X526">
         <v>-1</v>
       </c>
       <c r="Y526">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z526">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA526">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB526">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC526">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47353,7 +47353,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>5982139</v>
+        <v>5982143</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47365,76 +47365,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F527" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G527" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J527" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K527">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L527">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M527">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N527">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O527">
         <v>3.25</v>
       </c>
       <c r="P527">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q527">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R527">
+        <v>1.975</v>
+      </c>
+      <c r="S527">
         <v>1.875</v>
-      </c>
-      <c r="S527">
-        <v>1.975</v>
       </c>
       <c r="T527">
         <v>2.5</v>
       </c>
       <c r="U527">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V527">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W527">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X527">
         <v>-1</v>
       </c>
       <c r="Y527">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z527">
+        <v>-1</v>
+      </c>
+      <c r="AA527">
         <v>0.875</v>
       </c>
-      <c r="AA527">
-        <v>-1</v>
-      </c>
       <c r="AB527">
         <v>-1</v>
       </c>
       <c r="AC527">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="528" spans="1:29">
@@ -47442,7 +47442,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>5982138</v>
+        <v>5982139</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47454,13 +47454,13 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F528" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G528" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H528">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I528">
         <v>0</v>
@@ -47469,43 +47469,43 @@
         <v>49</v>
       </c>
       <c r="K528">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L528">
         <v>3.4</v>
       </c>
       <c r="M528">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N528">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O528">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P528">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q528">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R528">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S528">
+        <v>1.975</v>
+      </c>
+      <c r="T528">
+        <v>2.5</v>
+      </c>
+      <c r="U528">
+        <v>2</v>
+      </c>
+      <c r="V528">
         <v>1.85</v>
       </c>
-      <c r="T528">
-        <v>2.75</v>
-      </c>
-      <c r="U528">
-        <v>1.975</v>
-      </c>
-      <c r="V528">
-        <v>1.875</v>
-      </c>
       <c r="W528">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="X528">
         <v>-1</v>
@@ -47514,16 +47514,16 @@
         <v>-1</v>
       </c>
       <c r="Z528">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA528">
         <v>-1</v>
       </c>
       <c r="AB528">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC528">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="529" spans="1:29">
@@ -47798,7 +47798,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>5982146</v>
+        <v>5982149</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -47810,55 +47810,55 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F532" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G532" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H532">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J532" t="s">
         <v>51</v>
       </c>
       <c r="K532">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L532">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M532">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N532">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O532">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P532">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q532">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R532">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="S532">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="T532">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U532">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V532">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W532">
         <v>-1</v>
@@ -47867,19 +47867,19 @@
         <v>-1</v>
       </c>
       <c r="Y532">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Z532">
         <v>-1</v>
       </c>
       <c r="AA532">
-        <v>0.925</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB532">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC532">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="533" spans="1:29">
@@ -47887,7 +47887,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>5982149</v>
+        <v>5982148</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47899,19 +47899,19 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F533" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G533" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H533">
         <v>0</v>
       </c>
       <c r="I533">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J533" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K533">
         <v>2.625</v>
@@ -47923,52 +47923,52 @@
         <v>2.5</v>
       </c>
       <c r="N533">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O533">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P533">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q533">
         <v>0</v>
       </c>
       <c r="R533">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S533">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T533">
+        <v>2.75</v>
+      </c>
+      <c r="U533">
+        <v>1.925</v>
+      </c>
+      <c r="V533">
+        <v>1.925</v>
+      </c>
+      <c r="W533">
+        <v>-1</v>
+      </c>
+      <c r="X533">
         <v>2.5</v>
       </c>
-      <c r="U533">
-        <v>1.9</v>
-      </c>
-      <c r="V533">
-        <v>1.95</v>
-      </c>
-      <c r="W533">
-        <v>-1</v>
-      </c>
-      <c r="X533">
-        <v>-1</v>
-      </c>
       <c r="Y533">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z533">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA533">
-        <v>0.8300000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB533">
         <v>-1</v>
       </c>
       <c r="AC533">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="534" spans="1:29">
@@ -47976,7 +47976,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>5982148</v>
+        <v>5982146</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47988,46 +47988,46 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F534" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G534" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I534">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J534" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K534">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L534">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M534">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N534">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O534">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P534">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q534">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R534">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S534">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T534">
         <v>2.75</v>
@@ -48042,22 +48042,22 @@
         <v>-1</v>
       </c>
       <c r="X534">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y534">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z534">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA534">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB534">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC534">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -53316,7 +53316,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>5982186</v>
+        <v>5982187</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53328,10 +53328,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F594" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G594" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H594">
         <v>1</v>
@@ -53343,31 +53343,31 @@
         <v>51</v>
       </c>
       <c r="K594">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L594">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M594">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N594">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O594">
         <v>3.6</v>
       </c>
       <c r="P594">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q594">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R594">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S594">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T594">
         <v>2.5</v>
@@ -53385,13 +53385,13 @@
         <v>-1</v>
       </c>
       <c r="Y594">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z594">
         <v>-1</v>
       </c>
       <c r="AA594">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB594">
         <v>0.95</v>
@@ -53405,7 +53405,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>5982187</v>
+        <v>5982186</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53417,10 +53417,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F595" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G595" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H595">
         <v>1</v>
@@ -53432,31 +53432,31 @@
         <v>51</v>
       </c>
       <c r="K595">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L595">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M595">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N595">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O595">
         <v>3.6</v>
       </c>
       <c r="P595">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q595">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R595">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S595">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T595">
         <v>2.5</v>
@@ -53474,13 +53474,13 @@
         <v>-1</v>
       </c>
       <c r="Y595">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z595">
         <v>-1</v>
       </c>
       <c r="AA595">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB595">
         <v>0.95</v>
@@ -53583,7 +53583,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53595,76 +53595,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F597" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G597" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I597">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J597" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K597">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L597">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M597">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N597">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O597">
+        <v>5.5</v>
+      </c>
+      <c r="P597">
+        <v>7.5</v>
+      </c>
+      <c r="Q597">
+        <v>-1.5</v>
+      </c>
+      <c r="R597">
+        <v>1.9</v>
+      </c>
+      <c r="S597">
+        <v>1.95</v>
+      </c>
+      <c r="T597">
         <v>3.5</v>
       </c>
-      <c r="P597">
-        <v>2.55</v>
-      </c>
-      <c r="Q597">
-        <v>0</v>
-      </c>
-      <c r="R597">
+      <c r="U597">
         <v>1.95</v>
       </c>
-      <c r="S597">
+      <c r="V597">
         <v>1.9</v>
       </c>
-      <c r="T597">
-        <v>2.75</v>
-      </c>
-      <c r="U597">
-        <v>1.825</v>
-      </c>
-      <c r="V597">
-        <v>2.025</v>
-      </c>
       <c r="W597">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X597">
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z597">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA597">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB597">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC597">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53672,7 +53672,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53684,76 +53684,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F598" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G598" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H598">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I598">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J598" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K598">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L598">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M598">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N598">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O598">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P598">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q598">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R598">
+        <v>1.95</v>
+      </c>
+      <c r="S598">
         <v>1.9</v>
       </c>
-      <c r="S598">
-        <v>1.95</v>
-      </c>
       <c r="T598">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U598">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V598">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W598">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X598">
         <v>-1</v>
       </c>
       <c r="Y598">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z598">
+        <v>-1</v>
+      </c>
+      <c r="AA598">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA598">
-        <v>-1</v>
-      </c>
       <c r="AB598">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC598">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -53761,7 +53761,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>5982192</v>
+        <v>5982191</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53773,76 +53773,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F599" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G599" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I599">
         <v>1</v>
       </c>
       <c r="J599" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K599">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L599">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M599">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N599">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O599">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P599">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q599">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R599">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S599">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="T599">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U599">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V599">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W599">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X599">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y599">
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA599">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB599">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC599">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -53850,7 +53850,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>5982191</v>
+        <v>5982192</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53862,76 +53862,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F600" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G600" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H600">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I600">
         <v>1</v>
       </c>
       <c r="J600" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K600">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L600">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M600">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N600">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O600">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P600">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q600">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R600">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S600">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T600">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U600">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V600">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W600">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X600">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y600">
         <v>-1</v>
       </c>
       <c r="Z600">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA600">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB600">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC600">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -55185,7 +55185,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>5982204</v>
+        <v>5981900</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55197,76 +55197,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F615" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G615" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615">
         <v>1</v>
       </c>
       <c r="J615" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K615">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L615">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M615">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N615">
+        <v>3.25</v>
+      </c>
+      <c r="O615">
+        <v>3.3</v>
+      </c>
+      <c r="P615">
+        <v>2.25</v>
+      </c>
+      <c r="Q615">
+        <v>0.25</v>
+      </c>
+      <c r="R615">
+        <v>1.9</v>
+      </c>
+      <c r="S615">
         <v>1.95</v>
       </c>
-      <c r="O615">
-        <v>3.6</v>
-      </c>
-      <c r="P615">
-        <v>3.75</v>
-      </c>
-      <c r="Q615">
-        <v>-0.5</v>
-      </c>
-      <c r="R615">
+      <c r="T615">
+        <v>2.25</v>
+      </c>
+      <c r="U615">
         <v>1.975</v>
       </c>
-      <c r="S615">
+      <c r="V615">
         <v>1.875</v>
       </c>
-      <c r="T615">
-        <v>2.5</v>
-      </c>
-      <c r="U615">
-        <v>1.85</v>
-      </c>
-      <c r="V615">
-        <v>2</v>
-      </c>
       <c r="W615">
+        <v>-1</v>
+      </c>
+      <c r="X615">
+        <v>-1</v>
+      </c>
+      <c r="Y615">
+        <v>1.25</v>
+      </c>
+      <c r="Z615">
+        <v>-1</v>
+      </c>
+      <c r="AA615">
         <v>0.95</v>
       </c>
-      <c r="X615">
-        <v>-1</v>
-      </c>
-      <c r="Y615">
-        <v>-1</v>
-      </c>
-      <c r="Z615">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA615">
-        <v>-1</v>
-      </c>
       <c r="AB615">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC615">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55274,7 +55274,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>5981900</v>
+        <v>5982204</v>
       </c>
       <c r="C616" t="s">
         <v>28</v>
@@ -55286,76 +55286,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F616" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G616" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616">
         <v>1</v>
       </c>
       <c r="J616" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K616">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L616">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M616">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N616">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O616">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P616">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q616">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R616">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S616">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T616">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U616">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V616">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W616">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X616">
         <v>-1</v>
       </c>
       <c r="Y616">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z616">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA616">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB616">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC616">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="617" spans="1:29">
@@ -55452,7 +55452,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>5982208</v>
+        <v>5981899</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55464,76 +55464,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F618" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G618" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I618">
         <v>1</v>
       </c>
       <c r="J618" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K618">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L618">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M618">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N618">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O618">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P618">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="Q618">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R618">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S618">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T618">
         <v>2.75</v>
       </c>
       <c r="U618">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V618">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W618">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X618">
         <v>-1</v>
       </c>
       <c r="Y618">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z618">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA618">
+        <v>-1</v>
+      </c>
+      <c r="AB618">
         <v>0.825</v>
       </c>
-      <c r="AB618">
-        <v>-1</v>
-      </c>
       <c r="AC618">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -55541,7 +55541,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5981899</v>
+        <v>5982208</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55553,76 +55553,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F619" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G619" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H619">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I619">
         <v>1</v>
       </c>
       <c r="J619" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K619">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L619">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M619">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N619">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O619">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P619">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q619">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R619">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S619">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T619">
         <v>2.75</v>
       </c>
       <c r="U619">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V619">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W619">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z619">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA619">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB619">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC619">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -55719,7 +55719,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>5982212</v>
+        <v>5982211</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55731,49 +55731,49 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F621" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G621" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H621">
         <v>1</v>
       </c>
       <c r="I621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J621" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K621">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="L621">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M621">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N621">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="O621">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P621">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="Q621">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R621">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S621">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T621">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U621">
         <v>2</v>
@@ -55782,25 +55782,25 @@
         <v>1.85</v>
       </c>
       <c r="W621">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X621">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y621">
         <v>-1</v>
       </c>
       <c r="Z621">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA621">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB621">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC621">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="622" spans="1:29">
@@ -55808,7 +55808,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>5982211</v>
+        <v>5982212</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55820,49 +55820,49 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F622" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G622" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H622">
         <v>1</v>
       </c>
       <c r="I622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J622" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K622">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="L622">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M622">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N622">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="O622">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P622">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="Q622">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R622">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S622">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T622">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U622">
         <v>2</v>
@@ -55871,25 +55871,25 @@
         <v>1.85</v>
       </c>
       <c r="W622">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X622">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y622">
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA622">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB622">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC622">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55897,7 +55897,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5982210</v>
+        <v>5982215</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55909,73 +55909,73 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F623" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G623" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H623">
+        <v>0</v>
+      </c>
+      <c r="I623">
         <v>3</v>
       </c>
-      <c r="I623">
+      <c r="J623" t="s">
+        <v>51</v>
+      </c>
+      <c r="K623">
+        <v>2.75</v>
+      </c>
+      <c r="L623">
+        <v>3.1</v>
+      </c>
+      <c r="M623">
+        <v>2.5</v>
+      </c>
+      <c r="N623">
+        <v>2.8</v>
+      </c>
+      <c r="O623">
+        <v>3.4</v>
+      </c>
+      <c r="P623">
+        <v>2.5</v>
+      </c>
+      <c r="Q623">
         <v>0</v>
       </c>
-      <c r="J623" t="s">
-        <v>49</v>
-      </c>
-      <c r="K623">
-        <v>2.05</v>
-      </c>
-      <c r="L623">
-        <v>3.2</v>
-      </c>
-      <c r="M623">
-        <v>3.6</v>
-      </c>
-      <c r="N623">
-        <v>2.25</v>
-      </c>
-      <c r="O623">
-        <v>3.25</v>
-      </c>
-      <c r="P623">
-        <v>3.3</v>
-      </c>
-      <c r="Q623">
-        <v>-0.25</v>
-      </c>
       <c r="R623">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="S623">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T623">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U623">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V623">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W623">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X623">
         <v>-1</v>
       </c>
       <c r="Y623">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z623">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA623">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB623">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC623">
         <v>-1</v>
@@ -55986,7 +55986,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>5982215</v>
+        <v>5982210</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -55998,73 +55998,73 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F624" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G624" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H624">
+        <v>3</v>
+      </c>
+      <c r="I624">
         <v>0</v>
       </c>
-      <c r="I624">
-        <v>3</v>
-      </c>
       <c r="J624" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K624">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L624">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M624">
+        <v>3.6</v>
+      </c>
+      <c r="N624">
+        <v>2.25</v>
+      </c>
+      <c r="O624">
+        <v>3.25</v>
+      </c>
+      <c r="P624">
+        <v>3.3</v>
+      </c>
+      <c r="Q624">
+        <v>-0.25</v>
+      </c>
+      <c r="R624">
+        <v>1.99</v>
+      </c>
+      <c r="S624">
+        <v>1.91</v>
+      </c>
+      <c r="T624">
         <v>2.5</v>
       </c>
-      <c r="N624">
-        <v>2.8</v>
-      </c>
-      <c r="O624">
-        <v>3.4</v>
-      </c>
-      <c r="P624">
-        <v>2.5</v>
-      </c>
-      <c r="Q624">
-        <v>0</v>
-      </c>
-      <c r="R624">
-        <v>2.06</v>
-      </c>
-      <c r="S624">
-        <v>1.84</v>
-      </c>
-      <c r="T624">
-        <v>2</v>
-      </c>
       <c r="U624">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V624">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W624">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X624">
         <v>-1</v>
       </c>
       <c r="Y624">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z624">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA624">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB624">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC624">
         <v>-1</v>
@@ -60258,7 +60258,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5982246</v>
+        <v>5982249</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60270,10 +60270,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F672" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G672" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H672">
         <v>0</v>
@@ -60285,41 +60285,41 @@
         <v>51</v>
       </c>
       <c r="K672">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L672">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M672">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N672">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O672">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P672">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q672">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R672">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S672">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T672">
         <v>2.75</v>
       </c>
       <c r="U672">
+        <v>1.875</v>
+      </c>
+      <c r="V672">
         <v>1.975</v>
       </c>
-      <c r="V672">
-        <v>1.875</v>
-      </c>
       <c r="W672">
         <v>-1</v>
       </c>
@@ -60327,19 +60327,19 @@
         <v>-1</v>
       </c>
       <c r="Y672">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z672">
         <v>-1</v>
       </c>
       <c r="AA672">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB672">
         <v>-1</v>
       </c>
       <c r="AC672">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="673" spans="1:29">
@@ -60347,7 +60347,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>5982249</v>
+        <v>5982246</v>
       </c>
       <c r="C673" t="s">
         <v>28</v>
@@ -60359,10 +60359,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F673" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G673" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H673">
         <v>0</v>
@@ -60374,41 +60374,41 @@
         <v>51</v>
       </c>
       <c r="K673">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L673">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M673">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N673">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O673">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P673">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q673">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R673">
+        <v>2.05</v>
+      </c>
+      <c r="S673">
         <v>1.85</v>
-      </c>
-      <c r="S673">
-        <v>2</v>
       </c>
       <c r="T673">
         <v>2.75</v>
       </c>
       <c r="U673">
+        <v>1.975</v>
+      </c>
+      <c r="V673">
         <v>1.875</v>
       </c>
-      <c r="V673">
-        <v>1.975</v>
-      </c>
       <c r="W673">
         <v>-1</v>
       </c>
@@ -60416,19 +60416,19 @@
         <v>-1</v>
       </c>
       <c r="Y673">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z673">
         <v>-1</v>
       </c>
       <c r="AA673">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB673">
         <v>-1</v>
       </c>
       <c r="AC673">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="674" spans="1:29">
@@ -60614,7 +60614,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>5982256</v>
+        <v>5982255</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60626,58 +60626,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F676" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G676" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H676">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I676">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J676" t="s">
         <v>49</v>
       </c>
       <c r="K676">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L676">
+        <v>4.2</v>
+      </c>
+      <c r="M676">
+        <v>5.25</v>
+      </c>
+      <c r="N676">
+        <v>1.85</v>
+      </c>
+      <c r="O676">
+        <v>3.75</v>
+      </c>
+      <c r="P676">
         <v>4</v>
       </c>
-      <c r="M676">
-        <v>4.75</v>
-      </c>
-      <c r="N676">
-        <v>1.571</v>
-      </c>
-      <c r="O676">
-        <v>4.2</v>
-      </c>
-      <c r="P676">
-        <v>5.5</v>
-      </c>
       <c r="Q676">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R676">
+        <v>1.9</v>
+      </c>
+      <c r="S676">
+        <v>1.95</v>
+      </c>
+      <c r="T676">
+        <v>3</v>
+      </c>
+      <c r="U676">
+        <v>1.875</v>
+      </c>
+      <c r="V676">
         <v>1.975</v>
       </c>
-      <c r="S676">
-        <v>1.875</v>
-      </c>
-      <c r="T676">
-        <v>2.75</v>
-      </c>
-      <c r="U676">
-        <v>1.825</v>
-      </c>
-      <c r="V676">
-        <v>2.025</v>
-      </c>
       <c r="W676">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X676">
         <v>-1</v>
@@ -60686,16 +60686,16 @@
         <v>-1</v>
       </c>
       <c r="Z676">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA676">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB676">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC676">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60703,7 +60703,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>5982255</v>
+        <v>5982256</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60715,58 +60715,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F677" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G677" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I677">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J677" t="s">
         <v>49</v>
       </c>
       <c r="K677">
+        <v>1.666</v>
+      </c>
+      <c r="L677">
+        <v>4</v>
+      </c>
+      <c r="M677">
+        <v>4.75</v>
+      </c>
+      <c r="N677">
         <v>1.571</v>
       </c>
-      <c r="L677">
+      <c r="O677">
         <v>4.2</v>
       </c>
-      <c r="M677">
-        <v>5.25</v>
-      </c>
-      <c r="N677">
-        <v>1.85</v>
-      </c>
-      <c r="O677">
-        <v>3.75</v>
-      </c>
       <c r="P677">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q677">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R677">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S677">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T677">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U677">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V677">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W677">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X677">
         <v>-1</v>
@@ -60775,16 +60775,16 @@
         <v>-1</v>
       </c>
       <c r="Z677">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA677">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB677">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC677">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -62216,7 +62216,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5982265</v>
+        <v>5981919</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62228,40 +62228,40 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F694" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G694" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H694">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I694">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J694" t="s">
         <v>49</v>
       </c>
       <c r="K694">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L694">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M694">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N694">
-        <v>1.363</v>
+        <v>1.09</v>
       </c>
       <c r="O694">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="P694">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q694">
-        <v>-1.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R694">
         <v>1.95</v>
@@ -62270,16 +62270,16 @@
         <v>1.9</v>
       </c>
       <c r="T694">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U694">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V694">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W694">
-        <v>0.363</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X694">
         <v>-1</v>
@@ -62294,7 +62294,7 @@
         <v>-1</v>
       </c>
       <c r="AB694">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC694">
         <v>-1</v>
@@ -62305,7 +62305,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5981919</v>
+        <v>5982265</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62317,40 +62317,40 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F695" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G695" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H695">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I695">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J695" t="s">
         <v>49</v>
       </c>
       <c r="K695">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L695">
+        <v>4.2</v>
+      </c>
+      <c r="M695">
+        <v>5.25</v>
+      </c>
+      <c r="N695">
+        <v>1.363</v>
+      </c>
+      <c r="O695">
+        <v>5.5</v>
+      </c>
+      <c r="P695">
         <v>7</v>
       </c>
-      <c r="M695">
-        <v>15</v>
-      </c>
-      <c r="N695">
-        <v>1.09</v>
-      </c>
-      <c r="O695">
-        <v>12</v>
-      </c>
-      <c r="P695">
-        <v>19</v>
-      </c>
       <c r="Q695">
-        <v>-2.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R695">
         <v>1.95</v>
@@ -62359,16 +62359,16 @@
         <v>1.9</v>
       </c>
       <c r="T695">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U695">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V695">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W695">
-        <v>0.09000000000000008</v>
+        <v>0.363</v>
       </c>
       <c r="X695">
         <v>-1</v>
@@ -62383,7 +62383,7 @@
         <v>-1</v>
       </c>
       <c r="AB695">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC695">
         <v>-1</v>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -20119,7 +20119,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>3262908</v>
+        <v>3158160</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20131,76 +20131,76 @@
         <v>44521.5625</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G221" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K221">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="L221">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M221">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N221">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O221">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P221">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q221">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
+        <v>1.95</v>
+      </c>
+      <c r="S221">
         <v>1.9</v>
       </c>
-      <c r="S221">
-        <v>1.95</v>
-      </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z221">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB221">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20208,7 +20208,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>3158160</v>
+        <v>3262908</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20220,76 +20220,76 @@
         <v>44521.5625</v>
       </c>
       <c r="F222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H222">
+        <v>3</v>
+      </c>
+      <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222" t="s">
+        <v>50</v>
+      </c>
+      <c r="K222">
+        <v>2.75</v>
+      </c>
+      <c r="L222">
+        <v>3.3</v>
+      </c>
+      <c r="M222">
+        <v>2.5</v>
+      </c>
+      <c r="N222">
+        <v>2.625</v>
+      </c>
+      <c r="O222">
+        <v>3.2</v>
+      </c>
+      <c r="P222">
+        <v>2.75</v>
+      </c>
+      <c r="Q222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
-      <c r="J222" t="s">
-        <v>51</v>
-      </c>
-      <c r="K222">
-        <v>3.2</v>
-      </c>
-      <c r="L222">
-        <v>3.25</v>
-      </c>
-      <c r="M222">
-        <v>2.25</v>
-      </c>
-      <c r="N222">
-        <v>3.75</v>
-      </c>
-      <c r="O222">
-        <v>3.1</v>
-      </c>
-      <c r="P222">
-        <v>2.15</v>
-      </c>
-      <c r="Q222">
-        <v>0.25</v>
-      </c>
       <c r="R222">
+        <v>1.9</v>
+      </c>
+      <c r="S222">
         <v>1.95</v>
       </c>
-      <c r="S222">
-        <v>1.9</v>
-      </c>
       <c r="T222">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V222">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W222">
         <v>-1</v>
       </c>
       <c r="X222">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y222">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA222">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC222">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -21009,7 +21009,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>3286173</v>
+        <v>3286175</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21021,76 +21021,76 @@
         <v>44529.625</v>
       </c>
       <c r="F231" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K231">
-        <v>2.2</v>
+        <v>1.363</v>
       </c>
       <c r="L231">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M231">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="N231">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="O231">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P231">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R231">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V231">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y231">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB231">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>3286174</v>
+        <v>3286173</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21110,76 +21110,76 @@
         <v>44529.625</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G232" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232">
+        <v>4</v>
+      </c>
+      <c r="J232" t="s">
+        <v>51</v>
+      </c>
+      <c r="K232">
+        <v>2.2</v>
+      </c>
+      <c r="L232">
+        <v>3.25</v>
+      </c>
+      <c r="M232">
+        <v>3.3</v>
+      </c>
+      <c r="N232">
+        <v>2.375</v>
+      </c>
+      <c r="O232">
+        <v>3.25</v>
+      </c>
+      <c r="P232">
         <v>3</v>
       </c>
-      <c r="I232">
-        <v>0</v>
-      </c>
-      <c r="J232" t="s">
-        <v>49</v>
-      </c>
-      <c r="K232">
-        <v>3.2</v>
-      </c>
-      <c r="L232">
-        <v>3.5</v>
-      </c>
-      <c r="M232">
-        <v>2.15</v>
-      </c>
-      <c r="N232">
-        <v>2.4</v>
-      </c>
-      <c r="O232">
-        <v>3.4</v>
-      </c>
-      <c r="P232">
-        <v>2.75</v>
-      </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
+        <v>2.05</v>
+      </c>
+      <c r="S232">
+        <v>1.8</v>
+      </c>
+      <c r="T232">
+        <v>2.25</v>
+      </c>
+      <c r="U232">
         <v>1.85</v>
       </c>
-      <c r="S232">
-        <v>2</v>
-      </c>
-      <c r="T232">
-        <v>3</v>
-      </c>
-      <c r="U232">
-        <v>2</v>
-      </c>
       <c r="V232">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W232">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z232">
+        <v>-1</v>
+      </c>
+      <c r="AA232">
+        <v>0.8</v>
+      </c>
+      <c r="AB232">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA232">
-        <v>-1</v>
-      </c>
-      <c r="AB232">
-        <v>0</v>
-      </c>
       <c r="AC232">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21187,7 +21187,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>3286175</v>
+        <v>3286174</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21199,76 +21199,76 @@
         <v>44529.625</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I233">
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K233">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L233">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M233">
-        <v>8.5</v>
+        <v>2.15</v>
       </c>
       <c r="N233">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O233">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P233">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S233">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T233">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V233">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W233">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X233">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA233">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB233">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC233">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -22344,7 +22344,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>4567878</v>
+        <v>4568210</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22356,10 +22356,10 @@
         <v>44654.52083333334</v>
       </c>
       <c r="F246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G246" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -22371,40 +22371,40 @@
         <v>51</v>
       </c>
       <c r="K246">
-        <v>4.333</v>
+        <v>1.533</v>
       </c>
       <c r="L246">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M246">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="N246">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="O246">
         <v>3.5</v>
       </c>
       <c r="P246">
-        <v>1.95</v>
+        <v>4.333</v>
       </c>
       <c r="Q246">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R246">
-        <v>1.925</v>
+        <v>1.84</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>2.06</v>
       </c>
       <c r="T246">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V246">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
         <v>-1</v>
@@ -22413,19 +22413,19 @@
         <v>-1</v>
       </c>
       <c r="Y246">
-        <v>0.95</v>
+        <v>3.333</v>
       </c>
       <c r="Z246">
         <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.925</v>
+        <v>1.06</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22433,7 +22433,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>4568210</v>
+        <v>4567878</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22445,10 +22445,10 @@
         <v>44654.52083333334</v>
       </c>
       <c r="F247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G247" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -22460,40 +22460,40 @@
         <v>51</v>
       </c>
       <c r="K247">
-        <v>1.533</v>
+        <v>4.333</v>
       </c>
       <c r="L247">
+        <v>3.6</v>
+      </c>
+      <c r="M247">
+        <v>1.727</v>
+      </c>
+      <c r="N247">
         <v>4</v>
-      </c>
-      <c r="M247">
-        <v>5</v>
-      </c>
-      <c r="N247">
-        <v>1.8</v>
       </c>
       <c r="O247">
         <v>3.5</v>
       </c>
       <c r="P247">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R247">
-        <v>1.84</v>
+        <v>1.925</v>
       </c>
       <c r="S247">
-        <v>2.06</v>
+        <v>1.925</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U247">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W247">
         <v>-1</v>
@@ -22502,19 +22502,19 @@
         <v>-1</v>
       </c>
       <c r="Y247">
-        <v>3.333</v>
+        <v>0.95</v>
       </c>
       <c r="Z247">
         <v>-1</v>
       </c>
       <c r="AA247">
-        <v>1.06</v>
+        <v>0.925</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -25103,7 +25103,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>4568233</v>
+        <v>4568234</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25115,76 +25115,76 @@
         <v>44676.58333333334</v>
       </c>
       <c r="F277" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G277" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
         <v>3</v>
       </c>
-      <c r="I277">
-        <v>1</v>
-      </c>
       <c r="J277" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K277">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M277">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="N277">
-        <v>1.363</v>
+        <v>4.75</v>
       </c>
       <c r="O277">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="P277">
-        <v>8</v>
+        <v>1.666</v>
       </c>
       <c r="Q277">
-        <v>-1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R277">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S277">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T277">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U277">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V277">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W277">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X277">
         <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z277">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA277">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB277">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -25192,7 +25192,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>4568234</v>
+        <v>4568233</v>
       </c>
       <c r="C278" t="s">
         <v>28</v>
@@ -25204,76 +25204,76 @@
         <v>44676.58333333334</v>
       </c>
       <c r="F278" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G278" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278" t="s">
+        <v>49</v>
+      </c>
+      <c r="K278">
+        <v>1.5</v>
+      </c>
+      <c r="L278">
+        <v>4</v>
+      </c>
+      <c r="M278">
+        <v>5</v>
+      </c>
+      <c r="N278">
+        <v>1.363</v>
+      </c>
+      <c r="O278">
+        <v>5.25</v>
+      </c>
+      <c r="P278">
+        <v>8</v>
+      </c>
+      <c r="Q278">
+        <v>-1.5</v>
+      </c>
+      <c r="R278">
+        <v>2</v>
+      </c>
+      <c r="S278">
+        <v>1.85</v>
+      </c>
+      <c r="T278">
         <v>3</v>
       </c>
-      <c r="J278" t="s">
-        <v>51</v>
-      </c>
-      <c r="K278">
-        <v>3.8</v>
-      </c>
-      <c r="L278">
-        <v>3.8</v>
-      </c>
-      <c r="M278">
-        <v>1.727</v>
-      </c>
-      <c r="N278">
-        <v>4.75</v>
-      </c>
-      <c r="O278">
-        <v>4.2</v>
-      </c>
-      <c r="P278">
-        <v>1.666</v>
-      </c>
-      <c r="Q278">
-        <v>0.75</v>
-      </c>
-      <c r="R278">
-        <v>2.05</v>
-      </c>
-      <c r="S278">
-        <v>1.8</v>
-      </c>
-      <c r="T278">
-        <v>2.75</v>
-      </c>
       <c r="U278">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V278">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W278">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X278">
         <v>-1</v>
       </c>
       <c r="Y278">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z278">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA278">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB278">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC278">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="279" spans="1:29">
@@ -26705,7 +26705,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>4568244</v>
+        <v>4568247</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26717,55 +26717,55 @@
         <v>44690.58333333334</v>
       </c>
       <c r="F295" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G295" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J295" t="s">
         <v>51</v>
       </c>
       <c r="K295">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L295">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M295">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N295">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="O295">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P295">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="Q295">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R295">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S295">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T295">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U295">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V295">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W295">
         <v>-1</v>
@@ -26774,19 +26774,19 @@
         <v>-1</v>
       </c>
       <c r="Y295">
-        <v>0.909</v>
+        <v>1.7</v>
       </c>
       <c r="Z295">
         <v>-1</v>
       </c>
       <c r="AA295">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB295">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC295">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26794,7 +26794,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>4568247</v>
+        <v>4568244</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26806,55 +26806,55 @@
         <v>44690.58333333334</v>
       </c>
       <c r="F296" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G296" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
         <v>51</v>
       </c>
       <c r="K296">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L296">
+        <v>3.5</v>
+      </c>
+      <c r="M296">
+        <v>2</v>
+      </c>
+      <c r="N296">
+        <v>4</v>
+      </c>
+      <c r="O296">
         <v>3.6</v>
       </c>
-      <c r="M296">
-        <v>3.2</v>
-      </c>
-      <c r="N296">
-        <v>2.375</v>
-      </c>
-      <c r="O296">
-        <v>3.8</v>
-      </c>
       <c r="P296">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="Q296">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S296">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U296">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V296">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W296">
         <v>-1</v>
@@ -26863,19 +26863,19 @@
         <v>-1</v>
       </c>
       <c r="Y296">
-        <v>1.7</v>
+        <v>0.909</v>
       </c>
       <c r="Z296">
         <v>-1</v>
       </c>
       <c r="AA296">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB296">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -29731,7 +29731,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>4568269</v>
+        <v>4568270</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29743,73 +29743,73 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F329" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G329" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H329">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J329" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K329">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="L329">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M329">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N329">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="O329">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P329">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q329">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R329">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S329">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T329">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U329">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V329">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W329">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z329">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA329">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB329">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC329">
         <v>-1</v>
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>4574097</v>
+        <v>4568269</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,58 +29832,58 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G330" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H330">
+        <v>4</v>
+      </c>
+      <c r="I330">
         <v>1</v>
-      </c>
-      <c r="I330">
-        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>49</v>
       </c>
       <c r="K330">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="L330">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="M330">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N330">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O330">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P330">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q330">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R330">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="S330">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="T330">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U330">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V330">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W330">
-        <v>0.8500000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29892,16 +29892,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.8899999999999999</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC330">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29909,7 +29909,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>4568270</v>
+        <v>4574097</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29921,76 +29921,76 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G331" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H331">
         <v>1</v>
       </c>
       <c r="I331">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J331" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K331">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="L331">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M331">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N331">
-        <v>2.6</v>
+        <v>1.85</v>
       </c>
       <c r="O331">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P331">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q331">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R331">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="S331">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="T331">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U331">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V331">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA331">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB331">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC331">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -30265,7 +30265,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>4568275</v>
+        <v>4574096</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30277,13 +30277,13 @@
         <v>44745.41666666666</v>
       </c>
       <c r="F335" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G335" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I335">
         <v>0</v>
@@ -30292,43 +30292,43 @@
         <v>49</v>
       </c>
       <c r="K335">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="L335">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M335">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="N335">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="O335">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P335">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q335">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R335">
-        <v>1.98</v>
+        <v>2.075</v>
       </c>
       <c r="S335">
-        <v>1.92</v>
+        <v>1.725</v>
       </c>
       <c r="T335">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U335">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V335">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W335">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="X335">
         <v>-1</v>
@@ -30337,16 +30337,16 @@
         <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0.98</v>
+        <v>1.075</v>
       </c>
       <c r="AA335">
         <v>-1</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC335">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30354,7 +30354,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>4574096</v>
+        <v>4568275</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -30366,13 +30366,13 @@
         <v>44745.41666666666</v>
       </c>
       <c r="F336" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G336" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H336">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I336">
         <v>0</v>
@@ -30381,43 +30381,43 @@
         <v>49</v>
       </c>
       <c r="K336">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="L336">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M336">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N336">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="O336">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P336">
+        <v>3</v>
+      </c>
+      <c r="Q336">
+        <v>-0.25</v>
+      </c>
+      <c r="R336">
+        <v>1.98</v>
+      </c>
+      <c r="S336">
+        <v>1.92</v>
+      </c>
+      <c r="T336">
         <v>2.5</v>
       </c>
-      <c r="Q336">
-        <v>0</v>
-      </c>
-      <c r="R336">
-        <v>2.075</v>
-      </c>
-      <c r="S336">
-        <v>1.725</v>
-      </c>
-      <c r="T336">
-        <v>2.25</v>
-      </c>
       <c r="U336">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V336">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W336">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="X336">
         <v>-1</v>
@@ -30426,16 +30426,16 @@
         <v>-1</v>
       </c>
       <c r="Z336">
-        <v>1.075</v>
+        <v>0.98</v>
       </c>
       <c r="AA336">
         <v>-1</v>
       </c>
       <c r="AB336">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC336">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="337" spans="1:29">
@@ -31600,7 +31600,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>4568286</v>
+        <v>4568287</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31612,76 +31612,76 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F350" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G350" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H350">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J350" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K350">
         <v>1.909</v>
       </c>
       <c r="L350">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M350">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N350">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O350">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P350">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q350">
+        <v>-0.25</v>
+      </c>
+      <c r="R350">
+        <v>1.85</v>
+      </c>
+      <c r="S350">
+        <v>2.05</v>
+      </c>
+      <c r="T350">
+        <v>2.25</v>
+      </c>
+      <c r="U350">
+        <v>2.05</v>
+      </c>
+      <c r="V350">
+        <v>1.8</v>
+      </c>
+      <c r="W350">
+        <v>-1</v>
+      </c>
+      <c r="X350">
+        <v>2.3</v>
+      </c>
+      <c r="Y350">
+        <v>-1</v>
+      </c>
+      <c r="Z350">
         <v>-0.5</v>
       </c>
-      <c r="R350">
-        <v>1.975</v>
-      </c>
-      <c r="S350">
-        <v>1.875</v>
-      </c>
-      <c r="T350">
-        <v>3</v>
-      </c>
-      <c r="U350">
-        <v>1.925</v>
-      </c>
-      <c r="V350">
-        <v>1.925</v>
-      </c>
-      <c r="W350">
-        <v>0.909</v>
-      </c>
-      <c r="X350">
-        <v>-1</v>
-      </c>
-      <c r="Y350">
-        <v>-1</v>
-      </c>
-      <c r="Z350">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA350">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB350">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC350">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31689,7 +31689,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>4568288</v>
+        <v>4568285</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31701,13 +31701,13 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F351" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G351" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351">
         <v>0</v>
@@ -31716,43 +31716,43 @@
         <v>49</v>
       </c>
       <c r="K351">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L351">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M351">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N351">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O351">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P351">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q351">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S351">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T351">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U351">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V351">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W351">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X351">
         <v>-1</v>
@@ -31761,7 +31761,7 @@
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA351">
         <v>-1</v>
@@ -31770,7 +31770,7 @@
         <v>-1</v>
       </c>
       <c r="AC351">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -31778,7 +31778,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>4568285</v>
+        <v>4568288</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31790,13 +31790,13 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F352" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G352" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -31805,43 +31805,43 @@
         <v>49</v>
       </c>
       <c r="K352">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L352">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M352">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N352">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O352">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P352">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q352">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R352">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S352">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T352">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U352">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V352">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W352">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31850,7 +31850,7 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA352">
         <v>-1</v>
@@ -31859,7 +31859,7 @@
         <v>-1</v>
       </c>
       <c r="AC352">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31867,7 +31867,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>4568287</v>
+        <v>4568286</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31879,76 +31879,76 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F353" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G353" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I353">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J353" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K353">
         <v>1.909</v>
       </c>
       <c r="L353">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M353">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="N353">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O353">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P353">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q353">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R353">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S353">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T353">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U353">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V353">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W353">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X353">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y353">
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA353">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB353">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC353">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32668,7 +32668,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4568296</v>
+        <v>4568293</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32680,55 +32680,55 @@
         <v>44767.58333333334</v>
       </c>
       <c r="F362" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G362" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H362">
         <v>0</v>
       </c>
       <c r="I362">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J362" t="s">
         <v>51</v>
       </c>
       <c r="K362">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="L362">
+        <v>3.6</v>
+      </c>
+      <c r="M362">
         <v>4.333</v>
       </c>
-      <c r="M362">
-        <v>1.45</v>
-      </c>
       <c r="N362">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="O362">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P362">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q362">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R362">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S362">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T362">
         <v>2.75</v>
       </c>
       <c r="U362">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V362">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W362">
         <v>-1</v>
@@ -32737,19 +32737,19 @@
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z362">
         <v>-1</v>
       </c>
       <c r="AA362">
+        <v>0.95</v>
+      </c>
+      <c r="AB362">
+        <v>-1</v>
+      </c>
+      <c r="AC362">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB362">
-        <v>0.4875</v>
-      </c>
-      <c r="AC362">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32757,7 +32757,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>4568293</v>
+        <v>4568296</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32769,55 +32769,55 @@
         <v>44767.58333333334</v>
       </c>
       <c r="F363" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G363" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H363">
         <v>0</v>
       </c>
       <c r="I363">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J363" t="s">
         <v>51</v>
       </c>
       <c r="K363">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="L363">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M363">
-        <v>4.333</v>
+        <v>1.45</v>
       </c>
       <c r="N363">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="O363">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P363">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q363">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R363">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S363">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T363">
         <v>2.75</v>
       </c>
       <c r="U363">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V363">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W363">
         <v>-1</v>
@@ -32826,19 +32826,19 @@
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z363">
         <v>-1</v>
       </c>
       <c r="AA363">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB363">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC363">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -35961,7 +35961,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>4567897</v>
+        <v>4568324</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35973,10 +35973,10 @@
         <v>44801.52083333334</v>
       </c>
       <c r="F399" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="G399" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H399">
         <v>0</v>
@@ -35988,40 +35988,40 @@
         <v>51</v>
       </c>
       <c r="K399">
-        <v>1.5</v>
+        <v>2.875</v>
       </c>
       <c r="L399">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M399">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="N399">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="O399">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P399">
-        <v>5.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q399">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R399">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S399">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T399">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U399">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V399">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W399">
         <v>-1</v>
@@ -36030,19 +36030,19 @@
         <v>-1</v>
       </c>
       <c r="Y399">
-        <v>4.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z399">
         <v>-1</v>
       </c>
       <c r="AA399">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB399">
         <v>-1</v>
       </c>
       <c r="AC399">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -36050,7 +36050,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>4568324</v>
+        <v>4567897</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36062,10 +36062,10 @@
         <v>44801.52083333334</v>
       </c>
       <c r="F400" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G400" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H400">
         <v>0</v>
@@ -36077,40 +36077,40 @@
         <v>51</v>
       </c>
       <c r="K400">
-        <v>2.875</v>
+        <v>1.5</v>
       </c>
       <c r="L400">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M400">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="N400">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="O400">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P400">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="Q400">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R400">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S400">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T400">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U400">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V400">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W400">
         <v>-1</v>
@@ -36119,19 +36119,19 @@
         <v>-1</v>
       </c>
       <c r="Y400">
-        <v>1.45</v>
+        <v>4.5</v>
       </c>
       <c r="Z400">
         <v>-1</v>
       </c>
       <c r="AA400">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB400">
         <v>-1</v>
       </c>
       <c r="AC400">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="401" spans="1:29">
@@ -36584,7 +36584,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4574087</v>
+        <v>4568331</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36596,58 +36596,58 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F406" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="G406" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H406">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I406">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J406" t="s">
         <v>49</v>
       </c>
       <c r="K406">
+        <v>1.65</v>
+      </c>
+      <c r="L406">
+        <v>3.8</v>
+      </c>
+      <c r="M406">
+        <v>5</v>
+      </c>
+      <c r="N406">
+        <v>1.571</v>
+      </c>
+      <c r="O406">
+        <v>4</v>
+      </c>
+      <c r="P406">
+        <v>5.75</v>
+      </c>
+      <c r="Q406">
+        <v>-1</v>
+      </c>
+      <c r="R406">
+        <v>2.05</v>
+      </c>
+      <c r="S406">
         <v>1.8</v>
       </c>
-      <c r="L406">
-        <v>3.6</v>
-      </c>
-      <c r="M406">
-        <v>4.5</v>
-      </c>
-      <c r="N406">
-        <v>2.1</v>
-      </c>
-      <c r="O406">
-        <v>3.25</v>
-      </c>
-      <c r="P406">
-        <v>3.5</v>
-      </c>
-      <c r="Q406">
-        <v>-0.25</v>
-      </c>
-      <c r="R406">
-        <v>1.86</v>
-      </c>
-      <c r="S406">
-        <v>2.04</v>
-      </c>
       <c r="T406">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U406">
+        <v>2.025</v>
+      </c>
+      <c r="V406">
         <v>1.825</v>
       </c>
-      <c r="V406">
-        <v>2.025</v>
-      </c>
       <c r="W406">
-        <v>1.1</v>
+        <v>0.571</v>
       </c>
       <c r="X406">
         <v>-1</v>
@@ -36656,16 +36656,16 @@
         <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0.8600000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB406">
+        <v>-1</v>
+      </c>
+      <c r="AC406">
         <v>0.825</v>
-      </c>
-      <c r="AC406">
-        <v>-1</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36673,7 +36673,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>4568331</v>
+        <v>4574087</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36685,58 +36685,58 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F407" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G407" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J407" t="s">
         <v>49</v>
       </c>
       <c r="K407">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="L407">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M407">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N407">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O407">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P407">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q407">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R407">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="S407">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="T407">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U407">
+        <v>1.825</v>
+      </c>
+      <c r="V407">
         <v>2.025</v>
       </c>
-      <c r="V407">
-        <v>1.825</v>
-      </c>
       <c r="W407">
-        <v>0.571</v>
+        <v>1.1</v>
       </c>
       <c r="X407">
         <v>-1</v>
@@ -36745,16 +36745,16 @@
         <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA407">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC407">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -40055,7 +40055,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>4568362</v>
+        <v>4574082</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40067,76 +40067,76 @@
         <v>44849.52083333334</v>
       </c>
       <c r="F445" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G445" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J445" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K445">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="L445">
         <v>3.5</v>
       </c>
       <c r="M445">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="N445">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="O445">
         <v>3.5</v>
       </c>
       <c r="P445">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="Q445">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R445">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S445">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T445">
         <v>2.5</v>
       </c>
       <c r="U445">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V445">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W445">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X445">
         <v>-1</v>
       </c>
       <c r="Y445">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z445">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA445">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB445">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC445">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40144,7 +40144,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>4574082</v>
+        <v>4568362</v>
       </c>
       <c r="C446" t="s">
         <v>28</v>
@@ -40156,76 +40156,76 @@
         <v>44849.52083333334</v>
       </c>
       <c r="F446" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G446" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J446" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K446">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="L446">
         <v>3.5</v>
       </c>
       <c r="M446">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="N446">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="O446">
         <v>3.5</v>
       </c>
       <c r="P446">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="Q446">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R446">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S446">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T446">
         <v>2.5</v>
       </c>
       <c r="U446">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V446">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W446">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X446">
         <v>-1</v>
       </c>
       <c r="Y446">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z446">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA446">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB446">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC446">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="447" spans="1:29">
@@ -40500,7 +40500,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>4568369</v>
+        <v>4568367</v>
       </c>
       <c r="C450" t="s">
         <v>28</v>
@@ -40512,76 +40512,76 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F450" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G450" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H450">
+        <v>2</v>
+      </c>
+      <c r="I450">
         <v>0</v>
       </c>
-      <c r="I450">
-        <v>3</v>
-      </c>
       <c r="J450" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K450">
-        <v>3.9</v>
+        <v>1.533</v>
       </c>
       <c r="L450">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M450">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N450">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="O450">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P450">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="Q450">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R450">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S450">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T450">
         <v>2.75</v>
       </c>
       <c r="U450">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V450">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W450">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X450">
         <v>-1</v>
       </c>
       <c r="Y450">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z450">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA450">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB450">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC450">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="451" spans="1:29">
@@ -40678,7 +40678,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>4568367</v>
+        <v>4568369</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40690,76 +40690,76 @@
         <v>44853.58333333334</v>
       </c>
       <c r="F452" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G452" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J452" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K452">
-        <v>1.533</v>
+        <v>3.9</v>
       </c>
       <c r="L452">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M452">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N452">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O452">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P452">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="Q452">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R452">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S452">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T452">
         <v>2.75</v>
       </c>
       <c r="U452">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V452">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W452">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X452">
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z452">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA452">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB452">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC452">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -40856,7 +40856,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>4567903</v>
+        <v>4568368</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40868,49 +40868,49 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F454" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G454" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J454" t="s">
         <v>51</v>
       </c>
       <c r="K454">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L454">
         <v>3.5</v>
       </c>
       <c r="M454">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="N454">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O454">
         <v>3.6</v>
       </c>
       <c r="P454">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q454">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R454">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S454">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T454">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U454">
         <v>1.925</v>
@@ -40925,13 +40925,13 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB454">
         <v>0.925</v>
@@ -40945,7 +40945,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4568365</v>
+        <v>4567903</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40957,40 +40957,40 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F455" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G455" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H455">
+        <v>2</v>
+      </c>
+      <c r="I455">
         <v>3</v>
       </c>
-      <c r="I455">
-        <v>1</v>
-      </c>
       <c r="J455" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K455">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="L455">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M455">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="N455">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O455">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P455">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q455">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R455">
         <v>1.925</v>
@@ -40999,31 +40999,31 @@
         <v>1.925</v>
       </c>
       <c r="T455">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U455">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V455">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W455">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X455">
         <v>-1</v>
       </c>
       <c r="Y455">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z455">
+        <v>-1</v>
+      </c>
+      <c r="AA455">
         <v>0.925</v>
       </c>
-      <c r="AA455">
-        <v>-1</v>
-      </c>
       <c r="AB455">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC455">
         <v>-1</v>
@@ -41034,7 +41034,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4568368</v>
+        <v>4568365</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41046,73 +41046,73 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F456" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G456" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H456">
+        <v>3</v>
+      </c>
+      <c r="I456">
         <v>1</v>
       </c>
-      <c r="I456">
-        <v>2</v>
-      </c>
       <c r="J456" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K456">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L456">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M456">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N456">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O456">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P456">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q456">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R456">
+        <v>1.925</v>
+      </c>
+      <c r="S456">
+        <v>1.925</v>
+      </c>
+      <c r="T456">
+        <v>2.75</v>
+      </c>
+      <c r="U456">
         <v>1.9</v>
       </c>
-      <c r="S456">
+      <c r="V456">
         <v>1.95</v>
       </c>
-      <c r="T456">
-        <v>2.25</v>
-      </c>
-      <c r="U456">
-        <v>1.925</v>
-      </c>
-      <c r="V456">
-        <v>1.925</v>
-      </c>
       <c r="W456">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z456">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA456">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB456">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC456">
         <v>-1</v>
@@ -41479,7 +41479,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>4568374</v>
+        <v>4568370</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41491,76 +41491,76 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F461" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G461" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I461">
         <v>0</v>
       </c>
       <c r="J461" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K461">
-        <v>3.1</v>
+        <v>1.111</v>
       </c>
       <c r="L461">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M461">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="N461">
-        <v>3.5</v>
+        <v>1.125</v>
       </c>
       <c r="O461">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="P461">
-        <v>2.1</v>
+        <v>17</v>
       </c>
       <c r="Q461">
-        <v>0.25</v>
+        <v>-2.5</v>
       </c>
       <c r="R461">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S461">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T461">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U461">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V461">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W461">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X461">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y461">
         <v>-1</v>
       </c>
       <c r="Z461">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA461">
+        <v>-1</v>
+      </c>
+      <c r="AB461">
+        <v>0.4875</v>
+      </c>
+      <c r="AC461">
         <v>-0.5</v>
-      </c>
-      <c r="AB461">
-        <v>-1</v>
-      </c>
-      <c r="AC461">
-        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41568,7 +41568,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>4568370</v>
+        <v>4568375</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41580,58 +41580,58 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F462" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G462" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H462">
         <v>4</v>
       </c>
       <c r="I462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J462" t="s">
         <v>49</v>
       </c>
       <c r="K462">
-        <v>1.111</v>
+        <v>2.1</v>
       </c>
       <c r="L462">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="M462">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="N462">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="O462">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="P462">
-        <v>17</v>
+        <v>3.2</v>
       </c>
       <c r="Q462">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R462">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S462">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T462">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U462">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V462">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W462">
-        <v>0.125</v>
+        <v>1.25</v>
       </c>
       <c r="X462">
         <v>-1</v>
@@ -41640,16 +41640,16 @@
         <v>-1</v>
       </c>
       <c r="Z462">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA462">
         <v>-1</v>
       </c>
       <c r="AB462">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC462">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41657,7 +41657,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>4568375</v>
+        <v>4574080</v>
       </c>
       <c r="C463" t="s">
         <v>28</v>
@@ -41669,76 +41669,76 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F463" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G463" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H463">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I463">
         <v>1</v>
       </c>
       <c r="J463" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K463">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L463">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M463">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="N463">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="O463">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P463">
-        <v>3.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q463">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R463">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S463">
+        <v>1.875</v>
+      </c>
+      <c r="T463">
+        <v>2.75</v>
+      </c>
+      <c r="U463">
+        <v>1.95</v>
+      </c>
+      <c r="V463">
         <v>1.9</v>
       </c>
-      <c r="T463">
-        <v>2.25</v>
-      </c>
-      <c r="U463">
-        <v>1.825</v>
-      </c>
-      <c r="V463">
-        <v>2.025</v>
-      </c>
       <c r="W463">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X463">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y463">
         <v>-1</v>
       </c>
       <c r="Z463">
-        <v>1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA463">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB463">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC463">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="464" spans="1:29">
@@ -41746,7 +41746,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>4574080</v>
+        <v>4568374</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41758,67 +41758,67 @@
         <v>44858.58333333334</v>
       </c>
       <c r="F464" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G464" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J464" t="s">
         <v>50</v>
       </c>
       <c r="K464">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L464">
         <v>3.6</v>
       </c>
       <c r="M464">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N464">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O464">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P464">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q464">
         <v>0.25</v>
       </c>
       <c r="R464">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S464">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T464">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U464">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V464">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W464">
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
-        <v>0.4875</v>
+        <v>0.5125</v>
       </c>
       <c r="AA464">
         <v>-0.5</v>
@@ -41827,7 +41827,7 @@
         <v>-1</v>
       </c>
       <c r="AC464">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -42814,7 +42814,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>4568382</v>
+        <v>4568386</v>
       </c>
       <c r="C476" t="s">
         <v>28</v>
@@ -42826,55 +42826,55 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F476" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G476" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J476" t="s">
         <v>51</v>
       </c>
       <c r="K476">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L476">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M476">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="N476">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O476">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P476">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q476">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R476">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S476">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T476">
         <v>3</v>
       </c>
       <c r="U476">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V476">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W476">
         <v>-1</v>
@@ -42883,19 +42883,19 @@
         <v>-1</v>
       </c>
       <c r="Y476">
-        <v>3</v>
+        <v>1.55</v>
       </c>
       <c r="Z476">
         <v>-1</v>
       </c>
       <c r="AA476">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB476">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC476">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="477" spans="1:29">
@@ -42903,7 +42903,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>4567906</v>
+        <v>4568382</v>
       </c>
       <c r="C477" t="s">
         <v>28</v>
@@ -42915,76 +42915,76 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F477" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G477" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J477" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K477">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L477">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M477">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="N477">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O477">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P477">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q477">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R477">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S477">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T477">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U477">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V477">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W477">
         <v>-1</v>
       </c>
       <c r="X477">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y477">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z477">
         <v>-1</v>
       </c>
       <c r="AA477">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB477">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC477">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="478" spans="1:29">
@@ -42992,7 +42992,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>4568385</v>
+        <v>4567906</v>
       </c>
       <c r="C478" t="s">
         <v>28</v>
@@ -43004,76 +43004,76 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F478" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G478" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478">
         <v>2</v>
       </c>
       <c r="J478" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K478">
-        <v>7</v>
+        <v>1.571</v>
       </c>
       <c r="L478">
+        <v>4.5</v>
+      </c>
+      <c r="M478">
         <v>4.75</v>
       </c>
-      <c r="M478">
-        <v>1.4</v>
-      </c>
       <c r="N478">
-        <v>7</v>
+        <v>1.65</v>
       </c>
       <c r="O478">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P478">
-        <v>1.444</v>
+        <v>4.5</v>
       </c>
       <c r="Q478">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R478">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S478">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T478">
         <v>3.25</v>
       </c>
       <c r="U478">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V478">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W478">
         <v>-1</v>
       </c>
       <c r="X478">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y478">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z478">
         <v>-1</v>
       </c>
       <c r="AA478">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB478">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC478">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="479" spans="1:29">
@@ -43081,7 +43081,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>4568386</v>
+        <v>4568385</v>
       </c>
       <c r="C479" t="s">
         <v>28</v>
@@ -43093,55 +43093,55 @@
         <v>44871.45833333334</v>
       </c>
       <c r="F479" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G479" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J479" t="s">
         <v>51</v>
       </c>
       <c r="K479">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="L479">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M479">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="N479">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O479">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P479">
-        <v>2.55</v>
+        <v>1.444</v>
       </c>
       <c r="Q479">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R479">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S479">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T479">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U479">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V479">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W479">
         <v>-1</v>
@@ -43150,19 +43150,19 @@
         <v>-1</v>
       </c>
       <c r="Y479">
-        <v>1.55</v>
+        <v>0.444</v>
       </c>
       <c r="Z479">
         <v>-1</v>
       </c>
       <c r="AA479">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB479">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC479">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="480" spans="1:29">
@@ -45128,7 +45128,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>5981873</v>
+        <v>5982124</v>
       </c>
       <c r="C502" t="s">
         <v>28</v>
@@ -45140,10 +45140,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F502" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G502" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H502">
         <v>2</v>
@@ -45155,43 +45155,43 @@
         <v>49</v>
       </c>
       <c r="K502">
+        <v>1.85</v>
+      </c>
+      <c r="L502">
+        <v>3.4</v>
+      </c>
+      <c r="M502">
+        <v>3.8</v>
+      </c>
+      <c r="N502">
+        <v>1.8</v>
+      </c>
+      <c r="O502">
         <v>3.6</v>
       </c>
-      <c r="L502">
-        <v>3.3</v>
-      </c>
-      <c r="M502">
-        <v>1.909</v>
-      </c>
-      <c r="N502">
-        <v>3.4</v>
-      </c>
-      <c r="O502">
-        <v>3.5</v>
-      </c>
       <c r="P502">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q502">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R502">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S502">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T502">
         <v>2.5</v>
       </c>
       <c r="U502">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V502">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W502">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X502">
         <v>-1</v>
@@ -45200,7 +45200,7 @@
         <v>-1</v>
       </c>
       <c r="Z502">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AA502">
         <v>-1</v>
@@ -45209,7 +45209,7 @@
         <v>-1</v>
       </c>
       <c r="AC502">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="503" spans="1:29">
@@ -45217,7 +45217,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>5982124</v>
+        <v>5981873</v>
       </c>
       <c r="C503" t="s">
         <v>28</v>
@@ -45229,10 +45229,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F503" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G503" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H503">
         <v>2</v>
@@ -45244,61 +45244,61 @@
         <v>49</v>
       </c>
       <c r="K503">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="L503">
+        <v>3.3</v>
+      </c>
+      <c r="M503">
+        <v>1.909</v>
+      </c>
+      <c r="N503">
         <v>3.4</v>
       </c>
-      <c r="M503">
-        <v>3.8</v>
-      </c>
-      <c r="N503">
+      <c r="O503">
+        <v>3.5</v>
+      </c>
+      <c r="P503">
+        <v>2.1</v>
+      </c>
+      <c r="Q503">
+        <v>0.25</v>
+      </c>
+      <c r="R503">
+        <v>2.05</v>
+      </c>
+      <c r="S503">
         <v>1.8</v>
-      </c>
-      <c r="O503">
-        <v>3.6</v>
-      </c>
-      <c r="P503">
-        <v>4.5</v>
-      </c>
-      <c r="Q503">
-        <v>-0.75</v>
-      </c>
-      <c r="R503">
-        <v>2.07</v>
-      </c>
-      <c r="S503">
-        <v>1.83</v>
       </c>
       <c r="T503">
         <v>2.5</v>
       </c>
       <c r="U503">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V503">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W503">
+        <v>2.4</v>
+      </c>
+      <c r="X503">
+        <v>-1</v>
+      </c>
+      <c r="Y503">
+        <v>-1</v>
+      </c>
+      <c r="Z503">
+        <v>1.05</v>
+      </c>
+      <c r="AA503">
+        <v>-1</v>
+      </c>
+      <c r="AB503">
+        <v>-1</v>
+      </c>
+      <c r="AC503">
         <v>0.8</v>
-      </c>
-      <c r="X503">
-        <v>-1</v>
-      </c>
-      <c r="Y503">
-        <v>-1</v>
-      </c>
-      <c r="Z503">
-        <v>1.07</v>
-      </c>
-      <c r="AA503">
-        <v>-1</v>
-      </c>
-      <c r="AB503">
-        <v>-1</v>
-      </c>
-      <c r="AC503">
-        <v>0.875</v>
       </c>
     </row>
     <row r="504" spans="1:29">
@@ -47264,7 +47264,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>5982138</v>
+        <v>5982143</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47276,76 +47276,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F526" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G526" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H526">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J526" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K526">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L526">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M526">
         <v>3.6</v>
       </c>
       <c r="N526">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O526">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P526">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q526">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S526">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T526">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U526">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V526">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W526">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X526">
         <v>-1</v>
       </c>
       <c r="Y526">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z526">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA526">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB526">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC526">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="527" spans="1:29">
@@ -47353,7 +47353,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>5982143</v>
+        <v>5982139</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47365,76 +47365,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F527" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G527" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H527">
+        <v>2</v>
+      </c>
+      <c r="I527">
         <v>0</v>
       </c>
-      <c r="I527">
-        <v>1</v>
-      </c>
       <c r="J527" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K527">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L527">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M527">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N527">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O527">
         <v>3.25</v>
       </c>
       <c r="P527">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q527">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R527">
+        <v>1.875</v>
+      </c>
+      <c r="S527">
         <v>1.975</v>
-      </c>
-      <c r="S527">
-        <v>1.875</v>
       </c>
       <c r="T527">
         <v>2.5</v>
       </c>
       <c r="U527">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V527">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W527">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X527">
         <v>-1</v>
       </c>
       <c r="Y527">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z527">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA527">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB527">
         <v>-1</v>
       </c>
       <c r="AC527">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="528" spans="1:29">
@@ -47442,7 +47442,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>5982139</v>
+        <v>5982138</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47454,13 +47454,13 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F528" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G528" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I528">
         <v>0</v>
@@ -47469,43 +47469,43 @@
         <v>49</v>
       </c>
       <c r="K528">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="L528">
         <v>3.4</v>
       </c>
       <c r="M528">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N528">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="O528">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P528">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q528">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R528">
+        <v>2</v>
+      </c>
+      <c r="S528">
+        <v>1.85</v>
+      </c>
+      <c r="T528">
+        <v>2.75</v>
+      </c>
+      <c r="U528">
+        <v>1.975</v>
+      </c>
+      <c r="V528">
         <v>1.875</v>
       </c>
-      <c r="S528">
-        <v>1.975</v>
-      </c>
-      <c r="T528">
-        <v>2.5</v>
-      </c>
-      <c r="U528">
-        <v>2</v>
-      </c>
-      <c r="V528">
-        <v>1.85</v>
-      </c>
       <c r="W528">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="X528">
         <v>-1</v>
@@ -47514,16 +47514,16 @@
         <v>-1</v>
       </c>
       <c r="Z528">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA528">
         <v>-1</v>
       </c>
       <c r="AB528">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC528">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="529" spans="1:29">
@@ -47798,7 +47798,7 @@
         <v>530</v>
       </c>
       <c r="B532">
-        <v>5982149</v>
+        <v>5982146</v>
       </c>
       <c r="C532" t="s">
         <v>28</v>
@@ -47810,55 +47810,55 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F532" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G532" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I532">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J532" t="s">
         <v>51</v>
       </c>
       <c r="K532">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L532">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M532">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N532">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O532">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P532">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q532">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R532">
-        <v>2.07</v>
+        <v>1.925</v>
       </c>
       <c r="S532">
-        <v>1.83</v>
+        <v>1.925</v>
       </c>
       <c r="T532">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U532">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V532">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W532">
         <v>-1</v>
@@ -47867,19 +47867,19 @@
         <v>-1</v>
       </c>
       <c r="Y532">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Z532">
         <v>-1</v>
       </c>
       <c r="AA532">
-        <v>0.8300000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB532">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC532">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="533" spans="1:29">
@@ -47887,7 +47887,7 @@
         <v>531</v>
       </c>
       <c r="B533">
-        <v>5982148</v>
+        <v>5982149</v>
       </c>
       <c r="C533" t="s">
         <v>28</v>
@@ -47899,19 +47899,19 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F533" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G533" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H533">
         <v>0</v>
       </c>
       <c r="I533">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J533" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K533">
         <v>2.625</v>
@@ -47923,52 +47923,52 @@
         <v>2.5</v>
       </c>
       <c r="N533">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O533">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P533">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q533">
         <v>0</v>
       </c>
       <c r="R533">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S533">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T533">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U533">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V533">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W533">
         <v>-1</v>
       </c>
       <c r="X533">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y533">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z533">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA533">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB533">
         <v>-1</v>
       </c>
       <c r="AC533">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="534" spans="1:29">
@@ -47976,7 +47976,7 @@
         <v>532</v>
       </c>
       <c r="B534">
-        <v>5982146</v>
+        <v>5982148</v>
       </c>
       <c r="C534" t="s">
         <v>28</v>
@@ -47988,46 +47988,46 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F534" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G534" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H534">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J534" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K534">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L534">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M534">
+        <v>2.5</v>
+      </c>
+      <c r="N534">
+        <v>2.8</v>
+      </c>
+      <c r="O534">
+        <v>3.5</v>
+      </c>
+      <c r="P534">
+        <v>2.4</v>
+      </c>
+      <c r="Q534">
+        <v>0</v>
+      </c>
+      <c r="R534">
         <v>2.1</v>
       </c>
-      <c r="N534">
-        <v>3.1</v>
-      </c>
-      <c r="O534">
-        <v>3.6</v>
-      </c>
-      <c r="P534">
-        <v>2.2</v>
-      </c>
-      <c r="Q534">
-        <v>0.25</v>
-      </c>
-      <c r="R534">
-        <v>1.925</v>
-      </c>
       <c r="S534">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T534">
         <v>2.75</v>
@@ -48042,22 +48042,22 @@
         <v>-1</v>
       </c>
       <c r="X534">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y534">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z534">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA534">
+        <v>-0</v>
+      </c>
+      <c r="AB534">
+        <v>-1</v>
+      </c>
+      <c r="AC534">
         <v>0.925</v>
-      </c>
-      <c r="AB534">
-        <v>0.925</v>
-      </c>
-      <c r="AC534">
-        <v>-1</v>
       </c>
     </row>
     <row r="535" spans="1:29">
@@ -52782,7 +52782,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>5981895</v>
+        <v>5982185</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52794,10 +52794,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F588" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G588" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H588">
         <v>1</v>
@@ -52809,40 +52809,40 @@
         <v>51</v>
       </c>
       <c r="K588">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L588">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M588">
         <v>2</v>
       </c>
       <c r="N588">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O588">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P588">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q588">
         <v>0.25</v>
       </c>
       <c r="R588">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S588">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T588">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U588">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V588">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W588">
         <v>-1</v>
@@ -52851,19 +52851,19 @@
         <v>-1</v>
       </c>
       <c r="Y588">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z588">
         <v>-1</v>
       </c>
       <c r="AA588">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB588">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AC588">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52871,7 +52871,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>5982185</v>
+        <v>5981895</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52883,10 +52883,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F589" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G589" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H589">
         <v>1</v>
@@ -52898,40 +52898,40 @@
         <v>51</v>
       </c>
       <c r="K589">
+        <v>3.4</v>
+      </c>
+      <c r="L589">
+        <v>3.4</v>
+      </c>
+      <c r="M589">
+        <v>2</v>
+      </c>
+      <c r="N589">
         <v>3.3</v>
       </c>
-      <c r="L589">
-        <v>3.6</v>
-      </c>
-      <c r="M589">
-        <v>2</v>
-      </c>
-      <c r="N589">
-        <v>3</v>
-      </c>
       <c r="O589">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P589">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q589">
         <v>0.25</v>
       </c>
       <c r="R589">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S589">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T589">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U589">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V589">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W589">
         <v>-1</v>
@@ -52940,19 +52940,19 @@
         <v>-1</v>
       </c>
       <c r="Y589">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z589">
         <v>-1</v>
       </c>
       <c r="AA589">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB589">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AC589">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53316,7 +53316,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>5982187</v>
+        <v>5982186</v>
       </c>
       <c r="C594" t="s">
         <v>28</v>
@@ -53328,10 +53328,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F594" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G594" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H594">
         <v>1</v>
@@ -53343,31 +53343,31 @@
         <v>51</v>
       </c>
       <c r="K594">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L594">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M594">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N594">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O594">
         <v>3.6</v>
       </c>
       <c r="P594">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q594">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R594">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S594">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T594">
         <v>2.5</v>
@@ -53385,13 +53385,13 @@
         <v>-1</v>
       </c>
       <c r="Y594">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z594">
         <v>-1</v>
       </c>
       <c r="AA594">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB594">
         <v>0.95</v>
@@ -53405,7 +53405,7 @@
         <v>593</v>
       </c>
       <c r="B595">
-        <v>5982186</v>
+        <v>5982187</v>
       </c>
       <c r="C595" t="s">
         <v>28</v>
@@ -53417,10 +53417,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F595" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G595" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H595">
         <v>1</v>
@@ -53432,31 +53432,31 @@
         <v>51</v>
       </c>
       <c r="K595">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L595">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M595">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N595">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O595">
         <v>3.6</v>
       </c>
       <c r="P595">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q595">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R595">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S595">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T595">
         <v>2.5</v>
@@ -53474,13 +53474,13 @@
         <v>-1</v>
       </c>
       <c r="Y595">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z595">
         <v>-1</v>
       </c>
       <c r="AA595">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB595">
         <v>0.95</v>
@@ -53583,7 +53583,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53595,76 +53595,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F597" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G597" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H597">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I597">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J597" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K597">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L597">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M597">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N597">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O597">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P597">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q597">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R597">
+        <v>1.95</v>
+      </c>
+      <c r="S597">
         <v>1.9</v>
       </c>
-      <c r="S597">
-        <v>1.95</v>
-      </c>
       <c r="T597">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U597">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V597">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W597">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X597">
         <v>-1</v>
       </c>
       <c r="Y597">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z597">
+        <v>-1</v>
+      </c>
+      <c r="AA597">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA597">
-        <v>-1</v>
-      </c>
       <c r="AB597">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC597">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53672,7 +53672,7 @@
         <v>596</v>
       </c>
       <c r="B598">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C598" t="s">
         <v>28</v>
@@ -53684,76 +53684,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F598" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G598" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I598">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J598" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K598">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L598">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M598">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N598">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O598">
+        <v>5.5</v>
+      </c>
+      <c r="P598">
+        <v>7.5</v>
+      </c>
+      <c r="Q598">
+        <v>-1.5</v>
+      </c>
+      <c r="R598">
+        <v>1.9</v>
+      </c>
+      <c r="S598">
+        <v>1.95</v>
+      </c>
+      <c r="T598">
         <v>3.5</v>
       </c>
-      <c r="P598">
-        <v>2.55</v>
-      </c>
-      <c r="Q598">
-        <v>0</v>
-      </c>
-      <c r="R598">
+      <c r="U598">
         <v>1.95</v>
       </c>
-      <c r="S598">
+      <c r="V598">
         <v>1.9</v>
       </c>
-      <c r="T598">
-        <v>2.75</v>
-      </c>
-      <c r="U598">
-        <v>1.825</v>
-      </c>
-      <c r="V598">
-        <v>2.025</v>
-      </c>
       <c r="W598">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X598">
         <v>-1</v>
       </c>
       <c r="Y598">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z598">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA598">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB598">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC598">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="599" spans="1:29">
@@ -53761,7 +53761,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>5982191</v>
+        <v>5982192</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53773,76 +53773,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F599" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G599" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H599">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I599">
         <v>1</v>
       </c>
       <c r="J599" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K599">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L599">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M599">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N599">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O599">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P599">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q599">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R599">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S599">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T599">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U599">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V599">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W599">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X599">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y599">
         <v>-1</v>
       </c>
       <c r="Z599">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA599">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB599">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC599">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -53850,7 +53850,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>5982192</v>
+        <v>5982191</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53862,76 +53862,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F600" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G600" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I600">
         <v>1</v>
       </c>
       <c r="J600" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K600">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L600">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M600">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N600">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O600">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P600">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q600">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R600">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S600">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="T600">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U600">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V600">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W600">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X600">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y600">
         <v>-1</v>
       </c>
       <c r="Z600">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA600">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB600">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC600">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -55185,7 +55185,7 @@
         <v>613</v>
       </c>
       <c r="B615">
-        <v>5981900</v>
+        <v>5982204</v>
       </c>
       <c r="C615" t="s">
         <v>28</v>
@@ -55197,76 +55197,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F615" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G615" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615">
         <v>1</v>
       </c>
       <c r="J615" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K615">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L615">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M615">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N615">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O615">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P615">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q615">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R615">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S615">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T615">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U615">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V615">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W615">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X615">
         <v>-1</v>
       </c>
       <c r="Y615">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z615">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA615">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB615">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC615">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="616" spans="1:29">
@@ -55274,7 +55274,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>5982204</v>
+        <v>5981900</v>
       </c>
       <c r="C616" t="s">
         <v>28</v>
@@ -55286,76 +55286,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F616" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G616" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616">
         <v>1</v>
       </c>
       <c r="J616" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K616">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L616">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M616">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N616">
+        <v>3.25</v>
+      </c>
+      <c r="O616">
+        <v>3.3</v>
+      </c>
+      <c r="P616">
+        <v>2.25</v>
+      </c>
+      <c r="Q616">
+        <v>0.25</v>
+      </c>
+      <c r="R616">
+        <v>1.9</v>
+      </c>
+      <c r="S616">
         <v>1.95</v>
       </c>
-      <c r="O616">
-        <v>3.6</v>
-      </c>
-      <c r="P616">
-        <v>3.75</v>
-      </c>
-      <c r="Q616">
-        <v>-0.5</v>
-      </c>
-      <c r="R616">
+      <c r="T616">
+        <v>2.25</v>
+      </c>
+      <c r="U616">
         <v>1.975</v>
       </c>
-      <c r="S616">
+      <c r="V616">
         <v>1.875</v>
       </c>
-      <c r="T616">
-        <v>2.5</v>
-      </c>
-      <c r="U616">
-        <v>1.85</v>
-      </c>
-      <c r="V616">
-        <v>2</v>
-      </c>
       <c r="W616">
+        <v>-1</v>
+      </c>
+      <c r="X616">
+        <v>-1</v>
+      </c>
+      <c r="Y616">
+        <v>1.25</v>
+      </c>
+      <c r="Z616">
+        <v>-1</v>
+      </c>
+      <c r="AA616">
         <v>0.95</v>
       </c>
-      <c r="X616">
-        <v>-1</v>
-      </c>
-      <c r="Y616">
-        <v>-1</v>
-      </c>
-      <c r="Z616">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA616">
-        <v>-1</v>
-      </c>
       <c r="AB616">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC616">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="617" spans="1:29">
@@ -55452,7 +55452,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>5981899</v>
+        <v>5982208</v>
       </c>
       <c r="C618" t="s">
         <v>28</v>
@@ -55464,76 +55464,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F618" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G618" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H618">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I618">
         <v>1</v>
       </c>
       <c r="J618" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K618">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L618">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M618">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N618">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O618">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P618">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q618">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R618">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S618">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T618">
         <v>2.75</v>
       </c>
       <c r="U618">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V618">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W618">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X618">
         <v>-1</v>
       </c>
       <c r="Y618">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z618">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA618">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB618">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC618">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="619" spans="1:29">
@@ -55541,7 +55541,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>5982208</v>
+        <v>5981899</v>
       </c>
       <c r="C619" t="s">
         <v>28</v>
@@ -55553,76 +55553,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F619" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G619" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I619">
         <v>1</v>
       </c>
       <c r="J619" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K619">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L619">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M619">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N619">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O619">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P619">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="Q619">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R619">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S619">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T619">
         <v>2.75</v>
       </c>
       <c r="U619">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V619">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W619">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X619">
         <v>-1</v>
       </c>
       <c r="Y619">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z619">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA619">
+        <v>-1</v>
+      </c>
+      <c r="AB619">
         <v>0.825</v>
       </c>
-      <c r="AB619">
-        <v>-1</v>
-      </c>
       <c r="AC619">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="620" spans="1:29">
@@ -55719,7 +55719,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>5982211</v>
+        <v>5982212</v>
       </c>
       <c r="C621" t="s">
         <v>28</v>
@@ -55731,49 +55731,49 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F621" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G621" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H621">
         <v>1</v>
       </c>
       <c r="I621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J621" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K621">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="L621">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M621">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N621">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="O621">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P621">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="Q621">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R621">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S621">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T621">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U621">
         <v>2</v>
@@ -55782,25 +55782,25 @@
         <v>1.85</v>
       </c>
       <c r="W621">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X621">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y621">
         <v>-1</v>
       </c>
       <c r="Z621">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA621">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB621">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC621">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="622" spans="1:29">
@@ -55808,7 +55808,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>5982212</v>
+        <v>5982211</v>
       </c>
       <c r="C622" t="s">
         <v>28</v>
@@ -55820,49 +55820,49 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F622" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G622" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H622">
         <v>1</v>
       </c>
       <c r="I622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J622" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K622">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="L622">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M622">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N622">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="O622">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P622">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="Q622">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R622">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S622">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T622">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U622">
         <v>2</v>
@@ -55871,25 +55871,25 @@
         <v>1.85</v>
       </c>
       <c r="W622">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X622">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y622">
         <v>-1</v>
       </c>
       <c r="Z622">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA622">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB622">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC622">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="623" spans="1:29">
@@ -55897,7 +55897,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>5982215</v>
+        <v>5982210</v>
       </c>
       <c r="C623" t="s">
         <v>28</v>
@@ -55909,73 +55909,73 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F623" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G623" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H623">
+        <v>3</v>
+      </c>
+      <c r="I623">
         <v>0</v>
       </c>
-      <c r="I623">
-        <v>3</v>
-      </c>
       <c r="J623" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K623">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L623">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M623">
+        <v>3.6</v>
+      </c>
+      <c r="N623">
+        <v>2.25</v>
+      </c>
+      <c r="O623">
+        <v>3.25</v>
+      </c>
+      <c r="P623">
+        <v>3.3</v>
+      </c>
+      <c r="Q623">
+        <v>-0.25</v>
+      </c>
+      <c r="R623">
+        <v>1.99</v>
+      </c>
+      <c r="S623">
+        <v>1.91</v>
+      </c>
+      <c r="T623">
         <v>2.5</v>
       </c>
-      <c r="N623">
-        <v>2.8</v>
-      </c>
-      <c r="O623">
-        <v>3.4</v>
-      </c>
-      <c r="P623">
-        <v>2.5</v>
-      </c>
-      <c r="Q623">
-        <v>0</v>
-      </c>
-      <c r="R623">
-        <v>2.06</v>
-      </c>
-      <c r="S623">
-        <v>1.84</v>
-      </c>
-      <c r="T623">
-        <v>2</v>
-      </c>
       <c r="U623">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V623">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W623">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X623">
         <v>-1</v>
       </c>
       <c r="Y623">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z623">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA623">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB623">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC623">
         <v>-1</v>
@@ -55986,7 +55986,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>5982210</v>
+        <v>5982215</v>
       </c>
       <c r="C624" t="s">
         <v>28</v>
@@ -55998,73 +55998,73 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F624" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G624" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H624">
+        <v>0</v>
+      </c>
+      <c r="I624">
         <v>3</v>
       </c>
-      <c r="I624">
+      <c r="J624" t="s">
+        <v>51</v>
+      </c>
+      <c r="K624">
+        <v>2.75</v>
+      </c>
+      <c r="L624">
+        <v>3.1</v>
+      </c>
+      <c r="M624">
+        <v>2.5</v>
+      </c>
+      <c r="N624">
+        <v>2.8</v>
+      </c>
+      <c r="O624">
+        <v>3.4</v>
+      </c>
+      <c r="P624">
+        <v>2.5</v>
+      </c>
+      <c r="Q624">
         <v>0</v>
       </c>
-      <c r="J624" t="s">
-        <v>49</v>
-      </c>
-      <c r="K624">
-        <v>2.05</v>
-      </c>
-      <c r="L624">
-        <v>3.2</v>
-      </c>
-      <c r="M624">
-        <v>3.6</v>
-      </c>
-      <c r="N624">
-        <v>2.25</v>
-      </c>
-      <c r="O624">
-        <v>3.25</v>
-      </c>
-      <c r="P624">
-        <v>3.3</v>
-      </c>
-      <c r="Q624">
-        <v>-0.25</v>
-      </c>
       <c r="R624">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="S624">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T624">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U624">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V624">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W624">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X624">
         <v>-1</v>
       </c>
       <c r="Y624">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z624">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA624">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB624">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC624">
         <v>-1</v>
@@ -60258,7 +60258,7 @@
         <v>670</v>
       </c>
       <c r="B672">
-        <v>5982249</v>
+        <v>5982246</v>
       </c>
       <c r="C672" t="s">
         <v>28</v>
@@ -60270,10 +60270,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F672" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G672" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H672">
         <v>0</v>
@@ -60285,41 +60285,41 @@
         <v>51</v>
       </c>
       <c r="K672">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L672">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M672">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N672">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O672">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P672">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q672">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R672">
+        <v>2.05</v>
+      </c>
+      <c r="S672">
         <v>1.85</v>
-      </c>
-      <c r="S672">
-        <v>2</v>
       </c>
       <c r="T672">
         <v>2.75</v>
       </c>
       <c r="U672">
+        <v>1.975</v>
+      </c>
+      <c r="V672">
         <v>1.875</v>
       </c>
-      <c r="V672">
-        <v>1.975</v>
-      </c>
       <c r="W672">
         <v>-1</v>
       </c>
@@ -60327,19 +60327,19 @@
         <v>-1</v>
       </c>
       <c r="Y672">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z672">
         <v>-1</v>
       </c>
       <c r="AA672">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB672">
         <v>-1</v>
       </c>
       <c r="AC672">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="673" spans="1:29">
@@ -60347,7 +60347,7 @@
         <v>671</v>
       </c>
       <c r="B673">
-        <v>5982246</v>
+        <v>5982249</v>
       </c>
       <c r="C673" t="s">
         <v>28</v>
@@ -60359,10 +60359,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F673" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G673" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H673">
         <v>0</v>
@@ -60374,41 +60374,41 @@
         <v>51</v>
       </c>
       <c r="K673">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L673">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M673">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N673">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O673">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P673">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q673">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R673">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S673">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T673">
         <v>2.75</v>
       </c>
       <c r="U673">
+        <v>1.875</v>
+      </c>
+      <c r="V673">
         <v>1.975</v>
       </c>
-      <c r="V673">
-        <v>1.875</v>
-      </c>
       <c r="W673">
         <v>-1</v>
       </c>
@@ -60416,19 +60416,19 @@
         <v>-1</v>
       </c>
       <c r="Y673">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z673">
         <v>-1</v>
       </c>
       <c r="AA673">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB673">
         <v>-1</v>
       </c>
       <c r="AC673">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="674" spans="1:29">
@@ -62216,7 +62216,7 @@
         <v>692</v>
       </c>
       <c r="B694">
-        <v>5981919</v>
+        <v>5982265</v>
       </c>
       <c r="C694" t="s">
         <v>28</v>
@@ -62228,40 +62228,40 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F694" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G694" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H694">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I694">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J694" t="s">
         <v>49</v>
       </c>
       <c r="K694">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L694">
+        <v>4.2</v>
+      </c>
+      <c r="M694">
+        <v>5.25</v>
+      </c>
+      <c r="N694">
+        <v>1.363</v>
+      </c>
+      <c r="O694">
+        <v>5.5</v>
+      </c>
+      <c r="P694">
         <v>7</v>
       </c>
-      <c r="M694">
-        <v>15</v>
-      </c>
-      <c r="N694">
-        <v>1.09</v>
-      </c>
-      <c r="O694">
-        <v>12</v>
-      </c>
-      <c r="P694">
-        <v>19</v>
-      </c>
       <c r="Q694">
-        <v>-2.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R694">
         <v>1.95</v>
@@ -62270,16 +62270,16 @@
         <v>1.9</v>
       </c>
       <c r="T694">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U694">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V694">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W694">
-        <v>0.09000000000000008</v>
+        <v>0.363</v>
       </c>
       <c r="X694">
         <v>-1</v>
@@ -62294,7 +62294,7 @@
         <v>-1</v>
       </c>
       <c r="AB694">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC694">
         <v>-1</v>
@@ -62305,7 +62305,7 @@
         <v>693</v>
       </c>
       <c r="B695">
-        <v>5982265</v>
+        <v>5981919</v>
       </c>
       <c r="C695" t="s">
         <v>28</v>
@@ -62317,40 +62317,40 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F695" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G695" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H695">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J695" t="s">
         <v>49</v>
       </c>
       <c r="K695">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L695">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M695">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N695">
-        <v>1.363</v>
+        <v>1.09</v>
       </c>
       <c r="O695">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="P695">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q695">
-        <v>-1.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R695">
         <v>1.95</v>
@@ -62359,16 +62359,16 @@
         <v>1.9</v>
       </c>
       <c r="T695">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U695">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V695">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W695">
-        <v>0.363</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X695">
         <v>-1</v>
@@ -62383,7 +62383,7 @@
         <v>-1</v>
       </c>
       <c r="AB695">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC695">
         <v>-1</v>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -29108,7 +29108,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>4574098</v>
+        <v>4568263</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29120,76 +29120,76 @@
         <v>44710.52083333334</v>
       </c>
       <c r="F322" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H322">
         <v>1</v>
       </c>
       <c r="I322">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K322">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="L322">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M322">
-        <v>1.75</v>
+        <v>1.571</v>
       </c>
       <c r="N322">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="O322">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P322">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="Q322">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R322">
-        <v>1.79</v>
+        <v>1.825</v>
       </c>
       <c r="S322">
-        <v>2.11</v>
+        <v>2.025</v>
       </c>
       <c r="T322">
         <v>2.25</v>
       </c>
       <c r="U322">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V322">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W322">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X322">
         <v>-1</v>
       </c>
       <c r="Y322">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z322">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AA322">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB322">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC322">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29197,7 +29197,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>4568263</v>
+        <v>4574098</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29209,76 +29209,76 @@
         <v>44710.52083333334</v>
       </c>
       <c r="F323" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G323" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H323">
         <v>1</v>
       </c>
       <c r="I323">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K323">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="L323">
+        <v>3.5</v>
+      </c>
+      <c r="M323">
+        <v>1.75</v>
+      </c>
+      <c r="N323">
         <v>3.75</v>
       </c>
-      <c r="M323">
-        <v>1.571</v>
-      </c>
-      <c r="N323">
-        <v>7</v>
-      </c>
       <c r="O323">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P323">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="Q323">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R323">
-        <v>1.825</v>
+        <v>1.79</v>
       </c>
       <c r="S323">
-        <v>2.025</v>
+        <v>2.11</v>
       </c>
       <c r="T323">
         <v>2.25</v>
       </c>
       <c r="U323">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V323">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W323">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X323">
         <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AA323">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB323">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC323">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29731,7 +29731,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>4568270</v>
+        <v>4568269</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29743,73 +29743,73 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F329" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G329" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H329">
+        <v>4</v>
+      </c>
+      <c r="I329">
         <v>1</v>
       </c>
-      <c r="I329">
-        <v>2</v>
-      </c>
       <c r="J329" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K329">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="L329">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M329">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N329">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="O329">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P329">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="Q329">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R329">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="S329">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T329">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U329">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V329">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W329">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X329">
         <v>-1</v>
       </c>
       <c r="Y329">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA329">
-        <v>1.06</v>
+        <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC329">
         <v>-1</v>
@@ -29820,7 +29820,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>4568269</v>
+        <v>4574097</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29832,58 +29832,58 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F330" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G330" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H330">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="s">
         <v>49</v>
       </c>
       <c r="K330">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="L330">
+        <v>3.5</v>
+      </c>
+      <c r="M330">
+        <v>4</v>
+      </c>
+      <c r="N330">
+        <v>1.85</v>
+      </c>
+      <c r="O330">
+        <v>3.6</v>
+      </c>
+      <c r="P330">
         <v>4.333</v>
       </c>
-      <c r="M330">
-        <v>7</v>
-      </c>
-      <c r="N330">
-        <v>1.363</v>
-      </c>
-      <c r="O330">
-        <v>5</v>
-      </c>
-      <c r="P330">
-        <v>8</v>
-      </c>
       <c r="Q330">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R330">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S330">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="T330">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U330">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V330">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W330">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X330">
         <v>-1</v>
@@ -29892,16 +29892,16 @@
         <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0.8600000000000001</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA330">
         <v>-1</v>
       </c>
       <c r="AB330">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC330">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29909,7 +29909,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>4574097</v>
+        <v>4568270</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29921,76 +29921,76 @@
         <v>44739.58333333334</v>
       </c>
       <c r="F331" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G331" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H331">
         <v>1</v>
       </c>
       <c r="I331">
+        <v>2</v>
+      </c>
+      <c r="J331" t="s">
+        <v>51</v>
+      </c>
+      <c r="K331">
+        <v>2.7</v>
+      </c>
+      <c r="L331">
+        <v>3.4</v>
+      </c>
+      <c r="M331">
+        <v>2.4</v>
+      </c>
+      <c r="N331">
+        <v>2.6</v>
+      </c>
+      <c r="O331">
+        <v>3.4</v>
+      </c>
+      <c r="P331">
+        <v>2.75</v>
+      </c>
+      <c r="Q331">
         <v>0</v>
       </c>
-      <c r="J331" t="s">
-        <v>49</v>
-      </c>
-      <c r="K331">
-        <v>1.85</v>
-      </c>
-      <c r="L331">
-        <v>3.5</v>
-      </c>
-      <c r="M331">
-        <v>4</v>
-      </c>
-      <c r="N331">
-        <v>1.85</v>
-      </c>
-      <c r="O331">
-        <v>3.6</v>
-      </c>
-      <c r="P331">
-        <v>4.333</v>
-      </c>
-      <c r="Q331">
-        <v>-0.5</v>
-      </c>
       <c r="R331">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="S331">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="T331">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V331">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W331">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z331">
-        <v>0.8899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>1.06</v>
       </c>
       <c r="AB331">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC331">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -31778,7 +31778,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>4568288</v>
+        <v>4568286</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31790,13 +31790,13 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F352" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G352" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I352">
         <v>0</v>
@@ -31808,40 +31808,40 @@
         <v>1.909</v>
       </c>
       <c r="L352">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M352">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N352">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O352">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P352">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q352">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R352">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S352">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T352">
         <v>3</v>
       </c>
       <c r="U352">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V352">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W352">
-        <v>0.75</v>
+        <v>0.909</v>
       </c>
       <c r="X352">
         <v>-1</v>
@@ -31850,16 +31850,16 @@
         <v>-1</v>
       </c>
       <c r="Z352">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA352">
         <v>-1</v>
       </c>
       <c r="AB352">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC352">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="353" spans="1:29">
@@ -31867,7 +31867,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>4568286</v>
+        <v>4568288</v>
       </c>
       <c r="C353" t="s">
         <v>28</v>
@@ -31879,13 +31879,13 @@
         <v>44759.41666666666</v>
       </c>
       <c r="F353" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G353" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H353">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353">
         <v>0</v>
@@ -31897,40 +31897,40 @@
         <v>1.909</v>
       </c>
       <c r="L353">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M353">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N353">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O353">
+        <v>4.333</v>
+      </c>
+      <c r="P353">
         <v>4</v>
       </c>
-      <c r="P353">
-        <v>3.5</v>
-      </c>
       <c r="Q353">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R353">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S353">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T353">
         <v>3</v>
       </c>
       <c r="U353">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V353">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W353">
-        <v>0.909</v>
+        <v>0.75</v>
       </c>
       <c r="X353">
         <v>-1</v>
@@ -31939,16 +31939,16 @@
         <v>-1</v>
       </c>
       <c r="Z353">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA353">
         <v>-1</v>
       </c>
       <c r="AB353">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC353">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="354" spans="1:29">
@@ -32668,7 +32668,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4568293</v>
+        <v>4568296</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32680,55 +32680,55 @@
         <v>44767.58333333334</v>
       </c>
       <c r="F362" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G362" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H362">
         <v>0</v>
       </c>
       <c r="I362">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J362" t="s">
         <v>51</v>
       </c>
       <c r="K362">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="L362">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M362">
-        <v>4.333</v>
+        <v>1.45</v>
       </c>
       <c r="N362">
-        <v>1.666</v>
+        <v>6.5</v>
       </c>
       <c r="O362">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P362">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="Q362">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R362">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S362">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T362">
         <v>2.75</v>
       </c>
       <c r="U362">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V362">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W362">
         <v>-1</v>
@@ -32737,19 +32737,19 @@
         <v>-1</v>
       </c>
       <c r="Y362">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="Z362">
         <v>-1</v>
       </c>
       <c r="AA362">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB362">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC362">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32757,7 +32757,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>4568296</v>
+        <v>4568293</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32769,55 +32769,55 @@
         <v>44767.58333333334</v>
       </c>
       <c r="F363" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G363" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H363">
         <v>0</v>
       </c>
       <c r="I363">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J363" t="s">
         <v>51</v>
       </c>
       <c r="K363">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="L363">
+        <v>3.6</v>
+      </c>
+      <c r="M363">
         <v>4.333</v>
       </c>
-      <c r="M363">
-        <v>1.45</v>
-      </c>
       <c r="N363">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="O363">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P363">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q363">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R363">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S363">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T363">
         <v>2.75</v>
       </c>
       <c r="U363">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V363">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W363">
         <v>-1</v>
@@ -32826,19 +32826,19 @@
         <v>-1</v>
       </c>
       <c r="Y363">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="Z363">
         <v>-1</v>
       </c>
       <c r="AA363">
+        <v>0.95</v>
+      </c>
+      <c r="AB363">
+        <v>-1</v>
+      </c>
+      <c r="AC363">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB363">
-        <v>0.4875</v>
-      </c>
-      <c r="AC363">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -34448,7 +34448,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>4568313</v>
+        <v>4568310</v>
       </c>
       <c r="C382" t="s">
         <v>28</v>
@@ -34460,10 +34460,10 @@
         <v>44787.52083333334</v>
       </c>
       <c r="F382" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G382" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H382">
         <v>1</v>
@@ -34475,40 +34475,40 @@
         <v>50</v>
       </c>
       <c r="K382">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="L382">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M382">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="N382">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O382">
         <v>3.6</v>
       </c>
       <c r="P382">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q382">
         <v>-0.5</v>
       </c>
       <c r="R382">
+        <v>1.925</v>
+      </c>
+      <c r="S382">
+        <v>1.925</v>
+      </c>
+      <c r="T382">
+        <v>2.75</v>
+      </c>
+      <c r="U382">
+        <v>2</v>
+      </c>
+      <c r="V382">
         <v>1.85</v>
-      </c>
-      <c r="S382">
-        <v>2</v>
-      </c>
-      <c r="T382">
-        <v>3</v>
-      </c>
-      <c r="U382">
-        <v>1.925</v>
-      </c>
-      <c r="V382">
-        <v>1.925</v>
       </c>
       <c r="W382">
         <v>-1</v>
@@ -34523,13 +34523,13 @@
         <v>-1</v>
       </c>
       <c r="AA382">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AB382">
         <v>-1</v>
       </c>
       <c r="AC382">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="383" spans="1:29">
@@ -34537,7 +34537,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>4568310</v>
+        <v>4568313</v>
       </c>
       <c r="C383" t="s">
         <v>28</v>
@@ -34549,10 +34549,10 @@
         <v>44787.52083333334</v>
       </c>
       <c r="F383" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G383" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H383">
         <v>1</v>
@@ -34564,40 +34564,40 @@
         <v>50</v>
       </c>
       <c r="K383">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L383">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M383">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="N383">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O383">
         <v>3.6</v>
       </c>
       <c r="P383">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q383">
         <v>-0.5</v>
       </c>
       <c r="R383">
+        <v>1.85</v>
+      </c>
+      <c r="S383">
+        <v>2</v>
+      </c>
+      <c r="T383">
+        <v>3</v>
+      </c>
+      <c r="U383">
         <v>1.925</v>
       </c>
-      <c r="S383">
+      <c r="V383">
         <v>1.925</v>
-      </c>
-      <c r="T383">
-        <v>2.75</v>
-      </c>
-      <c r="U383">
-        <v>2</v>
-      </c>
-      <c r="V383">
-        <v>1.85</v>
       </c>
       <c r="W383">
         <v>-1</v>
@@ -34612,13 +34612,13 @@
         <v>-1</v>
       </c>
       <c r="AA383">
+        <v>1</v>
+      </c>
+      <c r="AB383">
+        <v>-1</v>
+      </c>
+      <c r="AC383">
         <v>0.925</v>
-      </c>
-      <c r="AB383">
-        <v>-1</v>
-      </c>
-      <c r="AC383">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="384" spans="1:29">
@@ -36673,7 +36673,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>4574087</v>
+        <v>4568332</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36685,73 +36685,73 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F407" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G407" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H407">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I407">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J407" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K407">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L407">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M407">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N407">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="O407">
         <v>3.25</v>
       </c>
       <c r="P407">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q407">
         <v>-0.25</v>
       </c>
       <c r="R407">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="S407">
-        <v>2.04</v>
+        <v>1.85</v>
       </c>
       <c r="T407">
         <v>2.25</v>
       </c>
       <c r="U407">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V407">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W407">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z407">
-        <v>0.8600000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB407">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC407">
         <v>-1</v>
@@ -36762,7 +36762,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>4568332</v>
+        <v>4574087</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36774,73 +36774,73 @@
         <v>44809.58333333334</v>
       </c>
       <c r="F408" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G408" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I408">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J408" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K408">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L408">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M408">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N408">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="O408">
         <v>3.25</v>
       </c>
       <c r="P408">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q408">
         <v>-0.25</v>
       </c>
       <c r="R408">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="S408">
-        <v>1.85</v>
+        <v>2.04</v>
       </c>
       <c r="T408">
         <v>2.25</v>
       </c>
       <c r="U408">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V408">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W408">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X408">
         <v>-1</v>
       </c>
       <c r="Y408">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
-        <v>-1</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA408">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB408">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AC408">
         <v>-1</v>
@@ -38720,7 +38720,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>4568347</v>
+        <v>4568348</v>
       </c>
       <c r="C430" t="s">
         <v>28</v>
@@ -38732,76 +38732,76 @@
         <v>44836.52083333334</v>
       </c>
       <c r="F430" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G430" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I430">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J430" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K430">
+        <v>1.6</v>
+      </c>
+      <c r="L430">
+        <v>3.8</v>
+      </c>
+      <c r="M430">
+        <v>5.5</v>
+      </c>
+      <c r="N430">
+        <v>1.571</v>
+      </c>
+      <c r="O430">
         <v>4</v>
       </c>
-      <c r="L430">
-        <v>3.4</v>
-      </c>
-      <c r="M430">
-        <v>1.909</v>
-      </c>
-      <c r="N430">
-        <v>3.2</v>
-      </c>
-      <c r="O430">
-        <v>3.4</v>
-      </c>
       <c r="P430">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Q430">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R430">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S430">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T430">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U430">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V430">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W430">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X430">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y430">
         <v>-1</v>
       </c>
       <c r="Z430">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA430">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB430">
         <v>-1</v>
       </c>
       <c r="AC430">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="431" spans="1:29">
@@ -38809,7 +38809,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>4568348</v>
+        <v>4568347</v>
       </c>
       <c r="C431" t="s">
         <v>28</v>
@@ -38821,76 +38821,76 @@
         <v>44836.52083333334</v>
       </c>
       <c r="F431" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G431" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J431" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K431">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="L431">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M431">
-        <v>5.5</v>
+        <v>1.909</v>
       </c>
       <c r="N431">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O431">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P431">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q431">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R431">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S431">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T431">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U431">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V431">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W431">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X431">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y431">
         <v>-1</v>
       </c>
       <c r="Z431">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA431">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB431">
         <v>-1</v>
       </c>
       <c r="AC431">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="432" spans="1:29">
@@ -40856,7 +40856,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>4568368</v>
+        <v>4567903</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40868,49 +40868,49 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F454" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G454" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J454" t="s">
         <v>51</v>
       </c>
       <c r="K454">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="L454">
         <v>3.5</v>
       </c>
       <c r="M454">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N454">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O454">
         <v>3.6</v>
       </c>
       <c r="P454">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q454">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R454">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S454">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T454">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U454">
         <v>1.925</v>
@@ -40925,13 +40925,13 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB454">
         <v>0.925</v>
@@ -40945,7 +40945,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>4567903</v>
+        <v>4568365</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40957,40 +40957,40 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F455" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G455" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I455">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J455" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K455">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="L455">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M455">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="N455">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O455">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P455">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="Q455">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R455">
         <v>1.925</v>
@@ -40999,31 +40999,31 @@
         <v>1.925</v>
       </c>
       <c r="T455">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U455">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V455">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W455">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X455">
         <v>-1</v>
       </c>
       <c r="Y455">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z455">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA455">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB455">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC455">
         <v>-1</v>
@@ -41034,7 +41034,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>4568365</v>
+        <v>4568368</v>
       </c>
       <c r="C456" t="s">
         <v>28</v>
@@ -41046,73 +41046,73 @@
         <v>44854.58333333334</v>
       </c>
       <c r="F456" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G456" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H456">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J456" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K456">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L456">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M456">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N456">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O456">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P456">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="Q456">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R456">
+        <v>1.9</v>
+      </c>
+      <c r="S456">
+        <v>1.95</v>
+      </c>
+      <c r="T456">
+        <v>2.25</v>
+      </c>
+      <c r="U456">
         <v>1.925</v>
       </c>
-      <c r="S456">
+      <c r="V456">
         <v>1.925</v>
       </c>
-      <c r="T456">
-        <v>2.75</v>
-      </c>
-      <c r="U456">
-        <v>1.9</v>
-      </c>
-      <c r="V456">
-        <v>1.95</v>
-      </c>
       <c r="W456">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X456">
         <v>-1</v>
       </c>
       <c r="Y456">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z456">
+        <v>-1</v>
+      </c>
+      <c r="AA456">
+        <v>0.95</v>
+      </c>
+      <c r="AB456">
         <v>0.925</v>
-      </c>
-      <c r="AA456">
-        <v>-1</v>
-      </c>
-      <c r="AB456">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC456">
         <v>-1</v>
@@ -45929,7 +45929,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>5982130</v>
+        <v>5982129</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45941,13 +45941,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F511" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G511" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I511">
         <v>0</v>
@@ -45956,43 +45956,43 @@
         <v>49</v>
       </c>
       <c r="K511">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L511">
         <v>3.3</v>
       </c>
       <c r="M511">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N511">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O511">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P511">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q511">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R511">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S511">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T511">
         <v>2.25</v>
       </c>
       <c r="U511">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V511">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W511">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X511">
         <v>-1</v>
@@ -46001,16 +46001,16 @@
         <v>-1</v>
       </c>
       <c r="Z511">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA511">
         <v>-1</v>
       </c>
       <c r="AB511">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC511">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -46018,7 +46018,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>5982129</v>
+        <v>5982130</v>
       </c>
       <c r="C512" t="s">
         <v>28</v>
@@ -46030,13 +46030,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F512" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G512" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512">
         <v>0</v>
@@ -46045,43 +46045,43 @@
         <v>49</v>
       </c>
       <c r="K512">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L512">
         <v>3.3</v>
       </c>
       <c r="M512">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N512">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O512">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P512">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q512">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R512">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S512">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T512">
         <v>2.25</v>
       </c>
       <c r="U512">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V512">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W512">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X512">
         <v>-1</v>
@@ -46090,16 +46090,16 @@
         <v>-1</v>
       </c>
       <c r="Z512">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA512">
         <v>-1</v>
       </c>
       <c r="AB512">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC512">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="513" spans="1:29">
@@ -46374,7 +46374,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>5982134</v>
+        <v>5982135</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46386,49 +46386,49 @@
         <v>45045.52083333334</v>
       </c>
       <c r="F516" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G516" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H516">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J516" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K516">
-        <v>1.285</v>
+        <v>1.7</v>
       </c>
       <c r="L516">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M516">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="N516">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O516">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P516">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q516">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R516">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S516">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T516">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U516">
         <v>1.95</v>
@@ -46437,25 +46437,25 @@
         <v>1.9</v>
       </c>
       <c r="W516">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X516">
         <v>-1</v>
       </c>
       <c r="Y516">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z516">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA516">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB516">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC516">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="517" spans="1:29">
@@ -46463,7 +46463,7 @@
         <v>515</v>
       </c>
       <c r="B517">
-        <v>5982135</v>
+        <v>5982134</v>
       </c>
       <c r="C517" t="s">
         <v>28</v>
@@ -46475,49 +46475,49 @@
         <v>45045.52083333334</v>
       </c>
       <c r="F517" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G517" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I517">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J517" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K517">
-        <v>1.7</v>
+        <v>1.285</v>
       </c>
       <c r="L517">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M517">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="N517">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O517">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P517">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q517">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R517">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S517">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T517">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U517">
         <v>1.95</v>
@@ -46526,25 +46526,25 @@
         <v>1.9</v>
       </c>
       <c r="W517">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X517">
         <v>-1</v>
       </c>
       <c r="Y517">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z517">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA517">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB517">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC517">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="518" spans="1:29">
@@ -61682,7 +61682,7 @@
         <v>686</v>
       </c>
       <c r="B688">
-        <v>5981917</v>
+        <v>5982259</v>
       </c>
       <c r="C688" t="s">
         <v>28</v>
@@ -61694,49 +61694,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F688" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G688" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H688">
+        <v>2</v>
+      </c>
+      <c r="I688">
+        <v>2</v>
+      </c>
+      <c r="J688" t="s">
+        <v>50</v>
+      </c>
+      <c r="K688">
+        <v>2.55</v>
+      </c>
+      <c r="L688">
+        <v>3.4</v>
+      </c>
+      <c r="M688">
+        <v>2.6</v>
+      </c>
+      <c r="N688">
+        <v>2.6</v>
+      </c>
+      <c r="O688">
+        <v>3.6</v>
+      </c>
+      <c r="P688">
+        <v>2.6</v>
+      </c>
+      <c r="Q688">
         <v>0</v>
       </c>
-      <c r="I688">
-        <v>1</v>
-      </c>
-      <c r="J688" t="s">
-        <v>51</v>
-      </c>
-      <c r="K688">
-        <v>5.5</v>
-      </c>
-      <c r="L688">
-        <v>4</v>
-      </c>
-      <c r="M688">
-        <v>1.571</v>
-      </c>
-      <c r="N688">
-        <v>7</v>
-      </c>
-      <c r="O688">
-        <v>4.2</v>
-      </c>
-      <c r="P688">
-        <v>1.5</v>
-      </c>
-      <c r="Q688">
-        <v>1.25</v>
-      </c>
       <c r="R688">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S688">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T688">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U688">
         <v>1.9</v>
@@ -61748,22 +61748,22 @@
         <v>-1</v>
       </c>
       <c r="X688">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y688">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z688">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA688">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB688">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC688">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="689" spans="1:29">
@@ -61771,7 +61771,7 @@
         <v>687</v>
       </c>
       <c r="B689">
-        <v>5982259</v>
+        <v>5981917</v>
       </c>
       <c r="C689" t="s">
         <v>28</v>
@@ -61783,49 +61783,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F689" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G689" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J689" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K689">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="L689">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M689">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N689">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="O689">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P689">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q689">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R689">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S689">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T689">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U689">
         <v>1.9</v>
@@ -61837,22 +61837,22 @@
         <v>-1</v>
       </c>
       <c r="X689">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y689">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z689">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA689">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB689">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC689">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="690" spans="1:29">

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -127,10 +127,10 @@
     <t>Elfsborg</t>
   </si>
   <si>
-    <t>Degerfors</t>
+    <t>Brommapojkarna</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
+    <t>Degerfors</t>
   </si>
   <si>
     <t>BK Hacken</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5982118</v>
+        <v>5981871</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>5.25</v>
+      </c>
+      <c r="L10">
+        <v>4.2</v>
+      </c>
+      <c r="M10">
+        <v>1.571</v>
+      </c>
+      <c r="N10">
+        <v>6.5</v>
+      </c>
+      <c r="O10">
+        <v>4.75</v>
+      </c>
+      <c r="P10">
+        <v>1.45</v>
+      </c>
+      <c r="Q10">
+        <v>1.25</v>
+      </c>
+      <c r="R10">
+        <v>1.89</v>
+      </c>
+      <c r="S10">
+        <v>2.01</v>
+      </c>
+      <c r="T10">
         <v>3</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>2.25</v>
-      </c>
-      <c r="L10">
-        <v>3.3</v>
-      </c>
-      <c r="M10">
-        <v>3.25</v>
-      </c>
-      <c r="N10">
-        <v>2.5</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.875</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1.85</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -1391,25 +1391,25 @@
         <v>1.9</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5981871</v>
+        <v>5982118</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="N11">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O11">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -1480,25 +1480,25 @@
         <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.445</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5981873</v>
+        <v>5982124</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2423,43 +2423,43 @@
         <v>45</v>
       </c>
       <c r="K22">
+        <v>1.85</v>
+      </c>
+      <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>3.8</v>
+      </c>
+      <c r="N22">
+        <v>1.8</v>
+      </c>
+      <c r="O22">
         <v>3.6</v>
       </c>
-      <c r="L22">
-        <v>3.3</v>
-      </c>
-      <c r="M22">
-        <v>1.909</v>
-      </c>
-      <c r="N22">
-        <v>3.4</v>
-      </c>
-      <c r="O22">
-        <v>3.5</v>
-      </c>
       <c r="P22">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2468,7 +2468,7 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2477,7 +2477,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5982124</v>
+        <v>5981873</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,10 +2497,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2512,61 +2512,61 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
+        <v>3.3</v>
+      </c>
+      <c r="M23">
+        <v>1.909</v>
+      </c>
+      <c r="N23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>3.8</v>
-      </c>
-      <c r="N23">
+      <c r="O23">
+        <v>3.5</v>
+      </c>
+      <c r="P23">
+        <v>2.1</v>
+      </c>
+      <c r="Q23">
+        <v>0.25</v>
+      </c>
+      <c r="R23">
+        <v>2.05</v>
+      </c>
+      <c r="S23">
         <v>1.8</v>
-      </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
-      <c r="P23">
-        <v>4.5</v>
-      </c>
-      <c r="Q23">
-        <v>-0.75</v>
-      </c>
-      <c r="R23">
-        <v>2.07</v>
-      </c>
-      <c r="S23">
-        <v>1.83</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
+        <v>2.4</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>1.05</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.8</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>1.07</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2853,7 +2853,7 @@
         <v>45038.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5981874</v>
+        <v>5982128</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,13 +2942,13 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2957,43 +2957,43 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M28">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N28">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T28">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,16 +3002,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5982128</v>
+        <v>5981874</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3046,43 +3046,43 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.533</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N29">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P29">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
-        <v>0.75</v>
+        <v>0.55</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,16 +3091,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5982130</v>
+        <v>5982129</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,13 +3209,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3224,43 +3224,43 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L31">
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,16 +3269,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5982129</v>
+        <v>5982130</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,13 +3298,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3313,43 +3313,43 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L32">
         <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3358,16 +3358,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3746,7 +3746,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>45046.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5982142</v>
+        <v>5982140</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N42">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="O42">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
+        <v>8</v>
+      </c>
+      <c r="Q42">
+        <v>-1.25</v>
+      </c>
+      <c r="R42">
+        <v>2.01</v>
+      </c>
+      <c r="S42">
+        <v>1.89</v>
+      </c>
+      <c r="T42">
         <v>2.75</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42">
-        <v>1.85</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X42">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5982140</v>
+        <v>5982142</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="O45">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5982138</v>
+        <v>5982139</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,13 +4544,13 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4559,43 +4559,43 @@
         <v>45</v>
       </c>
       <c r="K46">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
         <v>3.4</v>
       </c>
       <c r="M46">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N46">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O46">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S46">
+        <v>1.975</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46">
         <v>1.85</v>
       </c>
-      <c r="T46">
-        <v>2.75</v>
-      </c>
-      <c r="U46">
-        <v>1.975</v>
-      </c>
-      <c r="V46">
-        <v>1.875</v>
-      </c>
       <c r="W46">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="X46">
         <v>-1</v>
@@ -4604,16 +4604,16 @@
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
         <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5982143</v>
+        <v>5982138</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
       </c>
       <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
         <v>3.6</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
+        <v>2.75</v>
+      </c>
+      <c r="U47">
         <v>1.975</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.5</v>
-      </c>
-      <c r="U47">
-        <v>1.925</v>
-      </c>
-      <c r="V47">
-        <v>1.925</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5982139</v>
+        <v>5982143</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N48">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O48">
         <v>3.25</v>
       </c>
       <c r="P48">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
+        <v>1.975</v>
+      </c>
+      <c r="S48">
         <v>1.875</v>
-      </c>
-      <c r="S48">
-        <v>1.975</v>
       </c>
       <c r="T48">
         <v>2.5</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
         <v>0.875</v>
       </c>
-      <c r="AA48">
-        <v>-1</v>
-      </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5982149</v>
+        <v>5982148</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,16 +5170,16 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>2.625</v>
@@ -5191,52 +5191,52 @@
         <v>2.5</v>
       </c>
       <c r="N53">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S53">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
+        <v>2.75</v>
+      </c>
+      <c r="U53">
+        <v>1.925</v>
+      </c>
+      <c r="V53">
+        <v>1.925</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
         <v>2.5</v>
       </c>
-      <c r="U53">
-        <v>1.9</v>
-      </c>
-      <c r="V53">
-        <v>1.95</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
       <c r="Y53">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.8300000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5982148</v>
+        <v>5982149</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,16 +5259,16 @@
         <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>2.625</v>
@@ -5280,52 +5280,52 @@
         <v>2.5</v>
       </c>
       <c r="N54">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5981882</v>
+        <v>5982153</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,49 +5790,49 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>45</v>
       </c>
       <c r="K60">
+        <v>2.15</v>
+      </c>
+      <c r="L60">
+        <v>3.3</v>
+      </c>
+      <c r="M60">
+        <v>3.2</v>
+      </c>
+      <c r="N60">
+        <v>2.45</v>
+      </c>
+      <c r="O60">
+        <v>3.2</v>
+      </c>
+      <c r="P60">
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1.77</v>
+      </c>
+      <c r="S60">
+        <v>2.14</v>
+      </c>
+      <c r="T60">
         <v>2.25</v>
-      </c>
-      <c r="L60">
-        <v>3.4</v>
-      </c>
-      <c r="M60">
-        <v>3</v>
-      </c>
-      <c r="N60">
-        <v>2.4</v>
-      </c>
-      <c r="O60">
-        <v>3.4</v>
-      </c>
-      <c r="P60">
-        <v>2.9</v>
-      </c>
-      <c r="Q60">
-        <v>-0.25</v>
-      </c>
-      <c r="R60">
-        <v>2.1</v>
-      </c>
-      <c r="S60">
-        <v>1.775</v>
-      </c>
-      <c r="T60">
-        <v>2.5</v>
       </c>
       <c r="U60">
         <v>1.975</v>
@@ -5841,7 +5841,7 @@
         <v>1.875</v>
       </c>
       <c r="W60">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5850,7 +5850,7 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.1</v>
+        <v>0.77</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5990022</v>
+        <v>5981882</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,58 +5879,58 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="s">
         <v>45</v>
       </c>
       <c r="K61">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L61">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P61">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="S61">
-        <v>2.04</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W61">
-        <v>0.5329999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5939,16 +5939,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8600000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5982153</v>
+        <v>5990022</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,13 +5968,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5983,43 +5983,43 @@
         <v>45</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M62">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
+        <v>5.5</v>
+      </c>
+      <c r="Q62">
+        <v>-1</v>
+      </c>
+      <c r="R62">
+        <v>1.86</v>
+      </c>
+      <c r="S62">
+        <v>2.04</v>
+      </c>
+      <c r="T62">
         <v>3</v>
       </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>1.77</v>
-      </c>
-      <c r="S62">
-        <v>2.14</v>
-      </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6028,16 +6028,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.77</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5982152</v>
+        <v>5981883</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,55 +6057,55 @@
         <v>45060.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>1</v>
-      </c>
-      <c r="I63">
-        <v>3</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
+        <v>5.25</v>
+      </c>
+      <c r="L63">
+        <v>4.2</v>
+      </c>
+      <c r="M63">
         <v>1.533</v>
       </c>
-      <c r="L63">
-        <v>4</v>
-      </c>
-      <c r="M63">
-        <v>5.5</v>
-      </c>
       <c r="N63">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P63">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6114,19 +6114,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>3.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5981883</v>
+        <v>5982152</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,55 +6146,55 @@
         <v>45060.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="L64">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N64">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O64">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q64">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6203,19 +6203,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.45</v>
+        <v>3.75</v>
       </c>
       <c r="Z64">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5981884</v>
+        <v>5982159</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,58 +6413,58 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L67">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
         <v>2.5</v>
       </c>
       <c r="U67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>0.571</v>
+        <v>0.95</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6473,16 +6473,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
         <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5982159</v>
+        <v>5981884</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,58 +6502,58 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N68">
-        <v>1.95</v>
+        <v>1.571</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>0.95</v>
+        <v>0.571</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6562,16 +6562,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>1.07</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5982157</v>
+        <v>5982155</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45067.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L70">
         <v>3.3</v>
       </c>
       <c r="M70">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N70">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q70">
+        <v>0.25</v>
+      </c>
+      <c r="R70">
+        <v>1.775</v>
+      </c>
+      <c r="S70">
+        <v>2.1</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
+        <v>2.025</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>2.4</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
+        <v>0.3875</v>
+      </c>
+      <c r="AA70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.875</v>
-      </c>
-      <c r="S70">
-        <v>1.975</v>
-      </c>
-      <c r="T70">
-        <v>2.5</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>2</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>3</v>
-      </c>
-      <c r="Z70">
-        <v>-1</v>
-      </c>
-      <c r="AA70">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5982155</v>
+        <v>5982157</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45067.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L71">
         <v>3.3</v>
       </c>
       <c r="M71">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N71">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z71">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>45071.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -7303,7 +7303,7 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5982163</v>
+        <v>5981886</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,58 +7392,58 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>45</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O78">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
         <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5981886</v>
+        <v>5982163</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,58 +7481,58 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>45</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N79">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P79">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
         <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.8500000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,16 +7541,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5982166</v>
+        <v>5982161</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M81">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N81">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O81">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
         <v>5</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>0.97</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5982161</v>
+        <v>5982166</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L82">
+        <v>3.4</v>
+      </c>
+      <c r="M82">
+        <v>3.5</v>
+      </c>
+      <c r="N82">
+        <v>1.6</v>
+      </c>
+      <c r="O82">
         <v>4.333</v>
-      </c>
-      <c r="M82">
-        <v>7</v>
-      </c>
-      <c r="N82">
-        <v>1.666</v>
-      </c>
-      <c r="O82">
-        <v>3.8</v>
       </c>
       <c r="P82">
         <v>5</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y82">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.97</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5982171</v>
+        <v>5981889</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45081.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O88">
         <v>3.75</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5981889</v>
+        <v>5982171</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45081.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
         <v>3.75</v>
       </c>
       <c r="P89">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q89">
         <v>-0.5</v>
       </c>
       <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.95</v>
+      </c>
+      <c r="T89">
+        <v>2.5</v>
+      </c>
+      <c r="U89">
         <v>1.825</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>2.025</v>
       </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
-      <c r="V89">
-        <v>1.875</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X89">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>1.025</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -8641,7 +8641,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8819,7 +8819,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5982175</v>
+        <v>5981890</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M98">
         <v>5.75</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O98">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.99</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5981890</v>
+        <v>5982175</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
         <v>5.75</v>
       </c>
       <c r="N99">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P99">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.99</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
         <v>43</v>
@@ -9439,7 +9439,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
         <v>42</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5982185</v>
+        <v>5981895</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,10 +10062,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10077,40 +10077,40 @@
         <v>47</v>
       </c>
       <c r="K108">
+        <v>3.4</v>
+      </c>
+      <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
         <v>3.3</v>
       </c>
-      <c r="L108">
-        <v>3.6</v>
-      </c>
-      <c r="M108">
-        <v>2</v>
-      </c>
-      <c r="N108">
-        <v>3</v>
-      </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q108">
         <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10119,19 +10119,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB108">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5981895</v>
+        <v>5982185</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,10 +10151,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10166,40 +10166,40 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
         <v>2</v>
       </c>
       <c r="N109">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q109">
         <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,10 +10240,10 @@
         <v>45115.52083333334</v>
       </c>
       <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
         <v>38</v>
-      </c>
-      <c r="G110" t="s">
-        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5981894</v>
+        <v>5982188</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,10 +10329,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10344,40 +10344,40 @@
         <v>47</v>
       </c>
       <c r="K111">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L111">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N111">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O111">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>9.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q111">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>2.08</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10386,19 +10386,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8200000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB111">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5982188</v>
+        <v>5981894</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,10 +10418,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10433,41 +10433,41 @@
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M112">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="N112">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P112">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>2.08</v>
       </c>
       <c r="S112">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
+        <v>2</v>
+      </c>
+      <c r="V112">
         <v>1.85</v>
       </c>
-      <c r="V112">
-        <v>2</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
@@ -10475,19 +10475,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5982186</v>
+        <v>5982187</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,10 +10596,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10611,31 +10611,31 @@
         <v>47</v>
       </c>
       <c r="K114">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L114">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N114">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O114">
         <v>3.6</v>
       </c>
       <c r="P114">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T114">
         <v>2.5</v>
@@ -10653,13 +10653,13 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB114">
         <v>0.95</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5982187</v>
+        <v>5982186</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,10 +10685,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10700,31 +10700,31 @@
         <v>47</v>
       </c>
       <c r="K115">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M115">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O115">
         <v>3.6</v>
       </c>
       <c r="P115">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T115">
         <v>2.5</v>
@@ -10742,13 +10742,13 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB115">
         <v>0.95</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F117" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" t="s">
         <v>37</v>
       </c>
-      <c r="G117" t="s">
-        <v>40</v>
-      </c>
       <c r="H117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K117">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M117">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N117">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O117">
+        <v>5.5</v>
+      </c>
+      <c r="P117">
+        <v>7.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.5</v>
+      </c>
+      <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
         <v>3.5</v>
       </c>
-      <c r="P117">
-        <v>2.55</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
+      <c r="U117">
         <v>1.95</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.825</v>
-      </c>
-      <c r="V117">
-        <v>2.025</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O118">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q118">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R118">
+        <v>1.95</v>
+      </c>
+      <c r="S118">
         <v>1.9</v>
       </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W118">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11845,7 +11845,7 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12287,10 +12287,10 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" t="s">
         <v>37</v>
-      </c>
-      <c r="G133" t="s">
-        <v>38</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5981900</v>
+        <v>5982204</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N135">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5982204</v>
+        <v>5981900</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N136">
+        <v>3.25</v>
+      </c>
+      <c r="O136">
+        <v>3.3</v>
+      </c>
+      <c r="P136">
+        <v>2.25</v>
+      </c>
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
         <v>1.95</v>
       </c>
-      <c r="O136">
-        <v>3.6</v>
-      </c>
-      <c r="P136">
-        <v>3.75</v>
-      </c>
-      <c r="Q136">
-        <v>-0.5</v>
-      </c>
-      <c r="R136">
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
         <v>1.975</v>
       </c>
-      <c r="S136">
+      <c r="V136">
         <v>1.875</v>
       </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.85</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
       <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>1.25</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
         <v>0.95</v>
       </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5981902</v>
+        <v>5982210</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,43 +13192,43 @@
         <v>45</v>
       </c>
       <c r="K143">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="L143">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="O143">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13237,16 +13237,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5982215</v>
+        <v>5981902</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
+      <c r="J144" t="s">
+        <v>45</v>
+      </c>
+      <c r="K144">
+        <v>1.285</v>
+      </c>
+      <c r="L144">
+        <v>5.5</v>
+      </c>
+      <c r="M144">
+        <v>9</v>
+      </c>
+      <c r="N144">
+        <v>1.3</v>
+      </c>
+      <c r="O144">
+        <v>5.5</v>
+      </c>
+      <c r="P144">
+        <v>9.5</v>
+      </c>
+      <c r="Q144">
+        <v>-1.5</v>
+      </c>
+      <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="J144" t="s">
-        <v>47</v>
-      </c>
-      <c r="K144">
-        <v>2.75</v>
-      </c>
-      <c r="L144">
-        <v>3.1</v>
-      </c>
-      <c r="M144">
-        <v>2.5</v>
-      </c>
-      <c r="N144">
-        <v>2.8</v>
-      </c>
-      <c r="O144">
-        <v>3.4</v>
-      </c>
-      <c r="P144">
-        <v>2.5</v>
-      </c>
-      <c r="Q144">
+      <c r="U144">
+        <v>1.975</v>
+      </c>
+      <c r="V144">
+        <v>1.875</v>
+      </c>
+      <c r="W144">
+        <v>0.3</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.95</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
         <v>0</v>
       </c>
-      <c r="R144">
-        <v>2.06</v>
-      </c>
-      <c r="S144">
-        <v>1.84</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.975</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>1.5</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AB144">
-        <v>0.875</v>
-      </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5982210</v>
+        <v>5982215</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,73 +13355,73 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>3</v>
       </c>
-      <c r="I145">
+      <c r="J145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K145">
+        <v>2.75</v>
+      </c>
+      <c r="L145">
+        <v>3.1</v>
+      </c>
+      <c r="M145">
+        <v>2.5</v>
+      </c>
+      <c r="N145">
+        <v>2.8</v>
+      </c>
+      <c r="O145">
+        <v>3.4</v>
+      </c>
+      <c r="P145">
+        <v>2.5</v>
+      </c>
+      <c r="Q145">
         <v>0</v>
       </c>
-      <c r="J145" t="s">
-        <v>45</v>
-      </c>
-      <c r="K145">
-        <v>2.05</v>
-      </c>
-      <c r="L145">
-        <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>3.6</v>
-      </c>
-      <c r="N145">
-        <v>2.25</v>
-      </c>
-      <c r="O145">
-        <v>3.25</v>
-      </c>
-      <c r="P145">
-        <v>3.3</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
       <c r="R145">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="S145">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z145">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB145">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13447,7 +13447,7 @@
         <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5982219</v>
+        <v>5982217</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>3</v>
       </c>
       <c r="L150">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N150">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="O150">
         <v>3.4</v>
       </c>
       <c r="P150">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="S150">
-        <v>1.775</v>
+        <v>1.96</v>
       </c>
       <c r="T150">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA150">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5982217</v>
+        <v>5982219</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>3</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N151">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O151">
         <v>3.4</v>
       </c>
       <c r="P151">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="S151">
-        <v>1.96</v>
+        <v>1.775</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
+        <v>1.825</v>
+      </c>
+      <c r="V151">
+        <v>2.025</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
         <v>1.9</v>
       </c>
-      <c r="V151">
-        <v>1.95</v>
-      </c>
-      <c r="W151">
-        <v>2.3</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
       <c r="Z151">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14245,7 +14245,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14957,7 +14957,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
         <v>41</v>
@@ -15138,7 +15138,7 @@
         <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5982229</v>
+        <v>5982231</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,58 +15313,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H167">
         <v>3</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
         <v>45</v>
       </c>
       <c r="K167">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="L167">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M167">
         <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O167">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R167">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>0.333</v>
+        <v>0.571</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15373,16 +15373,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5982231</v>
+        <v>5982229</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,58 +15402,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>45</v>
       </c>
       <c r="K168">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M168">
         <v>5.5</v>
       </c>
       <c r="N168">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P168">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Q168">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.571</v>
+        <v>0.333</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15462,16 +15462,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15758,7 +15758,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
         <v>39</v>
@@ -16028,7 +16028,7 @@
         <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H175">
         <v>4</v>
@@ -16384,7 +16384,7 @@
         <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16636,7 +16636,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>5982244</v>
+        <v>5982243</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16648,76 +16648,76 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
         <v>3</v>
       </c>
-      <c r="I182">
-        <v>2</v>
-      </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K182">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L182">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M182">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N182">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="O182">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P182">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q182">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R182">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T182">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W182">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB182">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16725,7 +16725,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>5982243</v>
+        <v>5982244</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16737,76 +16737,76 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I183">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K183">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L183">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M183">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N183">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="O183">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P183">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q183">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R183">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S183">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T183">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U183">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V183">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X183">
         <v>-1</v>
       </c>
       <c r="Y183">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z183">
         <v>-1</v>
       </c>
       <c r="AA183">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB183">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16918,7 +16918,7 @@
         <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17004,7 +17004,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -17093,7 +17093,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5982251</v>
+        <v>5982247</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
         <v>3.8</v>
       </c>
-      <c r="M190">
-        <v>1.727</v>
-      </c>
-      <c r="N190">
-        <v>6.5</v>
-      </c>
       <c r="O190">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P190">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q190">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5982247</v>
+        <v>5982251</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1</v>
       </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K191">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M191">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N191">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P191">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W191">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5982246</v>
+        <v>5982249</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,10 +17538,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17553,41 +17553,41 @@
         <v>47</v>
       </c>
       <c r="K192">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N192">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O192">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
+        <v>1.875</v>
+      </c>
+      <c r="V192">
         <v>1.975</v>
       </c>
-      <c r="V192">
-        <v>1.875</v>
-      </c>
       <c r="W192">
         <v>-1</v>
       </c>
@@ -17595,19 +17595,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>5982249</v>
+        <v>5982246</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,10 +17627,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17642,41 +17642,41 @@
         <v>47</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N193">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P193">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R193">
+        <v>2.05</v>
+      </c>
+      <c r="S193">
         <v>1.85</v>
-      </c>
-      <c r="S193">
-        <v>2</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
+        <v>1.975</v>
+      </c>
+      <c r="V193">
         <v>1.875</v>
       </c>
-      <c r="V193">
-        <v>1.975</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17684,19 +17684,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5982255</v>
+        <v>5982256</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,58 +17894,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
         <v>45</v>
       </c>
       <c r="K196">
+        <v>1.666</v>
+      </c>
+      <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>4.75</v>
+      </c>
+      <c r="N196">
         <v>1.571</v>
       </c>
-      <c r="L196">
+      <c r="O196">
         <v>4.2</v>
       </c>
-      <c r="M196">
-        <v>5.25</v>
-      </c>
-      <c r="N196">
-        <v>1.85</v>
-      </c>
-      <c r="O196">
-        <v>3.75</v>
-      </c>
       <c r="P196">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17954,16 +17954,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5982256</v>
+        <v>5982255</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17983,58 +17983,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>45</v>
       </c>
       <c r="K197">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L197">
+        <v>4.2</v>
+      </c>
+      <c r="M197">
+        <v>5.25</v>
+      </c>
+      <c r="N197">
+        <v>1.85</v>
+      </c>
+      <c r="O197">
+        <v>3.75</v>
+      </c>
+      <c r="P197">
         <v>4</v>
       </c>
-      <c r="M197">
-        <v>4.75</v>
-      </c>
-      <c r="N197">
-        <v>1.571</v>
-      </c>
-      <c r="O197">
-        <v>4.2</v>
-      </c>
-      <c r="P197">
-        <v>5.5</v>
-      </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>1.9</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>3</v>
+      </c>
+      <c r="U197">
+        <v>1.875</v>
+      </c>
+      <c r="V197">
         <v>1.975</v>
       </c>
-      <c r="S197">
-        <v>1.875</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>1.825</v>
-      </c>
-      <c r="V197">
-        <v>2.025</v>
-      </c>
       <c r="W197">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18043,16 +18043,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA197">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18520,7 +18520,7 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5982263</v>
+        <v>5981916</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,40 +18695,40 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
         <v>0</v>
       </c>
-      <c r="I205">
-        <v>3</v>
-      </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>4</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M205">
-        <v>1.869</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R205">
         <v>1.85</v>
@@ -18737,34 +18737,34 @@
         <v>2</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
         <v>1</v>
-      </c>
-      <c r="Z205">
-        <v>-1</v>
-      </c>
-      <c r="AA205">
-        <v>1</v>
-      </c>
-      <c r="AB205">
-        <v>0</v>
-      </c>
-      <c r="AC205">
-        <v>-0</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5981916</v>
+        <v>5982263</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,40 +18873,40 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K207">
         <v>4</v>
       </c>
       <c r="L207">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>1.909</v>
+        <v>1.869</v>
       </c>
       <c r="N207">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O207">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Q207">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R207">
         <v>1.85</v>
@@ -18915,34 +18915,34 @@
         <v>2</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5982259</v>
+        <v>5981917</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,49 +18962,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K208">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N208">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="O208">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P208">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T208">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
         <v>1.9</v>
@@ -19016,22 +19016,22 @@
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5981917</v>
+        <v>5982259</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,49 +19051,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>46</v>
+      </c>
+      <c r="K209">
+        <v>2.55</v>
+      </c>
+      <c r="L209">
+        <v>3.4</v>
+      </c>
+      <c r="M209">
+        <v>2.6</v>
+      </c>
+      <c r="N209">
+        <v>2.6</v>
+      </c>
+      <c r="O209">
+        <v>3.6</v>
+      </c>
+      <c r="P209">
+        <v>2.6</v>
+      </c>
+      <c r="Q209">
         <v>0</v>
       </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
-      <c r="J209" t="s">
-        <v>47</v>
-      </c>
-      <c r="K209">
-        <v>5.5</v>
-      </c>
-      <c r="L209">
-        <v>4</v>
-      </c>
-      <c r="M209">
-        <v>1.571</v>
-      </c>
-      <c r="N209">
-        <v>7</v>
-      </c>
-      <c r="O209">
-        <v>4.2</v>
-      </c>
-      <c r="P209">
-        <v>1.5</v>
-      </c>
-      <c r="Q209">
-        <v>1.25</v>
-      </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U209">
         <v>1.9</v>
@@ -19105,22 +19105,22 @@
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y209">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19140,7 +19140,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
         <v>41</v>
@@ -19232,7 +19232,7 @@
         <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19852,7 +19852,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G218" t="s">
         <v>30</v>
@@ -19944,7 +19944,7 @@
         <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20923,7 +20923,7 @@
         <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21012,7 +21012,7 @@
         <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5982287</v>
+        <v>5982286</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,10 +21276,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21291,40 +21291,40 @@
         <v>47</v>
       </c>
       <c r="K234">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L234">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N234">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="O234">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P234">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q234">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S234">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T234">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V234">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W234">
         <v>-1</v>
@@ -21333,19 +21333,19 @@
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z234">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB234">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC234">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21365,7 +21365,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G235" t="s">
         <v>39</v>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5982284</v>
+        <v>5982287</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236" t="s">
+        <v>47</v>
+      </c>
+      <c r="K236">
+        <v>7</v>
+      </c>
+      <c r="L236">
+        <v>4.8</v>
+      </c>
+      <c r="M236">
+        <v>1.4</v>
+      </c>
+      <c r="N236">
+        <v>7.5</v>
+      </c>
+      <c r="O236">
+        <v>4.75</v>
+      </c>
+      <c r="P236">
+        <v>1.4</v>
+      </c>
+      <c r="Q236">
+        <v>1.25</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>1.9</v>
+      </c>
+      <c r="T236">
+        <v>3</v>
+      </c>
+      <c r="U236">
+        <v>1.975</v>
+      </c>
+      <c r="V236">
+        <v>1.875</v>
+      </c>
+      <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z236">
+        <v>0.5</v>
+      </c>
+      <c r="AA236">
+        <v>-0.5</v>
+      </c>
+      <c r="AB236">
         <v>0</v>
       </c>
-      <c r="J236" t="s">
-        <v>45</v>
-      </c>
-      <c r="K236">
-        <v>1.909</v>
-      </c>
-      <c r="L236">
-        <v>3.6</v>
-      </c>
-      <c r="M236">
-        <v>3.4</v>
-      </c>
-      <c r="N236">
-        <v>1.615</v>
-      </c>
-      <c r="O236">
-        <v>4.5</v>
-      </c>
-      <c r="P236">
-        <v>4.75</v>
-      </c>
-      <c r="Q236">
-        <v>-1</v>
-      </c>
-      <c r="R236">
-        <v>2.025</v>
-      </c>
-      <c r="S236">
-        <v>1.825</v>
-      </c>
-      <c r="T236">
-        <v>3.5</v>
-      </c>
-      <c r="U236">
-        <v>2.025</v>
-      </c>
-      <c r="V236">
-        <v>1.825</v>
-      </c>
-      <c r="W236">
-        <v>0.615</v>
-      </c>
-      <c r="X236">
-        <v>-1</v>
-      </c>
-      <c r="Y236">
-        <v>-1</v>
-      </c>
-      <c r="Z236">
-        <v>1.025</v>
-      </c>
-      <c r="AA236">
-        <v>-1</v>
-      </c>
-      <c r="AB236">
-        <v>-1</v>
-      </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5982282</v>
+        <v>5982284</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,58 +21543,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
         <v>45</v>
       </c>
       <c r="K237">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L237">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N237">
-        <v>1.727</v>
+        <v>1.615</v>
       </c>
       <c r="O237">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P237">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R237">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U237">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V237">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>0.7270000000000001</v>
+        <v>0.615</v>
       </c>
       <c r="X237">
         <v>-1</v>
@@ -21603,16 +21603,16 @@
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5982286</v>
+        <v>5981924</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H238">
         <v>1</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M238">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N238">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="O238">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P238">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA238">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5982283</v>
+        <v>5981925</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H239">
         <v>2</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L239">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N239">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O239">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P239">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q239">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
+        <v>1.875</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
+        <v>2.025</v>
+      </c>
+      <c r="V239">
         <v>1.825</v>
       </c>
-      <c r="S239">
-        <v>2.025</v>
-      </c>
-      <c r="T239">
-        <v>3</v>
-      </c>
-      <c r="U239">
-        <v>2</v>
-      </c>
-      <c r="V239">
-        <v>1.85</v>
-      </c>
       <c r="W239">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X239">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA239">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>5981924</v>
+        <v>5982282</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,16 +21810,16 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H240">
+        <v>3</v>
+      </c>
+      <c r="I240">
         <v>1</v>
-      </c>
-      <c r="I240">
-        <v>0</v>
       </c>
       <c r="J240" t="s">
         <v>45</v>
@@ -21828,28 +21828,28 @@
         <v>1.8</v>
       </c>
       <c r="L240">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M240">
+        <v>3.75</v>
+      </c>
+      <c r="N240">
+        <v>1.727</v>
+      </c>
+      <c r="O240">
         <v>4</v>
       </c>
-      <c r="N240">
-        <v>1.7</v>
-      </c>
-      <c r="O240">
-        <v>4.333</v>
-      </c>
       <c r="P240">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q240">
         <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T240">
         <v>2.75</v>
@@ -21861,7 +21861,7 @@
         <v>1.95</v>
       </c>
       <c r="W240">
-        <v>0.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21870,16 +21870,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>5981925</v>
+        <v>5982283</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,76 +21899,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H241">
         <v>2</v>
       </c>
       <c r="I241">
+        <v>2</v>
+      </c>
+      <c r="J241" t="s">
+        <v>46</v>
+      </c>
+      <c r="K241">
+        <v>1.5</v>
+      </c>
+      <c r="L241">
+        <v>4.333</v>
+      </c>
+      <c r="M241">
+        <v>5</v>
+      </c>
+      <c r="N241">
+        <v>1.533</v>
+      </c>
+      <c r="O241">
+        <v>4.5</v>
+      </c>
+      <c r="P241">
+        <v>5.75</v>
+      </c>
+      <c r="Q241">
+        <v>-1</v>
+      </c>
+      <c r="R241">
+        <v>1.825</v>
+      </c>
+      <c r="S241">
+        <v>2.025</v>
+      </c>
+      <c r="T241">
+        <v>3</v>
+      </c>
+      <c r="U241">
+        <v>2</v>
+      </c>
+      <c r="V241">
+        <v>1.85</v>
+      </c>
+      <c r="W241">
+        <v>-1</v>
+      </c>
+      <c r="X241">
+        <v>3.5</v>
+      </c>
+      <c r="Y241">
+        <v>-1</v>
+      </c>
+      <c r="Z241">
+        <v>-1</v>
+      </c>
+      <c r="AA241">
+        <v>1.025</v>
+      </c>
+      <c r="AB241">
         <v>1</v>
       </c>
-      <c r="J241" t="s">
-        <v>45</v>
-      </c>
-      <c r="K241">
-        <v>3.2</v>
-      </c>
-      <c r="L241">
-        <v>3.6</v>
-      </c>
-      <c r="M241">
-        <v>2</v>
-      </c>
-      <c r="N241">
-        <v>3.3</v>
-      </c>
-      <c r="O241">
-        <v>3.6</v>
-      </c>
-      <c r="P241">
-        <v>2.15</v>
-      </c>
-      <c r="Q241">
-        <v>0.25</v>
-      </c>
-      <c r="R241">
-        <v>1.975</v>
-      </c>
-      <c r="S241">
-        <v>1.875</v>
-      </c>
-      <c r="T241">
-        <v>2.75</v>
-      </c>
-      <c r="U241">
-        <v>2.025</v>
-      </c>
-      <c r="V241">
-        <v>1.825</v>
-      </c>
-      <c r="W241">
-        <v>2.3</v>
-      </c>
-      <c r="X241">
-        <v>-1</v>
-      </c>
-      <c r="Y241">
-        <v>-1</v>
-      </c>
-      <c r="Z241">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA241">
-        <v>-1</v>
-      </c>
-      <c r="AB241">
-        <v>0.5125</v>
-      </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -127,10 +127,10 @@
     <t>Elfsborg</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
+    <t>Degerfors</t>
   </si>
   <si>
-    <t>Degerfors</t>
+    <t>Brommapojkarna</t>
   </si>
   <si>
     <t>BK Hacken</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5981871</v>
+        <v>5982118</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -1391,25 +1391,25 @@
         <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.445</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5982118</v>
+        <v>5981871</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>5.25</v>
+      </c>
+      <c r="L11">
+        <v>4.2</v>
+      </c>
+      <c r="M11">
+        <v>1.571</v>
+      </c>
+      <c r="N11">
+        <v>6.5</v>
+      </c>
+      <c r="O11">
+        <v>4.75</v>
+      </c>
+      <c r="P11">
+        <v>1.45</v>
+      </c>
+      <c r="Q11">
+        <v>1.25</v>
+      </c>
+      <c r="R11">
+        <v>1.89</v>
+      </c>
+      <c r="S11">
+        <v>2.01</v>
+      </c>
+      <c r="T11">
         <v>3</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11">
-        <v>2.25</v>
-      </c>
-      <c r="L11">
-        <v>3.3</v>
-      </c>
-      <c r="M11">
-        <v>3.25</v>
-      </c>
-      <c r="N11">
-        <v>2.5</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>2.875</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>1.85</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -1480,25 +1480,25 @@
         <v>1.9</v>
       </c>
       <c r="W11">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z11">
-        <v>0.8500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2411,7 +2411,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2853,7 +2853,7 @@
         <v>45038.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5982129</v>
+        <v>5982130</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,13 +3209,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3224,43 +3224,43 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L31">
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,16 +3269,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5982130</v>
+        <v>5982129</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,13 +3298,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3313,43 +3313,43 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L32">
         <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3358,16 +3358,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5982136</v>
+        <v>5982132</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N34">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O34">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>2.5</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5982132</v>
+        <v>5982136</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
+        <v>3.4</v>
+      </c>
+      <c r="O35">
+        <v>3.3</v>
+      </c>
+      <c r="P35">
+        <v>2.2</v>
+      </c>
+      <c r="Q35">
+        <v>0.25</v>
+      </c>
+      <c r="R35">
         <v>1.95</v>
       </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
-      <c r="Q35">
-        <v>-0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.975</v>
-      </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3746,7 +3746,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>45046.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4636,7 +4636,7 @@
         <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>6</v>
@@ -4725,7 +4725,7 @@
         <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -5256,7 +5256,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5615,7 +5615,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -6149,7 +6149,7 @@
         <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6324,7 +6324,7 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>43</v>
@@ -6413,7 +6413,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
         <v>44</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981884</v>
+        <v>5981885</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L68">
+        <v>3.6</v>
+      </c>
+      <c r="M68">
         <v>4.2</v>
       </c>
-      <c r="M68">
-        <v>6</v>
-      </c>
       <c r="N68">
-        <v>1.571</v>
+        <v>1.7</v>
       </c>
       <c r="O68">
         <v>4</v>
       </c>
       <c r="P68">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>2.07</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.83</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
         <v>2.025</v>
@@ -6553,25 +6553,25 @@
         <v>1.825</v>
       </c>
       <c r="W68">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1.07</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981885</v>
+        <v>5981884</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,49 +6591,49 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N69">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O69">
         <v>4</v>
       </c>
       <c r="P69">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
         <v>2.025</v>
@@ -6642,25 +6642,25 @@
         <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X69">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>45071.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -7303,7 +7303,7 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7748,7 +7748,7 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
         <v>44</v>
@@ -8018,7 +8018,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -8641,7 +8641,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8819,7 +8819,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5982173</v>
+        <v>5982176</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5982176</v>
+        <v>5982173</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N97">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
         <v>43</v>
@@ -9439,7 +9439,7 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>42</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5982179</v>
+        <v>5982181</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>46</v>
       </c>
       <c r="K103">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L103">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="N103">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
         <v>1.875</v>
       </c>
-      <c r="S103">
-        <v>1.975</v>
-      </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5982181</v>
+        <v>5982179</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>46</v>
       </c>
       <c r="K104">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L104">
+        <v>3.8</v>
+      </c>
+      <c r="M104">
+        <v>1.75</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104">
+        <v>4.333</v>
+      </c>
+      <c r="P104">
+        <v>1.571</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>1.875</v>
+      </c>
+      <c r="S104">
+        <v>1.975</v>
+      </c>
+      <c r="T104">
         <v>3.25</v>
       </c>
-      <c r="M104">
-        <v>2.7</v>
-      </c>
-      <c r="N104">
-        <v>2.3</v>
-      </c>
-      <c r="O104">
-        <v>3.25</v>
-      </c>
-      <c r="P104">
-        <v>3.25</v>
-      </c>
-      <c r="Q104">
-        <v>-0.25</v>
-      </c>
-      <c r="R104">
+      <c r="U104">
+        <v>1.875</v>
+      </c>
+      <c r="V104">
         <v>1.975</v>
       </c>
-      <c r="S104">
-        <v>1.875</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA104">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10240,10 +10240,10 @@
         <v>45115.52083333334</v>
       </c>
       <c r="F110" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110" t="s">
         <v>37</v>
-      </c>
-      <c r="G110" t="s">
-        <v>38</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5982188</v>
+        <v>5981894</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,10 +10329,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10344,41 +10344,41 @@
         <v>47</v>
       </c>
       <c r="K111">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M111">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="N111">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P111">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>2.08</v>
       </c>
       <c r="S111">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.85</v>
       </c>
-      <c r="V111">
-        <v>2</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
@@ -10386,19 +10386,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1.1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5981894</v>
+        <v>5982188</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,10 +10418,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10433,40 +10433,40 @@
         <v>47</v>
       </c>
       <c r="K112">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L112">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N112">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O112">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>9.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q112">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>2.08</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10475,19 +10475,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8200000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB112">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5982187</v>
+        <v>5982186</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,10 +10596,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10611,31 +10611,31 @@
         <v>47</v>
       </c>
       <c r="K114">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M114">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O114">
         <v>3.6</v>
       </c>
       <c r="P114">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>2.5</v>
@@ -10653,13 +10653,13 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB114">
         <v>0.95</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5982186</v>
+        <v>5982187</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,10 +10685,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10700,31 +10700,31 @@
         <v>47</v>
       </c>
       <c r="K115">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L115">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N115">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O115">
         <v>3.6</v>
       </c>
       <c r="P115">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
         <v>2.5</v>
@@ -10742,13 +10742,13 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
         <v>0.95</v>
@@ -10866,7 +10866,7 @@
         <v>39</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H117">
         <v>4</v>
@@ -10952,7 +10952,7 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
         <v>40</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5981896</v>
+        <v>5982197</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N122">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O122">
         <v>3.4</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5982197</v>
+        <v>5981896</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O123">
         <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.8</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>1</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
-      <c r="AA123">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB123">
-        <v>0.925</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11845,7 +11845,7 @@
         <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12287,10 +12287,10 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F133" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" t="s">
         <v>38</v>
-      </c>
-      <c r="G133" t="s">
-        <v>37</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12910,7 +12910,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5981902</v>
+        <v>5982215</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>3</v>
       </c>
-      <c r="I144">
+      <c r="J144" t="s">
+        <v>47</v>
+      </c>
+      <c r="K144">
+        <v>2.75</v>
+      </c>
+      <c r="L144">
+        <v>3.1</v>
+      </c>
+      <c r="M144">
+        <v>2.5</v>
+      </c>
+      <c r="N144">
+        <v>2.8</v>
+      </c>
+      <c r="O144">
+        <v>3.4</v>
+      </c>
+      <c r="P144">
+        <v>2.5</v>
+      </c>
+      <c r="Q144">
         <v>0</v>
       </c>
-      <c r="J144" t="s">
-        <v>45</v>
-      </c>
-      <c r="K144">
-        <v>1.285</v>
-      </c>
-      <c r="L144">
-        <v>5.5</v>
-      </c>
-      <c r="M144">
-        <v>9</v>
-      </c>
-      <c r="N144">
-        <v>1.3</v>
-      </c>
-      <c r="O144">
-        <v>5.5</v>
-      </c>
-      <c r="P144">
-        <v>9.5</v>
-      </c>
-      <c r="Q144">
-        <v>-1.5</v>
-      </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
         <v>1.975</v>
       </c>
-      <c r="V144">
-        <v>1.875</v>
-      </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5982215</v>
+        <v>5981902</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,76 +13355,76 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H145">
+        <v>3</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
+      <c r="J145" t="s">
+        <v>45</v>
+      </c>
+      <c r="K145">
+        <v>1.285</v>
+      </c>
+      <c r="L145">
+        <v>5.5</v>
+      </c>
+      <c r="M145">
+        <v>9</v>
+      </c>
+      <c r="N145">
+        <v>1.3</v>
+      </c>
+      <c r="O145">
+        <v>5.5</v>
+      </c>
+      <c r="P145">
+        <v>9.5</v>
+      </c>
+      <c r="Q145">
+        <v>-1.5</v>
+      </c>
+      <c r="R145">
+        <v>1.95</v>
+      </c>
+      <c r="S145">
+        <v>1.9</v>
+      </c>
+      <c r="T145">
         <v>3</v>
       </c>
-      <c r="J145" t="s">
-        <v>47</v>
-      </c>
-      <c r="K145">
-        <v>2.75</v>
-      </c>
-      <c r="L145">
-        <v>3.1</v>
-      </c>
-      <c r="M145">
-        <v>2.5</v>
-      </c>
-      <c r="N145">
-        <v>2.8</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>2.5</v>
-      </c>
-      <c r="Q145">
+      <c r="U145">
+        <v>1.975</v>
+      </c>
+      <c r="V145">
+        <v>1.875</v>
+      </c>
+      <c r="W145">
+        <v>0.3</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>0.95</v>
+      </c>
+      <c r="AA145">
+        <v>-1</v>
+      </c>
+      <c r="AB145">
         <v>0</v>
       </c>
-      <c r="R145">
-        <v>2.06</v>
-      </c>
-      <c r="S145">
-        <v>1.84</v>
-      </c>
-      <c r="T145">
-        <v>2</v>
-      </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
-      <c r="V145">
-        <v>1.975</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>1.5</v>
-      </c>
-      <c r="Z145">
-        <v>-1</v>
-      </c>
-      <c r="AA145">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AB145">
-        <v>0.875</v>
-      </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5981903</v>
+        <v>5982220</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,58 +13533,58 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>45</v>
       </c>
       <c r="K147">
+        <v>2.3</v>
+      </c>
+      <c r="L147">
+        <v>3.4</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>2.05</v>
+      </c>
+      <c r="O147">
         <v>3.6</v>
       </c>
-      <c r="L147">
-        <v>3.5</v>
-      </c>
-      <c r="M147">
-        <v>2</v>
-      </c>
-      <c r="N147">
-        <v>3.5</v>
-      </c>
-      <c r="O147">
-        <v>3.4</v>
-      </c>
       <c r="P147">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13593,16 +13593,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5982220</v>
+        <v>5981903</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>45</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
+        <v>3.5</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>3.5</v>
+      </c>
+      <c r="O148">
         <v>3.4</v>
       </c>
-      <c r="M148">
-        <v>3</v>
-      </c>
-      <c r="N148">
-        <v>2.05</v>
-      </c>
-      <c r="O148">
-        <v>3.6</v>
-      </c>
       <c r="P148">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,16 +13682,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13981,7 +13981,7 @@
         <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14245,7 +14245,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5982225</v>
+        <v>5982223</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K159">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M159">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N159">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O159">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X159">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5982223</v>
+        <v>5982225</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K160">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="L160">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M160">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="N160">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P160">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14957,7 +14957,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
         <v>41</v>
@@ -15138,7 +15138,7 @@
         <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H165">
         <v>4</v>
@@ -15758,7 +15758,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
         <v>39</v>
@@ -16028,7 +16028,7 @@
         <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H175">
         <v>4</v>
@@ -16384,7 +16384,7 @@
         <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16918,7 +16918,7 @@
         <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17004,7 +17004,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -17093,7 +17093,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17897,7 +17897,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -18342,7 +18342,7 @@
         <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18520,7 +18520,7 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18873,7 +18873,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G207" t="s">
         <v>36</v>
@@ -19140,7 +19140,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
         <v>41</v>
@@ -19232,7 +19232,7 @@
         <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19852,7 +19852,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
         <v>30</v>
@@ -19944,7 +19944,7 @@
         <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20923,7 +20923,7 @@
         <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21012,7 +21012,7 @@
         <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21276,7 +21276,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G234" t="s">
         <v>35</v>
@@ -21365,7 +21365,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G235" t="s">
         <v>39</v>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -127,10 +127,10 @@
     <t>Elfsborg</t>
   </si>
   <si>
-    <t>Degerfors</t>
+    <t>Brommapojkarna</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
+    <t>Degerfors</t>
   </si>
   <si>
     <t>BK Hacken</t>
@@ -145,10 +145,10 @@
     <t>IFK Varnamo</t>
   </si>
   <si>
-    <t>Varbergs BoIS FC</t>
+    <t>AIK</t>
   </si>
   <si>
-    <t>AIK</t>
+    <t>Varbergs BoIS FC</t>
   </si>
   <si>
     <t>H</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5982118</v>
+        <v>5981871</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>5.25</v>
+      </c>
+      <c r="L10">
+        <v>4.2</v>
+      </c>
+      <c r="M10">
+        <v>1.571</v>
+      </c>
+      <c r="N10">
+        <v>6.5</v>
+      </c>
+      <c r="O10">
+        <v>4.75</v>
+      </c>
+      <c r="P10">
+        <v>1.45</v>
+      </c>
+      <c r="Q10">
+        <v>1.25</v>
+      </c>
+      <c r="R10">
+        <v>1.89</v>
+      </c>
+      <c r="S10">
+        <v>2.01</v>
+      </c>
+      <c r="T10">
         <v>3</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>2.25</v>
-      </c>
-      <c r="L10">
-        <v>3.3</v>
-      </c>
-      <c r="M10">
-        <v>3.25</v>
-      </c>
-      <c r="N10">
-        <v>2.5</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.875</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1.85</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -1391,25 +1391,25 @@
         <v>1.9</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5981871</v>
+        <v>5982118</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="N11">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O11">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -1480,25 +1480,25 @@
         <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.445</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5982119</v>
+        <v>5982114</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
+        <v>1.8</v>
+      </c>
+      <c r="L16">
+        <v>3.5</v>
+      </c>
+      <c r="M16">
+        <v>4.5</v>
+      </c>
+      <c r="N16">
+        <v>1.7</v>
+      </c>
+      <c r="O16">
         <v>3.75</v>
       </c>
-      <c r="L16">
-        <v>3.4</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16">
-        <v>4.6</v>
-      </c>
-      <c r="O16">
-        <v>4</v>
-      </c>
       <c r="P16">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.99</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC16">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5982114</v>
+        <v>5982119</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,73 +1966,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>3.75</v>
+      </c>
+      <c r="L17">
+        <v>3.4</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>4.6</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>1.7</v>
+      </c>
+      <c r="Q17">
+        <v>0.75</v>
+      </c>
+      <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>2.025</v>
+      </c>
+      <c r="V17">
+        <v>1.825</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17">
-        <v>1.8</v>
-      </c>
-      <c r="L17">
-        <v>3.5</v>
-      </c>
-      <c r="M17">
-        <v>4.5</v>
-      </c>
-      <c r="N17">
-        <v>1.7</v>
-      </c>
-      <c r="O17">
-        <v>3.75</v>
-      </c>
-      <c r="P17">
-        <v>5.25</v>
-      </c>
-      <c r="Q17">
-        <v>-0.75</v>
-      </c>
-      <c r="R17">
-        <v>1.99</v>
-      </c>
-      <c r="S17">
-        <v>1.91</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.925</v>
-      </c>
-      <c r="V17">
-        <v>1.925</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
       <c r="Y17">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2319,7 +2319,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5982124</v>
+        <v>5981873</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2423,61 +2423,61 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
+        <v>3.3</v>
+      </c>
+      <c r="M22">
+        <v>1.909</v>
+      </c>
+      <c r="N22">
         <v>3.4</v>
       </c>
-      <c r="M22">
-        <v>3.8</v>
-      </c>
-      <c r="N22">
+      <c r="O22">
+        <v>3.5</v>
+      </c>
+      <c r="P22">
+        <v>2.1</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
         <v>1.8</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>4.5</v>
-      </c>
-      <c r="Q22">
-        <v>-0.75</v>
-      </c>
-      <c r="R22">
-        <v>2.07</v>
-      </c>
-      <c r="S22">
-        <v>1.83</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
+        <v>2.4</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>1.05</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>1.07</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5981873</v>
+        <v>5982124</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,10 +2497,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2512,43 +2512,43 @@
         <v>45</v>
       </c>
       <c r="K23">
+        <v>1.85</v>
+      </c>
+      <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>3.8</v>
+      </c>
+      <c r="N23">
+        <v>1.8</v>
+      </c>
+      <c r="O23">
         <v>3.6</v>
       </c>
-      <c r="L23">
-        <v>3.3</v>
-      </c>
-      <c r="M23">
-        <v>1.909</v>
-      </c>
-      <c r="N23">
-        <v>3.4</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
       <c r="P23">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2557,7 +2557,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2566,7 +2566,7 @@
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,7 +2586,7 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
         <v>40</v>
@@ -2767,7 +2767,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2853,7 +2853,7 @@
         <v>45038.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -3209,7 +3209,7 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3301,7 +3301,7 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3476,7 +3476,7 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s">
         <v>40</v>
@@ -3746,7 +3746,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
         <v>41</v>
@@ -4010,7 +4010,7 @@
         <v>45046.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5982142</v>
+        <v>5982141</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>46</v>
       </c>
       <c r="K42">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M42">
-        <v>2.55</v>
+        <v>4.5</v>
       </c>
       <c r="N42">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O42">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P42">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
+        <v>1.875</v>
+      </c>
+      <c r="V42">
         <v>1.975</v>
       </c>
-      <c r="V42">
-        <v>1.875</v>
-      </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5982141</v>
+        <v>5982142</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>46</v>
       </c>
       <c r="K45">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>4.5</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.85</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
         <v>1.975</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>1.875</v>
       </c>
-      <c r="T45">
-        <v>2.25</v>
-      </c>
-      <c r="U45">
-        <v>1.875</v>
-      </c>
-      <c r="V45">
-        <v>1.975</v>
-      </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
+        <v>-0</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.875</v>
-      </c>
-      <c r="AB45">
-        <v>0.875</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5982143</v>
+        <v>5982138</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
       </c>
       <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
         <v>3.6</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O47">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
+        <v>2.75</v>
+      </c>
+      <c r="U47">
         <v>1.975</v>
       </c>
-      <c r="S47">
+      <c r="V47">
         <v>1.875</v>
       </c>
-      <c r="T47">
-        <v>2.5</v>
-      </c>
-      <c r="U47">
-        <v>1.925</v>
-      </c>
-      <c r="V47">
-        <v>1.925</v>
-      </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5982138</v>
+        <v>5982143</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
         <v>37</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
         <v>3.6</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T48">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4811,7 +4811,7 @@
         <v>45050.59375</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
         <v>29</v>
@@ -4903,7 +4903,7 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5167,7 +5167,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -5256,7 +5256,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -5526,7 +5526,7 @@
         <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5615,7 +5615,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5701,7 +5701,7 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -6060,7 +6060,7 @@
         <v>41</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6235,7 +6235,7 @@
         <v>45061.59027777778</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6324,10 +6324,10 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5982159</v>
+        <v>5981885</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,73 +6413,73 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>1.85</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981884</v>
+        <v>5982159</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,58 +6502,58 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>2.5</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>0.571</v>
+        <v>0.95</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6562,16 +6562,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AA68">
         <v>-1</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981885</v>
+        <v>5981884</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,49 +6591,49 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N69">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O69">
         <v>4</v>
       </c>
       <c r="P69">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="T69">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
         <v>2.025</v>
@@ -6642,25 +6642,25 @@
         <v>1.825</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X69">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7125,7 +7125,7 @@
         <v>45071.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -7303,7 +7303,7 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>40</v>
@@ -7395,7 +7395,7 @@
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5982166</v>
+        <v>5982161</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M81">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N81">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O81">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P81">
         <v>5</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>0.97</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5982161</v>
+        <v>5982166</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L82">
+        <v>3.4</v>
+      </c>
+      <c r="M82">
+        <v>3.5</v>
+      </c>
+      <c r="N82">
+        <v>1.6</v>
+      </c>
+      <c r="O82">
         <v>4.333</v>
-      </c>
-      <c r="M82">
-        <v>7</v>
-      </c>
-      <c r="N82">
-        <v>1.666</v>
-      </c>
-      <c r="O82">
-        <v>3.8</v>
       </c>
       <c r="P82">
         <v>5</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y82">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.97</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8104,7 +8104,7 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
         <v>41</v>
@@ -8460,7 +8460,7 @@
         <v>45082.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -8641,7 +8641,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8730,7 +8730,7 @@
         <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8905,7 +8905,7 @@
         <v>45087.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
         <v>34</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5982173</v>
+        <v>5982176</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N96">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q96">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5982176</v>
+        <v>5982173</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N97">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R97">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5982175</v>
+        <v>5981890</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M98">
         <v>5.75</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O98">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.99</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5981890</v>
+        <v>5982175</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
         <v>5.75</v>
       </c>
       <c r="N99">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P99">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.99</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5982184</v>
+        <v>5982183</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,7 +9353,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9365,25 +9365,25 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
         <v>3.3</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N100">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P100">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,10 +9395,10 @@
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,7 +9407,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9419,7 +9419,7 @@
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5982183</v>
+        <v>5982184</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,7 +9442,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9454,25 +9454,25 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
         <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>1.875</v>
@@ -9484,10 +9484,10 @@
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,7 +9496,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9508,7 +9508,7 @@
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9798,7 +9798,7 @@
         <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5981895</v>
+        <v>5982185</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,10 +10062,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10077,40 +10077,40 @@
         <v>47</v>
       </c>
       <c r="K108">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
         <v>2</v>
       </c>
       <c r="N108">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
         <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10119,19 +10119,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5982185</v>
+        <v>5981895</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,10 +10151,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10166,40 +10166,40 @@
         <v>47</v>
       </c>
       <c r="K109">
+        <v>3.4</v>
+      </c>
+      <c r="L109">
+        <v>3.4</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
         <v>3.3</v>
       </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>3</v>
-      </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
         <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB109">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,10 +10240,10 @@
         <v>45115.52083333334</v>
       </c>
       <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
         <v>38</v>
-      </c>
-      <c r="G110" t="s">
-        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5981894</v>
+        <v>5982188</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,10 +10329,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10344,40 +10344,40 @@
         <v>47</v>
       </c>
       <c r="K111">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L111">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N111">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O111">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>9.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q111">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>2.08</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10386,19 +10386,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8200000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB111">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5982188</v>
+        <v>5981894</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,10 +10418,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10433,41 +10433,41 @@
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M112">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="N112">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P112">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>2.08</v>
       </c>
       <c r="S112">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
+        <v>2</v>
+      </c>
+      <c r="V112">
         <v>1.85</v>
       </c>
-      <c r="V112">
-        <v>2</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
@@ -10475,19 +10475,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5982186</v>
+        <v>5982187</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,10 +10596,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10611,31 +10611,31 @@
         <v>47</v>
       </c>
       <c r="K114">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L114">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M114">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N114">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O114">
         <v>3.6</v>
       </c>
       <c r="P114">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S114">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T114">
         <v>2.5</v>
@@ -10653,13 +10653,13 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB114">
         <v>0.95</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5982187</v>
+        <v>5982186</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,10 +10685,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10700,31 +10700,31 @@
         <v>47</v>
       </c>
       <c r="K115">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M115">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N115">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O115">
         <v>3.6</v>
       </c>
       <c r="P115">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S115">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T115">
         <v>2.5</v>
@@ -10742,13 +10742,13 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB115">
         <v>0.95</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F117" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" t="s">
         <v>37</v>
       </c>
-      <c r="G117" t="s">
-        <v>40</v>
-      </c>
       <c r="H117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K117">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M117">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N117">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O117">
+        <v>5.5</v>
+      </c>
+      <c r="P117">
+        <v>7.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.5</v>
+      </c>
+      <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
         <v>3.5</v>
       </c>
-      <c r="P117">
-        <v>2.55</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
+      <c r="U117">
         <v>1.95</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.825</v>
-      </c>
-      <c r="V117">
-        <v>2.025</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O118">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q118">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R118">
+        <v>1.95</v>
+      </c>
+      <c r="S118">
         <v>1.9</v>
       </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W118">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5981896</v>
+        <v>5982197</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N122">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O122">
         <v>3.4</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5982197</v>
+        <v>5981896</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O123">
         <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.8</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>1</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
-      <c r="AA123">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB123">
-        <v>0.925</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11756,7 +11756,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11842,7 +11842,7 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G128" t="s">
         <v>29</v>
@@ -11934,7 +11934,7 @@
         <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12287,10 +12287,10 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" t="s">
         <v>37</v>
-      </c>
-      <c r="G133" t="s">
-        <v>38</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12379,7 +12379,7 @@
         <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5982204</v>
+        <v>5981900</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L135">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N135">
+        <v>3.25</v>
+      </c>
+      <c r="O135">
+        <v>3.3</v>
+      </c>
+      <c r="P135">
+        <v>2.25</v>
+      </c>
+      <c r="Q135">
+        <v>0.25</v>
+      </c>
+      <c r="R135">
+        <v>1.9</v>
+      </c>
+      <c r="S135">
         <v>1.95</v>
       </c>
-      <c r="O135">
-        <v>3.6</v>
-      </c>
-      <c r="P135">
-        <v>3.75</v>
-      </c>
-      <c r="Q135">
-        <v>-0.5</v>
-      </c>
-      <c r="R135">
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
         <v>1.975</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>1.875</v>
       </c>
-      <c r="T135">
-        <v>2.5</v>
-      </c>
-      <c r="U135">
-        <v>1.85</v>
-      </c>
-      <c r="V135">
-        <v>2</v>
-      </c>
       <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>1.25</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
         <v>0.95</v>
       </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>-1</v>
-      </c>
-      <c r="Z135">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA135">
-        <v>-1</v>
-      </c>
       <c r="AB135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5981900</v>
+        <v>5982204</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L136">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M136">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N136">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O136">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q136">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC136">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12824,7 +12824,7 @@
         <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -12910,7 +12910,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13091,7 +13091,7 @@
         <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5982215</v>
+        <v>5982210</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,73 +13177,73 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H143">
+        <v>3</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>3</v>
-      </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
+        <v>3.6</v>
+      </c>
+      <c r="N143">
+        <v>2.25</v>
+      </c>
+      <c r="O143">
+        <v>3.25</v>
+      </c>
+      <c r="P143">
+        <v>3.3</v>
+      </c>
+      <c r="Q143">
+        <v>-0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.99</v>
+      </c>
+      <c r="S143">
+        <v>1.91</v>
+      </c>
+      <c r="T143">
         <v>2.5</v>
       </c>
-      <c r="N143">
-        <v>2.8</v>
-      </c>
-      <c r="O143">
-        <v>3.4</v>
-      </c>
-      <c r="P143">
-        <v>2.5</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-      <c r="R143">
-        <v>2.06</v>
-      </c>
-      <c r="S143">
-        <v>1.84</v>
-      </c>
-      <c r="T143">
-        <v>2</v>
-      </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA143">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5982210</v>
+        <v>5982215</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,73 +13355,73 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
         <v>3</v>
       </c>
-      <c r="I145">
+      <c r="J145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K145">
+        <v>2.75</v>
+      </c>
+      <c r="L145">
+        <v>3.1</v>
+      </c>
+      <c r="M145">
+        <v>2.5</v>
+      </c>
+      <c r="N145">
+        <v>2.8</v>
+      </c>
+      <c r="O145">
+        <v>3.4</v>
+      </c>
+      <c r="P145">
+        <v>2.5</v>
+      </c>
+      <c r="Q145">
         <v>0</v>
       </c>
-      <c r="J145" t="s">
-        <v>45</v>
-      </c>
-      <c r="K145">
-        <v>2.05</v>
-      </c>
-      <c r="L145">
-        <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>3.6</v>
-      </c>
-      <c r="N145">
-        <v>2.25</v>
-      </c>
-      <c r="O145">
-        <v>3.25</v>
-      </c>
-      <c r="P145">
-        <v>3.3</v>
-      </c>
-      <c r="Q145">
-        <v>-0.25</v>
-      </c>
       <c r="R145">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="S145">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U145">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W145">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z145">
-        <v>0.99</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB145">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13444,10 +13444,10 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5981903</v>
+        <v>5982220</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,58 +13533,58 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>45</v>
       </c>
       <c r="K147">
+        <v>2.3</v>
+      </c>
+      <c r="L147">
+        <v>3.4</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>2.05</v>
+      </c>
+      <c r="O147">
         <v>3.6</v>
       </c>
-      <c r="L147">
-        <v>3.5</v>
-      </c>
-      <c r="M147">
-        <v>2</v>
-      </c>
-      <c r="N147">
-        <v>3.5</v>
-      </c>
-      <c r="O147">
-        <v>3.4</v>
-      </c>
       <c r="P147">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13593,16 +13593,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5982220</v>
+        <v>5981903</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>45</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
+        <v>3.5</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>3.5</v>
+      </c>
+      <c r="O148">
         <v>3.4</v>
       </c>
-      <c r="M148">
-        <v>3</v>
-      </c>
-      <c r="N148">
-        <v>2.05</v>
-      </c>
-      <c r="O148">
-        <v>3.6</v>
-      </c>
       <c r="P148">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,16 +13682,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5982219</v>
+        <v>5982218</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,76 +13711,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="L149">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M149">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="N149">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="O149">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P149">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q149">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>2.06</v>
       </c>
       <c r="T149">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U149">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA149">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC149">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5982218</v>
+        <v>5982217</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,13 +13800,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13815,43 +13815,43 @@
         <v>45</v>
       </c>
       <c r="K150">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O150">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="S150">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="T150">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>2.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,7 +13860,7 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8400000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA150">
         <v>-1</v>
@@ -13869,7 +13869,7 @@
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5982217</v>
+        <v>5982219</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>3</v>
       </c>
       <c r="L151">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M151">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N151">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O151">
         <v>3.4</v>
       </c>
       <c r="P151">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q151">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="S151">
-        <v>1.96</v>
+        <v>1.775</v>
       </c>
       <c r="T151">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U151">
+        <v>1.825</v>
+      </c>
+      <c r="V151">
+        <v>2.025</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
         <v>1.9</v>
       </c>
-      <c r="V151">
-        <v>1.95</v>
-      </c>
-      <c r="W151">
-        <v>2.3</v>
-      </c>
-      <c r="X151">
-        <v>-1</v>
-      </c>
-      <c r="Y151">
-        <v>-1</v>
-      </c>
       <c r="Z151">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5981904</v>
+        <v>5982221</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
         <v>1</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="N152">
+        <v>1.75</v>
+      </c>
+      <c r="O152">
+        <v>4</v>
+      </c>
+      <c r="P152">
         <v>4.333</v>
       </c>
-      <c r="O152">
-        <v>3.75</v>
-      </c>
-      <c r="P152">
-        <v>1.8</v>
-      </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
         <v>3.333</v>
       </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5982221</v>
+        <v>5981904</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,76 +14067,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
         <v>0</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K153">
+        <v>4.5</v>
+      </c>
+      <c r="L153">
+        <v>3.8</v>
+      </c>
+      <c r="M153">
+        <v>1.727</v>
+      </c>
+      <c r="N153">
+        <v>4.333</v>
+      </c>
+      <c r="O153">
+        <v>3.75</v>
+      </c>
+      <c r="P153">
         <v>1.8</v>
       </c>
-      <c r="L153">
-        <v>3.75</v>
-      </c>
-      <c r="M153">
-        <v>4.2</v>
-      </c>
-      <c r="N153">
-        <v>1.75</v>
-      </c>
-      <c r="O153">
-        <v>4</v>
-      </c>
-      <c r="P153">
-        <v>4.333</v>
-      </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
+        <v>2.025</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>1.925</v>
-      </c>
-      <c r="V153">
-        <v>1.925</v>
-      </c>
       <c r="W153">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB153">
-        <v>-1</v>
-      </c>
-      <c r="AC153">
-        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14245,7 +14245,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14334,7 +14334,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G156" t="s">
         <v>42</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5982223</v>
+        <v>5982225</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K159">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="L159">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M159">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="N159">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O159">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P159">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R159">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S159">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V159">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB159">
         <v>-1</v>
       </c>
       <c r="AC159">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5982225</v>
+        <v>5982223</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K160">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M160">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N160">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O160">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P160">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="Q160">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R160">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S160">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T160">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X160">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA160">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14782,7 +14782,7 @@
         <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14868,7 +14868,7 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
         <v>41</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5981906</v>
+        <v>5982230</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,58 +15135,58 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>4</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
         <v>45</v>
       </c>
       <c r="K165">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="L165">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N165">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="O165">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
-        <v>0.333</v>
+        <v>2.5</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15195,13 +15195,13 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5982230</v>
+        <v>5981906</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,58 +15224,58 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>4</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>45</v>
       </c>
       <c r="K166">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M166">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N166">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P166">
-        <v>2.05</v>
+        <v>9.5</v>
       </c>
       <c r="Q166">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>2.5</v>
+        <v>0.333</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15284,13 +15284,13 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5982231</v>
+        <v>5982229</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,58 +15313,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G167" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H167">
         <v>3</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
         <v>45</v>
       </c>
       <c r="K167">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M167">
         <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O167">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P167">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Q167">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R167">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S167">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T167">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U167">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V167">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W167">
-        <v>0.571</v>
+        <v>0.333</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15373,16 +15373,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA167">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB167">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC167">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5982229</v>
+        <v>5982231</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,58 +15402,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
         <v>45</v>
       </c>
       <c r="K168">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="L168">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M168">
         <v>5.5</v>
       </c>
       <c r="N168">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O168">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P168">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q168">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R168">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S168">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U168">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
-        <v>0.333</v>
+        <v>0.571</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15462,16 +15462,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15761,7 +15761,7 @@
         <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5982237</v>
+        <v>5982238</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H173">
+        <v>1</v>
+      </c>
+      <c r="I173">
         <v>0</v>
       </c>
-      <c r="I173">
-        <v>2</v>
-      </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K173">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="L173">
+        <v>4.1</v>
+      </c>
+      <c r="M173">
+        <v>1.571</v>
+      </c>
+      <c r="N173">
+        <v>3.75</v>
+      </c>
+      <c r="O173">
+        <v>4.2</v>
+      </c>
+      <c r="P173">
+        <v>1.85</v>
+      </c>
+      <c r="Q173">
+        <v>0.75</v>
+      </c>
+      <c r="R173">
+        <v>1.79</v>
+      </c>
+      <c r="S173">
+        <v>2.11</v>
+      </c>
+      <c r="T173">
         <v>3.25</v>
       </c>
-      <c r="M173">
-        <v>3</v>
-      </c>
-      <c r="N173">
-        <v>2.375</v>
-      </c>
-      <c r="O173">
-        <v>3.25</v>
-      </c>
-      <c r="P173">
-        <v>3.1</v>
-      </c>
-      <c r="Q173">
-        <v>-0.25</v>
-      </c>
-      <c r="R173">
+      <c r="U173">
         <v>2.025</v>
       </c>
-      <c r="S173">
+      <c r="V173">
         <v>1.825</v>
       </c>
-      <c r="T173">
-        <v>2</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
-      <c r="V173">
-        <v>1.95</v>
-      </c>
       <c r="W173">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.79</v>
       </c>
       <c r="AA173">
+        <v>-1</v>
+      </c>
+      <c r="AB173">
+        <v>-1</v>
+      </c>
+      <c r="AC173">
         <v>0.825</v>
-      </c>
-      <c r="AB173">
-        <v>0</v>
-      </c>
-      <c r="AC173">
-        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5982238</v>
+        <v>5982237</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,76 +15936,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174" t="s">
+        <v>47</v>
+      </c>
+      <c r="K174">
+        <v>2.375</v>
+      </c>
+      <c r="L174">
+        <v>3.25</v>
+      </c>
+      <c r="M174">
+        <v>3</v>
+      </c>
+      <c r="N174">
+        <v>2.375</v>
+      </c>
+      <c r="O174">
+        <v>3.25</v>
+      </c>
+      <c r="P174">
+        <v>3.1</v>
+      </c>
+      <c r="Q174">
+        <v>-0.25</v>
+      </c>
+      <c r="R174">
+        <v>2.025</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
+        <v>1.9</v>
+      </c>
+      <c r="V174">
+        <v>1.95</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>2.1</v>
+      </c>
+      <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
+        <v>0.825</v>
+      </c>
+      <c r="AB174">
         <v>0</v>
       </c>
-      <c r="J174" t="s">
-        <v>45</v>
-      </c>
-      <c r="K174">
-        <v>5.5</v>
-      </c>
-      <c r="L174">
-        <v>4.1</v>
-      </c>
-      <c r="M174">
-        <v>1.571</v>
-      </c>
-      <c r="N174">
-        <v>3.75</v>
-      </c>
-      <c r="O174">
-        <v>4.2</v>
-      </c>
-      <c r="P174">
-        <v>1.85</v>
-      </c>
-      <c r="Q174">
-        <v>0.75</v>
-      </c>
-      <c r="R174">
-        <v>1.79</v>
-      </c>
-      <c r="S174">
-        <v>2.11</v>
-      </c>
-      <c r="T174">
-        <v>3.25</v>
-      </c>
-      <c r="U174">
-        <v>2.025</v>
-      </c>
-      <c r="V174">
-        <v>1.825</v>
-      </c>
-      <c r="W174">
-        <v>2.75</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
-      <c r="Z174">
-        <v>0.79</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
-      <c r="AB174">
-        <v>-1</v>
-      </c>
       <c r="AC174">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5982239</v>
+        <v>5981908</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,73 +16025,73 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175" t="s">
+        <v>46</v>
+      </c>
+      <c r="K175">
+        <v>1.285</v>
+      </c>
+      <c r="L175">
+        <v>5.5</v>
+      </c>
+      <c r="M175">
+        <v>10</v>
+      </c>
+      <c r="N175">
+        <v>1.363</v>
+      </c>
+      <c r="O175">
+        <v>5.5</v>
+      </c>
+      <c r="P175">
+        <v>7</v>
+      </c>
+      <c r="Q175">
+        <v>-1.25</v>
+      </c>
+      <c r="R175">
+        <v>1.875</v>
+      </c>
+      <c r="S175">
+        <v>1.975</v>
+      </c>
+      <c r="T175">
         <v>3</v>
       </c>
-      <c r="J175" t="s">
-        <v>45</v>
-      </c>
-      <c r="K175">
-        <v>2.875</v>
-      </c>
-      <c r="L175">
-        <v>3.4</v>
-      </c>
-      <c r="M175">
-        <v>2.375</v>
-      </c>
-      <c r="N175">
-        <v>4</v>
-      </c>
-      <c r="O175">
-        <v>3.6</v>
-      </c>
-      <c r="P175">
-        <v>1.909</v>
-      </c>
-      <c r="Q175">
-        <v>0.5</v>
-      </c>
-      <c r="R175">
-        <v>1.925</v>
-      </c>
-      <c r="S175">
-        <v>1.925</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
       <c r="U175">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W175">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB175">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5981909</v>
+        <v>5982239</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K176">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
         <v>2.375</v>
       </c>
       <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176">
+        <v>3.6</v>
+      </c>
+      <c r="P176">
+        <v>1.909</v>
+      </c>
+      <c r="Q176">
+        <v>0.5</v>
+      </c>
+      <c r="R176">
+        <v>1.925</v>
+      </c>
+      <c r="S176">
+        <v>1.925</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.925</v>
+      </c>
+      <c r="V176">
+        <v>1.925</v>
+      </c>
+      <c r="W176">
         <v>3</v>
       </c>
-      <c r="O176">
-        <v>3.3</v>
-      </c>
-      <c r="P176">
-        <v>2.45</v>
-      </c>
-      <c r="Q176">
-        <v>0.25</v>
-      </c>
-      <c r="R176">
-        <v>1.775</v>
-      </c>
-      <c r="S176">
-        <v>2.1</v>
-      </c>
-      <c r="T176">
-        <v>2.5</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.85</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA176">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5981908</v>
+        <v>5981909</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="N177">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O177">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T177">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z177">
         <v>-1</v>
       </c>
       <c r="AA177">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H178">
         <v>7</v>
@@ -16384,7 +16384,7 @@
         <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>1</v>
@@ -16915,10 +16915,10 @@
         <v>45187.59027777778</v>
       </c>
       <c r="F185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17004,7 +17004,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -17093,7 +17093,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5981912</v>
+        <v>5982248</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K188">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M188">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N188">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V188">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W188">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5982248</v>
+        <v>5981912</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
         <v>0</v>
       </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K189">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N189">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G190" t="s">
         <v>31</v>
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5982249</v>
+        <v>5982246</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,10 +17538,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17553,41 +17553,41 @@
         <v>47</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L192">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N192">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q192">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R192">
+        <v>2.05</v>
+      </c>
+      <c r="S192">
         <v>1.85</v>
-      </c>
-      <c r="S192">
-        <v>2</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
+        <v>1.975</v>
+      </c>
+      <c r="V192">
         <v>1.875</v>
       </c>
-      <c r="V192">
-        <v>1.975</v>
-      </c>
       <c r="W192">
         <v>-1</v>
       </c>
@@ -17595,19 +17595,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>5982246</v>
+        <v>5982249</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,10 +17627,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17642,41 +17642,41 @@
         <v>47</v>
       </c>
       <c r="K193">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N193">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O193">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q193">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R193">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
+        <v>1.875</v>
+      </c>
+      <c r="V193">
         <v>1.975</v>
       </c>
-      <c r="V193">
-        <v>1.875</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17684,19 +17684,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5982255</v>
+        <v>5982256</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,58 +17894,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
         <v>45</v>
       </c>
       <c r="K196">
+        <v>1.666</v>
+      </c>
+      <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>4.75</v>
+      </c>
+      <c r="N196">
         <v>1.571</v>
       </c>
-      <c r="L196">
+      <c r="O196">
         <v>4.2</v>
       </c>
-      <c r="M196">
-        <v>5.25</v>
-      </c>
-      <c r="N196">
-        <v>1.85</v>
-      </c>
-      <c r="O196">
-        <v>3.75</v>
-      </c>
       <c r="P196">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17954,16 +17954,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5982256</v>
+        <v>5982255</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17983,58 +17983,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>45</v>
       </c>
       <c r="K197">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L197">
+        <v>4.2</v>
+      </c>
+      <c r="M197">
+        <v>5.25</v>
+      </c>
+      <c r="N197">
+        <v>1.85</v>
+      </c>
+      <c r="O197">
+        <v>3.75</v>
+      </c>
+      <c r="P197">
         <v>4</v>
       </c>
-      <c r="M197">
-        <v>4.75</v>
-      </c>
-      <c r="N197">
-        <v>1.571</v>
-      </c>
-      <c r="O197">
-        <v>4.2</v>
-      </c>
-      <c r="P197">
-        <v>5.5</v>
-      </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>1.9</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>3</v>
+      </c>
+      <c r="U197">
+        <v>1.875</v>
+      </c>
+      <c r="V197">
         <v>1.975</v>
       </c>
-      <c r="S197">
-        <v>1.875</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>1.825</v>
-      </c>
-      <c r="V197">
-        <v>2.025</v>
-      </c>
       <c r="W197">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18043,16 +18043,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA197">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18253,7 +18253,7 @@
         <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18342,7 +18342,7 @@
         <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5982261</v>
+        <v>5982258</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G202" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M202">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N202">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q202">
+        <v>-0.75</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.85</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
+        <v>1.975</v>
+      </c>
+      <c r="W202">
+        <v>0.75</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>0.5</v>
+      </c>
+      <c r="AA202">
         <v>-0.5</v>
       </c>
-      <c r="R202">
-        <v>1.875</v>
-      </c>
-      <c r="S202">
-        <v>1.975</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>2.025</v>
-      </c>
-      <c r="V202">
-        <v>1.825</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>2.5</v>
-      </c>
-      <c r="Y202">
-        <v>-1</v>
-      </c>
-      <c r="Z202">
-        <v>-1</v>
-      </c>
-      <c r="AA202">
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB202">
-        <v>-1</v>
-      </c>
-      <c r="AC202">
-        <v>0.825</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5982258</v>
+        <v>5982261</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K203">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L203">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N203">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V203">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5982262</v>
+        <v>5982263</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205">
+        <v>3</v>
+      </c>
+      <c r="J205" t="s">
+        <v>47</v>
+      </c>
+      <c r="K205">
+        <v>4</v>
+      </c>
+      <c r="L205">
+        <v>3.6</v>
+      </c>
+      <c r="M205">
+        <v>1.869</v>
+      </c>
+      <c r="N205">
+        <v>3.6</v>
+      </c>
+      <c r="O205">
+        <v>3.75</v>
+      </c>
+      <c r="P205">
+        <v>2</v>
+      </c>
+      <c r="Q205">
+        <v>0.5</v>
+      </c>
+      <c r="R205">
+        <v>1.85</v>
+      </c>
+      <c r="S205">
+        <v>2</v>
+      </c>
+      <c r="T205">
+        <v>3</v>
+      </c>
+      <c r="U205">
+        <v>1.925</v>
+      </c>
+      <c r="V205">
+        <v>1.925</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
+        <v>-1</v>
+      </c>
+      <c r="Y205">
         <v>1</v>
       </c>
-      <c r="J205" t="s">
-        <v>45</v>
-      </c>
-      <c r="K205">
-        <v>2.35</v>
-      </c>
-      <c r="L205">
-        <v>3.3</v>
-      </c>
-      <c r="M205">
-        <v>2.9</v>
-      </c>
-      <c r="N205">
-        <v>1.95</v>
-      </c>
-      <c r="O205">
-        <v>3.5</v>
-      </c>
-      <c r="P205">
-        <v>3.8</v>
-      </c>
-      <c r="Q205">
-        <v>-0.5</v>
-      </c>
-      <c r="R205">
-        <v>1.975</v>
-      </c>
-      <c r="S205">
-        <v>1.875</v>
-      </c>
-      <c r="T205">
-        <v>2.5</v>
-      </c>
-      <c r="U205">
-        <v>1.85</v>
-      </c>
-      <c r="V205">
-        <v>2</v>
-      </c>
-      <c r="W205">
-        <v>0.95</v>
-      </c>
-      <c r="X205">
-        <v>-1</v>
-      </c>
-      <c r="Y205">
-        <v>-1</v>
-      </c>
       <c r="Z205">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB205">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5982263</v>
+        <v>5982262</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,76 +18784,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K206">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M206">
-        <v>1.869</v>
+        <v>2.9</v>
       </c>
       <c r="N206">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R206">
+        <v>1.975</v>
+      </c>
+      <c r="S206">
+        <v>1.875</v>
+      </c>
+      <c r="T206">
+        <v>2.5</v>
+      </c>
+      <c r="U206">
         <v>1.85</v>
       </c>
-      <c r="S206">
-        <v>2</v>
-      </c>
-      <c r="T206">
-        <v>3</v>
-      </c>
-      <c r="U206">
-        <v>1.925</v>
-      </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC206">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5981917</v>
+        <v>5982259</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,49 +18962,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208" t="s">
+        <v>46</v>
+      </c>
+      <c r="K208">
+        <v>2.55</v>
+      </c>
+      <c r="L208">
+        <v>3.4</v>
+      </c>
+      <c r="M208">
+        <v>2.6</v>
+      </c>
+      <c r="N208">
+        <v>2.6</v>
+      </c>
+      <c r="O208">
+        <v>3.6</v>
+      </c>
+      <c r="P208">
+        <v>2.6</v>
+      </c>
+      <c r="Q208">
         <v>0</v>
       </c>
-      <c r="I208">
-        <v>1</v>
-      </c>
-      <c r="J208" t="s">
-        <v>47</v>
-      </c>
-      <c r="K208">
-        <v>5.5</v>
-      </c>
-      <c r="L208">
-        <v>4</v>
-      </c>
-      <c r="M208">
-        <v>1.571</v>
-      </c>
-      <c r="N208">
-        <v>7</v>
-      </c>
-      <c r="O208">
-        <v>4.2</v>
-      </c>
-      <c r="P208">
-        <v>1.5</v>
-      </c>
-      <c r="Q208">
-        <v>1.25</v>
-      </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U208">
         <v>1.9</v>
@@ -19016,22 +19016,22 @@
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y208">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5982259</v>
+        <v>5981917</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,49 +19051,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G209" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K209">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="L209">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N209">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P209">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
         <v>1.9</v>
@@ -19105,22 +19105,22 @@
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19140,7 +19140,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
         <v>41</v>
@@ -19232,7 +19232,7 @@
         <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5981918</v>
+        <v>5982266</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,25 +19318,25 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
         <v>46</v>
       </c>
       <c r="K212">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L212">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
         <v>2.875</v>
@@ -19345,34 +19345,34 @@
         <v>2.25</v>
       </c>
       <c r="O212">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P212">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -19381,13 +19381,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC212">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5982266</v>
+        <v>5981918</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,25 +19407,25 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>46</v>
       </c>
       <c r="K213">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
         <v>2.875</v>
@@ -19434,34 +19434,34 @@
         <v>2.25</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P213">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V213">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -19470,13 +19470,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>5</v>
@@ -19766,7 +19766,7 @@
         <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H217">
         <v>3</v>
@@ -19852,7 +19852,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G218" t="s">
         <v>30</v>
@@ -19941,10 +19941,10 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F219" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5982274</v>
+        <v>5982273</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,76 +20030,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220">
+        <v>3</v>
+      </c>
+      <c r="J220" t="s">
+        <v>47</v>
+      </c>
+      <c r="K220">
+        <v>2.15</v>
+      </c>
+      <c r="L220">
+        <v>3.3</v>
+      </c>
+      <c r="M220">
+        <v>3.1</v>
+      </c>
+      <c r="N220">
+        <v>2.1</v>
+      </c>
+      <c r="O220">
+        <v>3.5</v>
+      </c>
+      <c r="P220">
+        <v>3.3</v>
+      </c>
+      <c r="Q220">
+        <v>-0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.85</v>
+      </c>
+      <c r="S220">
+        <v>2</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.85</v>
+      </c>
+      <c r="V220">
+        <v>2</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>2.3</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
         <v>1</v>
       </c>
-      <c r="J220" t="s">
-        <v>45</v>
-      </c>
-      <c r="K220">
-        <v>4</v>
-      </c>
-      <c r="L220">
-        <v>3.6</v>
-      </c>
-      <c r="M220">
-        <v>1.75</v>
-      </c>
-      <c r="N220">
-        <v>4.75</v>
-      </c>
-      <c r="O220">
-        <v>3.8</v>
-      </c>
-      <c r="P220">
-        <v>1.75</v>
-      </c>
-      <c r="Q220">
-        <v>0.75</v>
-      </c>
-      <c r="R220">
-        <v>1.925</v>
-      </c>
-      <c r="S220">
-        <v>1.925</v>
-      </c>
-      <c r="T220">
-        <v>3</v>
-      </c>
-      <c r="U220">
-        <v>1.925</v>
-      </c>
-      <c r="V220">
-        <v>1.925</v>
-      </c>
-      <c r="W220">
-        <v>3.75</v>
-      </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
-      <c r="Y220">
-        <v>-1</v>
-      </c>
-      <c r="Z220">
-        <v>0.925</v>
-      </c>
-      <c r="AA220">
-        <v>-1</v>
-      </c>
       <c r="AB220">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5982273</v>
+        <v>5982274</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20208,76 +20208,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
         <v>1</v>
       </c>
-      <c r="I222">
+      <c r="J222" t="s">
+        <v>45</v>
+      </c>
+      <c r="K222">
+        <v>4</v>
+      </c>
+      <c r="L222">
+        <v>3.6</v>
+      </c>
+      <c r="M222">
+        <v>1.75</v>
+      </c>
+      <c r="N222">
+        <v>4.75</v>
+      </c>
+      <c r="O222">
+        <v>3.8</v>
+      </c>
+      <c r="P222">
+        <v>1.75</v>
+      </c>
+      <c r="Q222">
+        <v>0.75</v>
+      </c>
+      <c r="R222">
+        <v>1.925</v>
+      </c>
+      <c r="S222">
+        <v>1.925</v>
+      </c>
+      <c r="T222">
         <v>3</v>
       </c>
-      <c r="J222" t="s">
-        <v>47</v>
-      </c>
-      <c r="K222">
-        <v>2.15</v>
-      </c>
-      <c r="L222">
-        <v>3.3</v>
-      </c>
-      <c r="M222">
-        <v>3.1</v>
-      </c>
-      <c r="N222">
-        <v>2.1</v>
-      </c>
-      <c r="O222">
-        <v>3.5</v>
-      </c>
-      <c r="P222">
-        <v>3.3</v>
-      </c>
-      <c r="Q222">
-        <v>-0.25</v>
-      </c>
-      <c r="R222">
-        <v>1.85</v>
-      </c>
-      <c r="S222">
-        <v>2</v>
-      </c>
-      <c r="T222">
-        <v>2.5</v>
-      </c>
       <c r="U222">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA222">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC222">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20297,7 +20297,7 @@
         <v>45228.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G223" t="s">
         <v>34</v>
@@ -20923,7 +20923,7 @@
         <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -21012,7 +21012,7 @@
         <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21101,7 +21101,7 @@
         <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H232">
         <v>4</v>
@@ -21190,7 +21190,7 @@
         <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5981925</v>
+        <v>5982286</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,37 +21365,37 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M235">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N235">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q235">
         <v>0.25</v>
@@ -21407,34 +21407,34 @@
         <v>1.875</v>
       </c>
       <c r="T235">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U235">
+        <v>1.825</v>
+      </c>
+      <c r="V235">
         <v>2.025</v>
       </c>
-      <c r="V235">
-        <v>1.825</v>
-      </c>
       <c r="W235">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z235">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB235">
-        <v>0.5125</v>
+        <v>0.825</v>
       </c>
       <c r="AC235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5982282</v>
+        <v>5982285</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,13 +21454,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -21469,43 +21469,43 @@
         <v>45</v>
       </c>
       <c r="K236">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L236">
+        <v>3.6</v>
+      </c>
+      <c r="M236">
+        <v>3.2</v>
+      </c>
+      <c r="N236">
+        <v>2.2</v>
+      </c>
+      <c r="O236">
+        <v>4.333</v>
+      </c>
+      <c r="P236">
+        <v>2.75</v>
+      </c>
+      <c r="Q236">
+        <v>-0.25</v>
+      </c>
+      <c r="R236">
+        <v>1.975</v>
+      </c>
+      <c r="S236">
+        <v>1.875</v>
+      </c>
+      <c r="T236">
         <v>3.75</v>
       </c>
-      <c r="M236">
-        <v>3.75</v>
-      </c>
-      <c r="N236">
-        <v>1.727</v>
-      </c>
-      <c r="O236">
-        <v>4</v>
-      </c>
-      <c r="P236">
-        <v>4.5</v>
-      </c>
-      <c r="Q236">
-        <v>-0.75</v>
-      </c>
-      <c r="R236">
+      <c r="U236">
+        <v>1.95</v>
+      </c>
+      <c r="V236">
         <v>1.9</v>
       </c>
-      <c r="S236">
-        <v>1.95</v>
-      </c>
-      <c r="T236">
-        <v>2.75</v>
-      </c>
-      <c r="U236">
-        <v>1.9</v>
-      </c>
-      <c r="V236">
-        <v>1.95</v>
-      </c>
       <c r="W236">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21514,16 +21514,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA236">
+        <v>-1</v>
+      </c>
+      <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA236">
-        <v>-1</v>
-      </c>
-      <c r="AB236">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5982286</v>
+        <v>5982287</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,10 +21543,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G237" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H237">
         <v>1</v>
@@ -21558,41 +21558,41 @@
         <v>47</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M237">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N237">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="O237">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P237">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <v>1.9</v>
+      </c>
+      <c r="T237">
+        <v>3</v>
+      </c>
+      <c r="U237">
         <v>1.975</v>
       </c>
-      <c r="S237">
+      <c r="V237">
         <v>1.875</v>
       </c>
-      <c r="T237">
-        <v>2.5</v>
-      </c>
-      <c r="U237">
-        <v>1.825</v>
-      </c>
-      <c r="V237">
-        <v>2.025</v>
-      </c>
       <c r="W237">
         <v>-1</v>
       </c>
@@ -21600,19 +21600,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z237">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA237">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5982287</v>
+        <v>5982283</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238">
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K238">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="L238">
-        <v>4.8</v>
+        <v>4.333</v>
       </c>
       <c r="M238">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="N238">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="O238">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P238">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q238">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
         <v>3</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y238">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5982283</v>
+        <v>5982284</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H239">
         <v>2</v>
       </c>
       <c r="I239">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L239">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N239">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O239">
         <v>4.5</v>
       </c>
       <c r="P239">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q239">
         <v>-1</v>
       </c>
       <c r="R239">
+        <v>2.025</v>
+      </c>
+      <c r="S239">
         <v>1.825</v>
       </c>
-      <c r="S239">
+      <c r="T239">
+        <v>3.5</v>
+      </c>
+      <c r="U239">
         <v>2.025</v>
       </c>
-      <c r="T239">
-        <v>3</v>
-      </c>
-      <c r="U239">
-        <v>2</v>
-      </c>
       <c r="V239">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X239">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA239">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>5982285</v>
+        <v>5982282</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,13 +21810,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -21825,43 +21825,43 @@
         <v>45</v>
       </c>
       <c r="K240">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L240">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M240">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N240">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O240">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P240">
+        <v>4.5</v>
+      </c>
+      <c r="Q240">
+        <v>-0.75</v>
+      </c>
+      <c r="R240">
+        <v>1.9</v>
+      </c>
+      <c r="S240">
+        <v>1.95</v>
+      </c>
+      <c r="T240">
         <v>2.75</v>
       </c>
-      <c r="Q240">
-        <v>-0.25</v>
-      </c>
-      <c r="R240">
-        <v>1.975</v>
-      </c>
-      <c r="S240">
-        <v>1.875</v>
-      </c>
-      <c r="T240">
-        <v>3.75</v>
-      </c>
       <c r="U240">
+        <v>1.9</v>
+      </c>
+      <c r="V240">
         <v>1.95</v>
       </c>
-      <c r="V240">
-        <v>1.9</v>
-      </c>
       <c r="W240">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21870,16 +21870,16 @@
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>5982284</v>
+        <v>5981925</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,49 +21899,49 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H241">
         <v>2</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J241" t="s">
         <v>45</v>
       </c>
       <c r="K241">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L241">
         <v>3.6</v>
       </c>
       <c r="M241">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N241">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="O241">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P241">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q241">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S241">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T241">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U241">
         <v>2.025</v>
@@ -21950,7 +21950,7 @@
         <v>1.825</v>
       </c>
       <c r="W241">
-        <v>0.615</v>
+        <v>2.3</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21959,16 +21959,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC241">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5982138</v>
+        <v>5982143</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
         <v>3.6</v>
       </c>
       <c r="N47">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P47">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5982143</v>
+        <v>5982138</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L48">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
         <v>3.6</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O48">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P48">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q48">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>1.85</v>
+      </c>
+      <c r="T48">
+        <v>2.75</v>
+      </c>
+      <c r="U48">
         <v>1.975</v>
       </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.875</v>
       </c>
-      <c r="T48">
-        <v>2.5</v>
-      </c>
-      <c r="U48">
-        <v>1.925</v>
-      </c>
-      <c r="V48">
-        <v>1.925</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5982146</v>
+        <v>5982148</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,46 +5078,46 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
+        <v>2.5</v>
+      </c>
+      <c r="N52">
+        <v>2.8</v>
+      </c>
+      <c r="O52">
+        <v>3.5</v>
+      </c>
+      <c r="P52">
+        <v>2.4</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>2.1</v>
       </c>
-      <c r="N52">
-        <v>3.1</v>
-      </c>
-      <c r="O52">
-        <v>3.6</v>
-      </c>
-      <c r="P52">
-        <v>2.2</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.925</v>
-      </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
         <v>2.75</v>
@@ -5132,22 +5132,22 @@
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
+        <v>-0</v>
+      </c>
+      <c r="AB52">
+        <v>-1</v>
+      </c>
+      <c r="AC52">
         <v>0.925</v>
-      </c>
-      <c r="AB52">
-        <v>0.925</v>
-      </c>
-      <c r="AC52">
-        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5982148</v>
+        <v>5982146</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,46 +5167,46 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N53">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>2.75</v>
@@ -5221,22 +5221,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5982144</v>
+        <v>5982147</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,34 +5434,34 @@
         <v>45055.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
+        <v>3.3</v>
+      </c>
+      <c r="M56">
         <v>3.75</v>
       </c>
-      <c r="M56">
-        <v>4.75</v>
-      </c>
       <c r="N56">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O56">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
         <v>5</v>
@@ -5470,13 +5470,13 @@
         <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
         <v>2.05</v>
@@ -5485,25 +5485,25 @@
         <v>1.8</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X56">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC56">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5982147</v>
+        <v>5982144</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,34 +5523,34 @@
         <v>45055.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N57">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="P57">
         <v>5</v>
@@ -5559,13 +5559,13 @@
         <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
         <v>2.05</v>
@@ -5574,25 +5574,25 @@
         <v>1.8</v>
       </c>
       <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>2.9</v>
+      </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.8</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>1.025</v>
-      </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
-      <c r="AB57">
-        <v>1.05</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5981885</v>
+        <v>5982159</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,73 +6413,73 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>1.85</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X67">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5982159</v>
+        <v>5981885</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,73 +6502,73 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>1.85</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N68">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5981889</v>
+        <v>5982171</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45081.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
         <v>3.75</v>
       </c>
       <c r="P88">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.9</v>
+      </c>
+      <c r="S88">
+        <v>1.95</v>
+      </c>
+      <c r="T88">
+        <v>2.5</v>
+      </c>
+      <c r="U88">
         <v>1.825</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>2.025</v>
       </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
-      <c r="V88">
-        <v>1.875</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>1.025</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5982171</v>
+        <v>5981889</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45081.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O89">
         <v>3.75</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q89">
         <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5982179</v>
+        <v>5982181</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>46</v>
       </c>
       <c r="K103">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L103">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="N103">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="Q103">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
+        <v>1.975</v>
+      </c>
+      <c r="S103">
         <v>1.875</v>
       </c>
-      <c r="S103">
-        <v>1.975</v>
-      </c>
       <c r="T103">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5982181</v>
+        <v>5982179</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>46</v>
       </c>
       <c r="K104">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L104">
+        <v>3.8</v>
+      </c>
+      <c r="M104">
+        <v>1.75</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104">
+        <v>4.333</v>
+      </c>
+      <c r="P104">
+        <v>1.571</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>1.875</v>
+      </c>
+      <c r="S104">
+        <v>1.975</v>
+      </c>
+      <c r="T104">
         <v>3.25</v>
       </c>
-      <c r="M104">
-        <v>2.7</v>
-      </c>
-      <c r="N104">
-        <v>2.3</v>
-      </c>
-      <c r="O104">
-        <v>3.25</v>
-      </c>
-      <c r="P104">
-        <v>3.25</v>
-      </c>
-      <c r="Q104">
-        <v>-0.25</v>
-      </c>
-      <c r="R104">
+      <c r="U104">
+        <v>1.875</v>
+      </c>
+      <c r="V104">
         <v>1.975</v>
       </c>
-      <c r="S104">
-        <v>1.875</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA104">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5982230</v>
+        <v>5981906</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,58 +15135,58 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H165">
         <v>4</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>45</v>
       </c>
       <c r="K165">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M165">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N165">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P165">
-        <v>2.05</v>
+        <v>9.5</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>2.5</v>
+        <v>0.333</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15195,13 +15195,13 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5981906</v>
+        <v>5982230</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,58 +15224,58 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>4</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
         <v>45</v>
       </c>
       <c r="K166">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="L166">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N166">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>0.333</v>
+        <v>2.5</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15284,13 +15284,13 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5982235</v>
+        <v>5982237</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,37 +15758,37 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G172" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M172">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N172">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P172">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q172">
         <v>-0.25</v>
@@ -15800,34 +15800,34 @@
         <v>1.825</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U172">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W172">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z172">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB172">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5982237</v>
+        <v>5982235</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,37 +15936,37 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L174">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N174">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q174">
         <v>-0.25</v>
@@ -15978,34 +15978,34 @@
         <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5982256</v>
+        <v>5982255</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,58 +17894,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>45</v>
       </c>
       <c r="K196">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L196">
+        <v>4.2</v>
+      </c>
+      <c r="M196">
+        <v>5.25</v>
+      </c>
+      <c r="N196">
+        <v>1.85</v>
+      </c>
+      <c r="O196">
+        <v>3.75</v>
+      </c>
+      <c r="P196">
         <v>4</v>
       </c>
-      <c r="M196">
-        <v>4.75</v>
-      </c>
-      <c r="N196">
-        <v>1.571</v>
-      </c>
-      <c r="O196">
-        <v>4.2</v>
-      </c>
-      <c r="P196">
-        <v>5.5</v>
-      </c>
       <c r="Q196">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
+        <v>1.9</v>
+      </c>
+      <c r="S196">
+        <v>1.95</v>
+      </c>
+      <c r="T196">
+        <v>3</v>
+      </c>
+      <c r="U196">
+        <v>1.875</v>
+      </c>
+      <c r="V196">
         <v>1.975</v>
       </c>
-      <c r="S196">
-        <v>1.875</v>
-      </c>
-      <c r="T196">
-        <v>2.75</v>
-      </c>
-      <c r="U196">
-        <v>1.825</v>
-      </c>
-      <c r="V196">
-        <v>2.025</v>
-      </c>
       <c r="W196">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17954,16 +17954,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA196">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5982255</v>
+        <v>5982256</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17983,58 +17983,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>45</v>
       </c>
       <c r="K197">
+        <v>1.666</v>
+      </c>
+      <c r="L197">
+        <v>4</v>
+      </c>
+      <c r="M197">
+        <v>4.75</v>
+      </c>
+      <c r="N197">
         <v>1.571</v>
       </c>
-      <c r="L197">
+      <c r="O197">
         <v>4.2</v>
       </c>
-      <c r="M197">
-        <v>5.25</v>
-      </c>
-      <c r="N197">
-        <v>1.85</v>
-      </c>
-      <c r="O197">
-        <v>3.75</v>
-      </c>
       <c r="P197">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T197">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V197">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W197">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18043,16 +18043,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC197">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5981923</v>
+        <v>5982279</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,58 +20742,58 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
         <v>45</v>
       </c>
       <c r="K228">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="L228">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M228">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N228">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O228">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P228">
+        <v>2.9</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>1.8</v>
+      </c>
+      <c r="S228">
         <v>2.05</v>
       </c>
-      <c r="Q228">
-        <v>0.5</v>
-      </c>
-      <c r="R228">
-        <v>1.825</v>
-      </c>
-      <c r="S228">
-        <v>2.025</v>
-      </c>
       <c r="T228">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V228">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W228">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20802,13 +20802,13 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5982279</v>
+        <v>5981923</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,58 +20831,58 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
         <v>45</v>
       </c>
       <c r="K229">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M229">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N229">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O229">
+        <v>3.8</v>
+      </c>
+      <c r="P229">
+        <v>2.05</v>
+      </c>
+      <c r="Q229">
+        <v>0.5</v>
+      </c>
+      <c r="R229">
+        <v>1.825</v>
+      </c>
+      <c r="S229">
+        <v>2.025</v>
+      </c>
+      <c r="T229">
         <v>3.25</v>
       </c>
-      <c r="P229">
-        <v>2.9</v>
-      </c>
-      <c r="Q229">
-        <v>0</v>
-      </c>
-      <c r="R229">
-        <v>1.8</v>
-      </c>
-      <c r="S229">
-        <v>2.05</v>
-      </c>
-      <c r="T229">
-        <v>2.25</v>
-      </c>
       <c r="U229">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V229">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20891,13 +20891,13 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5982286</v>
+        <v>5982287</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,10 +21365,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G235" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -21380,41 +21380,41 @@
         <v>47</v>
       </c>
       <c r="K235">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M235">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N235">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="O235">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P235">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
+        <v>1.9</v>
+      </c>
+      <c r="T235">
+        <v>3</v>
+      </c>
+      <c r="U235">
         <v>1.975</v>
       </c>
-      <c r="S235">
+      <c r="V235">
         <v>1.875</v>
       </c>
-      <c r="T235">
-        <v>2.5</v>
-      </c>
-      <c r="U235">
-        <v>1.825</v>
-      </c>
-      <c r="V235">
-        <v>2.025</v>
-      </c>
       <c r="W235">
         <v>-1</v>
       </c>
@@ -21422,19 +21422,19 @@
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA235">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5982287</v>
+        <v>5982284</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L237">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="N237">
-        <v>7.5</v>
+        <v>1.615</v>
       </c>
       <c r="O237">
+        <v>4.5</v>
+      </c>
+      <c r="P237">
         <v>4.75</v>
       </c>
-      <c r="P237">
-        <v>1.4</v>
-      </c>
       <c r="Q237">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S237">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5982283</v>
+        <v>5982286</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,73 +21632,73 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L238">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N238">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="O238">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P238">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q238">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
+        <v>1.975</v>
+      </c>
+      <c r="S238">
+        <v>1.875</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
         <v>1.825</v>
       </c>
-      <c r="S238">
+      <c r="V238">
         <v>2.025</v>
       </c>
-      <c r="T238">
-        <v>3</v>
-      </c>
-      <c r="U238">
-        <v>2</v>
-      </c>
-      <c r="V238">
-        <v>1.85</v>
-      </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB238">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5982284</v>
+        <v>5982282</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,58 +21721,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G239" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J239" t="s">
         <v>45</v>
       </c>
       <c r="K239">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N239">
-        <v>1.615</v>
+        <v>1.727</v>
       </c>
       <c r="O239">
+        <v>4</v>
+      </c>
+      <c r="P239">
         <v>4.5</v>
       </c>
-      <c r="P239">
-        <v>4.75</v>
-      </c>
       <c r="Q239">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T239">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U239">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V239">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
-        <v>0.615</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21781,16 +21781,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>5982282</v>
+        <v>5982283</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,73 +21810,73 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240" t="s">
+        <v>46</v>
+      </c>
+      <c r="K240">
+        <v>1.5</v>
+      </c>
+      <c r="L240">
+        <v>4.333</v>
+      </c>
+      <c r="M240">
+        <v>5</v>
+      </c>
+      <c r="N240">
+        <v>1.533</v>
+      </c>
+      <c r="O240">
+        <v>4.5</v>
+      </c>
+      <c r="P240">
+        <v>5.75</v>
+      </c>
+      <c r="Q240">
+        <v>-1</v>
+      </c>
+      <c r="R240">
+        <v>1.825</v>
+      </c>
+      <c r="S240">
+        <v>2.025</v>
+      </c>
+      <c r="T240">
         <v>3</v>
       </c>
-      <c r="I240">
+      <c r="U240">
+        <v>2</v>
+      </c>
+      <c r="V240">
+        <v>1.85</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
+        <v>3.5</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>-1</v>
+      </c>
+      <c r="AA240">
+        <v>1.025</v>
+      </c>
+      <c r="AB240">
         <v>1</v>
-      </c>
-      <c r="J240" t="s">
-        <v>45</v>
-      </c>
-      <c r="K240">
-        <v>1.8</v>
-      </c>
-      <c r="L240">
-        <v>3.75</v>
-      </c>
-      <c r="M240">
-        <v>3.75</v>
-      </c>
-      <c r="N240">
-        <v>1.727</v>
-      </c>
-      <c r="O240">
-        <v>4</v>
-      </c>
-      <c r="P240">
-        <v>4.5</v>
-      </c>
-      <c r="Q240">
-        <v>-0.75</v>
-      </c>
-      <c r="R240">
-        <v>1.9</v>
-      </c>
-      <c r="S240">
-        <v>1.95</v>
-      </c>
-      <c r="T240">
-        <v>2.75</v>
-      </c>
-      <c r="U240">
-        <v>1.9</v>
-      </c>
-      <c r="V240">
-        <v>1.95</v>
-      </c>
-      <c r="W240">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X240">
-        <v>-1</v>
-      </c>
-      <c r="Y240">
-        <v>-1</v>
-      </c>
-      <c r="Z240">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA240">
-        <v>-1</v>
-      </c>
-      <c r="AB240">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
         <v>-1</v>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5982148</v>
+        <v>5982146</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,46 +5078,46 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M52">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N52">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
         <v>2.75</v>
@@ -5132,22 +5132,22 @@
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5982146</v>
+        <v>5982148</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,46 +5167,46 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
+        <v>2.5</v>
+      </c>
+      <c r="N53">
+        <v>2.8</v>
+      </c>
+      <c r="O53">
+        <v>3.5</v>
+      </c>
+      <c r="P53">
+        <v>2.4</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
         <v>2.1</v>
       </c>
-      <c r="N53">
-        <v>3.1</v>
-      </c>
-      <c r="O53">
-        <v>3.6</v>
-      </c>
-      <c r="P53">
-        <v>2.2</v>
-      </c>
-      <c r="Q53">
-        <v>0.25</v>
-      </c>
-      <c r="R53">
-        <v>1.925</v>
-      </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
         <v>2.75</v>
@@ -5221,22 +5221,22 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y53">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
+        <v>-0</v>
+      </c>
+      <c r="AB53">
+        <v>-1</v>
+      </c>
+      <c r="AC53">
         <v>0.925</v>
-      </c>
-      <c r="AB53">
-        <v>0.925</v>
-      </c>
-      <c r="AC53">
-        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5982181</v>
+        <v>5982179</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,76 +9617,76 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>46</v>
       </c>
       <c r="K103">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L103">
+        <v>3.8</v>
+      </c>
+      <c r="M103">
+        <v>1.75</v>
+      </c>
+      <c r="N103">
+        <v>5</v>
+      </c>
+      <c r="O103">
+        <v>4.333</v>
+      </c>
+      <c r="P103">
+        <v>1.571</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>1.875</v>
+      </c>
+      <c r="S103">
+        <v>1.975</v>
+      </c>
+      <c r="T103">
         <v>3.25</v>
       </c>
-      <c r="M103">
-        <v>2.7</v>
-      </c>
-      <c r="N103">
-        <v>2.3</v>
-      </c>
-      <c r="O103">
-        <v>3.25</v>
-      </c>
-      <c r="P103">
-        <v>3.25</v>
-      </c>
-      <c r="Q103">
-        <v>-0.25</v>
-      </c>
-      <c r="R103">
+      <c r="U103">
+        <v>1.875</v>
+      </c>
+      <c r="V103">
         <v>1.975</v>
       </c>
-      <c r="S103">
-        <v>1.875</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>2.025</v>
-      </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA103">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5982179</v>
+        <v>5982181</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,76 +9706,76 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>46</v>
       </c>
       <c r="K104">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L104">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M104">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="N104">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O104">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P104">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
         <v>1.875</v>
       </c>
-      <c r="S104">
-        <v>1.975</v>
-      </c>
       <c r="T104">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V104">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5982210</v>
+        <v>5981902</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,43 +13192,43 @@
         <v>45</v>
       </c>
       <c r="K143">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M143">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N143">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P143">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13237,16 +13237,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5981902</v>
+        <v>5982215</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
         <v>3</v>
       </c>
-      <c r="I144">
+      <c r="J144" t="s">
+        <v>47</v>
+      </c>
+      <c r="K144">
+        <v>2.75</v>
+      </c>
+      <c r="L144">
+        <v>3.1</v>
+      </c>
+      <c r="M144">
+        <v>2.5</v>
+      </c>
+      <c r="N144">
+        <v>2.8</v>
+      </c>
+      <c r="O144">
+        <v>3.4</v>
+      </c>
+      <c r="P144">
+        <v>2.5</v>
+      </c>
+      <c r="Q144">
         <v>0</v>
       </c>
-      <c r="J144" t="s">
-        <v>45</v>
-      </c>
-      <c r="K144">
-        <v>1.285</v>
-      </c>
-      <c r="L144">
-        <v>5.5</v>
-      </c>
-      <c r="M144">
-        <v>9</v>
-      </c>
-      <c r="N144">
-        <v>1.3</v>
-      </c>
-      <c r="O144">
-        <v>5.5</v>
-      </c>
-      <c r="P144">
-        <v>9.5</v>
-      </c>
-      <c r="Q144">
-        <v>-1.5</v>
-      </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U144">
+        <v>1.875</v>
+      </c>
+      <c r="V144">
         <v>1.975</v>
       </c>
-      <c r="V144">
-        <v>1.875</v>
-      </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z144">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5982215</v>
+        <v>5982210</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,73 +13355,73 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H145">
+        <v>3</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>3</v>
-      </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L145">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
+        <v>3.6</v>
+      </c>
+      <c r="N145">
+        <v>2.25</v>
+      </c>
+      <c r="O145">
+        <v>3.25</v>
+      </c>
+      <c r="P145">
+        <v>3.3</v>
+      </c>
+      <c r="Q145">
+        <v>-0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.99</v>
+      </c>
+      <c r="S145">
+        <v>1.91</v>
+      </c>
+      <c r="T145">
         <v>2.5</v>
       </c>
-      <c r="N145">
-        <v>2.8</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>2.5</v>
-      </c>
-      <c r="Q145">
-        <v>0</v>
-      </c>
-      <c r="R145">
-        <v>2.06</v>
-      </c>
-      <c r="S145">
-        <v>1.84</v>
-      </c>
-      <c r="T145">
-        <v>2</v>
-      </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.99</v>
       </c>
       <c r="AA145">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC145">
         <v>-1</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5982221</v>
+        <v>5981904</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
         <v>0</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K152">
+        <v>4.5</v>
+      </c>
+      <c r="L152">
+        <v>3.8</v>
+      </c>
+      <c r="M152">
+        <v>1.727</v>
+      </c>
+      <c r="N152">
+        <v>4.333</v>
+      </c>
+      <c r="O152">
+        <v>3.75</v>
+      </c>
+      <c r="P152">
         <v>1.8</v>
       </c>
-      <c r="L152">
-        <v>3.75</v>
-      </c>
-      <c r="M152">
-        <v>4.2</v>
-      </c>
-      <c r="N152">
-        <v>1.75</v>
-      </c>
-      <c r="O152">
-        <v>4</v>
-      </c>
-      <c r="P152">
-        <v>4.333</v>
-      </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
+        <v>2.025</v>
+      </c>
+      <c r="T152">
+        <v>2.5</v>
+      </c>
+      <c r="U152">
+        <v>2</v>
+      </c>
+      <c r="V152">
         <v>1.85</v>
       </c>
-      <c r="T152">
-        <v>2.75</v>
-      </c>
-      <c r="U152">
-        <v>1.925</v>
-      </c>
-      <c r="V152">
-        <v>1.925</v>
-      </c>
       <c r="W152">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA152">
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB152">
-        <v>-1</v>
-      </c>
-      <c r="AC152">
-        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5981904</v>
+        <v>5982221</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,76 +14067,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
         <v>1</v>
       </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="N153">
+        <v>1.75</v>
+      </c>
+      <c r="O153">
+        <v>4</v>
+      </c>
+      <c r="P153">
         <v>4.333</v>
       </c>
-      <c r="O153">
-        <v>3.75</v>
-      </c>
-      <c r="P153">
-        <v>1.8</v>
-      </c>
       <c r="Q153">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
         <v>3.333</v>
       </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
       <c r="Z153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5982237</v>
+        <v>5982235</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,37 +15758,37 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I172">
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K172">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N172">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O172">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q172">
         <v>-0.25</v>
@@ -15800,34 +15800,34 @@
         <v>1.825</v>
       </c>
       <c r="T172">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V172">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X172">
         <v>-1</v>
       </c>
       <c r="Y172">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5982235</v>
+        <v>5982237</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,37 +15936,37 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M174">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N174">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O174">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q174">
         <v>-0.25</v>
@@ -15978,34 +15978,34 @@
         <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB174">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5982246</v>
+        <v>5982249</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,10 +17538,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17553,41 +17553,41 @@
         <v>47</v>
       </c>
       <c r="K192">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N192">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O192">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
+        <v>1.875</v>
+      </c>
+      <c r="V192">
         <v>1.975</v>
       </c>
-      <c r="V192">
-        <v>1.875</v>
-      </c>
       <c r="W192">
         <v>-1</v>
       </c>
@@ -17595,19 +17595,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>5982249</v>
+        <v>5982246</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,10 +17627,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17642,41 +17642,41 @@
         <v>47</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N193">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P193">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R193">
+        <v>2.05</v>
+      </c>
+      <c r="S193">
         <v>1.85</v>
-      </c>
-      <c r="S193">
-        <v>2</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
+        <v>1.975</v>
+      </c>
+      <c r="V193">
         <v>1.875</v>
       </c>
-      <c r="V193">
-        <v>1.975</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17684,19 +17684,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5982273</v>
+        <v>5981920</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,49 +20030,49 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
         <v>1</v>
-      </c>
-      <c r="I220">
-        <v>3</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
       </c>
       <c r="K220">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="L220">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M220">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="N220">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P220">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U220">
         <v>1.85</v>
@@ -20087,19 +20087,19 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA220">
+        <v>-0.5</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
         <v>1</v>
-      </c>
-      <c r="AB220">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC220">
-        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5981920</v>
+        <v>5982273</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,49 +20119,49 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
         <v>47</v>
       </c>
       <c r="K221">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M221">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="N221">
-        <v>6.5</v>
+        <v>2.1</v>
       </c>
       <c r="O221">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P221">
-        <v>1.45</v>
+        <v>3.3</v>
       </c>
       <c r="Q221">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T221">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
         <v>1.85</v>
@@ -20176,19 +20176,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.45</v>
+        <v>2.3</v>
       </c>
       <c r="Z221">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5982287</v>
+        <v>5982283</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235">
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K235">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="L235">
-        <v>4.8</v>
+        <v>4.333</v>
       </c>
       <c r="M235">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="N235">
-        <v>7.5</v>
+        <v>1.533</v>
       </c>
       <c r="O235">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P235">
-        <v>1.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q235">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S235">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T235">
         <v>3</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V235">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y235">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5982285</v>
+        <v>5982286</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,40 +21454,40 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L236">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N236">
+        <v>3.25</v>
+      </c>
+      <c r="O236">
+        <v>3.4</v>
+      </c>
+      <c r="P236">
         <v>2.2</v>
       </c>
-      <c r="O236">
-        <v>4.333</v>
-      </c>
-      <c r="P236">
-        <v>2.75</v>
-      </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R236">
         <v>1.975</v>
@@ -21496,34 +21496,34 @@
         <v>1.875</v>
       </c>
       <c r="T236">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U236">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V236">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
+        <v>-1</v>
+      </c>
+      <c r="Y236">
         <v>1.2</v>
       </c>
-      <c r="X236">
-        <v>-1</v>
-      </c>
-      <c r="Y236">
-        <v>-1</v>
-      </c>
       <c r="Z236">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5982284</v>
+        <v>5982287</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G237" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237" t="s">
+        <v>47</v>
+      </c>
+      <c r="K237">
+        <v>7</v>
+      </c>
+      <c r="L237">
+        <v>4.8</v>
+      </c>
+      <c r="M237">
+        <v>1.4</v>
+      </c>
+      <c r="N237">
+        <v>7.5</v>
+      </c>
+      <c r="O237">
+        <v>4.75</v>
+      </c>
+      <c r="P237">
+        <v>1.4</v>
+      </c>
+      <c r="Q237">
+        <v>1.25</v>
+      </c>
+      <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <v>1.9</v>
+      </c>
+      <c r="T237">
+        <v>3</v>
+      </c>
+      <c r="U237">
+        <v>1.975</v>
+      </c>
+      <c r="V237">
+        <v>1.875</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
+        <v>-1</v>
+      </c>
+      <c r="Y237">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z237">
+        <v>0.5</v>
+      </c>
+      <c r="AA237">
+        <v>-0.5</v>
+      </c>
+      <c r="AB237">
         <v>0</v>
       </c>
-      <c r="J237" t="s">
-        <v>45</v>
-      </c>
-      <c r="K237">
-        <v>1.909</v>
-      </c>
-      <c r="L237">
-        <v>3.6</v>
-      </c>
-      <c r="M237">
-        <v>3.4</v>
-      </c>
-      <c r="N237">
-        <v>1.615</v>
-      </c>
-      <c r="O237">
-        <v>4.5</v>
-      </c>
-      <c r="P237">
-        <v>4.75</v>
-      </c>
-      <c r="Q237">
-        <v>-1</v>
-      </c>
-      <c r="R237">
-        <v>2.025</v>
-      </c>
-      <c r="S237">
-        <v>1.825</v>
-      </c>
-      <c r="T237">
-        <v>3.5</v>
-      </c>
-      <c r="U237">
-        <v>2.025</v>
-      </c>
-      <c r="V237">
-        <v>1.825</v>
-      </c>
-      <c r="W237">
-        <v>0.615</v>
-      </c>
-      <c r="X237">
-        <v>-1</v>
-      </c>
-      <c r="Y237">
-        <v>-1</v>
-      </c>
-      <c r="Z237">
-        <v>1.025</v>
-      </c>
-      <c r="AA237">
-        <v>-1</v>
-      </c>
-      <c r="AB237">
-        <v>-1</v>
-      </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5982286</v>
+        <v>5982284</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,76 +21632,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L238">
+        <v>3.6</v>
+      </c>
+      <c r="M238">
         <v>3.4</v>
       </c>
-      <c r="M238">
-        <v>2.5</v>
-      </c>
       <c r="N238">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="O238">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P238">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U238">
+        <v>2.025</v>
+      </c>
+      <c r="V238">
         <v>1.825</v>
       </c>
-      <c r="V238">
-        <v>2.025</v>
-      </c>
       <c r="W238">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X238">
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA238">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
         <v>0.825</v>
-      </c>
-      <c r="AC238">
-        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5982282</v>
+        <v>5982285</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,13 +21721,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -21736,43 +21736,43 @@
         <v>45</v>
       </c>
       <c r="K239">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L239">
+        <v>3.6</v>
+      </c>
+      <c r="M239">
+        <v>3.2</v>
+      </c>
+      <c r="N239">
+        <v>2.2</v>
+      </c>
+      <c r="O239">
+        <v>4.333</v>
+      </c>
+      <c r="P239">
+        <v>2.75</v>
+      </c>
+      <c r="Q239">
+        <v>-0.25</v>
+      </c>
+      <c r="R239">
+        <v>1.975</v>
+      </c>
+      <c r="S239">
+        <v>1.875</v>
+      </c>
+      <c r="T239">
         <v>3.75</v>
       </c>
-      <c r="M239">
-        <v>3.75</v>
-      </c>
-      <c r="N239">
-        <v>1.727</v>
-      </c>
-      <c r="O239">
-        <v>4</v>
-      </c>
-      <c r="P239">
-        <v>4.5</v>
-      </c>
-      <c r="Q239">
-        <v>-0.75</v>
-      </c>
-      <c r="R239">
+      <c r="U239">
+        <v>1.95</v>
+      </c>
+      <c r="V239">
         <v>1.9</v>
       </c>
-      <c r="S239">
-        <v>1.95</v>
-      </c>
-      <c r="T239">
-        <v>2.75</v>
-      </c>
-      <c r="U239">
-        <v>1.9</v>
-      </c>
-      <c r="V239">
-        <v>1.95</v>
-      </c>
       <c r="W239">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21781,16 +21781,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA239">
+        <v>-1</v>
+      </c>
+      <c r="AB239">
+        <v>-1</v>
+      </c>
+      <c r="AC239">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA239">
-        <v>-1</v>
-      </c>
-      <c r="AB239">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC239">
-        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>5982283</v>
+        <v>5982282</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,73 +21810,73 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L240">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M240">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N240">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O240">
+        <v>4</v>
+      </c>
+      <c r="P240">
         <v>4.5</v>
       </c>
-      <c r="P240">
-        <v>5.75</v>
-      </c>
       <c r="Q240">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T240">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V240">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W240">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X240">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA240">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
         <v>-1</v>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -127,28 +127,28 @@
     <t>Elfsborg</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
+    <t>Degerfors</t>
   </si>
   <si>
-    <t>Degerfors</t>
+    <t>Brommapojkarna</t>
   </si>
   <si>
     <t>BK Hacken</t>
   </si>
   <si>
-    <t>Sirius</t>
+    <t>Kalmar FF</t>
   </si>
   <si>
-    <t>Kalmar FF</t>
+    <t>Sirius</t>
   </si>
   <si>
     <t>IFK Varnamo</t>
   </si>
   <si>
-    <t>AIK</t>
+    <t>Varbergs BoIS FC</t>
   </si>
   <si>
-    <t>Varbergs BoIS FC</t>
+    <t>AIK</t>
   </si>
   <si>
     <t>H</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5981871</v>
+        <v>5982118</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -1391,25 +1391,25 @@
         <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.445</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5982118</v>
+        <v>5981871</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>5.25</v>
+      </c>
+      <c r="L11">
+        <v>4.2</v>
+      </c>
+      <c r="M11">
+        <v>1.571</v>
+      </c>
+      <c r="N11">
+        <v>6.5</v>
+      </c>
+      <c r="O11">
+        <v>4.75</v>
+      </c>
+      <c r="P11">
+        <v>1.45</v>
+      </c>
+      <c r="Q11">
+        <v>1.25</v>
+      </c>
+      <c r="R11">
+        <v>1.89</v>
+      </c>
+      <c r="S11">
+        <v>2.01</v>
+      </c>
+      <c r="T11">
         <v>3</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11">
-        <v>2.25</v>
-      </c>
-      <c r="L11">
-        <v>3.3</v>
-      </c>
-      <c r="M11">
-        <v>3.25</v>
-      </c>
-      <c r="N11">
-        <v>2.5</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>2.875</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>1.85</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -1480,25 +1480,25 @@
         <v>1.9</v>
       </c>
       <c r="W11">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z11">
-        <v>0.8500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5981870</v>
+        <v>5982116</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3.4</v>
+      </c>
+      <c r="P13">
         <v>3.8</v>
       </c>
-      <c r="M13">
-        <v>1.65</v>
-      </c>
-      <c r="N13">
-        <v>3.6</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.86</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>2.04</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8600000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5982116</v>
+        <v>5981870</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,73 +1699,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="L14">
+        <v>3.8</v>
+      </c>
+      <c r="M14">
+        <v>1.65</v>
+      </c>
+      <c r="N14">
+        <v>3.6</v>
+      </c>
+      <c r="O14">
         <v>3.5</v>
       </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>3.4</v>
-      </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>1.86</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>2.04</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.025</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5982114</v>
+        <v>5982119</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16">
+        <v>3.75</v>
+      </c>
+      <c r="L16">
+        <v>3.4</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>4.6</v>
+      </c>
+      <c r="O16">
+        <v>4</v>
+      </c>
+      <c r="P16">
+        <v>1.7</v>
+      </c>
+      <c r="Q16">
+        <v>0.75</v>
+      </c>
+      <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
+        <v>1.875</v>
+      </c>
+      <c r="T16">
+        <v>2.75</v>
+      </c>
+      <c r="U16">
+        <v>2.025</v>
+      </c>
+      <c r="V16">
+        <v>1.825</v>
+      </c>
+      <c r="W16">
+        <v>-1</v>
+      </c>
+      <c r="X16">
         <v>3</v>
       </c>
-      <c r="J16" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16">
-        <v>1.8</v>
-      </c>
-      <c r="L16">
-        <v>3.5</v>
-      </c>
-      <c r="M16">
-        <v>4.5</v>
-      </c>
-      <c r="N16">
-        <v>1.7</v>
-      </c>
-      <c r="O16">
-        <v>3.75</v>
-      </c>
-      <c r="P16">
-        <v>5.25</v>
-      </c>
-      <c r="Q16">
-        <v>-0.75</v>
-      </c>
-      <c r="R16">
-        <v>1.99</v>
-      </c>
-      <c r="S16">
-        <v>1.91</v>
-      </c>
-      <c r="T16">
-        <v>2.5</v>
-      </c>
-      <c r="U16">
-        <v>1.925</v>
-      </c>
-      <c r="V16">
-        <v>1.925</v>
-      </c>
-      <c r="W16">
-        <v>-1</v>
-      </c>
-      <c r="X16">
-        <v>-1</v>
-      </c>
       <c r="Y16">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5982119</v>
+        <v>5982114</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,73 +1966,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
+        <v>1.8</v>
+      </c>
+      <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>4.5</v>
+      </c>
+      <c r="N17">
+        <v>1.7</v>
+      </c>
+      <c r="O17">
         <v>3.75</v>
       </c>
-      <c r="L17">
-        <v>3.4</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>4.6</v>
-      </c>
-      <c r="O17">
-        <v>4</v>
-      </c>
       <c r="P17">
-        <v>1.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q17">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.99</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.91</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2144,7 +2144,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5981873</v>
+        <v>5982124</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2423,43 +2423,43 @@
         <v>45</v>
       </c>
       <c r="K22">
+        <v>1.85</v>
+      </c>
+      <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>3.8</v>
+      </c>
+      <c r="N22">
+        <v>1.8</v>
+      </c>
+      <c r="O22">
         <v>3.6</v>
       </c>
-      <c r="L22">
-        <v>3.3</v>
-      </c>
-      <c r="M22">
-        <v>1.909</v>
-      </c>
-      <c r="N22">
-        <v>3.4</v>
-      </c>
-      <c r="O22">
-        <v>3.5</v>
-      </c>
       <c r="P22">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2468,7 +2468,7 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2477,7 +2477,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5982124</v>
+        <v>5981873</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,10 +2497,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2512,61 +2512,61 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
+        <v>3.3</v>
+      </c>
+      <c r="M23">
+        <v>1.909</v>
+      </c>
+      <c r="N23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>3.8</v>
-      </c>
-      <c r="N23">
+      <c r="O23">
+        <v>3.5</v>
+      </c>
+      <c r="P23">
+        <v>2.1</v>
+      </c>
+      <c r="Q23">
+        <v>0.25</v>
+      </c>
+      <c r="R23">
+        <v>2.05</v>
+      </c>
+      <c r="S23">
         <v>1.8</v>
-      </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
-      <c r="P23">
-        <v>4.5</v>
-      </c>
-      <c r="Q23">
-        <v>-0.75</v>
-      </c>
-      <c r="R23">
-        <v>2.07</v>
-      </c>
-      <c r="S23">
-        <v>1.83</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
+        <v>2.4</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>1.05</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.8</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>1.07</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2586,10 +2586,10 @@
         <v>45033.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2767,7 +2767,7 @@
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2853,7 +2853,7 @@
         <v>45038.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -3031,7 +3031,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -3120,7 +3120,7 @@
         <v>45039.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
         <v>39</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5982130</v>
+        <v>5982129</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,13 +3209,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3224,43 +3224,43 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L31">
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,16 +3269,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5982129</v>
+        <v>5982130</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,13 +3298,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3313,43 +3313,43 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L32">
         <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3358,16 +3358,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3476,10 +3476,10 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5982134</v>
+        <v>5982135</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,49 +3654,49 @@
         <v>45045.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>1.285</v>
+        <v>1.7</v>
       </c>
       <c r="L36">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M36">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="N36">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q36">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
         <v>1.95</v>
@@ -3705,25 +3705,25 @@
         <v>1.9</v>
       </c>
       <c r="W36">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z36">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5982135</v>
+        <v>5982134</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,49 +3743,49 @@
         <v>45045.52083333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>1.7</v>
+        <v>1.285</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M37">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="N37">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="O37">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P37">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T37">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U37">
         <v>1.95</v>
@@ -3794,25 +3794,25 @@
         <v>1.9</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA37">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3832,10 +3832,10 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>45046.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4188,10 +4188,10 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" t="s">
         <v>41</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5982140</v>
+        <v>5981878</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,13 +4277,13 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4292,43 +4292,43 @@
         <v>45</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>1.444</v>
+        <v>1.833</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="S43">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W43">
-        <v>0.444</v>
+        <v>0.833</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4337,13 +4337,13 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>1.01</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5981878</v>
+        <v>5982140</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,13 +4366,13 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4381,43 +4381,43 @@
         <v>45</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="N44">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P44">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R44">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.833</v>
+        <v>0.444</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4426,13 +4426,13 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8500000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4458,7 +4458,7 @@
         <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>6</v>
@@ -4811,7 +4811,7 @@
         <v>45050.59375</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G49" t="s">
         <v>29</v>
@@ -4903,7 +4903,7 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5982148</v>
+        <v>5982149</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,16 +5170,16 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>2.625</v>
@@ -5191,52 +5191,52 @@
         <v>2.5</v>
       </c>
       <c r="N53">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5982149</v>
+        <v>5982148</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,16 +5259,16 @@
         <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>2.625</v>
@@ -5280,52 +5280,52 @@
         <v>2.5</v>
       </c>
       <c r="N54">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S54">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
+        <v>1.925</v>
+      </c>
+      <c r="V54">
+        <v>1.925</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>2.5</v>
       </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.8300000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5982147</v>
+        <v>5982144</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,34 +5434,34 @@
         <v>45055.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N56">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="P56">
         <v>5</v>
@@ -5470,13 +5470,13 @@
         <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
         <v>2.05</v>
@@ -5485,25 +5485,25 @@
         <v>1.8</v>
       </c>
       <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>2.9</v>
+      </c>
+      <c r="Y56">
+        <v>-1</v>
+      </c>
+      <c r="Z56">
+        <v>-1</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.8</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>1.025</v>
-      </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>1.05</v>
-      </c>
-      <c r="AC56">
-        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5982144</v>
+        <v>5982147</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,34 +5523,34 @@
         <v>45055.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
+        <v>3.3</v>
+      </c>
+      <c r="M57">
         <v>3.75</v>
       </c>
-      <c r="M57">
-        <v>4.75</v>
-      </c>
       <c r="N57">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
         <v>5</v>
@@ -5559,13 +5559,13 @@
         <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
         <v>2.05</v>
@@ -5574,25 +5574,25 @@
         <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X57">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5701,7 +5701,7 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5990022</v>
+        <v>5982153</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,13 +5790,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -5805,43 +5805,43 @@
         <v>45</v>
       </c>
       <c r="K60">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L60">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="N60">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P60">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q60">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="S60">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="T60">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V60">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W60">
-        <v>0.5329999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5850,16 +5850,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8600000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5982153</v>
+        <v>5990022</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,13 +5968,13 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -5983,43 +5983,43 @@
         <v>45</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="M62">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
+        <v>5.5</v>
+      </c>
+      <c r="Q62">
+        <v>-1</v>
+      </c>
+      <c r="R62">
+        <v>1.86</v>
+      </c>
+      <c r="S62">
+        <v>2.04</v>
+      </c>
+      <c r="T62">
         <v>3</v>
       </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62">
-        <v>1.77</v>
-      </c>
-      <c r="S62">
-        <v>2.14</v>
-      </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>1.45</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6028,16 +6028,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.77</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5982152</v>
+        <v>5981883</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,55 +6057,55 @@
         <v>45060.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>1</v>
-      </c>
-      <c r="I63">
-        <v>3</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
+        <v>5.25</v>
+      </c>
+      <c r="L63">
+        <v>4.2</v>
+      </c>
+      <c r="M63">
         <v>1.533</v>
       </c>
-      <c r="L63">
-        <v>4</v>
-      </c>
-      <c r="M63">
-        <v>5.5</v>
-      </c>
       <c r="N63">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O63">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P63">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6114,19 +6114,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>3.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5981883</v>
+        <v>5982152</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,55 +6146,55 @@
         <v>45060.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="L64">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M64">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N64">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O64">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P64">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q64">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R64">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6203,19 +6203,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>0.45</v>
+        <v>3.75</v>
       </c>
       <c r="Z64">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45061.59027777778</v>
       </c>
       <c r="F65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
         <v>33</v>
@@ -6324,10 +6324,10 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5982159</v>
+        <v>5981885</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,73 +6413,73 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>1.85</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981885</v>
+        <v>5982159</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,73 +6502,73 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>1.85</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O68">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X68">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6680,7 +6680,7 @@
         <v>45067.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
         <v>34</v>
@@ -6861,7 +6861,7 @@
         <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>45071.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -7303,10 +7303,10 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7481,7 +7481,7 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7748,10 +7748,10 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -8018,7 +8018,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5982167</v>
+        <v>5982170</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>46</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L86">
+        <v>3.3</v>
+      </c>
+      <c r="M86">
+        <v>2.15</v>
+      </c>
+      <c r="N86">
         <v>3.2</v>
       </c>
-      <c r="M86">
-        <v>3.1</v>
-      </c>
-      <c r="N86">
-        <v>2.2</v>
-      </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>0.4125</v>
+      </c>
+      <c r="AA86">
         <v>-0.5</v>
       </c>
-      <c r="AA86">
-        <v>0.51</v>
-      </c>
       <c r="AB86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5982170</v>
+        <v>5982167</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>46</v>
       </c>
       <c r="K87">
+        <v>2.2</v>
+      </c>
+      <c r="L87">
+        <v>3.2</v>
+      </c>
+      <c r="M87">
         <v>3.1</v>
       </c>
-      <c r="L87">
-        <v>3.3</v>
-      </c>
-      <c r="M87">
-        <v>2.15</v>
-      </c>
       <c r="N87">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.88</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>2.02</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>45081.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
         <v>42</v>
@@ -8460,7 +8460,7 @@
         <v>45082.58333333334</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s">
         <v>39</v>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -8641,7 +8641,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8727,10 +8727,10 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8905,7 +8905,7 @@
         <v>45087.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
         <v>34</v>
@@ -8994,7 +8994,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
         <v>33</v>
@@ -9083,7 +9083,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G97" t="s">
         <v>36</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5981890</v>
+        <v>5982175</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M98">
         <v>5.75</v>
       </c>
       <c r="N98">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P98">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.99</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X98">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5982175</v>
+        <v>5981890</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="L99">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M99">
         <v>5.75</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O99">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.99</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5982183</v>
+        <v>5982184</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,7 +9353,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9365,25 +9365,25 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
         <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N100">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O100">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,10 +9395,10 @@
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,7 +9407,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9419,7 +9419,7 @@
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5982184</v>
+        <v>5982183</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,7 +9442,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9454,25 +9454,25 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L101">
         <v>3.3</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
         <v>1.875</v>
@@ -9484,10 +9484,10 @@
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,7 +9496,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9508,7 +9508,7 @@
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9798,7 +9798,7 @@
         <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5982182</v>
+        <v>5982180</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K106">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L106">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N106">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="O106">
+        <v>4.2</v>
+      </c>
+      <c r="P106">
+        <v>6</v>
+      </c>
+      <c r="Q106">
+        <v>-1</v>
+      </c>
+      <c r="R106">
+        <v>1.89</v>
+      </c>
+      <c r="S106">
+        <v>2.01</v>
+      </c>
+      <c r="T106">
         <v>3</v>
       </c>
-      <c r="P106">
-        <v>2.8</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
+      <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
         <v>1.9</v>
       </c>
-      <c r="S106">
-        <v>1.95</v>
-      </c>
-      <c r="T106">
-        <v>1.75</v>
-      </c>
-      <c r="U106">
-        <v>1.75</v>
-      </c>
-      <c r="V106">
-        <v>2.05</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X106">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5982180</v>
+        <v>5982182</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>46</v>
+      </c>
+      <c r="K107">
+        <v>2.7</v>
+      </c>
+      <c r="L107">
+        <v>3.1</v>
+      </c>
+      <c r="M107">
+        <v>2.7</v>
+      </c>
+      <c r="N107">
+        <v>2.75</v>
+      </c>
+      <c r="O107">
+        <v>3</v>
+      </c>
+      <c r="P107">
+        <v>2.8</v>
+      </c>
+      <c r="Q107">
         <v>0</v>
       </c>
-      <c r="J107" t="s">
-        <v>45</v>
-      </c>
-      <c r="K107">
-        <v>1.615</v>
-      </c>
-      <c r="L107">
-        <v>4</v>
-      </c>
-      <c r="M107">
-        <v>5.25</v>
-      </c>
-      <c r="N107">
-        <v>1.55</v>
-      </c>
-      <c r="O107">
-        <v>4.2</v>
-      </c>
-      <c r="P107">
-        <v>6</v>
-      </c>
-      <c r="Q107">
-        <v>-1</v>
-      </c>
       <c r="R107">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W107">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5982185</v>
+        <v>5981895</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,10 +10062,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10077,40 +10077,40 @@
         <v>47</v>
       </c>
       <c r="K108">
+        <v>3.4</v>
+      </c>
+      <c r="L108">
+        <v>3.4</v>
+      </c>
+      <c r="M108">
+        <v>2</v>
+      </c>
+      <c r="N108">
         <v>3.3</v>
       </c>
-      <c r="L108">
-        <v>3.6</v>
-      </c>
-      <c r="M108">
-        <v>2</v>
-      </c>
-      <c r="N108">
-        <v>3</v>
-      </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q108">
         <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10119,19 +10119,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB108">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5981895</v>
+        <v>5982185</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,10 +10151,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10166,40 +10166,40 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L109">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
         <v>2</v>
       </c>
       <c r="N109">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q109">
         <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,10 +10240,10 @@
         <v>45115.52083333334</v>
       </c>
       <c r="F110" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110" t="s">
         <v>37</v>
-      </c>
-      <c r="G110" t="s">
-        <v>38</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10329,7 +10329,7 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -10507,7 +10507,7 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
         <v>36</v>
@@ -10688,7 +10688,7 @@
         <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L117">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N117">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O117">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q117">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R117">
+        <v>1.95</v>
+      </c>
+      <c r="S117">
         <v>1.9</v>
       </c>
-      <c r="S117">
-        <v>1.95</v>
-      </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W117">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F118" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" t="s">
         <v>38</v>
       </c>
-      <c r="G118" t="s">
-        <v>40</v>
-      </c>
       <c r="H118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M118">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N118">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O118">
+        <v>5.5</v>
+      </c>
+      <c r="P118">
+        <v>7.5</v>
+      </c>
+      <c r="Q118">
+        <v>-1.5</v>
+      </c>
+      <c r="R118">
+        <v>1.9</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
         <v>3.5</v>
       </c>
-      <c r="P118">
-        <v>2.55</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
+      <c r="U118">
         <v>1.95</v>
       </c>
-      <c r="S118">
+      <c r="V118">
         <v>1.9</v>
       </c>
-      <c r="T118">
-        <v>2.75</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>2.025</v>
-      </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5982191</v>
+        <v>5982192</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M119">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N119">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R119">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5982192</v>
+        <v>5982191</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L120">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N120">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O120">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S120">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X120">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5982197</v>
+        <v>5981896</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K122">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O122">
         <v>3.4</v>
       </c>
       <c r="P122">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
+        <v>0.8</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>1</v>
-      </c>
-      <c r="Z122">
-        <v>-1</v>
-      </c>
-      <c r="AA122">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB122">
-        <v>0.925</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5981896</v>
+        <v>5982197</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N123">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O123">
         <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W123">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5982199</v>
+        <v>5981897</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,67 +11753,67 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L127">
         <v>3.6</v>
       </c>
       <c r="M127">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P127">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
       <c r="AA127">
         <v>-0.5</v>
@@ -11822,7 +11822,7 @@
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5981897</v>
+        <v>5982199</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,67 +11842,67 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L128">
         <v>3.6</v>
       </c>
       <c r="M128">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N128">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X128">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.4</v>
+        <v>0.4625</v>
       </c>
       <c r="AA128">
         <v>-0.5</v>
@@ -11911,7 +11911,7 @@
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>5982201</v>
+        <v>5982198</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L129">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M129">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N129">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q129">
         <v>-0.5</v>
       </c>
       <c r="R129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
         <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W129">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5982198</v>
+        <v>5982201</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
+        <v>4.333</v>
+      </c>
+      <c r="M130">
+        <v>6.5</v>
+      </c>
+      <c r="N130">
+        <v>1.85</v>
+      </c>
+      <c r="O130">
         <v>3.4</v>
       </c>
-      <c r="M130">
-        <v>2.45</v>
-      </c>
-      <c r="N130">
-        <v>2.05</v>
-      </c>
-      <c r="O130">
-        <v>3.3</v>
-      </c>
       <c r="P130">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q130">
         <v>-0.5</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X130">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12109,7 +12109,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12287,10 +12287,10 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F133" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" t="s">
         <v>38</v>
-      </c>
-      <c r="G133" t="s">
-        <v>37</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12379,7 +12379,7 @@
         <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12453,7 +12453,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5981900</v>
+        <v>5982204</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12465,76 +12465,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N135">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P135">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC135">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>5982204</v>
+        <v>5981900</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,76 +12554,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L136">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M136">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N136">
+        <v>3.25</v>
+      </c>
+      <c r="O136">
+        <v>3.3</v>
+      </c>
+      <c r="P136">
+        <v>2.25</v>
+      </c>
+      <c r="Q136">
+        <v>0.25</v>
+      </c>
+      <c r="R136">
+        <v>1.9</v>
+      </c>
+      <c r="S136">
         <v>1.95</v>
       </c>
-      <c r="O136">
-        <v>3.6</v>
-      </c>
-      <c r="P136">
-        <v>3.75</v>
-      </c>
-      <c r="Q136">
-        <v>-0.5</v>
-      </c>
-      <c r="R136">
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
         <v>1.975</v>
       </c>
-      <c r="S136">
+      <c r="V136">
         <v>1.875</v>
       </c>
-      <c r="T136">
-        <v>2.5</v>
-      </c>
-      <c r="U136">
-        <v>1.85</v>
-      </c>
-      <c r="V136">
-        <v>2</v>
-      </c>
       <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>1.25</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
         <v>0.95</v>
       </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA136">
-        <v>-1</v>
-      </c>
       <c r="AB136">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12646,7 +12646,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5981899</v>
+        <v>5982208</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L138">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M138">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N138">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O138">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q138">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5982208</v>
+        <v>5981899</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K139">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L139">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M139">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N139">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P139">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
         <v>0.825</v>
       </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
       <c r="AC139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13002,7 +13002,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13088,10 +13088,10 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5981902</v>
+        <v>5982210</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,43 +13192,43 @@
         <v>45</v>
       </c>
       <c r="K143">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="L143">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N143">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="O143">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13237,16 +13237,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G144" t="s">
         <v>35</v>
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5982210</v>
+        <v>5981902</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,10 +13355,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13370,43 +13370,43 @@
         <v>45</v>
       </c>
       <c r="K145">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="L145">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M145">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N145">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P145">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R145">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U145">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13415,16 +13415,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13444,10 +13444,10 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13533,10 +13533,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F147" t="s">
+        <v>41</v>
+      </c>
+      <c r="G147" t="s">
         <v>40</v>
-      </c>
-      <c r="G147" t="s">
-        <v>41</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -13714,7 +13714,7 @@
         <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -14070,7 +14070,7 @@
         <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5982226</v>
+        <v>5982227</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,70 +14159,70 @@
         <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L154">
         <v>3.5</v>
       </c>
       <c r="M154">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O154">
         <v>3.5</v>
       </c>
       <c r="P154">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R154">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S154">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T154">
         <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V154">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB154">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5982227</v>
+        <v>5982226</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,70 +14248,70 @@
         <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H155">
+        <v>3</v>
+      </c>
+      <c r="I155">
         <v>1</v>
       </c>
-      <c r="I155">
-        <v>2</v>
-      </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L155">
         <v>3.5</v>
       </c>
       <c r="M155">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N155">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O155">
         <v>3.5</v>
       </c>
       <c r="P155">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q155">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S155">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T155">
         <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V155">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA155">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14334,7 +14334,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
         <v>42</v>
@@ -14426,7 +14426,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14601,7 +14601,7 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
         <v>31</v>
@@ -14782,7 +14782,7 @@
         <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -14868,10 +14868,10 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5981906</v>
+        <v>5982230</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,58 +15135,58 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H165">
         <v>4</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
         <v>45</v>
       </c>
       <c r="K165">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="L165">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M165">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N165">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="O165">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P165">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
-        <v>0.333</v>
+        <v>2.5</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15195,13 +15195,13 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5982230</v>
+        <v>5981906</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,58 +15224,58 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>4</v>
       </c>
       <c r="I166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
         <v>45</v>
       </c>
       <c r="K166">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M166">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N166">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="O166">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P166">
-        <v>2.05</v>
+        <v>9.5</v>
       </c>
       <c r="Q166">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S166">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W166">
-        <v>2.5</v>
+        <v>0.333</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15284,13 +15284,13 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -15313,10 +15313,10 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F167" t="s">
+        <v>44</v>
+      </c>
+      <c r="G167" t="s">
         <v>43</v>
-      </c>
-      <c r="G167" t="s">
-        <v>44</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15491,7 +15491,7 @@
         <v>45166.59027777778</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
         <v>29</v>
@@ -15583,7 +15583,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15761,7 +15761,7 @@
         <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H172">
         <v>4</v>
@@ -15847,7 +15847,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G173" t="s">
         <v>39</v>
@@ -15936,7 +15936,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G174" t="s">
         <v>35</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5982239</v>
+        <v>5981909</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
         <v>2.375</v>
       </c>
       <c r="N176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5981909</v>
+        <v>5982239</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K177">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L177">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
         <v>2.375</v>
       </c>
       <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177">
+        <v>3.6</v>
+      </c>
+      <c r="P177">
+        <v>1.909</v>
+      </c>
+      <c r="Q177">
+        <v>0.5</v>
+      </c>
+      <c r="R177">
+        <v>1.925</v>
+      </c>
+      <c r="S177">
+        <v>1.925</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.925</v>
+      </c>
+      <c r="V177">
+        <v>1.925</v>
+      </c>
+      <c r="W177">
         <v>3</v>
       </c>
-      <c r="O177">
-        <v>3.3</v>
-      </c>
-      <c r="P177">
-        <v>2.45</v>
-      </c>
-      <c r="Q177">
-        <v>0.25</v>
-      </c>
-      <c r="R177">
-        <v>1.775</v>
-      </c>
-      <c r="S177">
-        <v>2.1</v>
-      </c>
-      <c r="T177">
-        <v>2.5</v>
-      </c>
-      <c r="U177">
-        <v>2</v>
-      </c>
-      <c r="V177">
-        <v>1.85</v>
-      </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC177">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5982245</v>
+        <v>5982241</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,13 +16292,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H178">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16307,43 +16307,43 @@
         <v>45</v>
       </c>
       <c r="K178">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L178">
+        <v>3.4</v>
+      </c>
+      <c r="M178">
         <v>4</v>
       </c>
-      <c r="M178">
-        <v>4.75</v>
-      </c>
       <c r="N178">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O178">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,16 +16352,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5982241</v>
+        <v>5982245</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,13 +16381,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16396,43 +16396,43 @@
         <v>45</v>
       </c>
       <c r="K179">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
+        <v>1.363</v>
+      </c>
+      <c r="O179">
+        <v>5.5</v>
+      </c>
+      <c r="P179">
+        <v>7</v>
+      </c>
+      <c r="Q179">
+        <v>-1.5</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
         <v>1.85</v>
       </c>
-      <c r="O179">
-        <v>3.75</v>
-      </c>
-      <c r="P179">
-        <v>4</v>
-      </c>
-      <c r="Q179">
-        <v>-0.75</v>
-      </c>
-      <c r="R179">
-        <v>2.07</v>
-      </c>
-      <c r="S179">
-        <v>1.83</v>
-      </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>0.8500000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,16 +16441,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.5349999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16651,7 +16651,7 @@
         <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16915,10 +16915,10 @@
         <v>45187.59027777778</v>
       </c>
       <c r="F185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17004,7 +17004,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -17093,7 +17093,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5982248</v>
+        <v>5981912</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H188">
+        <v>2</v>
+      </c>
+      <c r="I188">
         <v>0</v>
       </c>
-      <c r="I188">
-        <v>1</v>
-      </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K188">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L188">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N188">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O188">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P188">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S188">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5981912</v>
+        <v>5982248</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M189">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N189">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O189">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S189">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V189">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W189">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z189">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>5982251</v>
+        <v>5982247</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17360,76 +17360,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F190" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H190">
+        <v>1</v>
+      </c>
+      <c r="I190">
         <v>0</v>
       </c>
-      <c r="I190">
-        <v>1</v>
-      </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K190">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L190">
+        <v>3.6</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
         <v>3.8</v>
       </c>
-      <c r="M190">
-        <v>1.727</v>
-      </c>
-      <c r="N190">
-        <v>6.5</v>
-      </c>
       <c r="O190">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P190">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="Q190">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S190">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA190">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
         <v>-1</v>
       </c>
       <c r="AC190">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5982247</v>
+        <v>5982251</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,76 +17449,76 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1</v>
       </c>
-      <c r="I191">
-        <v>0</v>
-      </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K191">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="L191">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M191">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="N191">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P191">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T191">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W191">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z191">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17541,7 +17541,7 @@
         <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17808,7 +17808,7 @@
         <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17897,7 +17897,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H196">
         <v>2</v>
@@ -17983,10 +17983,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H197">
         <v>3</v>
@@ -18253,7 +18253,7 @@
         <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18342,7 +18342,7 @@
         <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18428,7 +18428,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G202" t="s">
         <v>35</v>
@@ -18520,7 +18520,7 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18609,7 +18609,7 @@
         <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5982263</v>
+        <v>5982262</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K205">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>1.869</v>
+        <v>2.9</v>
       </c>
       <c r="N205">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
+        <v>1.975</v>
+      </c>
+      <c r="S205">
+        <v>1.875</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
         <v>1.85</v>
       </c>
-      <c r="S205">
-        <v>2</v>
-      </c>
-      <c r="T205">
-        <v>3</v>
-      </c>
-      <c r="U205">
-        <v>1.925</v>
-      </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC205">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5982262</v>
+        <v>5981916</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,46 +18784,46 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>45</v>
       </c>
       <c r="K206">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M206">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N206">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="O206">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P206">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R206">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T206">
         <v>2.5</v>
@@ -18835,7 +18835,7 @@
         <v>2</v>
       </c>
       <c r="W206">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18844,16 +18844,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA206">
         <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5981916</v>
+        <v>5982263</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,40 +18873,40 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K207">
         <v>4</v>
       </c>
       <c r="L207">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>1.909</v>
+        <v>1.869</v>
       </c>
       <c r="N207">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O207">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Q207">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R207">
         <v>1.85</v>
@@ -18915,34 +18915,34 @@
         <v>2</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19051,7 +19051,7 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
         <v>30</v>
@@ -19140,10 +19140,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19229,10 +19229,10 @@
         <v>45220.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5982266</v>
+        <v>5981918</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,25 +19318,25 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>46</v>
       </c>
       <c r="K212">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L212">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
         <v>2.875</v>
@@ -19345,34 +19345,34 @@
         <v>2.25</v>
       </c>
       <c r="O212">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P212">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S212">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -19381,13 +19381,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5981918</v>
+        <v>5982266</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,25 +19407,25 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>46</v>
       </c>
       <c r="K213">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
         <v>2.875</v>
@@ -19434,34 +19434,34 @@
         <v>2.25</v>
       </c>
       <c r="O213">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -19470,13 +19470,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5981919</v>
+        <v>5982265</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,40 +19496,40 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H214">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>45</v>
       </c>
       <c r="K214">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L214">
+        <v>4.2</v>
+      </c>
+      <c r="M214">
+        <v>5.25</v>
+      </c>
+      <c r="N214">
+        <v>1.363</v>
+      </c>
+      <c r="O214">
+        <v>5.5</v>
+      </c>
+      <c r="P214">
         <v>7</v>
       </c>
-      <c r="M214">
-        <v>15</v>
-      </c>
-      <c r="N214">
-        <v>1.09</v>
-      </c>
-      <c r="O214">
-        <v>12</v>
-      </c>
-      <c r="P214">
-        <v>19</v>
-      </c>
       <c r="Q214">
-        <v>-2.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R214">
         <v>1.95</v>
@@ -19538,16 +19538,16 @@
         <v>1.9</v>
       </c>
       <c r="T214">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U214">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V214">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W214">
-        <v>0.09000000000000008</v>
+        <v>0.363</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19562,7 +19562,7 @@
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19573,7 +19573,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5982265</v>
+        <v>5981919</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19585,40 +19585,40 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G215" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="s">
         <v>45</v>
       </c>
       <c r="K215">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L215">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M215">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N215">
-        <v>1.363</v>
+        <v>1.09</v>
       </c>
       <c r="O215">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="P215">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q215">
-        <v>-1.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R215">
         <v>1.95</v>
@@ -19627,16 +19627,16 @@
         <v>1.9</v>
       </c>
       <c r="T215">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U215">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V215">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W215">
-        <v>0.363</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,7 +19651,7 @@
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -19766,7 +19766,7 @@
         <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H217">
         <v>3</v>
@@ -19852,7 +19852,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
         <v>30</v>
@@ -19941,10 +19941,10 @@
         <v>45227.52083333334</v>
       </c>
       <c r="F219" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5982273</v>
+        <v>5982274</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,76 +20119,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H221">
+        <v>2</v>
+      </c>
+      <c r="I221">
         <v>1</v>
       </c>
-      <c r="I221">
+      <c r="J221" t="s">
+        <v>45</v>
+      </c>
+      <c r="K221">
+        <v>4</v>
+      </c>
+      <c r="L221">
+        <v>3.6</v>
+      </c>
+      <c r="M221">
+        <v>1.75</v>
+      </c>
+      <c r="N221">
+        <v>4.75</v>
+      </c>
+      <c r="O221">
+        <v>3.8</v>
+      </c>
+      <c r="P221">
+        <v>1.75</v>
+      </c>
+      <c r="Q221">
+        <v>0.75</v>
+      </c>
+      <c r="R221">
+        <v>1.925</v>
+      </c>
+      <c r="S221">
+        <v>1.925</v>
+      </c>
+      <c r="T221">
         <v>3</v>
       </c>
-      <c r="J221" t="s">
-        <v>47</v>
-      </c>
-      <c r="K221">
-        <v>2.15</v>
-      </c>
-      <c r="L221">
-        <v>3.3</v>
-      </c>
-      <c r="M221">
-        <v>3.1</v>
-      </c>
-      <c r="N221">
-        <v>2.1</v>
-      </c>
-      <c r="O221">
-        <v>3.5</v>
-      </c>
-      <c r="P221">
-        <v>3.3</v>
-      </c>
-      <c r="Q221">
-        <v>-0.25</v>
-      </c>
-      <c r="R221">
-        <v>1.85</v>
-      </c>
-      <c r="S221">
-        <v>2</v>
-      </c>
-      <c r="T221">
-        <v>2.5</v>
-      </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA221">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5982274</v>
+        <v>5982273</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20208,76 +20208,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222" t="s">
+        <v>47</v>
+      </c>
+      <c r="K222">
+        <v>2.15</v>
+      </c>
+      <c r="L222">
+        <v>3.3</v>
+      </c>
+      <c r="M222">
+        <v>3.1</v>
+      </c>
+      <c r="N222">
+        <v>2.1</v>
+      </c>
+      <c r="O222">
+        <v>3.5</v>
+      </c>
+      <c r="P222">
+        <v>3.3</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>2</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.85</v>
+      </c>
+      <c r="V222">
+        <v>2</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>2.3</v>
+      </c>
+      <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
         <v>1</v>
       </c>
-      <c r="J222" t="s">
-        <v>45</v>
-      </c>
-      <c r="K222">
-        <v>4</v>
-      </c>
-      <c r="L222">
-        <v>3.6</v>
-      </c>
-      <c r="M222">
-        <v>1.75</v>
-      </c>
-      <c r="N222">
-        <v>4.75</v>
-      </c>
-      <c r="O222">
-        <v>3.8</v>
-      </c>
-      <c r="P222">
-        <v>1.75</v>
-      </c>
-      <c r="Q222">
-        <v>0.75</v>
-      </c>
-      <c r="R222">
-        <v>1.925</v>
-      </c>
-      <c r="S222">
-        <v>1.925</v>
-      </c>
-      <c r="T222">
-        <v>3</v>
-      </c>
-      <c r="U222">
-        <v>1.925</v>
-      </c>
-      <c r="V222">
-        <v>1.925</v>
-      </c>
-      <c r="W222">
-        <v>3.75</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
-      <c r="Y222">
-        <v>-1</v>
-      </c>
-      <c r="Z222">
-        <v>0.925</v>
-      </c>
-      <c r="AA222">
-        <v>-1</v>
-      </c>
       <c r="AB222">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20297,7 +20297,7 @@
         <v>45228.5625</v>
       </c>
       <c r="F223" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G223" t="s">
         <v>34</v>
@@ -20389,7 +20389,7 @@
         <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20656,7 +20656,7 @@
         <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -20745,7 +20745,7 @@
         <v>34</v>
       </c>
       <c r="G228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H228">
         <v>3</v>
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5982278</v>
+        <v>5982280</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45235.5625</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
         <v>38</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L230">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M230">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N230">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="O230">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P230">
-        <v>8.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q230">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S230">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8999999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AB230">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5982280</v>
+        <v>5982278</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45235.5625</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G231" t="s">
         <v>37</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K231">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L231">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M231">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N231">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="O231">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P231">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R231">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y231">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1.07</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB231">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21101,7 +21101,7 @@
         <v>32</v>
       </c>
       <c r="G232" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H232">
         <v>4</v>
@@ -21190,7 +21190,7 @@
         <v>33</v>
       </c>
       <c r="G233" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5981924</v>
+        <v>5982287</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G234" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H234">
         <v>1</v>
       </c>
       <c r="I234">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K234">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="L234">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="M234">
-        <v>4</v>
+        <v>1.4</v>
       </c>
       <c r="N234">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="O234">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P234">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q234">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R234">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T234">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U234">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V234">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W234">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z234">
-        <v>0.4625</v>
+        <v>0.5</v>
       </c>
       <c r="AA234">
         <v>-0.5</v>
       </c>
       <c r="AB234">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC234">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5982283</v>
+        <v>5982286</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,73 +21365,73 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L235">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M235">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N235">
-        <v>1.533</v>
+        <v>3.25</v>
       </c>
       <c r="O235">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P235">
-        <v>5.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q235">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
+        <v>1.975</v>
+      </c>
+      <c r="S235">
+        <v>1.875</v>
+      </c>
+      <c r="T235">
+        <v>2.5</v>
+      </c>
+      <c r="U235">
         <v>1.825</v>
       </c>
-      <c r="S235">
+      <c r="V235">
         <v>2.025</v>
       </c>
-      <c r="T235">
-        <v>3</v>
-      </c>
-      <c r="U235">
-        <v>2</v>
-      </c>
-      <c r="V235">
-        <v>1.85</v>
-      </c>
       <c r="W235">
         <v>-1</v>
       </c>
       <c r="X235">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z235">
         <v>-1</v>
       </c>
       <c r="AA235">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AB235">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC235">
         <v>-1</v>
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5982286</v>
+        <v>5981924</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,76 +21454,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L236">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M236">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N236">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="O236">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P236">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q236">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S236">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T236">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U236">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V236">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA236">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5982287</v>
+        <v>5982285</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H237">
+        <v>2</v>
+      </c>
+      <c r="I237">
         <v>1</v>
       </c>
-      <c r="I237">
-        <v>2</v>
-      </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L237">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="N237">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="O237">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P237">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q237">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R237">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
+        <v>1.875</v>
+      </c>
+      <c r="T237">
+        <v>3.75</v>
+      </c>
+      <c r="U237">
+        <v>1.95</v>
+      </c>
+      <c r="V237">
         <v>1.9</v>
       </c>
-      <c r="T237">
-        <v>3</v>
-      </c>
-      <c r="U237">
-        <v>1.975</v>
-      </c>
-      <c r="V237">
-        <v>1.875</v>
-      </c>
       <c r="W237">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X237">
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5982284</v>
+        <v>5981925</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21635,46 +21635,46 @@
         <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
         <v>45</v>
       </c>
       <c r="K238">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L238">
         <v>3.6</v>
       </c>
       <c r="M238">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="N238">
-        <v>1.615</v>
+        <v>3.3</v>
       </c>
       <c r="O238">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q238">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T238">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
         <v>2.025</v>
@@ -21683,7 +21683,7 @@
         <v>1.825</v>
       </c>
       <c r="W238">
-        <v>0.615</v>
+        <v>2.3</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21692,16 +21692,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC238">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5982285</v>
+        <v>5982282</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,13 +21721,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -21736,43 +21736,43 @@
         <v>45</v>
       </c>
       <c r="K239">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L239">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N239">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O239">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P239">
+        <v>4.5</v>
+      </c>
+      <c r="Q239">
+        <v>-0.75</v>
+      </c>
+      <c r="R239">
+        <v>1.9</v>
+      </c>
+      <c r="S239">
+        <v>1.95</v>
+      </c>
+      <c r="T239">
         <v>2.75</v>
       </c>
-      <c r="Q239">
-        <v>-0.25</v>
-      </c>
-      <c r="R239">
-        <v>1.975</v>
-      </c>
-      <c r="S239">
-        <v>1.875</v>
-      </c>
-      <c r="T239">
-        <v>3.75</v>
-      </c>
       <c r="U239">
+        <v>1.9</v>
+      </c>
+      <c r="V239">
         <v>1.95</v>
       </c>
-      <c r="V239">
-        <v>1.9</v>
-      </c>
       <c r="W239">
-        <v>1.2</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X239">
         <v>-1</v>
@@ -21781,16 +21781,16 @@
         <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA239">
         <v>-1</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>5982282</v>
+        <v>5982283</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,73 +21810,73 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240" t="s">
+        <v>46</v>
+      </c>
+      <c r="K240">
+        <v>1.5</v>
+      </c>
+      <c r="L240">
+        <v>4.333</v>
+      </c>
+      <c r="M240">
+        <v>5</v>
+      </c>
+      <c r="N240">
+        <v>1.533</v>
+      </c>
+      <c r="O240">
+        <v>4.5</v>
+      </c>
+      <c r="P240">
+        <v>5.75</v>
+      </c>
+      <c r="Q240">
+        <v>-1</v>
+      </c>
+      <c r="R240">
+        <v>1.825</v>
+      </c>
+      <c r="S240">
+        <v>2.025</v>
+      </c>
+      <c r="T240">
         <v>3</v>
       </c>
-      <c r="I240">
+      <c r="U240">
+        <v>2</v>
+      </c>
+      <c r="V240">
+        <v>1.85</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
+        <v>3.5</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>-1</v>
+      </c>
+      <c r="AA240">
+        <v>1.025</v>
+      </c>
+      <c r="AB240">
         <v>1</v>
-      </c>
-      <c r="J240" t="s">
-        <v>45</v>
-      </c>
-      <c r="K240">
-        <v>1.8</v>
-      </c>
-      <c r="L240">
-        <v>3.75</v>
-      </c>
-      <c r="M240">
-        <v>3.75</v>
-      </c>
-      <c r="N240">
-        <v>1.727</v>
-      </c>
-      <c r="O240">
-        <v>4</v>
-      </c>
-      <c r="P240">
-        <v>4.5</v>
-      </c>
-      <c r="Q240">
-        <v>-0.75</v>
-      </c>
-      <c r="R240">
-        <v>1.9</v>
-      </c>
-      <c r="S240">
-        <v>1.95</v>
-      </c>
-      <c r="T240">
-        <v>2.75</v>
-      </c>
-      <c r="U240">
-        <v>1.9</v>
-      </c>
-      <c r="V240">
-        <v>1.95</v>
-      </c>
-      <c r="W240">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X240">
-        <v>-1</v>
-      </c>
-      <c r="Y240">
-        <v>-1</v>
-      </c>
-      <c r="Z240">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA240">
-        <v>-1</v>
-      </c>
-      <c r="AB240">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>5981925</v>
+        <v>5982284</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21902,46 +21902,46 @@
         <v>41</v>
       </c>
       <c r="G241" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H241">
         <v>2</v>
       </c>
       <c r="I241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="s">
         <v>45</v>
       </c>
       <c r="K241">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L241">
         <v>3.6</v>
       </c>
       <c r="M241">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N241">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="O241">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P241">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R241">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S241">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T241">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U241">
         <v>2.025</v>
@@ -21950,7 +21950,7 @@
         <v>1.825</v>
       </c>
       <c r="W241">
-        <v>2.3</v>
+        <v>0.615</v>
       </c>
       <c r="X241">
         <v>-1</v>
@@ -21959,16 +21959,16 @@
         <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA241">
         <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC241">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -109,10 +109,10 @@
     <t>Djurgarden</t>
   </si>
   <si>
-    <t>Hammarby</t>
+    <t>IFK Norrkoping</t>
   </si>
   <si>
-    <t>IFK Norrkoping</t>
+    <t>Hammarby</t>
   </si>
   <si>
     <t>IFK Goteborg</t>
@@ -127,10 +127,10 @@
     <t>Elfsborg</t>
   </si>
   <si>
-    <t>Degerfors</t>
+    <t>Brommapojkarna</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
+    <t>Degerfors</t>
   </si>
   <si>
     <t>BK Hacken</t>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6149567</v>
+        <v>6149568</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L4">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N4">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q4">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.95</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
         <v>1.825</v>
       </c>
-      <c r="S4">
+      <c r="V4">
         <v>2.025</v>
       </c>
-      <c r="T4">
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
         <v>3</v>
       </c>
-      <c r="U4">
-        <v>1.975</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
-      <c r="W4">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6149568</v>
+        <v>6149567</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L5">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M5">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N5">
-        <v>1.85</v>
+        <v>1.285</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5982118</v>
+        <v>5981871</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>5.25</v>
+      </c>
+      <c r="L10">
+        <v>4.2</v>
+      </c>
+      <c r="M10">
+        <v>1.571</v>
+      </c>
+      <c r="N10">
+        <v>6.5</v>
+      </c>
+      <c r="O10">
+        <v>4.75</v>
+      </c>
+      <c r="P10">
+        <v>1.45</v>
+      </c>
+      <c r="Q10">
+        <v>1.25</v>
+      </c>
+      <c r="R10">
+        <v>1.89</v>
+      </c>
+      <c r="S10">
+        <v>2.01</v>
+      </c>
+      <c r="T10">
         <v>3</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>2.25</v>
-      </c>
-      <c r="L10">
-        <v>3.3</v>
-      </c>
-      <c r="M10">
-        <v>3.25</v>
-      </c>
-      <c r="N10">
-        <v>2.5</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.875</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1.85</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -1391,25 +1391,25 @@
         <v>1.9</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5981871</v>
+        <v>5982118</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="N11">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O11">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -1480,25 +1480,25 @@
         <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.445</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1966,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2230,7 +2230,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -2322,7 +2322,7 @@
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5982124</v>
+        <v>5981873</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2423,61 +2423,61 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="L22">
+        <v>3.3</v>
+      </c>
+      <c r="M22">
+        <v>1.909</v>
+      </c>
+      <c r="N22">
         <v>3.4</v>
       </c>
-      <c r="M22">
-        <v>3.8</v>
-      </c>
-      <c r="N22">
+      <c r="O22">
+        <v>3.5</v>
+      </c>
+      <c r="P22">
+        <v>2.1</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>2.05</v>
+      </c>
+      <c r="S22">
         <v>1.8</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>4.5</v>
-      </c>
-      <c r="Q22">
-        <v>-0.75</v>
-      </c>
-      <c r="R22">
-        <v>2.07</v>
-      </c>
-      <c r="S22">
-        <v>1.83</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
+        <v>2.4</v>
+      </c>
+      <c r="X22">
+        <v>-1</v>
+      </c>
+      <c r="Y22">
+        <v>-1</v>
+      </c>
+      <c r="Z22">
+        <v>1.05</v>
+      </c>
+      <c r="AA22">
+        <v>-1</v>
+      </c>
+      <c r="AB22">
+        <v>-1</v>
+      </c>
+      <c r="AC22">
         <v>0.8</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
-      <c r="Y22">
-        <v>-1</v>
-      </c>
-      <c r="Z22">
-        <v>1.07</v>
-      </c>
-      <c r="AA22">
-        <v>-1</v>
-      </c>
-      <c r="AB22">
-        <v>-1</v>
-      </c>
-      <c r="AC22">
-        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5981873</v>
+        <v>5982124</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,10 +2497,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2512,43 +2512,43 @@
         <v>45</v>
       </c>
       <c r="K23">
+        <v>1.85</v>
+      </c>
+      <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>3.8</v>
+      </c>
+      <c r="N23">
+        <v>1.8</v>
+      </c>
+      <c r="O23">
         <v>3.6</v>
       </c>
-      <c r="L23">
-        <v>3.3</v>
-      </c>
-      <c r="M23">
-        <v>1.909</v>
-      </c>
-      <c r="N23">
-        <v>3.4</v>
-      </c>
-      <c r="O23">
-        <v>3.5</v>
-      </c>
       <c r="P23">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q23">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W23">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2557,7 +2557,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2566,7 +2566,7 @@
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2764,7 +2764,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -2853,7 +2853,7 @@
         <v>45038.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5982129</v>
+        <v>5982130</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,13 +3209,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3224,43 +3224,43 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L31">
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,16 +3269,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5982130</v>
+        <v>5982129</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,13 +3298,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3313,43 +3313,43 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L32">
         <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3358,16 +3358,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3390,7 +3390,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5982132</v>
+        <v>5982136</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N34">
+        <v>3.4</v>
+      </c>
+      <c r="O34">
+        <v>3.3</v>
+      </c>
+      <c r="P34">
+        <v>2.2</v>
+      </c>
+      <c r="Q34">
+        <v>0.25</v>
+      </c>
+      <c r="R34">
         <v>1.95</v>
       </c>
-      <c r="O34">
-        <v>3.5</v>
-      </c>
-      <c r="P34">
-        <v>4</v>
-      </c>
-      <c r="Q34">
-        <v>-0.5</v>
-      </c>
-      <c r="R34">
-        <v>1.975</v>
-      </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
         <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5982136</v>
+        <v>5982132</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M35">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N35">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y35">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -4010,7 +4010,7 @@
         <v>45046.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4102,7 +4102,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5982141</v>
+        <v>5981878</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,34 +4188,34 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L42">
         <v>3.6</v>
       </c>
       <c r="M42">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N42">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O42">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P42">
         <v>4.2</v>
@@ -4224,37 +4224,37 @@
         <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X42">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5981878</v>
+        <v>5982140</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,13 +4277,13 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4292,43 +4292,43 @@
         <v>45</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="N43">
-        <v>1.833</v>
+        <v>1.444</v>
       </c>
       <c r="O43">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P43">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="Q43">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V43">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W43">
-        <v>0.833</v>
+        <v>0.444</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4337,13 +4337,13 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8500000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AA43">
         <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5982140</v>
+        <v>5982141</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,73 +4366,73 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N44">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O44">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q44">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>2.01</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W44">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5982139</v>
+        <v>5982143</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N46">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O46">
         <v>3.25</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
+        <v>1.975</v>
+      </c>
+      <c r="S46">
         <v>1.875</v>
-      </c>
-      <c r="S46">
-        <v>1.975</v>
       </c>
       <c r="T46">
         <v>2.5</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
         <v>0.875</v>
       </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5982143</v>
+        <v>5982139</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M47">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N47">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="O47">
         <v>3.25</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="Q47">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
+        <v>1.875</v>
+      </c>
+      <c r="S47">
         <v>1.975</v>
-      </c>
-      <c r="S47">
-        <v>1.875</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>6</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5982149</v>
+        <v>5982148</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,16 +5170,16 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K53">
         <v>2.625</v>
@@ -5191,52 +5191,52 @@
         <v>2.5</v>
       </c>
       <c r="N53">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S53">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
+        <v>2.75</v>
+      </c>
+      <c r="U53">
+        <v>1.925</v>
+      </c>
+      <c r="V53">
+        <v>1.925</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
         <v>2.5</v>
       </c>
-      <c r="U53">
-        <v>1.9</v>
-      </c>
-      <c r="V53">
-        <v>1.95</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
       <c r="Y53">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA53">
-        <v>0.8300000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5982148</v>
+        <v>5982149</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,16 +5259,16 @@
         <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
         <v>2.625</v>
@@ -5280,52 +5280,52 @@
         <v>2.5</v>
       </c>
       <c r="N54">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5982144</v>
+        <v>5982147</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,34 +5434,34 @@
         <v>45055.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
+        <v>3.3</v>
+      </c>
+      <c r="M56">
         <v>3.75</v>
       </c>
-      <c r="M56">
-        <v>4.75</v>
-      </c>
       <c r="N56">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O56">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
         <v>5</v>
@@ -5470,13 +5470,13 @@
         <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
         <v>2.05</v>
@@ -5485,25 +5485,25 @@
         <v>1.8</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X56">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC56">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5982147</v>
+        <v>5982144</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,34 +5523,34 @@
         <v>45055.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L57">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N57">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="P57">
         <v>5</v>
@@ -5559,13 +5559,13 @@
         <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
         <v>2.05</v>
@@ -5574,25 +5574,25 @@
         <v>1.8</v>
       </c>
       <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>2.9</v>
+      </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
+        <v>-1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>0.8</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>1.025</v>
-      </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
-      <c r="AB57">
-        <v>1.05</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5704,7 +5704,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5982153</v>
+        <v>5981882</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,49 +5790,49 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
         <v>3</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>45</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O60">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="S60">
-        <v>2.14</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
         <v>1.975</v>
@@ -5841,7 +5841,7 @@
         <v>1.875</v>
       </c>
       <c r="W60">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5850,7 +5850,7 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.77</v>
+        <v>1.1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5981882</v>
+        <v>5982153</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,49 +5879,49 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>45</v>
       </c>
       <c r="K61">
+        <v>2.15</v>
+      </c>
+      <c r="L61">
+        <v>3.3</v>
+      </c>
+      <c r="M61">
+        <v>3.2</v>
+      </c>
+      <c r="N61">
+        <v>2.45</v>
+      </c>
+      <c r="O61">
+        <v>3.2</v>
+      </c>
+      <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1.77</v>
+      </c>
+      <c r="S61">
+        <v>2.14</v>
+      </c>
+      <c r="T61">
         <v>2.25</v>
-      </c>
-      <c r="L61">
-        <v>3.4</v>
-      </c>
-      <c r="M61">
-        <v>3</v>
-      </c>
-      <c r="N61">
-        <v>2.4</v>
-      </c>
-      <c r="O61">
-        <v>3.4</v>
-      </c>
-      <c r="P61">
-        <v>2.9</v>
-      </c>
-      <c r="Q61">
-        <v>-0.25</v>
-      </c>
-      <c r="R61">
-        <v>2.1</v>
-      </c>
-      <c r="S61">
-        <v>1.775</v>
-      </c>
-      <c r="T61">
-        <v>2.5</v>
       </c>
       <c r="U61">
         <v>1.975</v>
@@ -5930,7 +5930,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5939,7 +5939,7 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.1</v>
+        <v>0.77</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -6149,7 +6149,7 @@
         <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6324,7 +6324,7 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>44</v>
@@ -6502,7 +6502,7 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
         <v>43</v>
@@ -6772,7 +6772,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6947,7 +6947,7 @@
         <v>45068.59027777778</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
         <v>36</v>
@@ -7125,10 +7125,10 @@
         <v>45071.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7303,7 +7303,7 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
         <v>41</v>
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5981886</v>
+        <v>5982163</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,58 +7392,58 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
         <v>1</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>45</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M78">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N78">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
         <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
-        <v>0.8500000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5982163</v>
+        <v>5981886</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,58 +7481,58 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>45</v>
       </c>
       <c r="K79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L79">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O79">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
         <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,16 +7541,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7659,7 +7659,7 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
         <v>42</v>
@@ -7748,7 +7748,7 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
         <v>43</v>
@@ -8015,10 +8015,10 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8107,7 +8107,7 @@
         <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -8638,10 +8638,10 @@
         <v>45086.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8730,7 +8730,7 @@
         <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5982175</v>
+        <v>5981890</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M98">
         <v>5.75</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O98">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P98">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R98">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.99</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5981890</v>
+        <v>5982175</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
         <v>5.75</v>
       </c>
       <c r="N99">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O99">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P99">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q99">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="S99">
-        <v>1.925</v>
+        <v>1.99</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5982184</v>
+        <v>5982183</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,7 +9353,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9365,25 +9365,25 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
         <v>3.3</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N100">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P100">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,10 +9395,10 @@
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,7 +9407,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9419,7 +9419,7 @@
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5982183</v>
+        <v>5982184</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,7 +9442,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9454,25 +9454,25 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
         <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>1.875</v>
@@ -9484,10 +9484,10 @@
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,7 +9496,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9508,7 +9508,7 @@
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>39</v>
@@ -9887,7 +9887,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5981895</v>
+        <v>5982185</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,10 +10062,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10077,40 +10077,40 @@
         <v>47</v>
       </c>
       <c r="K108">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
         <v>2</v>
       </c>
       <c r="N108">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q108">
         <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10119,19 +10119,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.9199999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>1.05</v>
+        <v>0.4625</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5982185</v>
+        <v>5981895</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,10 +10151,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10166,40 +10166,40 @@
         <v>47</v>
       </c>
       <c r="K109">
+        <v>3.4</v>
+      </c>
+      <c r="L109">
+        <v>3.4</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
         <v>3.3</v>
       </c>
-      <c r="L109">
-        <v>3.6</v>
-      </c>
-      <c r="M109">
-        <v>2</v>
-      </c>
-      <c r="N109">
-        <v>3</v>
-      </c>
       <c r="O109">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P109">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
         <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="AB109">
-        <v>0.4625</v>
+        <v>1.05</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10240,10 +10240,10 @@
         <v>45115.52083333334</v>
       </c>
       <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
         <v>38</v>
-      </c>
-      <c r="G110" t="s">
-        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5982188</v>
+        <v>5981894</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,10 +10329,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10344,41 +10344,41 @@
         <v>47</v>
       </c>
       <c r="K111">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M111">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="N111">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P111">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R111">
-        <v>1.775</v>
+        <v>2.08</v>
       </c>
       <c r="S111">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.85</v>
       </c>
-      <c r="V111">
-        <v>2</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
@@ -10386,19 +10386,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1.1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5981894</v>
+        <v>5982188</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,10 +10418,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10433,40 +10433,40 @@
         <v>47</v>
       </c>
       <c r="K112">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L112">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N112">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O112">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>9.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q112">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>2.08</v>
+        <v>1.775</v>
       </c>
       <c r="S112">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="T112">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10475,19 +10475,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>0.8200000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB112">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F117" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" t="s">
         <v>37</v>
       </c>
-      <c r="G117" t="s">
-        <v>41</v>
-      </c>
       <c r="H117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K117">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M117">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N117">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O117">
+        <v>5.5</v>
+      </c>
+      <c r="P117">
+        <v>7.5</v>
+      </c>
+      <c r="Q117">
+        <v>-1.5</v>
+      </c>
+      <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
         <v>3.5</v>
       </c>
-      <c r="P117">
-        <v>2.55</v>
-      </c>
-      <c r="Q117">
-        <v>0</v>
-      </c>
-      <c r="R117">
+      <c r="U117">
         <v>1.95</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.9</v>
       </c>
-      <c r="T117">
-        <v>2.75</v>
-      </c>
-      <c r="U117">
-        <v>1.825</v>
-      </c>
-      <c r="V117">
-        <v>2.025</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K118">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N118">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O118">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q118">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R118">
+        <v>1.95</v>
+      </c>
+      <c r="S118">
         <v>1.9</v>
       </c>
-      <c r="S118">
-        <v>1.95</v>
-      </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W118">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5982192</v>
+        <v>5982191</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L119">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N119">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O119">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S119">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X119">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5982191</v>
+        <v>5982192</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M120">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N120">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11486,10 +11486,10 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11842,10 +11842,10 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -12287,10 +12287,10 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" t="s">
         <v>37</v>
-      </c>
-      <c r="G133" t="s">
-        <v>38</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12465,10 +12465,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F135" t="s">
+        <v>32</v>
+      </c>
+      <c r="G135" t="s">
         <v>31</v>
-      </c>
-      <c r="G135" t="s">
-        <v>32</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12910,7 +12910,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13177,7 +13177,7 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
         <v>33</v>
@@ -13447,7 +13447,7 @@
         <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5982220</v>
+        <v>5981903</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,58 +13533,58 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>45</v>
       </c>
       <c r="K147">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L147">
+        <v>3.5</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3.5</v>
+      </c>
+      <c r="O147">
         <v>3.4</v>
       </c>
-      <c r="M147">
-        <v>3</v>
-      </c>
-      <c r="N147">
-        <v>2.05</v>
-      </c>
-      <c r="O147">
-        <v>3.6</v>
-      </c>
       <c r="P147">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13593,16 +13593,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5981903</v>
+        <v>5982220</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G148" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>45</v>
       </c>
       <c r="K148">
+        <v>2.3</v>
+      </c>
+      <c r="L148">
+        <v>3.4</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>2.05</v>
+      </c>
+      <c r="O148">
         <v>3.6</v>
       </c>
-      <c r="L148">
-        <v>3.5</v>
-      </c>
-      <c r="M148">
-        <v>2</v>
-      </c>
-      <c r="N148">
-        <v>3.5</v>
-      </c>
-      <c r="O148">
-        <v>3.4</v>
-      </c>
       <c r="P148">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W148">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,16 +13682,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5982218</v>
+        <v>5982219</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,76 +13711,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K149">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="L149">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M149">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="N149">
-        <v>1.333</v>
+        <v>2.45</v>
       </c>
       <c r="O149">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P149">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="S149">
-        <v>2.06</v>
+        <v>1.775</v>
       </c>
       <c r="T149">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U149">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z149">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC149">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5982217</v>
+        <v>5982218</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,13 +13800,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13815,43 +13815,43 @@
         <v>45</v>
       </c>
       <c r="K150">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="L150">
+        <v>6</v>
+      </c>
+      <c r="M150">
+        <v>11</v>
+      </c>
+      <c r="N150">
+        <v>1.333</v>
+      </c>
+      <c r="O150">
+        <v>6</v>
+      </c>
+      <c r="P150">
+        <v>8</v>
+      </c>
+      <c r="Q150">
+        <v>-1.5</v>
+      </c>
+      <c r="R150">
+        <v>1.84</v>
+      </c>
+      <c r="S150">
+        <v>2.06</v>
+      </c>
+      <c r="T150">
         <v>3.5</v>
       </c>
-      <c r="M150">
-        <v>2.25</v>
-      </c>
-      <c r="N150">
-        <v>3.3</v>
-      </c>
-      <c r="O150">
-        <v>3.4</v>
-      </c>
-      <c r="P150">
-        <v>2.2</v>
-      </c>
-      <c r="Q150">
-        <v>0.25</v>
-      </c>
-      <c r="R150">
-        <v>1.94</v>
-      </c>
-      <c r="S150">
-        <v>1.96</v>
-      </c>
-      <c r="T150">
-        <v>2.5</v>
-      </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>2.3</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,7 +13860,7 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.9399999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA150">
         <v>-1</v>
@@ -13869,7 +13869,7 @@
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5982219</v>
+        <v>5982217</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K151">
         <v>3</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N151">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="O151">
         <v>3.4</v>
       </c>
       <c r="P151">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>1.96</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA151">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14070,7 +14070,7 @@
         <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14144,7 +14144,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>5982227</v>
+        <v>5982226</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,70 +14159,70 @@
         <v>37</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H154">
+        <v>3</v>
+      </c>
+      <c r="I154">
         <v>1</v>
       </c>
-      <c r="I154">
-        <v>2</v>
-      </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K154">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L154">
         <v>3.5</v>
       </c>
       <c r="M154">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N154">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O154">
         <v>3.5</v>
       </c>
       <c r="P154">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q154">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T154">
         <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V154">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA154">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC154">
         <v>-1</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5982226</v>
+        <v>5982227</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14248,70 +14248,70 @@
         <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K155">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L155">
         <v>3.5</v>
       </c>
       <c r="M155">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="N155">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O155">
         <v>3.5</v>
       </c>
       <c r="P155">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q155">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T155">
         <v>2.5</v>
       </c>
       <c r="U155">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V155">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB155">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14604,7 +14604,7 @@
         <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14779,7 +14779,7 @@
         <v>45159.59027777778</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>44</v>
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5982234</v>
+        <v>5982232</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,13 +14868,13 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>3</v>
@@ -14883,40 +14883,40 @@
         <v>47</v>
       </c>
       <c r="K162">
+        <v>2.9</v>
+      </c>
+      <c r="L162">
+        <v>3.2</v>
+      </c>
+      <c r="M162">
         <v>2.375</v>
       </c>
-      <c r="L162">
-        <v>3.4</v>
-      </c>
-      <c r="M162">
-        <v>2.8</v>
-      </c>
       <c r="N162">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14925,16 +14925,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5982232</v>
+        <v>5982234</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,13 +14957,13 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>3</v>
@@ -14972,40 +14972,40 @@
         <v>47</v>
       </c>
       <c r="K163">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15014,16 +15014,16 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB163">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15405,7 +15405,7 @@
         <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5982235</v>
+        <v>5982238</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,49 +15758,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G172" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L172">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M172">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N172">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O172">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P172">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R172">
-        <v>2.025</v>
+        <v>1.79</v>
       </c>
       <c r="S172">
-        <v>1.825</v>
+        <v>2.11</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U172">
         <v>2.025</v>
@@ -15809,7 +15809,7 @@
         <v>1.825</v>
       </c>
       <c r="W172">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15818,16 +15818,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>1.025</v>
+        <v>0.79</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15835,7 +15835,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>5982238</v>
+        <v>5982237</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15847,76 +15847,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173" t="s">
+        <v>47</v>
+      </c>
+      <c r="K173">
+        <v>2.375</v>
+      </c>
+      <c r="L173">
+        <v>3.25</v>
+      </c>
+      <c r="M173">
+        <v>3</v>
+      </c>
+      <c r="N173">
+        <v>2.375</v>
+      </c>
+      <c r="O173">
+        <v>3.25</v>
+      </c>
+      <c r="P173">
+        <v>3.1</v>
+      </c>
+      <c r="Q173">
+        <v>-0.25</v>
+      </c>
+      <c r="R173">
+        <v>2.025</v>
+      </c>
+      <c r="S173">
+        <v>1.825</v>
+      </c>
+      <c r="T173">
+        <v>2</v>
+      </c>
+      <c r="U173">
+        <v>1.9</v>
+      </c>
+      <c r="V173">
+        <v>1.95</v>
+      </c>
+      <c r="W173">
+        <v>-1</v>
+      </c>
+      <c r="X173">
+        <v>-1</v>
+      </c>
+      <c r="Y173">
+        <v>2.1</v>
+      </c>
+      <c r="Z173">
+        <v>-1</v>
+      </c>
+      <c r="AA173">
+        <v>0.825</v>
+      </c>
+      <c r="AB173">
         <v>0</v>
       </c>
-      <c r="J173" t="s">
-        <v>45</v>
-      </c>
-      <c r="K173">
-        <v>5.5</v>
-      </c>
-      <c r="L173">
-        <v>4.1</v>
-      </c>
-      <c r="M173">
-        <v>1.571</v>
-      </c>
-      <c r="N173">
-        <v>3.75</v>
-      </c>
-      <c r="O173">
-        <v>4.2</v>
-      </c>
-      <c r="P173">
-        <v>1.85</v>
-      </c>
-      <c r="Q173">
-        <v>0.75</v>
-      </c>
-      <c r="R173">
-        <v>1.79</v>
-      </c>
-      <c r="S173">
-        <v>2.11</v>
-      </c>
-      <c r="T173">
-        <v>3.25</v>
-      </c>
-      <c r="U173">
-        <v>2.025</v>
-      </c>
-      <c r="V173">
-        <v>1.825</v>
-      </c>
-      <c r="W173">
-        <v>2.75</v>
-      </c>
-      <c r="X173">
-        <v>-1</v>
-      </c>
-      <c r="Y173">
-        <v>-1</v>
-      </c>
-      <c r="Z173">
-        <v>0.79</v>
-      </c>
-      <c r="AA173">
-        <v>-1</v>
-      </c>
-      <c r="AB173">
-        <v>-1</v>
-      </c>
       <c r="AC173">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5982237</v>
+        <v>5982235</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,37 +15936,37 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L174">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M174">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N174">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O174">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P174">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q174">
         <v>-0.25</v>
@@ -15978,34 +15978,34 @@
         <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U174">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W174">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5981908</v>
+        <v>5981909</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K175">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="L175">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="N175">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O175">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q175">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R175">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S175">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U175">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>0.9750000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB175">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5981909</v>
+        <v>5982239</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K176">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
         <v>2.375</v>
       </c>
       <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176">
+        <v>3.6</v>
+      </c>
+      <c r="P176">
+        <v>1.909</v>
+      </c>
+      <c r="Q176">
+        <v>0.5</v>
+      </c>
+      <c r="R176">
+        <v>1.925</v>
+      </c>
+      <c r="S176">
+        <v>1.925</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.925</v>
+      </c>
+      <c r="V176">
+        <v>1.925</v>
+      </c>
+      <c r="W176">
         <v>3</v>
       </c>
-      <c r="O176">
-        <v>3.3</v>
-      </c>
-      <c r="P176">
-        <v>2.45</v>
-      </c>
-      <c r="Q176">
-        <v>0.25</v>
-      </c>
-      <c r="R176">
-        <v>1.775</v>
-      </c>
-      <c r="S176">
-        <v>2.1</v>
-      </c>
-      <c r="T176">
-        <v>2.5</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.85</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA176">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5982239</v>
+        <v>5981908</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,73 +16203,73 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177" t="s">
+        <v>46</v>
+      </c>
+      <c r="K177">
+        <v>1.285</v>
+      </c>
+      <c r="L177">
+        <v>5.5</v>
+      </c>
+      <c r="M177">
+        <v>10</v>
+      </c>
+      <c r="N177">
+        <v>1.363</v>
+      </c>
+      <c r="O177">
+        <v>5.5</v>
+      </c>
+      <c r="P177">
+        <v>7</v>
+      </c>
+      <c r="Q177">
+        <v>-1.25</v>
+      </c>
+      <c r="R177">
+        <v>1.875</v>
+      </c>
+      <c r="S177">
+        <v>1.975</v>
+      </c>
+      <c r="T177">
         <v>3</v>
       </c>
-      <c r="J177" t="s">
-        <v>45</v>
-      </c>
-      <c r="K177">
-        <v>2.875</v>
-      </c>
-      <c r="L177">
-        <v>3.4</v>
-      </c>
-      <c r="M177">
-        <v>2.375</v>
-      </c>
-      <c r="N177">
-        <v>4</v>
-      </c>
-      <c r="O177">
-        <v>3.6</v>
-      </c>
-      <c r="P177">
-        <v>1.909</v>
-      </c>
-      <c r="Q177">
-        <v>0.5</v>
-      </c>
-      <c r="R177">
-        <v>1.925</v>
-      </c>
-      <c r="S177">
-        <v>1.925</v>
-      </c>
-      <c r="T177">
-        <v>2.75</v>
-      </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB177">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16295,7 +16295,7 @@
         <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H178">
         <v>1</v>
@@ -16559,7 +16559,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G181" t="s">
         <v>29</v>
@@ -16826,7 +16826,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
         <v>35</v>
@@ -16918,7 +16918,7 @@
         <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17004,7 +17004,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -17093,10 +17093,10 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17452,7 +17452,7 @@
         <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5982249</v>
+        <v>5982246</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,10 +17538,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17553,41 +17553,41 @@
         <v>47</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L192">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M192">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N192">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P192">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q192">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R192">
+        <v>2.05</v>
+      </c>
+      <c r="S192">
         <v>1.85</v>
-      </c>
-      <c r="S192">
-        <v>2</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
+        <v>1.975</v>
+      </c>
+      <c r="V192">
         <v>1.875</v>
       </c>
-      <c r="V192">
-        <v>1.975</v>
-      </c>
       <c r="W192">
         <v>-1</v>
       </c>
@@ -17595,19 +17595,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>5982246</v>
+        <v>5982249</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,10 +17627,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17642,41 +17642,41 @@
         <v>47</v>
       </c>
       <c r="K193">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M193">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N193">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O193">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q193">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R193">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
+        <v>1.875</v>
+      </c>
+      <c r="V193">
         <v>1.975</v>
       </c>
-      <c r="V193">
-        <v>1.875</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17684,19 +17684,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
         <v>40</v>
@@ -17882,7 +17882,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>5982255</v>
+        <v>5982256</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17894,58 +17894,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
         <v>45</v>
       </c>
       <c r="K196">
+        <v>1.666</v>
+      </c>
+      <c r="L196">
+        <v>4</v>
+      </c>
+      <c r="M196">
+        <v>4.75</v>
+      </c>
+      <c r="N196">
         <v>1.571</v>
       </c>
-      <c r="L196">
+      <c r="O196">
         <v>4.2</v>
       </c>
-      <c r="M196">
-        <v>5.25</v>
-      </c>
-      <c r="N196">
-        <v>1.85</v>
-      </c>
-      <c r="O196">
-        <v>3.75</v>
-      </c>
       <c r="P196">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q196">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V196">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W196">
-        <v>0.8500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17954,16 +17954,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC196">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17971,7 +17971,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>5982256</v>
+        <v>5982255</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17983,58 +17983,58 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F197" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H197">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J197" t="s">
         <v>45</v>
       </c>
       <c r="K197">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L197">
+        <v>4.2</v>
+      </c>
+      <c r="M197">
+        <v>5.25</v>
+      </c>
+      <c r="N197">
+        <v>1.85</v>
+      </c>
+      <c r="O197">
+        <v>3.75</v>
+      </c>
+      <c r="P197">
         <v>4</v>
       </c>
-      <c r="M197">
-        <v>4.75</v>
-      </c>
-      <c r="N197">
-        <v>1.571</v>
-      </c>
-      <c r="O197">
-        <v>4.2</v>
-      </c>
-      <c r="P197">
-        <v>5.5</v>
-      </c>
       <c r="Q197">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
+        <v>1.9</v>
+      </c>
+      <c r="S197">
+        <v>1.95</v>
+      </c>
+      <c r="T197">
+        <v>3</v>
+      </c>
+      <c r="U197">
+        <v>1.875</v>
+      </c>
+      <c r="V197">
         <v>1.975</v>
       </c>
-      <c r="S197">
-        <v>1.875</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>1.825</v>
-      </c>
-      <c r="V197">
-        <v>2.025</v>
-      </c>
       <c r="W197">
-        <v>0.571</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18043,16 +18043,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA197">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18060,7 +18060,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>5982252</v>
+        <v>5982257</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18072,76 +18072,76 @@
         <v>45200.52083333334</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G198" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J198" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K198">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N198">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O198">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P198">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R198">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S198">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18149,7 +18149,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>5982257</v>
+        <v>5982252</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18161,76 +18161,76 @@
         <v>45200.52083333334</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K199">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L199">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O199">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P199">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q199">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S199">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U199">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V199">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y199">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB199">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18342,7 +18342,7 @@
         <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5982258</v>
+        <v>5982261</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202">
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K202">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L202">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N202">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S202">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W202">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB202">
         <v>-1</v>
       </c>
       <c r="AC202">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5982261</v>
+        <v>5982258</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K203">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L203">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M203">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N203">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O203">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P203">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q203">
+        <v>-0.75</v>
+      </c>
+      <c r="R203">
+        <v>2</v>
+      </c>
+      <c r="S203">
+        <v>1.85</v>
+      </c>
+      <c r="T203">
+        <v>2.25</v>
+      </c>
+      <c r="U203">
+        <v>1.875</v>
+      </c>
+      <c r="V203">
+        <v>1.975</v>
+      </c>
+      <c r="W203">
+        <v>0.75</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.5</v>
+      </c>
+      <c r="AA203">
         <v>-0.5</v>
       </c>
-      <c r="R203">
-        <v>1.875</v>
-      </c>
-      <c r="S203">
-        <v>1.975</v>
-      </c>
-      <c r="T203">
-        <v>2.5</v>
-      </c>
-      <c r="U203">
-        <v>2.025</v>
-      </c>
-      <c r="V203">
-        <v>1.825</v>
-      </c>
-      <c r="W203">
-        <v>-1</v>
-      </c>
-      <c r="X203">
-        <v>2.5</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>-1</v>
-      </c>
-      <c r="AA203">
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB203">
-        <v>-1</v>
-      </c>
-      <c r="AC203">
-        <v>0.825</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5982262</v>
+        <v>5981916</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,46 +18695,46 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>45</v>
       </c>
       <c r="K205">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="L205">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M205">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R205">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T205">
         <v>2.5</v>
@@ -18746,7 +18746,7 @@
         <v>2</v>
       </c>
       <c r="W205">
-        <v>0.95</v>
+        <v>3.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
@@ -18755,16 +18755,16 @@
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA205">
         <v>-1</v>
       </c>
       <c r="AB205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>5981916</v>
+        <v>5982262</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,46 +18784,46 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H206">
+        <v>2</v>
+      </c>
+      <c r="I206">
         <v>1</v>
-      </c>
-      <c r="I206">
-        <v>0</v>
       </c>
       <c r="J206" t="s">
         <v>45</v>
       </c>
       <c r="K206">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="L206">
+        <v>3.3</v>
+      </c>
+      <c r="M206">
+        <v>2.9</v>
+      </c>
+      <c r="N206">
+        <v>1.95</v>
+      </c>
+      <c r="O206">
         <v>3.5</v>
       </c>
-      <c r="M206">
-        <v>1.909</v>
-      </c>
-      <c r="N206">
-        <v>4.5</v>
-      </c>
-      <c r="O206">
+      <c r="P206">
         <v>3.8</v>
       </c>
-      <c r="P206">
-        <v>1.75</v>
-      </c>
       <c r="Q206">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T206">
         <v>2.5</v>
@@ -18835,7 +18835,7 @@
         <v>2</v>
       </c>
       <c r="W206">
-        <v>3.5</v>
+        <v>0.95</v>
       </c>
       <c r="X206">
         <v>-1</v>
@@ -18844,16 +18844,16 @@
         <v>-1</v>
       </c>
       <c r="Z206">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
-      <c r="AB206">
-        <v>-1</v>
-      </c>
       <c r="AC206">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
         <v>36</v>
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5982259</v>
+        <v>5981917</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,49 +18962,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K208">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N208">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="O208">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P208">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T208">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
         <v>1.9</v>
@@ -19016,22 +19016,22 @@
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5981917</v>
+        <v>5982259</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,49 +19051,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>46</v>
+      </c>
+      <c r="K209">
+        <v>2.55</v>
+      </c>
+      <c r="L209">
+        <v>3.4</v>
+      </c>
+      <c r="M209">
+        <v>2.6</v>
+      </c>
+      <c r="N209">
+        <v>2.6</v>
+      </c>
+      <c r="O209">
+        <v>3.6</v>
+      </c>
+      <c r="P209">
+        <v>2.6</v>
+      </c>
+      <c r="Q209">
         <v>0</v>
       </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
-      <c r="J209" t="s">
-        <v>47</v>
-      </c>
-      <c r="K209">
-        <v>5.5</v>
-      </c>
-      <c r="L209">
-        <v>4</v>
-      </c>
-      <c r="M209">
-        <v>1.571</v>
-      </c>
-      <c r="N209">
-        <v>7</v>
-      </c>
-      <c r="O209">
-        <v>4.2</v>
-      </c>
-      <c r="P209">
-        <v>1.5</v>
-      </c>
-      <c r="Q209">
-        <v>1.25</v>
-      </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U209">
         <v>1.9</v>
@@ -19105,22 +19105,22 @@
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y209">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19140,7 +19140,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
         <v>40</v>
@@ -19232,7 +19232,7 @@
         <v>41</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5981918</v>
+        <v>5982266</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,25 +19318,25 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="s">
         <v>46</v>
       </c>
       <c r="K212">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L212">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M212">
         <v>2.875</v>
@@ -19345,34 +19345,34 @@
         <v>2.25</v>
       </c>
       <c r="O212">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P212">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S212">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T212">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V212">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -19381,13 +19381,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB212">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC212">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5982266</v>
+        <v>5981918</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,25 +19407,25 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>46</v>
       </c>
       <c r="K213">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L213">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M213">
         <v>2.875</v>
@@ -19434,34 +19434,34 @@
         <v>2.25</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P213">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V213">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -19470,13 +19470,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19499,7 +19499,7 @@
         <v>39</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H214">
         <v>4</v>
@@ -19852,7 +19852,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G218" t="s">
         <v>30</v>
@@ -19944,7 +19944,7 @@
         <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5981920</v>
+        <v>5982274</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,76 +20030,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220">
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K220">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M220">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N220">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O220">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P220">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q220">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R220">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
         <v>3</v>
       </c>
       <c r="U220">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5982274</v>
+        <v>5982273</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,76 +20119,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221">
+        <v>3</v>
+      </c>
+      <c r="J221" t="s">
+        <v>47</v>
+      </c>
+      <c r="K221">
+        <v>2.15</v>
+      </c>
+      <c r="L221">
+        <v>3.3</v>
+      </c>
+      <c r="M221">
+        <v>3.1</v>
+      </c>
+      <c r="N221">
+        <v>2.1</v>
+      </c>
+      <c r="O221">
+        <v>3.5</v>
+      </c>
+      <c r="P221">
+        <v>3.3</v>
+      </c>
+      <c r="Q221">
+        <v>-0.25</v>
+      </c>
+      <c r="R221">
+        <v>1.85</v>
+      </c>
+      <c r="S221">
+        <v>2</v>
+      </c>
+      <c r="T221">
+        <v>2.5</v>
+      </c>
+      <c r="U221">
+        <v>1.85</v>
+      </c>
+      <c r="V221">
+        <v>2</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>2.3</v>
+      </c>
+      <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
         <v>1</v>
       </c>
-      <c r="J221" t="s">
-        <v>45</v>
-      </c>
-      <c r="K221">
-        <v>4</v>
-      </c>
-      <c r="L221">
-        <v>3.6</v>
-      </c>
-      <c r="M221">
-        <v>1.75</v>
-      </c>
-      <c r="N221">
-        <v>4.75</v>
-      </c>
-      <c r="O221">
-        <v>3.8</v>
-      </c>
-      <c r="P221">
-        <v>1.75</v>
-      </c>
-      <c r="Q221">
-        <v>0.75</v>
-      </c>
-      <c r="R221">
-        <v>1.925</v>
-      </c>
-      <c r="S221">
-        <v>1.925</v>
-      </c>
-      <c r="T221">
-        <v>3</v>
-      </c>
-      <c r="U221">
-        <v>1.925</v>
-      </c>
-      <c r="V221">
-        <v>1.925</v>
-      </c>
-      <c r="W221">
-        <v>3.75</v>
-      </c>
-      <c r="X221">
-        <v>-1</v>
-      </c>
-      <c r="Y221">
-        <v>-1</v>
-      </c>
-      <c r="Z221">
-        <v>0.925</v>
-      </c>
-      <c r="AA221">
-        <v>-1</v>
-      </c>
       <c r="AB221">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC221">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5982273</v>
+        <v>5981920</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20208,49 +20208,49 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
         <v>1</v>
-      </c>
-      <c r="I222">
-        <v>3</v>
       </c>
       <c r="J222" t="s">
         <v>47</v>
       </c>
       <c r="K222">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="L222">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M222">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="N222">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P222">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q222">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R222">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S222">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U222">
         <v>1.85</v>
@@ -20265,19 +20265,19 @@
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>2.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA222">
+        <v>-0.5</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
         <v>1</v>
-      </c>
-      <c r="AB222">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC222">
-        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20386,7 +20386,7 @@
         <v>45229.625</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
         <v>41</v>
@@ -20567,7 +20567,7 @@
         <v>42</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20730,7 +20730,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5982279</v>
+        <v>5981923</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20742,58 +20742,58 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F228" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G228" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>45</v>
       </c>
       <c r="K228">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M228">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N228">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O228">
+        <v>3.8</v>
+      </c>
+      <c r="P228">
+        <v>2.05</v>
+      </c>
+      <c r="Q228">
+        <v>0.5</v>
+      </c>
+      <c r="R228">
+        <v>1.825</v>
+      </c>
+      <c r="S228">
+        <v>2.025</v>
+      </c>
+      <c r="T228">
         <v>3.25</v>
       </c>
-      <c r="P228">
-        <v>2.9</v>
-      </c>
-      <c r="Q228">
-        <v>0</v>
-      </c>
-      <c r="R228">
-        <v>1.8</v>
-      </c>
-      <c r="S228">
-        <v>2.05</v>
-      </c>
-      <c r="T228">
-        <v>2.25</v>
-      </c>
       <c r="U228">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V228">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W228">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20802,13 +20802,13 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC228">
         <v>-1</v>
@@ -20819,7 +20819,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5981923</v>
+        <v>5982279</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20831,58 +20831,58 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F229" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>45</v>
       </c>
       <c r="K229">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="L229">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M229">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N229">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O229">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P229">
+        <v>2.9</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>1.8</v>
+      </c>
+      <c r="S229">
         <v>2.05</v>
       </c>
-      <c r="Q229">
-        <v>0.5</v>
-      </c>
-      <c r="R229">
-        <v>1.825</v>
-      </c>
-      <c r="S229">
-        <v>2.025</v>
-      </c>
       <c r="T229">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W229">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20891,13 +20891,13 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20923,7 +20923,7 @@
         <v>35</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H230">
         <v>1</v>
@@ -21012,7 +21012,7 @@
         <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21098,7 +21098,7 @@
         <v>45236.625</v>
       </c>
       <c r="F232" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
         <v>43</v>
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5982287</v>
+        <v>5982285</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
         <v>1</v>
       </c>
-      <c r="I234">
-        <v>2</v>
-      </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K234">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L234">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="M234">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="N234">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="O234">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P234">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q234">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S234">
+        <v>1.875</v>
+      </c>
+      <c r="T234">
+        <v>3.75</v>
+      </c>
+      <c r="U234">
+        <v>1.95</v>
+      </c>
+      <c r="V234">
         <v>1.9</v>
       </c>
-      <c r="T234">
-        <v>3</v>
-      </c>
-      <c r="U234">
-        <v>1.975</v>
-      </c>
-      <c r="V234">
-        <v>1.875</v>
-      </c>
       <c r="W234">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA234">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC234">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5982286</v>
+        <v>5981924</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,76 +21365,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H235">
         <v>1</v>
       </c>
       <c r="I235">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K235">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M235">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="N235">
-        <v>3.25</v>
+        <v>1.7</v>
       </c>
       <c r="O235">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P235">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S235">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA235">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB235">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5981924</v>
+        <v>5982282</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,16 +21454,16 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G236" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H236">
+        <v>3</v>
+      </c>
+      <c r="I236">
         <v>1</v>
-      </c>
-      <c r="I236">
-        <v>0</v>
       </c>
       <c r="J236" t="s">
         <v>45</v>
@@ -21472,28 +21472,28 @@
         <v>1.8</v>
       </c>
       <c r="L236">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M236">
+        <v>3.75</v>
+      </c>
+      <c r="N236">
+        <v>1.727</v>
+      </c>
+      <c r="O236">
         <v>4</v>
       </c>
-      <c r="N236">
-        <v>1.7</v>
-      </c>
-      <c r="O236">
-        <v>4.333</v>
-      </c>
       <c r="P236">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
         <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S236">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T236">
         <v>2.75</v>
@@ -21505,7 +21505,7 @@
         <v>1.95</v>
       </c>
       <c r="W236">
-        <v>0.7</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21514,16 +21514,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC236">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21531,7 +21531,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>5982285</v>
+        <v>5982283</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21543,76 +21543,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
+        <v>2</v>
+      </c>
+      <c r="J237" t="s">
+        <v>46</v>
+      </c>
+      <c r="K237">
+        <v>1.5</v>
+      </c>
+      <c r="L237">
+        <v>4.333</v>
+      </c>
+      <c r="M237">
+        <v>5</v>
+      </c>
+      <c r="N237">
+        <v>1.533</v>
+      </c>
+      <c r="O237">
+        <v>4.5</v>
+      </c>
+      <c r="P237">
+        <v>5.75</v>
+      </c>
+      <c r="Q237">
+        <v>-1</v>
+      </c>
+      <c r="R237">
+        <v>1.825</v>
+      </c>
+      <c r="S237">
+        <v>2.025</v>
+      </c>
+      <c r="T237">
+        <v>3</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
+        <v>1.85</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
+        <v>3.5</v>
+      </c>
+      <c r="Y237">
+        <v>-1</v>
+      </c>
+      <c r="Z237">
+        <v>-1</v>
+      </c>
+      <c r="AA237">
+        <v>1.025</v>
+      </c>
+      <c r="AB237">
         <v>1</v>
       </c>
-      <c r="J237" t="s">
-        <v>45</v>
-      </c>
-      <c r="K237">
-        <v>2</v>
-      </c>
-      <c r="L237">
-        <v>3.6</v>
-      </c>
-      <c r="M237">
-        <v>3.2</v>
-      </c>
-      <c r="N237">
-        <v>2.2</v>
-      </c>
-      <c r="O237">
-        <v>4.333</v>
-      </c>
-      <c r="P237">
-        <v>2.75</v>
-      </c>
-      <c r="Q237">
-        <v>-0.25</v>
-      </c>
-      <c r="R237">
-        <v>1.975</v>
-      </c>
-      <c r="S237">
-        <v>1.875</v>
-      </c>
-      <c r="T237">
-        <v>3.75</v>
-      </c>
-      <c r="U237">
-        <v>1.95</v>
-      </c>
-      <c r="V237">
-        <v>1.9</v>
-      </c>
-      <c r="W237">
-        <v>1.2</v>
-      </c>
-      <c r="X237">
-        <v>-1</v>
-      </c>
-      <c r="Y237">
-        <v>-1</v>
-      </c>
-      <c r="Z237">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA237">
-        <v>-1</v>
-      </c>
-      <c r="AB237">
-        <v>-1</v>
-      </c>
       <c r="AC237">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5981925</v>
+        <v>5982284</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,49 +21632,49 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
         <v>45</v>
       </c>
       <c r="K238">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L238">
         <v>3.6</v>
       </c>
       <c r="M238">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="N238">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P238">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S238">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U238">
         <v>2.025</v>
@@ -21683,7 +21683,7 @@
         <v>1.825</v>
       </c>
       <c r="W238">
-        <v>2.3</v>
+        <v>0.615</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21692,16 +21692,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5982282</v>
+        <v>5982287</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G239" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>2</v>
+      </c>
+      <c r="J239" t="s">
+        <v>47</v>
+      </c>
+      <c r="K239">
+        <v>7</v>
+      </c>
+      <c r="L239">
+        <v>4.8</v>
+      </c>
+      <c r="M239">
+        <v>1.4</v>
+      </c>
+      <c r="N239">
+        <v>7.5</v>
+      </c>
+      <c r="O239">
+        <v>4.75</v>
+      </c>
+      <c r="P239">
+        <v>1.4</v>
+      </c>
+      <c r="Q239">
+        <v>1.25</v>
+      </c>
+      <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
+        <v>1.9</v>
+      </c>
+      <c r="T239">
         <v>3</v>
       </c>
-      <c r="I239">
-        <v>1</v>
-      </c>
-      <c r="J239" t="s">
-        <v>45</v>
-      </c>
-      <c r="K239">
-        <v>1.8</v>
-      </c>
-      <c r="L239">
-        <v>3.75</v>
-      </c>
-      <c r="M239">
-        <v>3.75</v>
-      </c>
-      <c r="N239">
-        <v>1.727</v>
-      </c>
-      <c r="O239">
-        <v>4</v>
-      </c>
-      <c r="P239">
-        <v>4.5</v>
-      </c>
-      <c r="Q239">
-        <v>-0.75</v>
-      </c>
-      <c r="R239">
-        <v>1.9</v>
-      </c>
-      <c r="S239">
-        <v>1.95</v>
-      </c>
-      <c r="T239">
-        <v>2.75</v>
-      </c>
       <c r="U239">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V239">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W239">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z239">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA239">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB239">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC239">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>5982283</v>
+        <v>5981925</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,76 +21810,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G240" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H240">
         <v>2</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K240">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="L240">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M240">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N240">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O240">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P240">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q240">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
+        <v>1.975</v>
+      </c>
+      <c r="S240">
+        <v>1.875</v>
+      </c>
+      <c r="T240">
+        <v>2.75</v>
+      </c>
+      <c r="U240">
+        <v>2.025</v>
+      </c>
+      <c r="V240">
         <v>1.825</v>
       </c>
-      <c r="S240">
-        <v>2.025</v>
-      </c>
-      <c r="T240">
-        <v>3</v>
-      </c>
-      <c r="U240">
-        <v>2</v>
-      </c>
-      <c r="V240">
-        <v>1.85</v>
-      </c>
       <c r="W240">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X240">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
         <v>-1</v>
       </c>
       <c r="Z240">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA240">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB240">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AC240">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>5982284</v>
+        <v>5982286</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,76 +21899,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G241" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K241">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L241">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M241">
+        <v>2.5</v>
+      </c>
+      <c r="N241">
+        <v>3.25</v>
+      </c>
+      <c r="O241">
         <v>3.4</v>
       </c>
-      <c r="N241">
-        <v>1.615</v>
-      </c>
-      <c r="O241">
-        <v>4.5</v>
-      </c>
       <c r="P241">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q241">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R241">
+        <v>1.975</v>
+      </c>
+      <c r="S241">
+        <v>1.875</v>
+      </c>
+      <c r="T241">
+        <v>2.5</v>
+      </c>
+      <c r="U241">
+        <v>1.825</v>
+      </c>
+      <c r="V241">
         <v>2.025</v>
       </c>
-      <c r="S241">
-        <v>1.825</v>
-      </c>
-      <c r="T241">
-        <v>3.5</v>
-      </c>
-      <c r="U241">
-        <v>2.025</v>
-      </c>
-      <c r="V241">
-        <v>1.825</v>
-      </c>
       <c r="W241">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z241">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB241">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC241">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -109,10 +109,10 @@
     <t>Djurgarden</t>
   </si>
   <si>
-    <t>IFK Norrkoping</t>
+    <t>Hammarby</t>
   </si>
   <si>
-    <t>Hammarby</t>
+    <t>IFK Norrkoping</t>
   </si>
   <si>
     <t>IFK Goteborg</t>
@@ -127,19 +127,19 @@
     <t>Elfsborg</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
+    <t>Degerfors</t>
   </si>
   <si>
-    <t>Degerfors</t>
+    <t>Brommapojkarna</t>
   </si>
   <si>
     <t>BK Hacken</t>
   </si>
   <si>
-    <t>Kalmar FF</t>
+    <t>Sirius</t>
   </si>
   <si>
-    <t>Sirius</t>
+    <t>Kalmar FF</t>
   </si>
   <si>
     <t>IFK Varnamo</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6149568</v>
+        <v>6149567</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L4">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M4">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>1.85</v>
+        <v>1.285</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q4">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6149567</v>
+        <v>6149568</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L5">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N5">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>1.95</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
         <v>1.825</v>
       </c>
-      <c r="S5">
+      <c r="V5">
         <v>2.025</v>
       </c>
-      <c r="T5">
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
         <v>3</v>
       </c>
-      <c r="U5">
-        <v>1.975</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
-      <c r="W5">
-        <v>0.2849999999999999</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5981871</v>
+        <v>5982118</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="L10">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O10">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q10">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -1391,25 +1391,25 @@
         <v>1.9</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.445</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5982118</v>
+        <v>5981871</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11">
+        <v>5.25</v>
+      </c>
+      <c r="L11">
+        <v>4.2</v>
+      </c>
+      <c r="M11">
+        <v>1.571</v>
+      </c>
+      <c r="N11">
+        <v>6.5</v>
+      </c>
+      <c r="O11">
+        <v>4.75</v>
+      </c>
+      <c r="P11">
+        <v>1.45</v>
+      </c>
+      <c r="Q11">
+        <v>1.25</v>
+      </c>
+      <c r="R11">
+        <v>1.89</v>
+      </c>
+      <c r="S11">
+        <v>2.01</v>
+      </c>
+      <c r="T11">
         <v>3</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11">
-        <v>2.25</v>
-      </c>
-      <c r="L11">
-        <v>3.3</v>
-      </c>
-      <c r="M11">
-        <v>3.25</v>
-      </c>
-      <c r="N11">
-        <v>2.5</v>
-      </c>
-      <c r="O11">
-        <v>3.4</v>
-      </c>
-      <c r="P11">
-        <v>2.875</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>1.85</v>
-      </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -1480,25 +1480,25 @@
         <v>1.9</v>
       </c>
       <c r="W11">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z11">
-        <v>0.8500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1521,7 +1521,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5982116</v>
+        <v>5981870</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="L13">
+        <v>3.8</v>
+      </c>
+      <c r="M13">
+        <v>1.65</v>
+      </c>
+      <c r="N13">
+        <v>3.6</v>
+      </c>
+      <c r="O13">
         <v>3.5</v>
       </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>3.4</v>
-      </c>
       <c r="P13">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
-        <v>2.025</v>
+        <v>1.86</v>
       </c>
       <c r="S13">
-        <v>1.825</v>
+        <v>2.04</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1.025</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5981870</v>
+        <v>5982116</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,73 +1699,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="L14">
+        <v>3.5</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>3.4</v>
+      </c>
+      <c r="P14">
         <v>3.8</v>
       </c>
-      <c r="M14">
-        <v>1.65</v>
-      </c>
-      <c r="N14">
-        <v>3.6</v>
-      </c>
-      <c r="O14">
-        <v>3.5</v>
-      </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.86</v>
+        <v>2.025</v>
       </c>
       <c r="S14">
-        <v>2.04</v>
+        <v>1.825</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8600000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1966,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2144,7 +2144,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -2322,7 +2322,7 @@
         <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2500,7 +2500,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2589,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2764,7 +2764,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
@@ -2853,7 +2853,7 @@
         <v>45038.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -3031,7 +3031,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -3120,7 +3120,7 @@
         <v>45039.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>39</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5982130</v>
+        <v>5982129</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,13 +3209,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3224,43 +3224,43 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L31">
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P31">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,16 +3269,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5982129</v>
+        <v>5982130</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,13 +3298,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3313,43 +3313,43 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L32">
         <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O32">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3358,16 +3358,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3390,7 +3390,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5982136</v>
+        <v>5982132</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N34">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O34">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>2.5</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5982132</v>
+        <v>5982136</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
+        <v>3.4</v>
+      </c>
+      <c r="O35">
+        <v>3.3</v>
+      </c>
+      <c r="P35">
+        <v>2.2</v>
+      </c>
+      <c r="Q35">
+        <v>0.25</v>
+      </c>
+      <c r="R35">
         <v>1.95</v>
       </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
-      <c r="Q35">
-        <v>-0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.975</v>
-      </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5982137</v>
+        <v>5981876</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M38">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="N38">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P38">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S38">
         <v>1.85</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X38">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.5249999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5981876</v>
+        <v>5982137</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45046.41666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="N39">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O39">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
         <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>45046.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4102,7 +4102,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5981878</v>
+        <v>5982142</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="N42">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P42">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q42">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="S42">
         <v>1.85</v>
       </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
       <c r="T42">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V42">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4366,10 +4366,10 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s">
         <v>40</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5982142</v>
+        <v>5981878</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
+        <v>4.2</v>
+      </c>
+      <c r="Q45">
+        <v>-0.5</v>
+      </c>
+      <c r="R45">
+        <v>1.85</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
         <v>2.75</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>2</v>
-      </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X45">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5982143</v>
+        <v>5982138</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>37</v>
       </c>
       <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
         <v>3.6</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1.85</v>
+      </c>
+      <c r="T46">
+        <v>2.75</v>
+      </c>
+      <c r="U46">
         <v>1.975</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.875</v>
       </c>
-      <c r="T46">
-        <v>2.5</v>
-      </c>
-      <c r="U46">
-        <v>1.925</v>
-      </c>
-      <c r="V46">
-        <v>1.925</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5982139</v>
+        <v>5982143</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="N47">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="O47">
         <v>3.25</v>
       </c>
       <c r="P47">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
+        <v>1.975</v>
+      </c>
+      <c r="S47">
         <v>1.875</v>
-      </c>
-      <c r="S47">
-        <v>1.975</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z47">
+        <v>-1</v>
+      </c>
+      <c r="AA47">
         <v>0.875</v>
       </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5982138</v>
+        <v>5982139</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,13 +4722,13 @@
         <v>45050.58333333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -4737,43 +4737,43 @@
         <v>45</v>
       </c>
       <c r="K48">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="L48">
         <v>3.4</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="N48">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="O48">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P48">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
+        <v>1.975</v>
+      </c>
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
         <v>1.85</v>
       </c>
-      <c r="T48">
-        <v>2.75</v>
-      </c>
-      <c r="U48">
-        <v>1.975</v>
-      </c>
-      <c r="V48">
-        <v>1.875</v>
-      </c>
       <c r="W48">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4782,16 +4782,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5078,7 +5078,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5982148</v>
+        <v>5982149</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,16 +5170,16 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
         <v>2.625</v>
@@ -5191,52 +5191,52 @@
         <v>2.5</v>
       </c>
       <c r="N53">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T53">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-0</v>
+        <v>0.8300000000000001</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5982149</v>
+        <v>5982148</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,16 +5259,16 @@
         <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
         <v>2.625</v>
@@ -5280,52 +5280,52 @@
         <v>2.5</v>
       </c>
       <c r="N54">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
         <v>0</v>
       </c>
       <c r="R54">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S54">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
+        <v>1.925</v>
+      </c>
+      <c r="V54">
+        <v>1.925</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>2.5</v>
       </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.8300000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>5982147</v>
+        <v>5982144</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,34 +5434,34 @@
         <v>45055.58333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N56">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="P56">
         <v>5</v>
@@ -5470,13 +5470,13 @@
         <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
         <v>2.05</v>
@@ -5485,25 +5485,25 @@
         <v>1.8</v>
       </c>
       <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>2.9</v>
+      </c>
+      <c r="Y56">
+        <v>-1</v>
+      </c>
+      <c r="Z56">
+        <v>-1</v>
+      </c>
+      <c r="AA56">
+        <v>1</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>0.8</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>1.025</v>
-      </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>1.05</v>
-      </c>
-      <c r="AC56">
-        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>5982144</v>
+        <v>5982147</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,34 +5523,34 @@
         <v>45055.58333333334</v>
       </c>
       <c r="F57" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K57">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
+        <v>3.3</v>
+      </c>
+      <c r="M57">
         <v>3.75</v>
       </c>
-      <c r="M57">
-        <v>4.75</v>
-      </c>
       <c r="N57">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
         <v>5</v>
@@ -5559,13 +5559,13 @@
         <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
         <v>2.05</v>
@@ -5574,25 +5574,25 @@
         <v>1.8</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X57">
-        <v>2.9</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5704,7 +5704,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5981882</v>
+        <v>5982153</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,49 +5790,49 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>45</v>
       </c>
       <c r="K60">
+        <v>2.15</v>
+      </c>
+      <c r="L60">
+        <v>3.3</v>
+      </c>
+      <c r="M60">
+        <v>3.2</v>
+      </c>
+      <c r="N60">
+        <v>2.45</v>
+      </c>
+      <c r="O60">
+        <v>3.2</v>
+      </c>
+      <c r="P60">
+        <v>3</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1.77</v>
+      </c>
+      <c r="S60">
+        <v>2.14</v>
+      </c>
+      <c r="T60">
         <v>2.25</v>
-      </c>
-      <c r="L60">
-        <v>3.4</v>
-      </c>
-      <c r="M60">
-        <v>3</v>
-      </c>
-      <c r="N60">
-        <v>2.4</v>
-      </c>
-      <c r="O60">
-        <v>3.4</v>
-      </c>
-      <c r="P60">
-        <v>2.9</v>
-      </c>
-      <c r="Q60">
-        <v>-0.25</v>
-      </c>
-      <c r="R60">
-        <v>2.1</v>
-      </c>
-      <c r="S60">
-        <v>1.775</v>
-      </c>
-      <c r="T60">
-        <v>2.5</v>
       </c>
       <c r="U60">
         <v>1.975</v>
@@ -5841,7 +5841,7 @@
         <v>1.875</v>
       </c>
       <c r="W60">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5850,7 +5850,7 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>1.1</v>
+        <v>0.77</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5982153</v>
+        <v>5981882</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,49 +5879,49 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
         <v>3</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>45</v>
       </c>
       <c r="K61">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L61">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M61">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O61">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P61">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="S61">
-        <v>2.14</v>
+        <v>1.775</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
         <v>1.975</v>
@@ -5930,7 +5930,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5939,7 +5939,7 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.77</v>
+        <v>1.1</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -6146,10 +6146,10 @@
         <v>45060.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6324,7 +6324,7 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>44</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5981885</v>
+        <v>5982159</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,73 +6413,73 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>1.85</v>
       </c>
       <c r="L67">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V67">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X67">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5982159</v>
+        <v>5981885</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,73 +6502,73 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>1.85</v>
       </c>
       <c r="L68">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N68">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5982157</v>
+        <v>5982155</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45067.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L70">
         <v>3.3</v>
       </c>
       <c r="M70">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N70">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O70">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q70">
+        <v>0.25</v>
+      </c>
+      <c r="R70">
+        <v>1.775</v>
+      </c>
+      <c r="S70">
+        <v>2.1</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
+        <v>2.025</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>2.4</v>
+      </c>
+      <c r="Y70">
+        <v>-1</v>
+      </c>
+      <c r="Z70">
+        <v>0.3875</v>
+      </c>
+      <c r="AA70">
         <v>-0.5</v>
       </c>
-      <c r="R70">
-        <v>1.875</v>
-      </c>
-      <c r="S70">
-        <v>1.975</v>
-      </c>
-      <c r="T70">
-        <v>2.5</v>
-      </c>
-      <c r="U70">
-        <v>1.85</v>
-      </c>
-      <c r="V70">
-        <v>2</v>
-      </c>
-      <c r="W70">
-        <v>-1</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>3</v>
-      </c>
-      <c r="Z70">
-        <v>-1</v>
-      </c>
-      <c r="AA70">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB70">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5982155</v>
+        <v>5982157</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45067.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L71">
         <v>3.3</v>
       </c>
       <c r="M71">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N71">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P71">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z71">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC71">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>45068.59027777778</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>36</v>
@@ -7125,10 +7125,10 @@
         <v>45071.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7303,10 +7303,10 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7392,10 +7392,10 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5982161</v>
+        <v>5982166</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
+        <v>3.4</v>
+      </c>
+      <c r="M81">
+        <v>3.5</v>
+      </c>
+      <c r="N81">
+        <v>1.6</v>
+      </c>
+      <c r="O81">
         <v>4.333</v>
-      </c>
-      <c r="M81">
-        <v>7</v>
-      </c>
-      <c r="N81">
-        <v>1.666</v>
-      </c>
-      <c r="O81">
-        <v>3.8</v>
       </c>
       <c r="P81">
         <v>5</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R81">
-        <v>1.93</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.97</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y81">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.97</v>
+        <v>0.825</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5982166</v>
+        <v>5982161</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L82">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M82">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N82">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O82">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
         <v>5</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>1.93</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.97</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>0.97</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8015,10 +8015,10 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5982170</v>
+        <v>5982167</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>46</v>
       </c>
       <c r="K86">
+        <v>2.2</v>
+      </c>
+      <c r="L86">
+        <v>3.2</v>
+      </c>
+      <c r="M86">
         <v>3.1</v>
       </c>
-      <c r="L86">
-        <v>3.3</v>
-      </c>
-      <c r="M86">
-        <v>2.15</v>
-      </c>
       <c r="N86">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O86">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.88</v>
       </c>
       <c r="S86">
-        <v>2.025</v>
+        <v>2.02</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5982167</v>
+        <v>5982170</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>46</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L87">
+        <v>3.3</v>
+      </c>
+      <c r="M87">
+        <v>2.15</v>
+      </c>
+      <c r="N87">
         <v>3.2</v>
       </c>
-      <c r="M87">
-        <v>3.1</v>
-      </c>
-      <c r="N87">
-        <v>2.2</v>
-      </c>
       <c r="O87">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P87">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="S87">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="T87">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>0.4125</v>
+      </c>
+      <c r="AA87">
         <v>-0.5</v>
       </c>
-      <c r="AA87">
-        <v>0.51</v>
-      </c>
       <c r="AB87">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>45081.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
         <v>42</v>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -8638,10 +8638,10 @@
         <v>45086.58333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8727,10 +8727,10 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8994,7 +8994,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
         <v>33</v>
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>5981890</v>
+        <v>5982175</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M98">
         <v>5.75</v>
       </c>
       <c r="N98">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O98">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P98">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q98">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.99</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X98">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9249,7 +9249,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>5982175</v>
+        <v>5981890</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9261,76 +9261,76 @@
         <v>45088.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="L99">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M99">
         <v>5.75</v>
       </c>
       <c r="N99">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O99">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P99">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R99">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="S99">
-        <v>1.99</v>
+        <v>1.925</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB99">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC99">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5982183</v>
+        <v>5982184</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,7 +9353,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9365,25 +9365,25 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
         <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N100">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O100">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,10 +9395,10 @@
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,7 +9407,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9419,7 +9419,7 @@
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5982184</v>
+        <v>5982183</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,7 +9442,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9454,25 +9454,25 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L101">
         <v>3.3</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
         <v>1.875</v>
@@ -9484,10 +9484,10 @@
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,7 +9496,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9508,7 +9508,7 @@
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9617,7 +9617,7 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>39</v>
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5982180</v>
+        <v>5982182</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106">
+        <v>2.7</v>
+      </c>
+      <c r="L106">
+        <v>3.1</v>
+      </c>
+      <c r="M106">
+        <v>2.7</v>
+      </c>
+      <c r="N106">
+        <v>2.75</v>
+      </c>
+      <c r="O106">
+        <v>3</v>
+      </c>
+      <c r="P106">
+        <v>2.8</v>
+      </c>
+      <c r="Q106">
         <v>0</v>
       </c>
-      <c r="J106" t="s">
-        <v>45</v>
-      </c>
-      <c r="K106">
-        <v>1.615</v>
-      </c>
-      <c r="L106">
-        <v>4</v>
-      </c>
-      <c r="M106">
-        <v>5.25</v>
-      </c>
-      <c r="N106">
-        <v>1.55</v>
-      </c>
-      <c r="O106">
-        <v>4.2</v>
-      </c>
-      <c r="P106">
-        <v>6</v>
-      </c>
-      <c r="Q106">
-        <v>-1</v>
-      </c>
       <c r="R106">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W106">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5982182</v>
+        <v>5982180</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L107">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N107">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="O107">
+        <v>4.2</v>
+      </c>
+      <c r="P107">
+        <v>6</v>
+      </c>
+      <c r="Q107">
+        <v>-1</v>
+      </c>
+      <c r="R107">
+        <v>1.89</v>
+      </c>
+      <c r="S107">
+        <v>2.01</v>
+      </c>
+      <c r="T107">
         <v>3</v>
       </c>
-      <c r="P107">
-        <v>2.8</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
+      <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.9</v>
       </c>
-      <c r="S107">
-        <v>1.95</v>
-      </c>
-      <c r="T107">
-        <v>1.75</v>
-      </c>
-      <c r="U107">
-        <v>1.75</v>
-      </c>
-      <c r="V107">
-        <v>2.05</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10240,10 +10240,10 @@
         <v>45115.52083333334</v>
       </c>
       <c r="F110" t="s">
+        <v>38</v>
+      </c>
+      <c r="G110" t="s">
         <v>37</v>
-      </c>
-      <c r="G110" t="s">
-        <v>38</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10418,10 +10418,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10507,7 +10507,7 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s">
         <v>36</v>
@@ -10596,7 +10596,7 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>34</v>
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L117">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N117">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O117">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P117">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q117">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R117">
+        <v>1.95</v>
+      </c>
+      <c r="S117">
         <v>1.9</v>
       </c>
-      <c r="S117">
-        <v>1.95</v>
-      </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W117">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X117">
         <v>-1</v>
       </c>
       <c r="Y117">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z117">
+        <v>-1</v>
+      </c>
+      <c r="AA117">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA117">
-        <v>-1</v>
-      </c>
       <c r="AB117">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F118" t="s">
+        <v>39</v>
+      </c>
+      <c r="G118" t="s">
         <v>38</v>
       </c>
-      <c r="G118" t="s">
-        <v>41</v>
-      </c>
       <c r="H118">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K118">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M118">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N118">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O118">
+        <v>5.5</v>
+      </c>
+      <c r="P118">
+        <v>7.5</v>
+      </c>
+      <c r="Q118">
+        <v>-1.5</v>
+      </c>
+      <c r="R118">
+        <v>1.9</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
         <v>3.5</v>
       </c>
-      <c r="P118">
-        <v>2.55</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
+      <c r="U118">
         <v>1.95</v>
       </c>
-      <c r="S118">
+      <c r="V118">
         <v>1.9</v>
       </c>
-      <c r="T118">
-        <v>2.75</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>2.025</v>
-      </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA118">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5982191</v>
+        <v>5982192</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M119">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N119">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P119">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R119">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB119">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5982192</v>
+        <v>5982191</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L120">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N120">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O120">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P120">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q120">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S120">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X120">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11222,7 +11222,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11486,10 +11486,10 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5981897</v>
+        <v>5982199</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,67 +11753,67 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K127">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L127">
         <v>3.6</v>
       </c>
       <c r="M127">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N127">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O127">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S127">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X127">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.4</v>
+        <v>0.4625</v>
       </c>
       <c r="AA127">
         <v>-0.5</v>
@@ -11822,7 +11822,7 @@
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5982199</v>
+        <v>5981897</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,67 +11842,67 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K128">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L128">
         <v>3.6</v>
       </c>
       <c r="M128">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N128">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O128">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P128">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R128">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S128">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W128">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
       <c r="AA128">
         <v>-0.5</v>
@@ -11911,7 +11911,7 @@
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
         <v>43</v>
@@ -12109,7 +12109,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12287,10 +12287,10 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F133" t="s">
+        <v>37</v>
+      </c>
+      <c r="G133" t="s">
         <v>38</v>
-      </c>
-      <c r="G133" t="s">
-        <v>37</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12465,10 +12465,10 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F135" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" t="s">
         <v>32</v>
-      </c>
-      <c r="G135" t="s">
-        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12646,7 +12646,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5982208</v>
+        <v>5981899</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K138">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L138">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M138">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N138">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P138">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R138">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V138">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
         <v>0.825</v>
       </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
       <c r="AC138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5981899</v>
+        <v>5982208</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L139">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M139">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O139">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q139">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W139">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z139">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13002,7 +13002,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13088,7 +13088,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
         <v>44</v>
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5982210</v>
+        <v>5981902</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,43 +13192,43 @@
         <v>45</v>
       </c>
       <c r="K143">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M143">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N143">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P143">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13237,16 +13237,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5981902</v>
+        <v>5982210</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,10 +13355,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13370,43 +13370,43 @@
         <v>45</v>
       </c>
       <c r="K145">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="L145">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="O145">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q145">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13415,16 +13415,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC145">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13622,10 +13622,10 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F148" t="s">
+        <v>40</v>
+      </c>
+      <c r="G148" t="s">
         <v>41</v>
-      </c>
-      <c r="G148" t="s">
-        <v>40</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13714,7 +13714,7 @@
         <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5982218</v>
+        <v>5982217</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,13 +13800,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -13815,43 +13815,43 @@
         <v>45</v>
       </c>
       <c r="K150">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M150">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="O150">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R150">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="S150">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="T150">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>2.3</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13860,7 +13860,7 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.8400000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA150">
         <v>-1</v>
@@ -13869,7 +13869,7 @@
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5982217</v>
+        <v>5982218</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,13 +13889,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -13904,43 +13904,43 @@
         <v>45</v>
       </c>
       <c r="K151">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="L151">
+        <v>6</v>
+      </c>
+      <c r="M151">
+        <v>11</v>
+      </c>
+      <c r="N151">
+        <v>1.333</v>
+      </c>
+      <c r="O151">
+        <v>6</v>
+      </c>
+      <c r="P151">
+        <v>8</v>
+      </c>
+      <c r="Q151">
+        <v>-1.5</v>
+      </c>
+      <c r="R151">
+        <v>1.84</v>
+      </c>
+      <c r="S151">
+        <v>2.06</v>
+      </c>
+      <c r="T151">
         <v>3.5</v>
       </c>
-      <c r="M151">
-        <v>2.25</v>
-      </c>
-      <c r="N151">
-        <v>3.3</v>
-      </c>
-      <c r="O151">
-        <v>3.4</v>
-      </c>
-      <c r="P151">
-        <v>2.2</v>
-      </c>
-      <c r="Q151">
-        <v>0.25</v>
-      </c>
-      <c r="R151">
-        <v>1.94</v>
-      </c>
-      <c r="S151">
-        <v>1.96</v>
-      </c>
-      <c r="T151">
-        <v>2.5</v>
-      </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
-        <v>2.3</v>
+        <v>0.333</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13949,7 +13949,7 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.9399999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA151">
         <v>-1</v>
@@ -13958,7 +13958,7 @@
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5981904</v>
+        <v>5982221</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
         <v>1</v>
       </c>
-      <c r="I152">
-        <v>0</v>
-      </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K152">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L152">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="N152">
+        <v>1.75</v>
+      </c>
+      <c r="O152">
+        <v>4</v>
+      </c>
+      <c r="P152">
         <v>4.333</v>
       </c>
-      <c r="O152">
-        <v>3.75</v>
-      </c>
-      <c r="P152">
-        <v>1.8</v>
-      </c>
       <c r="Q152">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R152">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S152">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T152">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U152">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V152">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
+        <v>-1</v>
+      </c>
+      <c r="X152">
+        <v>-1</v>
+      </c>
+      <c r="Y152">
         <v>3.333</v>
       </c>
-      <c r="X152">
-        <v>-1</v>
-      </c>
-      <c r="Y152">
-        <v>-1</v>
-      </c>
       <c r="Z152">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
         <v>-1</v>
       </c>
       <c r="AC152">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5982221</v>
+        <v>5981904</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,76 +14067,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
         <v>0</v>
       </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K153">
+        <v>4.5</v>
+      </c>
+      <c r="L153">
+        <v>3.8</v>
+      </c>
+      <c r="M153">
+        <v>1.727</v>
+      </c>
+      <c r="N153">
+        <v>4.333</v>
+      </c>
+      <c r="O153">
+        <v>3.75</v>
+      </c>
+      <c r="P153">
         <v>1.8</v>
       </c>
-      <c r="L153">
-        <v>3.75</v>
-      </c>
-      <c r="M153">
-        <v>4.2</v>
-      </c>
-      <c r="N153">
-        <v>1.75</v>
-      </c>
-      <c r="O153">
-        <v>4</v>
-      </c>
-      <c r="P153">
-        <v>4.333</v>
-      </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R153">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S153">
+        <v>2.025</v>
+      </c>
+      <c r="T153">
+        <v>2.5</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>1.925</v>
-      </c>
-      <c r="V153">
-        <v>1.925</v>
-      </c>
       <c r="W153">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA153">
+        <v>-1</v>
+      </c>
+      <c r="AB153">
+        <v>-1</v>
+      </c>
+      <c r="AC153">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB153">
-        <v>-1</v>
-      </c>
-      <c r="AC153">
-        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14245,7 +14245,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14426,7 +14426,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5982225</v>
+        <v>5982223</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,76 +14601,76 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159">
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K159">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M159">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N159">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O159">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P159">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="Q159">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X159">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
         <v>-1</v>
       </c>
       <c r="AC159">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>5982223</v>
+        <v>5982225</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14690,76 +14690,76 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K160">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="L160">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M160">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="N160">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O160">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P160">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q160">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S160">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V160">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W160">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB160">
         <v>-1</v>
       </c>
       <c r="AC160">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14779,7 +14779,7 @@
         <v>45159.59027777778</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G161" t="s">
         <v>44</v>
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5982232</v>
+        <v>5982234</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,13 +14868,13 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <v>3</v>
@@ -14883,40 +14883,40 @@
         <v>47</v>
       </c>
       <c r="K162">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L162">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N162">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O162">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P162">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T162">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14925,16 +14925,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB162">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5982234</v>
+        <v>5982232</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,13 +14957,13 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>3</v>
@@ -14972,40 +14972,40 @@
         <v>47</v>
       </c>
       <c r="K163">
+        <v>2.9</v>
+      </c>
+      <c r="L163">
+        <v>3.2</v>
+      </c>
+      <c r="M163">
         <v>2.375</v>
       </c>
-      <c r="L163">
-        <v>3.4</v>
-      </c>
-      <c r="M163">
-        <v>2.8</v>
-      </c>
       <c r="N163">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O163">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P163">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S163">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15014,16 +15014,16 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15227,7 +15227,7 @@
         <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15405,7 +15405,7 @@
         <v>36</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>3</v>
@@ -15491,7 +15491,7 @@
         <v>45166.59027777778</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
         <v>29</v>
@@ -15583,7 +15583,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>5982238</v>
+        <v>5982235</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,49 +15758,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="L172">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M172">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="N172">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O172">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P172">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q172">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>1.79</v>
+        <v>2.025</v>
       </c>
       <c r="S172">
-        <v>2.11</v>
+        <v>1.825</v>
       </c>
       <c r="T172">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
         <v>2.025</v>
@@ -15809,7 +15809,7 @@
         <v>1.825</v>
       </c>
       <c r="W172">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="X172">
         <v>-1</v>
@@ -15818,16 +15818,16 @@
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.79</v>
+        <v>1.025</v>
       </c>
       <c r="AA172">
         <v>-1</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC172">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G173" t="s">
         <v>35</v>
@@ -15924,7 +15924,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>5982235</v>
+        <v>5982238</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15936,49 +15936,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>45</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M174">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N174">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O174">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P174">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R174">
-        <v>2.025</v>
+        <v>1.79</v>
       </c>
       <c r="S174">
-        <v>1.825</v>
+        <v>2.11</v>
       </c>
       <c r="T174">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
         <v>2.025</v>
@@ -15987,7 +15987,7 @@
         <v>1.825</v>
       </c>
       <c r="W174">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -15996,16 +15996,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>1.025</v>
+        <v>0.79</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16013,7 +16013,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>5981909</v>
+        <v>5981908</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16025,76 +16025,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M175">
-        <v>2.375</v>
+        <v>10</v>
       </c>
       <c r="N175">
+        <v>1.363</v>
+      </c>
+      <c r="O175">
+        <v>5.5</v>
+      </c>
+      <c r="P175">
+        <v>7</v>
+      </c>
+      <c r="Q175">
+        <v>-1.25</v>
+      </c>
+      <c r="R175">
+        <v>1.875</v>
+      </c>
+      <c r="S175">
+        <v>1.975</v>
+      </c>
+      <c r="T175">
         <v>3</v>
       </c>
-      <c r="O175">
-        <v>3.3</v>
-      </c>
-      <c r="P175">
-        <v>2.45</v>
-      </c>
-      <c r="Q175">
-        <v>0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.775</v>
-      </c>
-      <c r="S175">
-        <v>2.1</v>
-      </c>
-      <c r="T175">
-        <v>2.5</v>
-      </c>
       <c r="U175">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y175">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
         <v>-1</v>
       </c>
       <c r="AA175">
-        <v>1.1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5982239</v>
+        <v>5981909</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H176">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="L176">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
         <v>2.375</v>
       </c>
       <c r="N176">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U176">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5981908</v>
+        <v>5982239</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,73 +16203,73 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K177">
-        <v>1.285</v>
+        <v>2.875</v>
       </c>
       <c r="L177">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M177">
-        <v>10</v>
+        <v>2.375</v>
       </c>
       <c r="N177">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="O177">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q177">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.925</v>
+      </c>
+      <c r="V177">
+        <v>1.925</v>
+      </c>
+      <c r="W177">
         <v>3</v>
       </c>
-      <c r="U177">
-        <v>2.05</v>
-      </c>
-      <c r="V177">
-        <v>1.8</v>
-      </c>
-      <c r="W177">
-        <v>-1</v>
-      </c>
       <c r="X177">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5982241</v>
+        <v>5982245</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,13 +16292,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16307,43 +16307,43 @@
         <v>45</v>
       </c>
       <c r="K178">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L178">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M178">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N178">
+        <v>1.363</v>
+      </c>
+      <c r="O178">
+        <v>5.5</v>
+      </c>
+      <c r="P178">
+        <v>7</v>
+      </c>
+      <c r="Q178">
+        <v>-1.5</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
         <v>1.85</v>
       </c>
-      <c r="O178">
-        <v>3.75</v>
-      </c>
-      <c r="P178">
-        <v>4</v>
-      </c>
-      <c r="Q178">
-        <v>-0.75</v>
-      </c>
-      <c r="R178">
-        <v>2.07</v>
-      </c>
-      <c r="S178">
-        <v>1.83</v>
-      </c>
       <c r="T178">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W178">
-        <v>0.8500000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,16 +16352,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.5349999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA178">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5982245</v>
+        <v>5982241</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,13 +16381,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G179" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H179">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16396,43 +16396,43 @@
         <v>45</v>
       </c>
       <c r="K179">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L179">
+        <v>3.4</v>
+      </c>
+      <c r="M179">
         <v>4</v>
       </c>
-      <c r="M179">
-        <v>4.75</v>
-      </c>
       <c r="N179">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O179">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P179">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T179">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,16 +16441,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16559,7 +16559,7 @@
         <v>45186.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>29</v>
@@ -16651,7 +16651,7 @@
         <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16826,7 +16826,7 @@
         <v>45187.58333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G184" t="s">
         <v>35</v>
@@ -16918,7 +16918,7 @@
         <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17004,7 +17004,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -17093,10 +17093,10 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H187">
         <v>2</v>
@@ -17360,7 +17360,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17452,7 +17452,7 @@
         <v>43</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5982246</v>
+        <v>5982249</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,10 +17538,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17553,41 +17553,41 @@
         <v>47</v>
       </c>
       <c r="K192">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M192">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N192">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O192">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q192">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T192">
         <v>2.75</v>
       </c>
       <c r="U192">
+        <v>1.875</v>
+      </c>
+      <c r="V192">
         <v>1.975</v>
       </c>
-      <c r="V192">
-        <v>1.875</v>
-      </c>
       <c r="W192">
         <v>-1</v>
       </c>
@@ -17595,19 +17595,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>5982249</v>
+        <v>5982246</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,10 +17627,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -17642,41 +17642,41 @@
         <v>47</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L193">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M193">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N193">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P193">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R193">
+        <v>2.05</v>
+      </c>
+      <c r="S193">
         <v>1.85</v>
-      </c>
-      <c r="S193">
-        <v>2</v>
       </c>
       <c r="T193">
         <v>2.75</v>
       </c>
       <c r="U193">
+        <v>1.975</v>
+      </c>
+      <c r="V193">
         <v>1.875</v>
       </c>
-      <c r="V193">
-        <v>1.975</v>
-      </c>
       <c r="W193">
         <v>-1</v>
       </c>
@@ -17684,19 +17684,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17805,10 +17805,10 @@
         <v>45199.52083333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17894,10 +17894,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -18161,7 +18161,7 @@
         <v>45200.52083333334</v>
       </c>
       <c r="F199" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
         <v>33</v>
@@ -18342,7 +18342,7 @@
         <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>5982261</v>
+        <v>5982258</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,76 +18428,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G202" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202">
         <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M202">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N202">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q202">
+        <v>-0.75</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.85</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
+        <v>1.975</v>
+      </c>
+      <c r="W202">
+        <v>0.75</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>-1</v>
+      </c>
+      <c r="Z202">
+        <v>0.5</v>
+      </c>
+      <c r="AA202">
         <v>-0.5</v>
       </c>
-      <c r="R202">
-        <v>1.875</v>
-      </c>
-      <c r="S202">
-        <v>1.975</v>
-      </c>
-      <c r="T202">
-        <v>2.5</v>
-      </c>
-      <c r="U202">
-        <v>2.025</v>
-      </c>
-      <c r="V202">
-        <v>1.825</v>
-      </c>
-      <c r="W202">
-        <v>-1</v>
-      </c>
-      <c r="X202">
-        <v>2.5</v>
-      </c>
-      <c r="Y202">
-        <v>-1</v>
-      </c>
-      <c r="Z202">
-        <v>-1</v>
-      </c>
-      <c r="AA202">
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB202">
-        <v>-1</v>
-      </c>
-      <c r="AC202">
-        <v>0.825</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>5982258</v>
+        <v>5982261</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18517,76 +18517,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F203" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203">
         <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K203">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L203">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M203">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N203">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O203">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V203">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W203">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB203">
         <v>-1</v>
       </c>
       <c r="AC203">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18609,7 +18609,7 @@
         <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5981916</v>
+        <v>5982263</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,40 +18695,40 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K205">
         <v>4</v>
       </c>
       <c r="L205">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M205">
-        <v>1.909</v>
+        <v>1.869</v>
       </c>
       <c r="N205">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P205">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Q205">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R205">
         <v>1.85</v>
@@ -18737,34 +18737,34 @@
         <v>2</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC205">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18787,7 +18787,7 @@
         <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H206">
         <v>2</v>
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5982263</v>
+        <v>5981916</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,40 +18873,40 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
         <v>0</v>
       </c>
-      <c r="I207">
-        <v>3</v>
-      </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K207">
         <v>4</v>
       </c>
       <c r="L207">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M207">
-        <v>1.869</v>
+        <v>1.909</v>
       </c>
       <c r="N207">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O207">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P207">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Q207">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R207">
         <v>1.85</v>
@@ -18915,34 +18915,34 @@
         <v>2</v>
       </c>
       <c r="T207">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V207">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
         <v>1</v>
-      </c>
-      <c r="Z207">
-        <v>-1</v>
-      </c>
-      <c r="AA207">
-        <v>1</v>
-      </c>
-      <c r="AB207">
-        <v>0</v>
-      </c>
-      <c r="AC207">
-        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5981917</v>
+        <v>5982259</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,49 +18962,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208" t="s">
+        <v>46</v>
+      </c>
+      <c r="K208">
+        <v>2.55</v>
+      </c>
+      <c r="L208">
+        <v>3.4</v>
+      </c>
+      <c r="M208">
+        <v>2.6</v>
+      </c>
+      <c r="N208">
+        <v>2.6</v>
+      </c>
+      <c r="O208">
+        <v>3.6</v>
+      </c>
+      <c r="P208">
+        <v>2.6</v>
+      </c>
+      <c r="Q208">
         <v>0</v>
       </c>
-      <c r="I208">
-        <v>1</v>
-      </c>
-      <c r="J208" t="s">
-        <v>47</v>
-      </c>
-      <c r="K208">
-        <v>5.5</v>
-      </c>
-      <c r="L208">
-        <v>4</v>
-      </c>
-      <c r="M208">
-        <v>1.571</v>
-      </c>
-      <c r="N208">
-        <v>7</v>
-      </c>
-      <c r="O208">
-        <v>4.2</v>
-      </c>
-      <c r="P208">
-        <v>1.5</v>
-      </c>
-      <c r="Q208">
-        <v>1.25</v>
-      </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S208">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U208">
         <v>1.9</v>
@@ -19016,22 +19016,22 @@
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y208">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5982259</v>
+        <v>5981917</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,49 +19051,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G209" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K209">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="L209">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M209">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N209">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="O209">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P209">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R209">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T209">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
         <v>1.9</v>
@@ -19105,22 +19105,22 @@
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB209">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19140,10 +19140,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19229,10 +19229,10 @@
         <v>45220.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19410,7 +19410,7 @@
         <v>30</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19499,7 +19499,7 @@
         <v>39</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H214">
         <v>4</v>
@@ -19852,7 +19852,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G218" t="s">
         <v>30</v>
@@ -19944,7 +19944,7 @@
         <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5982274</v>
+        <v>5982273</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,76 +20030,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G220" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220">
+        <v>3</v>
+      </c>
+      <c r="J220" t="s">
+        <v>47</v>
+      </c>
+      <c r="K220">
+        <v>2.15</v>
+      </c>
+      <c r="L220">
+        <v>3.3</v>
+      </c>
+      <c r="M220">
+        <v>3.1</v>
+      </c>
+      <c r="N220">
+        <v>2.1</v>
+      </c>
+      <c r="O220">
+        <v>3.5</v>
+      </c>
+      <c r="P220">
+        <v>3.3</v>
+      </c>
+      <c r="Q220">
+        <v>-0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.85</v>
+      </c>
+      <c r="S220">
+        <v>2</v>
+      </c>
+      <c r="T220">
+        <v>2.5</v>
+      </c>
+      <c r="U220">
+        <v>1.85</v>
+      </c>
+      <c r="V220">
+        <v>2</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>2.3</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
         <v>1</v>
       </c>
-      <c r="J220" t="s">
-        <v>45</v>
-      </c>
-      <c r="K220">
-        <v>4</v>
-      </c>
-      <c r="L220">
-        <v>3.6</v>
-      </c>
-      <c r="M220">
-        <v>1.75</v>
-      </c>
-      <c r="N220">
-        <v>4.75</v>
-      </c>
-      <c r="O220">
-        <v>3.8</v>
-      </c>
-      <c r="P220">
-        <v>1.75</v>
-      </c>
-      <c r="Q220">
-        <v>0.75</v>
-      </c>
-      <c r="R220">
-        <v>1.925</v>
-      </c>
-      <c r="S220">
-        <v>1.925</v>
-      </c>
-      <c r="T220">
-        <v>3</v>
-      </c>
-      <c r="U220">
-        <v>1.925</v>
-      </c>
-      <c r="V220">
-        <v>1.925</v>
-      </c>
-      <c r="W220">
-        <v>3.75</v>
-      </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
-      <c r="Y220">
-        <v>-1</v>
-      </c>
-      <c r="Z220">
-        <v>0.925</v>
-      </c>
-      <c r="AA220">
-        <v>-1</v>
-      </c>
       <c r="AB220">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5982273</v>
+        <v>5981920</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,49 +20119,49 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G221" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
         <v>1</v>
-      </c>
-      <c r="I221">
-        <v>3</v>
       </c>
       <c r="J221" t="s">
         <v>47</v>
       </c>
       <c r="K221">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="L221">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M221">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="N221">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O221">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P221">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R221">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S221">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T221">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U221">
         <v>1.85</v>
@@ -20176,19 +20176,19 @@
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>2.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA221">
+        <v>-0.5</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
         <v>1</v>
-      </c>
-      <c r="AB221">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC221">
-        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5981920</v>
+        <v>5982274</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20208,76 +20208,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G222" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222">
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K222">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N222">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O222">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P222">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q222">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R222">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S222">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T222">
         <v>3</v>
       </c>
       <c r="U222">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V222">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC222">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20386,10 +20386,10 @@
         <v>45229.625</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20567,7 +20567,7 @@
         <v>42</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -20656,7 +20656,7 @@
         <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -20834,7 +20834,7 @@
         <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H229">
         <v>3</v>
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5982280</v>
+        <v>5982278</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45235.5625</v>
       </c>
       <c r="F230" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G230" t="s">
         <v>37</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230">
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K230">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L230">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M230">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N230">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="O230">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P230">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R230">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T230">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U230">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y230">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1.07</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB230">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC230">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5982278</v>
+        <v>5982280</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45235.5625</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
         <v>38</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K231">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L231">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M231">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N231">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="O231">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P231">
-        <v>8.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q231">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S231">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="T231">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8999999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AB231">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21098,7 +21098,7 @@
         <v>45236.625</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G232" t="s">
         <v>43</v>
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5982285</v>
+        <v>5982284</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,58 +21276,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H234">
         <v>2</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J234" t="s">
         <v>45</v>
       </c>
       <c r="K234">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L234">
         <v>3.6</v>
       </c>
       <c r="M234">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N234">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O234">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P234">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R234">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S234">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T234">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U234">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V234">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W234">
-        <v>1.2</v>
+        <v>0.615</v>
       </c>
       <c r="X234">
         <v>-1</v>
@@ -21336,7 +21336,7 @@
         <v>-1</v>
       </c>
       <c r="Z234">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA234">
         <v>-1</v>
@@ -21345,7 +21345,7 @@
         <v>-1</v>
       </c>
       <c r="AC234">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5981924</v>
+        <v>5981925</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,58 +21365,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H235">
+        <v>2</v>
+      </c>
+      <c r="I235">
         <v>1</v>
-      </c>
-      <c r="I235">
-        <v>0</v>
       </c>
       <c r="J235" t="s">
         <v>45</v>
       </c>
       <c r="K235">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L235">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M235">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N235">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="O235">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P235">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q235">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R235">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V235">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W235">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21425,16 +21425,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA235">
+        <v>-1</v>
+      </c>
+      <c r="AB235">
+        <v>0.5125</v>
+      </c>
+      <c r="AC235">
         <v>-0.5</v>
-      </c>
-      <c r="AB235">
-        <v>-1</v>
-      </c>
-      <c r="AC235">
-        <v>0.95</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21543,7 +21543,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G237" t="s">
         <v>34</v>
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5982284</v>
+        <v>5981924</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,13 +21632,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -21647,43 +21647,43 @@
         <v>45</v>
       </c>
       <c r="K238">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L238">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M238">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N238">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="O238">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="P238">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q238">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T238">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W238">
-        <v>0.615</v>
+        <v>0.7</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21692,16 +21692,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AA238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>5981925</v>
+        <v>5982285</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,10 +21810,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G240" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H240">
         <v>2</v>
@@ -21825,25 +21825,25 @@
         <v>45</v>
       </c>
       <c r="K240">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L240">
         <v>3.6</v>
       </c>
       <c r="M240">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="N240">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="O240">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P240">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="Q240">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R240">
         <v>1.975</v>
@@ -21852,16 +21852,16 @@
         <v>1.875</v>
       </c>
       <c r="T240">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="U240">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V240">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W240">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="X240">
         <v>-1</v>
@@ -21876,10 +21876,10 @@
         <v>-1</v>
       </c>
       <c r="AB240">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC240">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21899,7 +21899,7 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G241" t="s">
         <v>35</v>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -127,19 +127,19 @@
     <t>Elfsborg</t>
   </si>
   <si>
-    <t>Degerfors</t>
+    <t>Brommapojkarna</t>
   </si>
   <si>
-    <t>Brommapojkarna</t>
+    <t>Degerfors</t>
   </si>
   <si>
     <t>BK Hacken</t>
   </si>
   <si>
-    <t>Sirius</t>
+    <t>Kalmar FF</t>
   </si>
   <si>
-    <t>Kalmar FF</t>
+    <t>Sirius</t>
   </si>
   <si>
     <t>IFK Varnamo</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5982118</v>
+        <v>5981871</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,46 +1343,46 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>5.25</v>
+      </c>
+      <c r="L10">
+        <v>4.2</v>
+      </c>
+      <c r="M10">
+        <v>1.571</v>
+      </c>
+      <c r="N10">
+        <v>6.5</v>
+      </c>
+      <c r="O10">
+        <v>4.75</v>
+      </c>
+      <c r="P10">
+        <v>1.45</v>
+      </c>
+      <c r="Q10">
+        <v>1.25</v>
+      </c>
+      <c r="R10">
+        <v>1.89</v>
+      </c>
+      <c r="S10">
+        <v>2.01</v>
+      </c>
+      <c r="T10">
         <v>3</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>2.25</v>
-      </c>
-      <c r="L10">
-        <v>3.3</v>
-      </c>
-      <c r="M10">
-        <v>3.25</v>
-      </c>
-      <c r="N10">
-        <v>2.5</v>
-      </c>
-      <c r="O10">
-        <v>3.4</v>
-      </c>
-      <c r="P10">
-        <v>2.875</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1.85</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
       </c>
       <c r="U10">
         <v>1.95</v>
@@ -1391,25 +1391,25 @@
         <v>1.9</v>
       </c>
       <c r="W10">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>0.445</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB10">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5981871</v>
+        <v>5982118</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,46 +1432,46 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M11">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="N11">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="O11">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="S11">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
         <v>1.95</v>
@@ -1480,25 +1480,25 @@
         <v>1.9</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.445</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1595,7 +1595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5981870</v>
+        <v>5982116</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,73 +1610,73 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>1.85</v>
       </c>
       <c r="L13">
+        <v>3.5</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>3.4</v>
+      </c>
+      <c r="P13">
         <v>3.8</v>
       </c>
-      <c r="M13">
-        <v>1.65</v>
-      </c>
-      <c r="N13">
-        <v>3.6</v>
-      </c>
-      <c r="O13">
-        <v>3.5</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
       <c r="Q13">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.86</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>2.04</v>
+        <v>1.825</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8600000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5982116</v>
+        <v>5981870</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,73 +1699,73 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="L14">
+        <v>3.8</v>
+      </c>
+      <c r="M14">
+        <v>1.65</v>
+      </c>
+      <c r="N14">
+        <v>3.6</v>
+      </c>
+      <c r="O14">
         <v>3.5</v>
       </c>
-      <c r="M14">
-        <v>4</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>3.4</v>
-      </c>
       <c r="P14">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="Q14">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R14">
-        <v>2.025</v>
+        <v>1.86</v>
       </c>
       <c r="S14">
-        <v>1.825</v>
+        <v>2.04</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.025</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.45</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>5</v>
@@ -2144,7 +2144,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5982121</v>
+        <v>5982120</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,59 +2230,59 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>45</v>
       </c>
       <c r="K20">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N20">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P20">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1.85</v>
+      </c>
+      <c r="W20">
         <v>1.875</v>
       </c>
-      <c r="V20">
-        <v>1.975</v>
-      </c>
-      <c r="W20">
-        <v>0.7</v>
-      </c>
       <c r="X20">
         <v>-1</v>
       </c>
@@ -2290,16 +2290,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="AA20">
+        <v>-1</v>
+      </c>
+      <c r="AB20">
         <v>-0.5</v>
       </c>
-      <c r="AB20">
-        <v>0.875</v>
-      </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5982120</v>
+        <v>5982121</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45032.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>45</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O21">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="Q21">
+        <v>-0.75</v>
+      </c>
+      <c r="R21">
+        <v>1.9</v>
+      </c>
+      <c r="S21">
+        <v>1.95</v>
+      </c>
+      <c r="T21">
         <v>2.5</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>2.05</v>
-      </c>
-      <c r="S21">
-        <v>1.8</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>1.875</v>
+        <v>0.7</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,16 +2379,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5981873</v>
+        <v>5982124</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2423,43 +2423,43 @@
         <v>45</v>
       </c>
       <c r="K22">
+        <v>1.85</v>
+      </c>
+      <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>3.8</v>
+      </c>
+      <c r="N22">
+        <v>1.8</v>
+      </c>
+      <c r="O22">
         <v>3.6</v>
       </c>
-      <c r="L22">
-        <v>3.3</v>
-      </c>
-      <c r="M22">
-        <v>1.909</v>
-      </c>
-      <c r="N22">
-        <v>3.4</v>
-      </c>
-      <c r="O22">
-        <v>3.5</v>
-      </c>
       <c r="P22">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q22">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T22">
         <v>2.5</v>
       </c>
       <c r="U22">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W22">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2468,7 +2468,7 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2477,7 +2477,7 @@
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5982124</v>
+        <v>5981873</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,10 +2497,10 @@
         <v>45032.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H23">
         <v>2</v>
@@ -2512,61 +2512,61 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
+        <v>3.3</v>
+      </c>
+      <c r="M23">
+        <v>1.909</v>
+      </c>
+      <c r="N23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>3.8</v>
-      </c>
-      <c r="N23">
+      <c r="O23">
+        <v>3.5</v>
+      </c>
+      <c r="P23">
+        <v>2.1</v>
+      </c>
+      <c r="Q23">
+        <v>0.25</v>
+      </c>
+      <c r="R23">
+        <v>2.05</v>
+      </c>
+      <c r="S23">
         <v>1.8</v>
-      </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
-      <c r="P23">
-        <v>4.5</v>
-      </c>
-      <c r="Q23">
-        <v>-0.75</v>
-      </c>
-      <c r="R23">
-        <v>2.07</v>
-      </c>
-      <c r="S23">
-        <v>1.83</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
+        <v>2.4</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
+        <v>1.05</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.8</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>1.07</v>
-      </c>
-      <c r="AA23">
-        <v>-1</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>45038.52083333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
         <v>36</v>
@@ -3031,7 +3031,7 @@
         <v>45039.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -3120,7 +3120,7 @@
         <v>45039.52083333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
         <v>39</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5982129</v>
+        <v>5982130</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,13 +3209,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3224,43 +3224,43 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L31">
         <v>3.3</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3269,16 +3269,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5982130</v>
+        <v>5982129</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,13 +3298,13 @@
         <v>45040.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3313,43 +3313,43 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L32">
         <v>3.3</v>
       </c>
       <c r="M32">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P32">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3358,16 +3358,16 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
         <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3479,7 +3479,7 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -3657,7 +3657,7 @@
         <v>34</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3924,7 +3924,7 @@
         <v>43</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>45046.52083333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>5982142</v>
+        <v>5982140</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M42">
-        <v>2.55</v>
+        <v>5.75</v>
       </c>
       <c r="N42">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="O42">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P42">
+        <v>8</v>
+      </c>
+      <c r="Q42">
+        <v>-1.25</v>
+      </c>
+      <c r="R42">
+        <v>2.01</v>
+      </c>
+      <c r="S42">
+        <v>1.89</v>
+      </c>
+      <c r="T42">
         <v>2.75</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42">
-        <v>1.85</v>
-      </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X42">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5982140</v>
+        <v>5982141</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4277,73 +4277,73 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M43">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="N43">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="O43">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P43">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="Q43">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>2.01</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
-        <v>1.89</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>1.01</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB43">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5982141</v>
+        <v>5981878</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,34 +4366,34 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
         <v>3.6</v>
       </c>
       <c r="M44">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="O44">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
         <v>4.2</v>
@@ -4402,37 +4402,37 @@
         <v>-0.5</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X44">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5981878</v>
+        <v>5982142</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>45049.58333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L45">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M45">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="N45">
-        <v>1.833</v>
+        <v>2.8</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
         <v>1.85</v>
       </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4547,7 +4547,7 @@
         <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H46">
         <v>6</v>
@@ -4636,7 +4636,7 @@
         <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5982146</v>
+        <v>5982148</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,46 +5078,46 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
+        <v>2.5</v>
+      </c>
+      <c r="N52">
+        <v>2.8</v>
+      </c>
+      <c r="O52">
+        <v>3.5</v>
+      </c>
+      <c r="P52">
+        <v>2.4</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
         <v>2.1</v>
       </c>
-      <c r="N52">
-        <v>3.1</v>
-      </c>
-      <c r="O52">
-        <v>3.6</v>
-      </c>
-      <c r="P52">
-        <v>2.2</v>
-      </c>
-      <c r="Q52">
-        <v>0.25</v>
-      </c>
-      <c r="R52">
-        <v>1.925</v>
-      </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
         <v>2.75</v>
@@ -5132,22 +5132,22 @@
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA52">
+        <v>-0</v>
+      </c>
+      <c r="AB52">
+        <v>-1</v>
+      </c>
+      <c r="AC52">
         <v>0.925</v>
-      </c>
-      <c r="AB52">
-        <v>0.925</v>
-      </c>
-      <c r="AC52">
-        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5982148</v>
+        <v>5982146</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,46 +5256,46 @@
         <v>45054.58333333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N54">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
         <v>2.75</v>
@@ -5310,22 +5310,22 @@
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5615,7 +5615,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>6</v>
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5982153</v>
+        <v>5981882</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,49 +5790,49 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60">
         <v>3</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>45</v>
       </c>
       <c r="K60">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L60">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="O60">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P60">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.77</v>
+        <v>2.1</v>
       </c>
       <c r="S60">
-        <v>2.14</v>
+        <v>1.775</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
         <v>1.975</v>
@@ -5841,7 +5841,7 @@
         <v>1.875</v>
       </c>
       <c r="W60">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5850,7 +5850,7 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.77</v>
+        <v>1.1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5981882</v>
+        <v>5982153</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,49 +5879,49 @@
         <v>45060.41666666666</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
         <v>45</v>
       </c>
       <c r="K61">
+        <v>2.15</v>
+      </c>
+      <c r="L61">
+        <v>3.3</v>
+      </c>
+      <c r="M61">
+        <v>3.2</v>
+      </c>
+      <c r="N61">
+        <v>2.45</v>
+      </c>
+      <c r="O61">
+        <v>3.2</v>
+      </c>
+      <c r="P61">
+        <v>3</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>1.77</v>
+      </c>
+      <c r="S61">
+        <v>2.14</v>
+      </c>
+      <c r="T61">
         <v>2.25</v>
-      </c>
-      <c r="L61">
-        <v>3.4</v>
-      </c>
-      <c r="M61">
-        <v>3</v>
-      </c>
-      <c r="N61">
-        <v>2.4</v>
-      </c>
-      <c r="O61">
-        <v>3.4</v>
-      </c>
-      <c r="P61">
-        <v>2.9</v>
-      </c>
-      <c r="Q61">
-        <v>-0.25</v>
-      </c>
-      <c r="R61">
-        <v>2.1</v>
-      </c>
-      <c r="S61">
-        <v>1.775</v>
-      </c>
-      <c r="T61">
-        <v>2.5</v>
       </c>
       <c r="U61">
         <v>1.975</v>
@@ -5930,7 +5930,7 @@
         <v>1.875</v>
       </c>
       <c r="W61">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5939,7 +5939,7 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>1.1</v>
+        <v>0.77</v>
       </c>
       <c r="AA61">
         <v>-1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5981883</v>
+        <v>5982152</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,55 +6057,55 @@
         <v>45060.52083333334</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>5.25</v>
+        <v>1.533</v>
       </c>
       <c r="L63">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>1.533</v>
+        <v>5.5</v>
       </c>
       <c r="N63">
-        <v>6.5</v>
+        <v>1.727</v>
       </c>
       <c r="O63">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P63">
-        <v>1.45</v>
+        <v>4.75</v>
       </c>
       <c r="Q63">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V63">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6114,19 +6114,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.45</v>
+        <v>3.75</v>
       </c>
       <c r="Z63">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5982152</v>
+        <v>5981883</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,55 +6146,55 @@
         <v>45060.52083333334</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>1</v>
-      </c>
-      <c r="I64">
-        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>47</v>
       </c>
       <c r="K64">
+        <v>5.25</v>
+      </c>
+      <c r="L64">
+        <v>4.2</v>
+      </c>
+      <c r="M64">
         <v>1.533</v>
       </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-      <c r="M64">
-        <v>5.5</v>
-      </c>
       <c r="N64">
-        <v>1.727</v>
+        <v>6.5</v>
       </c>
       <c r="O64">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P64">
-        <v>4.75</v>
+        <v>1.45</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>1.25</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
         <v>-1</v>
@@ -6203,19 +6203,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>3.75</v>
+        <v>0.45</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA64">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6324,7 +6324,7 @@
         <v>45066.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
         <v>44</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5982159</v>
+        <v>5981885</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,73 +6413,73 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H67">
         <v>2</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>1.85</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P67">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U67">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5981885</v>
+        <v>5981884</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,49 +6502,49 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>2</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N68">
-        <v>1.7</v>
+        <v>1.571</v>
       </c>
       <c r="O68">
         <v>4</v>
       </c>
       <c r="P68">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>2.07</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.83</v>
       </c>
       <c r="T68">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
         <v>2.025</v>
@@ -6553,25 +6553,25 @@
         <v>1.825</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X68">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.07</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5981884</v>
+        <v>5982159</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,58 +6591,58 @@
         <v>45067.41666666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H69">
         <v>2</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>45</v>
       </c>
       <c r="K69">
-        <v>1.533</v>
+        <v>1.85</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N69">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="S69">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
         <v>2.5</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>0.571</v>
+        <v>0.95</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6651,16 +6651,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5982155</v>
+        <v>5982157</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45067.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="L70">
         <v>3.3</v>
       </c>
       <c r="M70">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="N70">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P70">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S70">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z70">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC70">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5982157</v>
+        <v>5982155</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45067.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>1</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="L71">
         <v>3.3</v>
       </c>
       <c r="M71">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="N71">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O71">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="Q71">
+        <v>0.25</v>
+      </c>
+      <c r="R71">
+        <v>1.775</v>
+      </c>
+      <c r="S71">
+        <v>2.1</v>
+      </c>
+      <c r="T71">
+        <v>2.25</v>
+      </c>
+      <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
+        <v>2.025</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>2.4</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
+        <v>0.3875</v>
+      </c>
+      <c r="AA71">
         <v>-0.5</v>
       </c>
-      <c r="R71">
-        <v>1.875</v>
-      </c>
-      <c r="S71">
-        <v>1.975</v>
-      </c>
-      <c r="T71">
-        <v>2.5</v>
-      </c>
-      <c r="U71">
-        <v>1.85</v>
-      </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
-      <c r="W71">
-        <v>-1</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>3</v>
-      </c>
-      <c r="Z71">
-        <v>-1</v>
-      </c>
-      <c r="AA71">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AB71">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6861,7 +6861,7 @@
         <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>45071.58333333334</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -7303,10 +7303,10 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5982163</v>
+        <v>5981886</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,58 +7392,58 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>45</v>
       </c>
       <c r="K78">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L78">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="O78">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
         <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7452,16 +7452,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5981886</v>
+        <v>5982163</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,58 +7481,58 @@
         <v>45074.41666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G79" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>45</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="N79">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P79">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
         <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.8500000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7541,16 +7541,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7659,7 +7659,7 @@
         <v>45075.58333333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
         <v>43</v>
@@ -8018,7 +8018,7 @@
         <v>32</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5982167</v>
+        <v>5982170</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,76 +8104,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>46</v>
       </c>
       <c r="K86">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L86">
+        <v>3.3</v>
+      </c>
+      <c r="M86">
+        <v>2.15</v>
+      </c>
+      <c r="N86">
         <v>3.2</v>
       </c>
-      <c r="M86">
-        <v>3.1</v>
-      </c>
-      <c r="N86">
-        <v>2.2</v>
-      </c>
       <c r="O86">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P86">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>0.4125</v>
+      </c>
+      <c r="AA86">
         <v>-0.5</v>
       </c>
-      <c r="AA86">
-        <v>0.51</v>
-      </c>
       <c r="AB86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8181,7 +8181,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5982170</v>
+        <v>5982167</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8193,76 +8193,76 @@
         <v>45081.41666666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
         <v>46</v>
       </c>
       <c r="K87">
+        <v>2.2</v>
+      </c>
+      <c r="L87">
+        <v>3.2</v>
+      </c>
+      <c r="M87">
         <v>3.1</v>
       </c>
-      <c r="L87">
-        <v>3.3</v>
-      </c>
-      <c r="M87">
-        <v>2.15</v>
-      </c>
       <c r="N87">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O87">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P87">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>1.88</v>
       </c>
       <c r="S87">
-        <v>2.025</v>
+        <v>2.02</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5982171</v>
+        <v>5981889</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45081.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O88">
         <v>3.75</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5981889</v>
+        <v>5982171</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45081.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N89">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O89">
         <v>3.75</v>
       </c>
       <c r="P89">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q89">
         <v>-0.5</v>
       </c>
       <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.95</v>
+      </c>
+      <c r="T89">
+        <v>2.5</v>
+      </c>
+      <c r="U89">
         <v>1.825</v>
       </c>
-      <c r="S89">
+      <c r="V89">
         <v>2.025</v>
       </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
-      <c r="V89">
-        <v>1.875</v>
-      </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X89">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>1.025</v>
-      </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
-      <c r="AC89">
-        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -8641,7 +8641,7 @@
         <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5982177</v>
+        <v>5981891</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="L93">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N93">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="S93">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z93">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB93">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5981891</v>
+        <v>5982177</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45087.41666666666</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>3</v>
-      </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M94">
+        <v>5.75</v>
+      </c>
+      <c r="N94">
         <v>1.65</v>
       </c>
-      <c r="N94">
-        <v>5.25</v>
-      </c>
       <c r="O94">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P94">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="Q94">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U94">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA94">
-        <v>0.8899999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G96" t="s">
         <v>33</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5982184</v>
+        <v>5982183</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9353,7 +9353,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9365,25 +9365,25 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L100">
         <v>3.3</v>
       </c>
       <c r="M100">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N100">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P100">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,10 +9395,10 @@
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,7 +9407,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9419,7 +9419,7 @@
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5982183</v>
+        <v>5982184</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9442,7 +9442,7 @@
         <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9454,25 +9454,25 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
         <v>3.3</v>
       </c>
       <c r="M101">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
         <v>1.875</v>
@@ -9484,10 +9484,10 @@
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,7 +9496,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9508,7 +9508,7 @@
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9531,7 +9531,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H102">
         <v>3</v>
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5982182</v>
+        <v>5982180</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K106">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L106">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M106">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N106">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="O106">
+        <v>4.2</v>
+      </c>
+      <c r="P106">
+        <v>6</v>
+      </c>
+      <c r="Q106">
+        <v>-1</v>
+      </c>
+      <c r="R106">
+        <v>1.89</v>
+      </c>
+      <c r="S106">
+        <v>2.01</v>
+      </c>
+      <c r="T106">
         <v>3</v>
       </c>
-      <c r="P106">
-        <v>2.8</v>
-      </c>
-      <c r="Q106">
-        <v>0</v>
-      </c>
-      <c r="R106">
+      <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
         <v>1.9</v>
       </c>
-      <c r="S106">
-        <v>1.95</v>
-      </c>
-      <c r="T106">
-        <v>1.75</v>
-      </c>
-      <c r="U106">
-        <v>1.75</v>
-      </c>
-      <c r="V106">
-        <v>2.05</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X106">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5982180</v>
+        <v>5982182</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>46</v>
+      </c>
+      <c r="K107">
+        <v>2.7</v>
+      </c>
+      <c r="L107">
+        <v>3.1</v>
+      </c>
+      <c r="M107">
+        <v>2.7</v>
+      </c>
+      <c r="N107">
+        <v>2.75</v>
+      </c>
+      <c r="O107">
+        <v>3</v>
+      </c>
+      <c r="P107">
+        <v>2.8</v>
+      </c>
+      <c r="Q107">
         <v>0</v>
       </c>
-      <c r="J107" t="s">
-        <v>45</v>
-      </c>
-      <c r="K107">
-        <v>1.615</v>
-      </c>
-      <c r="L107">
-        <v>4</v>
-      </c>
-      <c r="M107">
-        <v>5.25</v>
-      </c>
-      <c r="N107">
-        <v>1.55</v>
-      </c>
-      <c r="O107">
-        <v>4.2</v>
-      </c>
-      <c r="P107">
-        <v>6</v>
-      </c>
-      <c r="Q107">
-        <v>-1</v>
-      </c>
       <c r="R107">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U107">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W107">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10240,10 +10240,10 @@
         <v>45115.52083333334</v>
       </c>
       <c r="F110" t="s">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s">
         <v>38</v>
-      </c>
-      <c r="G110" t="s">
-        <v>37</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5981894</v>
+        <v>5982188</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,10 +10329,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10344,40 +10344,40 @@
         <v>47</v>
       </c>
       <c r="K111">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L111">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N111">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O111">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>9.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q111">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>2.08</v>
+        <v>1.775</v>
       </c>
       <c r="S111">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10386,19 +10386,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.8200000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB111">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>5982188</v>
+        <v>5981894</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,10 +10418,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10433,41 +10433,41 @@
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M112">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="N112">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P112">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R112">
-        <v>1.775</v>
+        <v>2.08</v>
       </c>
       <c r="S112">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
+        <v>2</v>
+      </c>
+      <c r="V112">
         <v>1.85</v>
       </c>
-      <c r="V112">
-        <v>2</v>
-      </c>
       <c r="W112">
         <v>-1</v>
       </c>
@@ -10475,19 +10475,19 @@
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z112">
         <v>-1</v>
       </c>
       <c r="AA112">
-        <v>1.1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10507,7 +10507,7 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
         <v>36</v>
@@ -10863,10 +10863,10 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>5982192</v>
+        <v>5982191</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L119">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N119">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O119">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P119">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q119">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S119">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X119">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5982191</v>
+        <v>5982192</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L120">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M120">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N120">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O120">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P120">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R120">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>5981896</v>
+        <v>5982197</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N122">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O122">
         <v>3.4</v>
       </c>
       <c r="P122">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>5982197</v>
+        <v>5981896</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O123">
         <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>0.8</v>
+      </c>
+      <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>1</v>
-      </c>
-      <c r="Z123">
-        <v>-1</v>
-      </c>
-      <c r="AA123">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB123">
-        <v>0.925</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>45128.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -11756,7 +11756,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -12020,7 +12020,7 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
         <v>43</v>
@@ -12109,7 +12109,7 @@
         <v>45131.58333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
         <v>35</v>
@@ -12287,10 +12287,10 @@
         <v>45136.52083333334</v>
       </c>
       <c r="F133" t="s">
+        <v>38</v>
+      </c>
+      <c r="G133" t="s">
         <v>37</v>
-      </c>
-      <c r="G133" t="s">
-        <v>38</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12646,7 +12646,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5981899</v>
+        <v>5982208</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="L138">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M138">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N138">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O138">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>9.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q138">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V138">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W138">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>5982208</v>
+        <v>5981899</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,76 +12821,76 @@
         <v>45138.58333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K139">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="L139">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M139">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="N139">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="O139">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P139">
-        <v>2.15</v>
+        <v>9.5</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
         <v>0.825</v>
       </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
       <c r="AC139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>45143.41666666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
         <v>42</v>
@@ -13002,7 +13002,7 @@
         <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13088,7 +13088,7 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G142" t="s">
         <v>44</v>
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5981902</v>
+        <v>5982215</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>3</v>
       </c>
-      <c r="I143">
+      <c r="J143" t="s">
+        <v>47</v>
+      </c>
+      <c r="K143">
+        <v>2.75</v>
+      </c>
+      <c r="L143">
+        <v>3.1</v>
+      </c>
+      <c r="M143">
+        <v>2.5</v>
+      </c>
+      <c r="N143">
+        <v>2.8</v>
+      </c>
+      <c r="O143">
+        <v>3.4</v>
+      </c>
+      <c r="P143">
+        <v>2.5</v>
+      </c>
+      <c r="Q143">
         <v>0</v>
       </c>
-      <c r="J143" t="s">
-        <v>45</v>
-      </c>
-      <c r="K143">
-        <v>1.285</v>
-      </c>
-      <c r="L143">
-        <v>5.5</v>
-      </c>
-      <c r="M143">
-        <v>9</v>
-      </c>
-      <c r="N143">
-        <v>1.3</v>
-      </c>
-      <c r="O143">
-        <v>5.5</v>
-      </c>
-      <c r="P143">
-        <v>9.5</v>
-      </c>
-      <c r="Q143">
-        <v>-1.5</v>
-      </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U143">
+        <v>1.875</v>
+      </c>
+      <c r="V143">
         <v>1.975</v>
       </c>
-      <c r="V143">
-        <v>1.875</v>
-      </c>
       <c r="W143">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z143">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB143">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>5982215</v>
+        <v>5981902</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F144" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
+        <v>3</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
+      <c r="J144" t="s">
+        <v>45</v>
+      </c>
+      <c r="K144">
+        <v>1.285</v>
+      </c>
+      <c r="L144">
+        <v>5.5</v>
+      </c>
+      <c r="M144">
+        <v>9</v>
+      </c>
+      <c r="N144">
+        <v>1.3</v>
+      </c>
+      <c r="O144">
+        <v>5.5</v>
+      </c>
+      <c r="P144">
+        <v>9.5</v>
+      </c>
+      <c r="Q144">
+        <v>-1.5</v>
+      </c>
+      <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
         <v>3</v>
       </c>
-      <c r="J144" t="s">
-        <v>47</v>
-      </c>
-      <c r="K144">
-        <v>2.75</v>
-      </c>
-      <c r="L144">
-        <v>3.1</v>
-      </c>
-      <c r="M144">
-        <v>2.5</v>
-      </c>
-      <c r="N144">
-        <v>2.8</v>
-      </c>
-      <c r="O144">
-        <v>3.4</v>
-      </c>
-      <c r="P144">
-        <v>2.5</v>
-      </c>
-      <c r="Q144">
+      <c r="U144">
+        <v>1.975</v>
+      </c>
+      <c r="V144">
+        <v>1.875</v>
+      </c>
+      <c r="W144">
+        <v>0.3</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.95</v>
+      </c>
+      <c r="AA144">
+        <v>-1</v>
+      </c>
+      <c r="AB144">
         <v>0</v>
       </c>
-      <c r="R144">
-        <v>2.06</v>
-      </c>
-      <c r="S144">
-        <v>1.84</v>
-      </c>
-      <c r="T144">
-        <v>2</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.975</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>1.5</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
-      <c r="AA144">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AB144">
-        <v>0.875</v>
-      </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13447,7 +13447,7 @@
         <v>44</v>
       </c>
       <c r="G146" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5981903</v>
+        <v>5982220</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,58 +13533,58 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F147" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
         <v>45</v>
       </c>
       <c r="K147">
+        <v>2.3</v>
+      </c>
+      <c r="L147">
+        <v>3.4</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>2.05</v>
+      </c>
+      <c r="O147">
         <v>3.6</v>
       </c>
-      <c r="L147">
-        <v>3.5</v>
-      </c>
-      <c r="M147">
-        <v>2</v>
-      </c>
-      <c r="N147">
-        <v>3.5</v>
-      </c>
-      <c r="O147">
-        <v>3.4</v>
-      </c>
       <c r="P147">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S147">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W147">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13593,16 +13593,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>5982220</v>
+        <v>5981903</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,58 +13622,58 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>45</v>
       </c>
       <c r="K148">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L148">
+        <v>3.5</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>3.5</v>
+      </c>
+      <c r="O148">
         <v>3.4</v>
       </c>
-      <c r="M148">
-        <v>3</v>
-      </c>
-      <c r="N148">
-        <v>2.05</v>
-      </c>
-      <c r="O148">
-        <v>3.6</v>
-      </c>
       <c r="P148">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U148">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13682,16 +13682,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5982221</v>
+        <v>5981904</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
         <v>0</v>
       </c>
-      <c r="I152">
-        <v>1</v>
-      </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K152">
+        <v>4.5</v>
+      </c>
+      <c r="L152">
+        <v>3.8</v>
+      </c>
+      <c r="M152">
+        <v>1.727</v>
+      </c>
+      <c r="N152">
+        <v>4.333</v>
+      </c>
+      <c r="O152">
+        <v>3.75</v>
+      </c>
+      <c r="P152">
         <v>1.8</v>
       </c>
-      <c r="L152">
-        <v>3.75</v>
-      </c>
-      <c r="M152">
-        <v>4.2</v>
-      </c>
-      <c r="N152">
-        <v>1.75</v>
-      </c>
-      <c r="O152">
-        <v>4</v>
-      </c>
-      <c r="P152">
-        <v>4.333</v>
-      </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R152">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S152">
+        <v>2.025</v>
+      </c>
+      <c r="T152">
+        <v>2.5</v>
+      </c>
+      <c r="U152">
+        <v>2</v>
+      </c>
+      <c r="V152">
         <v>1.85</v>
       </c>
-      <c r="T152">
-        <v>2.75</v>
-      </c>
-      <c r="U152">
-        <v>1.925</v>
-      </c>
-      <c r="V152">
-        <v>1.925</v>
-      </c>
       <c r="W152">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA152">
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB152">
-        <v>-1</v>
-      </c>
-      <c r="AC152">
-        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5981904</v>
+        <v>5982221</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,76 +14067,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
         <v>1</v>
       </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M153">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="N153">
+        <v>1.75</v>
+      </c>
+      <c r="O153">
+        <v>4</v>
+      </c>
+      <c r="P153">
         <v>4.333</v>
       </c>
-      <c r="O153">
-        <v>3.75</v>
-      </c>
-      <c r="P153">
-        <v>1.8</v>
-      </c>
       <c r="Q153">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U153">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
         <v>3.333</v>
       </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>-1</v>
-      </c>
       <c r="Z153">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
         <v>34</v>
@@ -14245,7 +14245,7 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14426,7 +14426,7 @@
         <v>39</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -14690,7 +14690,7 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G160" t="s">
         <v>31</v>
@@ -14868,10 +14868,10 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15227,7 +15227,7 @@
         <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H166">
         <v>4</v>
@@ -15301,7 +15301,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5982229</v>
+        <v>5982231</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15313,58 +15313,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F167" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G167" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H167">
         <v>3</v>
       </c>
       <c r="I167">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
         <v>45</v>
       </c>
       <c r="K167">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="L167">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M167">
         <v>5.5</v>
       </c>
       <c r="N167">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O167">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P167">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q167">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R167">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T167">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U167">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V167">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W167">
-        <v>0.333</v>
+        <v>0.571</v>
       </c>
       <c r="X167">
         <v>-1</v>
@@ -15373,16 +15373,16 @@
         <v>-1</v>
       </c>
       <c r="Z167">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA167">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB167">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC167">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:29">
@@ -15390,7 +15390,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>5982231</v>
+        <v>5982229</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15402,58 +15402,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="s">
         <v>45</v>
       </c>
       <c r="K168">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M168">
         <v>5.5</v>
       </c>
       <c r="N168">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O168">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P168">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Q168">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W168">
-        <v>0.571</v>
+        <v>0.333</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15462,16 +15462,16 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15491,7 +15491,7 @@
         <v>45166.59027777778</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
         <v>29</v>
@@ -15583,7 +15583,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H170">
         <v>2</v>
@@ -15847,7 +15847,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G173" t="s">
         <v>35</v>
@@ -15936,7 +15936,7 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
         <v>39</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>5981909</v>
+        <v>5982239</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,76 +16114,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K176">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
         <v>2.375</v>
       </c>
       <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176">
+        <v>3.6</v>
+      </c>
+      <c r="P176">
+        <v>1.909</v>
+      </c>
+      <c r="Q176">
+        <v>0.5</v>
+      </c>
+      <c r="R176">
+        <v>1.925</v>
+      </c>
+      <c r="S176">
+        <v>1.925</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.925</v>
+      </c>
+      <c r="V176">
+        <v>1.925</v>
+      </c>
+      <c r="W176">
         <v>3</v>
       </c>
-      <c r="O176">
-        <v>3.3</v>
-      </c>
-      <c r="P176">
-        <v>2.45</v>
-      </c>
-      <c r="Q176">
-        <v>0.25</v>
-      </c>
-      <c r="R176">
-        <v>1.775</v>
-      </c>
-      <c r="S176">
-        <v>2.1</v>
-      </c>
-      <c r="T176">
-        <v>2.5</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.85</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA176">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>5982239</v>
+        <v>5981909</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,76 +16203,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K177">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
         <v>2.375</v>
       </c>
       <c r="N177">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q177">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U177">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC177">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>5982245</v>
+        <v>5982241</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,13 +16292,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H178">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16307,43 +16307,43 @@
         <v>45</v>
       </c>
       <c r="K178">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L178">
+        <v>3.4</v>
+      </c>
+      <c r="M178">
         <v>4</v>
       </c>
-      <c r="M178">
-        <v>4.75</v>
-      </c>
       <c r="N178">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O178">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P178">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,16 +16352,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>5982241</v>
+        <v>5982245</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,13 +16381,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F179" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16396,43 +16396,43 @@
         <v>45</v>
       </c>
       <c r="K179">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L179">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M179">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N179">
+        <v>1.363</v>
+      </c>
+      <c r="O179">
+        <v>5.5</v>
+      </c>
+      <c r="P179">
+        <v>7</v>
+      </c>
+      <c r="Q179">
+        <v>-1.5</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
         <v>1.85</v>
       </c>
-      <c r="O179">
-        <v>3.75</v>
-      </c>
-      <c r="P179">
-        <v>4</v>
-      </c>
-      <c r="Q179">
-        <v>-0.75</v>
-      </c>
-      <c r="R179">
-        <v>2.07</v>
-      </c>
-      <c r="S179">
-        <v>1.83</v>
-      </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W179">
-        <v>0.8500000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,16 +16441,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.5349999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16651,7 +16651,7 @@
         <v>36</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16918,7 +16918,7 @@
         <v>44</v>
       </c>
       <c r="G185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H185">
         <v>2</v>
@@ -17004,7 +17004,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
         <v>29</v>
@@ -17093,7 +17093,7 @@
         <v>45192.52083333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G187" t="s">
         <v>32</v>
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5981912</v>
+        <v>5982248</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K188">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M188">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N188">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V188">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W188">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5982248</v>
+        <v>5981912</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
         <v>0</v>
       </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K189">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N189">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17360,7 +17360,7 @@
         <v>45193.52083333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17541,7 +17541,7 @@
         <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -17808,7 +17808,7 @@
         <v>32</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17894,10 +17894,10 @@
         <v>45200.41666666666</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H196">
         <v>3</v>
@@ -18342,7 +18342,7 @@
         <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H201">
         <v>2</v>
@@ -18520,7 +18520,7 @@
         <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -18609,7 +18609,7 @@
         <v>33</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>5982263</v>
+        <v>5981916</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,40 +18695,40 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
         <v>0</v>
       </c>
-      <c r="I205">
-        <v>3</v>
-      </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>4</v>
       </c>
       <c r="L205">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M205">
-        <v>1.869</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O205">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P205">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R205">
         <v>1.85</v>
@@ -18737,34 +18737,34 @@
         <v>2</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
         <v>1</v>
-      </c>
-      <c r="Z205">
-        <v>-1</v>
-      </c>
-      <c r="AA205">
-        <v>1</v>
-      </c>
-      <c r="AB205">
-        <v>0</v>
-      </c>
-      <c r="AC205">
-        <v>-0</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5981916</v>
+        <v>5982263</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,40 +18873,40 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K207">
         <v>4</v>
       </c>
       <c r="L207">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M207">
-        <v>1.909</v>
+        <v>1.869</v>
       </c>
       <c r="N207">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O207">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="Q207">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R207">
         <v>1.85</v>
@@ -18915,34 +18915,34 @@
         <v>2</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W207">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5982259</v>
+        <v>5981917</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,49 +18962,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G208" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K208">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M208">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="N208">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="O208">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P208">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T208">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U208">
         <v>1.9</v>
@@ -19016,22 +19016,22 @@
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>5981917</v>
+        <v>5982259</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,49 +19051,49 @@
         <v>45207.52083333334</v>
       </c>
       <c r="F209" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>46</v>
+      </c>
+      <c r="K209">
+        <v>2.55</v>
+      </c>
+      <c r="L209">
+        <v>3.4</v>
+      </c>
+      <c r="M209">
+        <v>2.6</v>
+      </c>
+      <c r="N209">
+        <v>2.6</v>
+      </c>
+      <c r="O209">
+        <v>3.6</v>
+      </c>
+      <c r="P209">
+        <v>2.6</v>
+      </c>
+      <c r="Q209">
         <v>0</v>
       </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
-      <c r="J209" t="s">
-        <v>47</v>
-      </c>
-      <c r="K209">
-        <v>5.5</v>
-      </c>
-      <c r="L209">
-        <v>4</v>
-      </c>
-      <c r="M209">
-        <v>1.571</v>
-      </c>
-      <c r="N209">
-        <v>7</v>
-      </c>
-      <c r="O209">
-        <v>4.2</v>
-      </c>
-      <c r="P209">
-        <v>1.5</v>
-      </c>
-      <c r="Q209">
-        <v>1.25</v>
-      </c>
       <c r="R209">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S209">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T209">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U209">
         <v>1.9</v>
@@ -19105,22 +19105,22 @@
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y209">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC209">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19140,10 +19140,10 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H210">
         <v>1</v>
@@ -19229,10 +19229,10 @@
         <v>45220.52083333334</v>
       </c>
       <c r="F211" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G211" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19306,7 +19306,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>5982266</v>
+        <v>5981918</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19318,25 +19318,25 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F212" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="s">
         <v>46</v>
       </c>
       <c r="K212">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="L212">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M212">
         <v>2.875</v>
@@ -19345,34 +19345,34 @@
         <v>2.25</v>
       </c>
       <c r="O212">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P212">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q212">
         <v>-0.25</v>
       </c>
       <c r="R212">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S212">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T212">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W212">
         <v>-1</v>
       </c>
       <c r="X212">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Y212">
         <v>-1</v>
@@ -19381,13 +19381,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA212">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC212">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19395,7 +19395,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>5981918</v>
+        <v>5982266</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19407,25 +19407,25 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F213" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>46</v>
       </c>
       <c r="K213">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
         <v>2.875</v>
@@ -19434,34 +19434,34 @@
         <v>2.25</v>
       </c>
       <c r="O213">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q213">
         <v>-0.25</v>
       </c>
       <c r="R213">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S213">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U213">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -19470,13 +19470,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA213">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19852,7 +19852,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F218" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G218" t="s">
         <v>30</v>
@@ -19944,7 +19944,7 @@
         <v>43</v>
       </c>
       <c r="G219" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H219">
         <v>1</v>
@@ -20018,7 +20018,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>5982273</v>
+        <v>5981920</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20030,49 +20030,49 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
         <v>1</v>
-      </c>
-      <c r="I220">
-        <v>3</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
       </c>
       <c r="K220">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="L220">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M220">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="N220">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P220">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S220">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U220">
         <v>1.85</v>
@@ -20087,19 +20087,19 @@
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA220">
+        <v>-0.5</v>
+      </c>
+      <c r="AB220">
+        <v>-1</v>
+      </c>
+      <c r="AC220">
         <v>1</v>
-      </c>
-      <c r="AB220">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC220">
-        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20107,7 +20107,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>5981920</v>
+        <v>5982274</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20119,76 +20119,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F221" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G221" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221">
         <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K221">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="N221">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="O221">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="Q221">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R221">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
         <v>3</v>
       </c>
       <c r="U221">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="AA221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,7 +20196,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>5982274</v>
+        <v>5982273</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20208,76 +20208,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F222" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222">
+        <v>3</v>
+      </c>
+      <c r="J222" t="s">
+        <v>47</v>
+      </c>
+      <c r="K222">
+        <v>2.15</v>
+      </c>
+      <c r="L222">
+        <v>3.3</v>
+      </c>
+      <c r="M222">
+        <v>3.1</v>
+      </c>
+      <c r="N222">
+        <v>2.1</v>
+      </c>
+      <c r="O222">
+        <v>3.5</v>
+      </c>
+      <c r="P222">
+        <v>3.3</v>
+      </c>
+      <c r="Q222">
+        <v>-0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>2</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.85</v>
+      </c>
+      <c r="V222">
+        <v>2</v>
+      </c>
+      <c r="W222">
+        <v>-1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>2.3</v>
+      </c>
+      <c r="Z222">
+        <v>-1</v>
+      </c>
+      <c r="AA222">
         <v>1</v>
       </c>
-      <c r="J222" t="s">
-        <v>45</v>
-      </c>
-      <c r="K222">
-        <v>4</v>
-      </c>
-      <c r="L222">
-        <v>3.6</v>
-      </c>
-      <c r="M222">
-        <v>1.75</v>
-      </c>
-      <c r="N222">
-        <v>4.75</v>
-      </c>
-      <c r="O222">
-        <v>3.8</v>
-      </c>
-      <c r="P222">
-        <v>1.75</v>
-      </c>
-      <c r="Q222">
-        <v>0.75</v>
-      </c>
-      <c r="R222">
-        <v>1.925</v>
-      </c>
-      <c r="S222">
-        <v>1.925</v>
-      </c>
-      <c r="T222">
-        <v>3</v>
-      </c>
-      <c r="U222">
-        <v>1.925</v>
-      </c>
-      <c r="V222">
-        <v>1.925</v>
-      </c>
-      <c r="W222">
-        <v>3.75</v>
-      </c>
-      <c r="X222">
-        <v>-1</v>
-      </c>
-      <c r="Y222">
-        <v>-1</v>
-      </c>
-      <c r="Z222">
-        <v>0.925</v>
-      </c>
-      <c r="AA222">
-        <v>-1</v>
-      </c>
       <c r="AB222">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC222">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20389,7 +20389,7 @@
         <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20656,7 +20656,7 @@
         <v>30</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -20834,7 +20834,7 @@
         <v>34</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H229">
         <v>3</v>
@@ -20908,7 +20908,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5982278</v>
+        <v>5982280</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20920,76 +20920,76 @@
         <v>45235.5625</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
         <v>37</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K230">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="L230">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M230">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N230">
-        <v>1.285</v>
+        <v>2.5</v>
       </c>
       <c r="O230">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P230">
-        <v>8.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q230">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S230">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="T230">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U230">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V230">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z230">
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>0.8999999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="AB230">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20997,7 +20997,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>5982280</v>
+        <v>5982278</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21009,76 +21009,76 @@
         <v>45235.5625</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G231" t="s">
         <v>38</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231">
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K231">
-        <v>2.45</v>
+        <v>1.25</v>
       </c>
       <c r="L231">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="M231">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N231">
-        <v>2.5</v>
+        <v>1.285</v>
       </c>
       <c r="O231">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P231">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R231">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="T231">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y231">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1.07</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB231">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21264,7 +21264,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>5982284</v>
+        <v>5982287</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21276,76 +21276,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G234" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234">
+        <v>2</v>
+      </c>
+      <c r="J234" t="s">
+        <v>47</v>
+      </c>
+      <c r="K234">
+        <v>7</v>
+      </c>
+      <c r="L234">
+        <v>4.8</v>
+      </c>
+      <c r="M234">
+        <v>1.4</v>
+      </c>
+      <c r="N234">
+        <v>7.5</v>
+      </c>
+      <c r="O234">
+        <v>4.75</v>
+      </c>
+      <c r="P234">
+        <v>1.4</v>
+      </c>
+      <c r="Q234">
+        <v>1.25</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
+        <v>1.9</v>
+      </c>
+      <c r="T234">
+        <v>3</v>
+      </c>
+      <c r="U234">
+        <v>1.975</v>
+      </c>
+      <c r="V234">
+        <v>1.875</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>-1</v>
+      </c>
+      <c r="Y234">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="Z234">
+        <v>0.5</v>
+      </c>
+      <c r="AA234">
+        <v>-0.5</v>
+      </c>
+      <c r="AB234">
         <v>0</v>
       </c>
-      <c r="J234" t="s">
-        <v>45</v>
-      </c>
-      <c r="K234">
-        <v>1.909</v>
-      </c>
-      <c r="L234">
-        <v>3.6</v>
-      </c>
-      <c r="M234">
-        <v>3.4</v>
-      </c>
-      <c r="N234">
-        <v>1.615</v>
-      </c>
-      <c r="O234">
-        <v>4.5</v>
-      </c>
-      <c r="P234">
-        <v>4.75</v>
-      </c>
-      <c r="Q234">
-        <v>-1</v>
-      </c>
-      <c r="R234">
-        <v>2.025</v>
-      </c>
-      <c r="S234">
-        <v>1.825</v>
-      </c>
-      <c r="T234">
-        <v>3.5</v>
-      </c>
-      <c r="U234">
-        <v>2.025</v>
-      </c>
-      <c r="V234">
-        <v>1.825</v>
-      </c>
-      <c r="W234">
-        <v>0.615</v>
-      </c>
-      <c r="X234">
-        <v>-1</v>
-      </c>
-      <c r="Y234">
-        <v>-1</v>
-      </c>
-      <c r="Z234">
-        <v>1.025</v>
-      </c>
-      <c r="AA234">
-        <v>-1</v>
-      </c>
-      <c r="AB234">
-        <v>-1</v>
-      </c>
       <c r="AC234">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21353,7 +21353,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>5981925</v>
+        <v>5982282</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21365,13 +21365,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F235" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G235" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -21380,43 +21380,43 @@
         <v>45</v>
       </c>
       <c r="K235">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L235">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M235">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="N235">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="O235">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P235">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R235">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S235">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W235">
-        <v>2.3</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X235">
         <v>-1</v>
@@ -21425,16 +21425,16 @@
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA235">
         <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC235">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21442,7 +21442,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>5982282</v>
+        <v>5981924</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21454,16 +21454,16 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
         <v>45</v>
@@ -21472,28 +21472,28 @@
         <v>1.8</v>
       </c>
       <c r="L236">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N236">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O236">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="P236">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q236">
         <v>-0.75</v>
       </c>
       <c r="R236">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S236">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T236">
         <v>2.75</v>
@@ -21505,7 +21505,7 @@
         <v>1.95</v>
       </c>
       <c r="W236">
-        <v>0.7270000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X236">
         <v>-1</v>
@@ -21514,16 +21514,16 @@
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB236">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21620,7 +21620,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>5981924</v>
+        <v>5982284</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21632,13 +21632,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G238" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -21647,43 +21647,43 @@
         <v>45</v>
       </c>
       <c r="K238">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L238">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M238">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N238">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="O238">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P238">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R238">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S238">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U238">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V238">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
-        <v>0.7</v>
+        <v>0.615</v>
       </c>
       <c r="X238">
         <v>-1</v>
@@ -21692,16 +21692,16 @@
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AA238">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5982287</v>
+        <v>5982285</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
         <v>1</v>
       </c>
-      <c r="I239">
-        <v>2</v>
-      </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L239">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="M239">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="N239">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="O239">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P239">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q239">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
+        <v>1.875</v>
+      </c>
+      <c r="T239">
+        <v>3.75</v>
+      </c>
+      <c r="U239">
+        <v>1.95</v>
+      </c>
+      <c r="V239">
         <v>1.9</v>
       </c>
-      <c r="T239">
-        <v>3</v>
-      </c>
-      <c r="U239">
-        <v>1.975</v>
-      </c>
-      <c r="V239">
-        <v>1.875</v>
-      </c>
       <c r="W239">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC239">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>5982285</v>
+        <v>5982286</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21813,37 +21813,37 @@
         <v>38</v>
       </c>
       <c r="G240" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K240">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L240">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M240">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N240">
+        <v>3.25</v>
+      </c>
+      <c r="O240">
+        <v>3.4</v>
+      </c>
+      <c r="P240">
         <v>2.2</v>
       </c>
-      <c r="O240">
-        <v>4.333</v>
-      </c>
-      <c r="P240">
-        <v>2.75</v>
-      </c>
       <c r="Q240">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R240">
         <v>1.975</v>
@@ -21852,34 +21852,34 @@
         <v>1.875</v>
       </c>
       <c r="T240">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="U240">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V240">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
+        <v>-1</v>
+      </c>
+      <c r="Y240">
         <v>1.2</v>
       </c>
-      <c r="X240">
-        <v>-1</v>
-      </c>
-      <c r="Y240">
-        <v>-1</v>
-      </c>
       <c r="Z240">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA240">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB240">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC240">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:29">
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>5982286</v>
+        <v>5981925</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,37 +21899,37 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G241" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H241">
+        <v>2</v>
+      </c>
+      <c r="I241">
         <v>1</v>
       </c>
-      <c r="I241">
-        <v>2</v>
-      </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K241">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="L241">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M241">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N241">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P241">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q241">
         <v>0.25</v>
@@ -21941,34 +21941,34 @@
         <v>1.875</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U241">
+        <v>2.025</v>
+      </c>
+      <c r="V241">
         <v>1.825</v>
       </c>
-      <c r="V241">
-        <v>2.025</v>
-      </c>
       <c r="W241">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X241">
         <v>-1</v>
       </c>
       <c r="Y241">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA241">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB241">
-        <v>0.825</v>
+        <v>0.5125</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5982136</v>
+        <v>5982132</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,76 +3476,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N34">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="O34">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P34">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
         <v>2.5</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y34">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5982132</v>
+        <v>5982136</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45045.41666666666</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
+        <v>3.4</v>
+      </c>
+      <c r="O35">
+        <v>3.3</v>
+      </c>
+      <c r="P35">
+        <v>2.2</v>
+      </c>
+      <c r="Q35">
+        <v>0.25</v>
+      </c>
+      <c r="R35">
         <v>1.95</v>
       </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
-      <c r="Q35">
-        <v>-0.5</v>
-      </c>
-      <c r="R35">
-        <v>1.975</v>
-      </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z35">
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5981889</v>
+        <v>5982171</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45081.52083333334</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L88">
         <v>3.4</v>
       </c>
       <c r="M88">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
         <v>3.75</v>
       </c>
       <c r="P88">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
+        <v>1.9</v>
+      </c>
+      <c r="S88">
+        <v>1.95</v>
+      </c>
+      <c r="T88">
+        <v>2.5</v>
+      </c>
+      <c r="U88">
         <v>1.825</v>
       </c>
-      <c r="S88">
+      <c r="V88">
         <v>2.025</v>
       </c>
-      <c r="T88">
-        <v>2.75</v>
-      </c>
-      <c r="U88">
-        <v>1.975</v>
-      </c>
-      <c r="V88">
-        <v>1.875</v>
-      </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>1.025</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>0.875</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5982171</v>
+        <v>5981889</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45081.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L89">
         <v>3.4</v>
       </c>
       <c r="M89">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N89">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O89">
         <v>3.75</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q89">
         <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5982183</v>
+        <v>5982184</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,10 +9350,10 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9365,25 +9365,25 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L100">
         <v>3.3</v>
       </c>
       <c r="M100">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N100">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="O100">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
         <v>1.875</v>
@@ -9395,10 +9395,10 @@
         <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9407,7 +9407,7 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Z100">
         <v>-1</v>
@@ -9419,7 +9419,7 @@
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5982184</v>
+        <v>5982183</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,10 +9439,10 @@
         <v>45108.41666666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9454,25 +9454,25 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L101">
         <v>3.3</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
         <v>1.875</v>
@@ -9484,10 +9484,10 @@
         <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9496,7 +9496,7 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Z101">
         <v>-1</v>
@@ -9508,7 +9508,7 @@
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9872,7 +9872,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>5982180</v>
+        <v>5982182</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9884,76 +9884,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106">
+        <v>2.7</v>
+      </c>
+      <c r="L106">
+        <v>3.1</v>
+      </c>
+      <c r="M106">
+        <v>2.7</v>
+      </c>
+      <c r="N106">
+        <v>2.75</v>
+      </c>
+      <c r="O106">
+        <v>3</v>
+      </c>
+      <c r="P106">
+        <v>2.8</v>
+      </c>
+      <c r="Q106">
         <v>0</v>
       </c>
-      <c r="J106" t="s">
-        <v>45</v>
-      </c>
-      <c r="K106">
-        <v>1.615</v>
-      </c>
-      <c r="L106">
-        <v>4</v>
-      </c>
-      <c r="M106">
-        <v>5.25</v>
-      </c>
-      <c r="N106">
-        <v>1.55</v>
-      </c>
-      <c r="O106">
-        <v>4.2</v>
-      </c>
-      <c r="P106">
-        <v>6</v>
-      </c>
-      <c r="Q106">
-        <v>-1</v>
-      </c>
       <c r="R106">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W106">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC106">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>5982182</v>
+        <v>5982180</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,76 +9973,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L107">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N107">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="O107">
+        <v>4.2</v>
+      </c>
+      <c r="P107">
+        <v>6</v>
+      </c>
+      <c r="Q107">
+        <v>-1</v>
+      </c>
+      <c r="R107">
+        <v>1.89</v>
+      </c>
+      <c r="S107">
+        <v>2.01</v>
+      </c>
+      <c r="T107">
         <v>3</v>
       </c>
-      <c r="P107">
-        <v>2.8</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
+      <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
         <v>1.9</v>
       </c>
-      <c r="S107">
-        <v>1.95</v>
-      </c>
-      <c r="T107">
-        <v>1.75</v>
-      </c>
-      <c r="U107">
-        <v>1.75</v>
-      </c>
-      <c r="V107">
-        <v>2.05</v>
-      </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10584,7 +10584,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>5982187</v>
+        <v>5982186</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10596,10 +10596,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -10611,31 +10611,31 @@
         <v>47</v>
       </c>
       <c r="K114">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M114">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O114">
         <v>3.6</v>
       </c>
       <c r="P114">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q114">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>2.5</v>
@@ -10653,13 +10653,13 @@
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z114">
         <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB114">
         <v>0.95</v>
@@ -10673,7 +10673,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>5982186</v>
+        <v>5982187</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10685,10 +10685,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10700,31 +10700,31 @@
         <v>47</v>
       </c>
       <c r="K115">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L115">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N115">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O115">
         <v>3.6</v>
       </c>
       <c r="P115">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q115">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T115">
         <v>2.5</v>
@@ -10742,13 +10742,13 @@
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z115">
         <v>-1</v>
       </c>
       <c r="AA115">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
         <v>0.95</v>
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>5982199</v>
+        <v>5981897</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,67 +11753,67 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G127" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L127">
         <v>3.6</v>
       </c>
       <c r="M127">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O127">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P127">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S127">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T127">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
       <c r="AA127">
         <v>-0.5</v>
@@ -11822,7 +11822,7 @@
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11830,7 +11830,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>5981897</v>
+        <v>5982199</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11842,67 +11842,67 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K128">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L128">
         <v>3.6</v>
       </c>
       <c r="M128">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N128">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O128">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P128">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S128">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T128">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V128">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X128">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.4</v>
+        <v>0.4625</v>
       </c>
       <c r="AA128">
         <v>-0.5</v>
@@ -11911,7 +11911,7 @@
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>5982210</v>
+        <v>5981902</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,10 +13177,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,43 +13192,43 @@
         <v>45</v>
       </c>
       <c r="K143">
-        <v>2.05</v>
+        <v>1.285</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="M143">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N143">
-        <v>2.25</v>
+        <v>1.3</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="P143">
-        <v>3.3</v>
+        <v>9.5</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W143">
-        <v>1.25</v>
+        <v>0.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13237,16 +13237,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>5981902</v>
+        <v>5982210</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13355,10 +13355,10 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -13370,43 +13370,43 @@
         <v>45</v>
       </c>
       <c r="K145">
-        <v>1.285</v>
+        <v>2.05</v>
       </c>
       <c r="L145">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
-        <v>1.3</v>
+        <v>2.25</v>
       </c>
       <c r="O145">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q145">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
-        <v>0.3</v>
+        <v>1.25</v>
       </c>
       <c r="X145">
         <v>-1</v>
@@ -13415,16 +13415,16 @@
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="AA145">
         <v>-1</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC145">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13699,7 +13699,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>5982217</v>
+        <v>5982218</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13711,13 +13711,13 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -13726,43 +13726,43 @@
         <v>45</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="L149">
+        <v>6</v>
+      </c>
+      <c r="M149">
+        <v>11</v>
+      </c>
+      <c r="N149">
+        <v>1.333</v>
+      </c>
+      <c r="O149">
+        <v>6</v>
+      </c>
+      <c r="P149">
+        <v>8</v>
+      </c>
+      <c r="Q149">
+        <v>-1.5</v>
+      </c>
+      <c r="R149">
+        <v>1.84</v>
+      </c>
+      <c r="S149">
+        <v>2.06</v>
+      </c>
+      <c r="T149">
         <v>3.5</v>
       </c>
-      <c r="M149">
-        <v>2.25</v>
-      </c>
-      <c r="N149">
-        <v>3.3</v>
-      </c>
-      <c r="O149">
-        <v>3.4</v>
-      </c>
-      <c r="P149">
-        <v>2.2</v>
-      </c>
-      <c r="Q149">
-        <v>0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.94</v>
-      </c>
-      <c r="S149">
-        <v>1.96</v>
-      </c>
-      <c r="T149">
-        <v>2.5</v>
-      </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>2.3</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13771,7 +13771,7 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.9399999999999999</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA149">
         <v>-1</v>
@@ -13780,7 +13780,7 @@
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>5982218</v>
+        <v>5982219</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,76 +13800,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K150">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="N150">
-        <v>1.333</v>
+        <v>2.45</v>
       </c>
       <c r="O150">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="S150">
-        <v>2.06</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X150">
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z150">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB150">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5982219</v>
+        <v>5982217</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,76 +13889,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F151" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>1</v>
       </c>
       <c r="I151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K151">
         <v>3</v>
       </c>
       <c r="L151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M151">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N151">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="O151">
         <v>3.4</v>
       </c>
       <c r="P151">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R151">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="S151">
-        <v>1.775</v>
+        <v>1.96</v>
       </c>
       <c r="T151">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA151">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>5982234</v>
+        <v>5982232</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14868,13 +14868,13 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>3</v>
@@ -14883,40 +14883,40 @@
         <v>47</v>
       </c>
       <c r="K162">
+        <v>2.9</v>
+      </c>
+      <c r="L162">
+        <v>3.2</v>
+      </c>
+      <c r="M162">
         <v>2.375</v>
       </c>
-      <c r="L162">
-        <v>3.4</v>
-      </c>
-      <c r="M162">
-        <v>2.8</v>
-      </c>
       <c r="N162">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O162">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P162">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q162">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R162">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S162">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14925,16 +14925,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14945,7 +14945,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>5982232</v>
+        <v>5982234</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14957,13 +14957,13 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>3</v>
@@ -14972,40 +14972,40 @@
         <v>47</v>
       </c>
       <c r="K163">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M163">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O163">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P163">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R163">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S163">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
         <v>-1</v>
@@ -15014,16 +15014,16 @@
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB163">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>5982230</v>
+        <v>5981906</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,58 +15135,58 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F165" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H165">
         <v>4</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>45</v>
       </c>
       <c r="K165">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="L165">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M165">
-        <v>1.85</v>
+        <v>10</v>
       </c>
       <c r="N165">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="O165">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="P165">
-        <v>2.05</v>
+        <v>9.5</v>
       </c>
       <c r="Q165">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S165">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T165">
         <v>3</v>
       </c>
       <c r="U165">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>2.5</v>
+        <v>0.333</v>
       </c>
       <c r="X165">
         <v>-1</v>
@@ -15195,13 +15195,13 @@
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA165">
         <v>-1</v>
       </c>
       <c r="AB165">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
         <v>-1</v>
@@ -15212,7 +15212,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>5981906</v>
+        <v>5982230</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15224,58 +15224,58 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>4</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
         <v>45</v>
       </c>
       <c r="K166">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="L166">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M166">
-        <v>10</v>
+        <v>1.85</v>
       </c>
       <c r="N166">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="O166">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P166">
-        <v>9.5</v>
+        <v>2.05</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R166">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T166">
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V166">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>0.333</v>
+        <v>2.5</v>
       </c>
       <c r="X166">
         <v>-1</v>
@@ -15284,13 +15284,13 @@
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA166">
         <v>-1</v>
       </c>
       <c r="AB166">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC166">
         <v>-1</v>
@@ -17170,7 +17170,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>5981912</v>
+        <v>5982248</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17182,76 +17182,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K188">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M188">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N188">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q188">
         <v>0</v>
       </c>
       <c r="R188">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V188">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W188">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z188">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB188">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17259,7 +17259,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>5982248</v>
+        <v>5981912</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17271,76 +17271,76 @@
         <v>45193.41666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H189">
+        <v>2</v>
+      </c>
+      <c r="I189">
         <v>0</v>
       </c>
-      <c r="I189">
-        <v>1</v>
-      </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K189">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N189">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="Q189">
         <v>0</v>
       </c>
       <c r="R189">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>0.8</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -19484,7 +19484,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>5982265</v>
+        <v>5981919</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19496,40 +19496,40 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>45</v>
       </c>
       <c r="K214">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="L214">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="M214">
-        <v>5.25</v>
+        <v>15</v>
       </c>
       <c r="N214">
-        <v>1.363</v>
+        <v>1.09</v>
       </c>
       <c r="O214">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="P214">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="Q214">
-        <v>-1.5</v>
+        <v>-2.75</v>
       </c>
       <c r="R214">
         <v>1.95</v>
@@ -19538,16 +19538,16 @@
         <v>1.9</v>
       </c>
       <c r="T214">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U214">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V214">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W214">
-        <v>0.363</v>
+        <v>0.09000000000000008</v>
       </c>
       <c r="X214">
         <v>-1</v>
@@ -19562,7 +19562,7 @@
         <v>-1</v>
       </c>
       <c r="AB214">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC214">
         <v>-1</v>
@@ -19573,7 +19573,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>5981919</v>
+        <v>5982265</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19585,40 +19585,40 @@
         <v>45221.52083333334</v>
       </c>
       <c r="F215" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H215">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
         <v>45</v>
       </c>
       <c r="K215">
-        <v>1.166</v>
+        <v>1.571</v>
       </c>
       <c r="L215">
+        <v>4.2</v>
+      </c>
+      <c r="M215">
+        <v>5.25</v>
+      </c>
+      <c r="N215">
+        <v>1.363</v>
+      </c>
+      <c r="O215">
+        <v>5.5</v>
+      </c>
+      <c r="P215">
         <v>7</v>
       </c>
-      <c r="M215">
-        <v>15</v>
-      </c>
-      <c r="N215">
-        <v>1.09</v>
-      </c>
-      <c r="O215">
-        <v>12</v>
-      </c>
-      <c r="P215">
-        <v>19</v>
-      </c>
       <c r="Q215">
-        <v>-2.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R215">
         <v>1.95</v>
@@ -19627,16 +19627,16 @@
         <v>1.9</v>
       </c>
       <c r="T215">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U215">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V215">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W215">
-        <v>0.09000000000000008</v>
+        <v>0.363</v>
       </c>
       <c r="X215">
         <v>-1</v>
@@ -19651,7 +19651,7 @@
         <v>-1</v>
       </c>
       <c r="AB215">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC215">
         <v>-1</v>
@@ -21709,7 +21709,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>5982287</v>
+        <v>5982282</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21721,76 +21721,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F239" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G239" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H239">
+        <v>3</v>
+      </c>
+      <c r="I239">
         <v>1</v>
       </c>
-      <c r="I239">
-        <v>2</v>
-      </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K239">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="L239">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="M239">
-        <v>1.4</v>
+        <v>3.75</v>
       </c>
       <c r="N239">
-        <v>7.5</v>
+        <v>1.727</v>
       </c>
       <c r="O239">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P239">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q239">
-        <v>1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
+        <v>1.95</v>
+      </c>
+      <c r="T239">
+        <v>2.75</v>
+      </c>
+      <c r="U239">
         <v>1.9</v>
       </c>
-      <c r="T239">
-        <v>3</v>
-      </c>
-      <c r="U239">
-        <v>1.975</v>
-      </c>
       <c r="V239">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W239">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X239">
         <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB239">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC239">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21798,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>5982282</v>
+        <v>5982283</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21810,73 +21810,73 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G240" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240" t="s">
+        <v>46</v>
+      </c>
+      <c r="K240">
+        <v>1.5</v>
+      </c>
+      <c r="L240">
+        <v>4.333</v>
+      </c>
+      <c r="M240">
+        <v>5</v>
+      </c>
+      <c r="N240">
+        <v>1.533</v>
+      </c>
+      <c r="O240">
+        <v>4.5</v>
+      </c>
+      <c r="P240">
+        <v>5.75</v>
+      </c>
+      <c r="Q240">
+        <v>-1</v>
+      </c>
+      <c r="R240">
+        <v>1.825</v>
+      </c>
+      <c r="S240">
+        <v>2.025</v>
+      </c>
+      <c r="T240">
         <v>3</v>
       </c>
-      <c r="I240">
+      <c r="U240">
+        <v>2</v>
+      </c>
+      <c r="V240">
+        <v>1.85</v>
+      </c>
+      <c r="W240">
+        <v>-1</v>
+      </c>
+      <c r="X240">
+        <v>3.5</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>-1</v>
+      </c>
+      <c r="AA240">
+        <v>1.025</v>
+      </c>
+      <c r="AB240">
         <v>1</v>
-      </c>
-      <c r="J240" t="s">
-        <v>45</v>
-      </c>
-      <c r="K240">
-        <v>1.8</v>
-      </c>
-      <c r="L240">
-        <v>3.75</v>
-      </c>
-      <c r="M240">
-        <v>3.75</v>
-      </c>
-      <c r="N240">
-        <v>1.727</v>
-      </c>
-      <c r="O240">
-        <v>4</v>
-      </c>
-      <c r="P240">
-        <v>4.5</v>
-      </c>
-      <c r="Q240">
-        <v>-0.75</v>
-      </c>
-      <c r="R240">
-        <v>1.9</v>
-      </c>
-      <c r="S240">
-        <v>1.95</v>
-      </c>
-      <c r="T240">
-        <v>2.75</v>
-      </c>
-      <c r="U240">
-        <v>1.9</v>
-      </c>
-      <c r="V240">
-        <v>1.95</v>
-      </c>
-      <c r="W240">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X240">
-        <v>-1</v>
-      </c>
-      <c r="Y240">
-        <v>-1</v>
-      </c>
-      <c r="Z240">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA240">
-        <v>-1</v>
-      </c>
-      <c r="AB240">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC240">
         <v>-1</v>
@@ -21887,7 +21887,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>5982283</v>
+        <v>5982287</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21899,76 +21899,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G241" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241">
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K241">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="L241">
-        <v>4.333</v>
+        <v>4.8</v>
       </c>
       <c r="M241">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="N241">
-        <v>1.533</v>
+        <v>7.5</v>
       </c>
       <c r="O241">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P241">
-        <v>5.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q241">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="R241">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S241">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T241">
         <v>3</v>
       </c>
       <c r="U241">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V241">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
         <v>-1</v>
       </c>
       <c r="X241">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z241">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA241">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC241">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5982173</v>
+        <v>5982176</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L14">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N14">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O14">
         <v>3.5</v>
       </c>
       <c r="P14">
-        <v>1.909</v>
+        <v>3.3</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5982176</v>
+        <v>5982173</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O15">
         <v>3.5</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>1.909</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V15">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5982179</v>
+        <v>5982181</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L21">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="N21">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P21">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R21">
+        <v>1.975</v>
+      </c>
+      <c r="S21">
         <v>1.875</v>
       </c>
-      <c r="S21">
-        <v>1.975</v>
-      </c>
       <c r="T21">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5982181</v>
+        <v>5982179</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
       </c>
       <c r="K22">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L22">
+        <v>3.8</v>
+      </c>
+      <c r="M22">
+        <v>1.75</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>4.333</v>
+      </c>
+      <c r="P22">
+        <v>1.571</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1.875</v>
+      </c>
+      <c r="S22">
+        <v>1.975</v>
+      </c>
+      <c r="T22">
         <v>3.25</v>
       </c>
-      <c r="M22">
-        <v>2.7</v>
-      </c>
-      <c r="N22">
-        <v>2.3</v>
-      </c>
-      <c r="O22">
-        <v>3.25</v>
-      </c>
-      <c r="P22">
-        <v>3.25</v>
-      </c>
-      <c r="Q22">
-        <v>-0.25</v>
-      </c>
-      <c r="R22">
+      <c r="U22">
+        <v>1.875</v>
+      </c>
+      <c r="V22">
         <v>1.975</v>
       </c>
-      <c r="S22">
-        <v>1.875</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.825</v>
-      </c>
-      <c r="V22">
-        <v>2.025</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA22">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC22">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5982182</v>
+        <v>5982180</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N24">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="O24">
+        <v>4.2</v>
+      </c>
+      <c r="P24">
+        <v>6</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <v>1.89</v>
+      </c>
+      <c r="S24">
+        <v>2.01</v>
+      </c>
+      <c r="T24">
         <v>3</v>
       </c>
-      <c r="P24">
-        <v>2.8</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="U24">
+        <v>1.95</v>
+      </c>
+      <c r="V24">
         <v>1.9</v>
       </c>
-      <c r="S24">
-        <v>1.95</v>
-      </c>
-      <c r="T24">
-        <v>1.75</v>
-      </c>
-      <c r="U24">
-        <v>1.75</v>
-      </c>
-      <c r="V24">
-        <v>2.05</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5982180</v>
+        <v>5982182</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>2.7</v>
+      </c>
+      <c r="L25">
+        <v>3.1</v>
+      </c>
+      <c r="M25">
+        <v>2.7</v>
+      </c>
+      <c r="N25">
+        <v>2.75</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>2.8</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>1.615</v>
-      </c>
-      <c r="L25">
-        <v>4</v>
-      </c>
-      <c r="M25">
-        <v>5.25</v>
-      </c>
-      <c r="N25">
-        <v>1.55</v>
-      </c>
-      <c r="O25">
-        <v>4.2</v>
-      </c>
-      <c r="P25">
-        <v>6</v>
-      </c>
-      <c r="Q25">
-        <v>-1</v>
-      </c>
       <c r="R25">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U25">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W25">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC25">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5982192</v>
+        <v>5982191</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>1.333</v>
+        <v>1.85</v>
       </c>
       <c r="L37">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M37">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="N37">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="O37">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P37">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="Q37">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.975</v>
+        <v>1.88</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="T37">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U37">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X37">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="AA37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC37">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5982191</v>
+        <v>5982192</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45123.41666666666</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>1.85</v>
+        <v>1.333</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M38">
-        <v>4.333</v>
+        <v>9</v>
       </c>
       <c r="N38">
-        <v>1.666</v>
+        <v>1.333</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R38">
-        <v>1.88</v>
+        <v>1.975</v>
       </c>
       <c r="S38">
-        <v>2.02</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8799999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5981896</v>
+        <v>5982197</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L40">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="N40">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="O40">
         <v>3.4</v>
       </c>
       <c r="P40">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5982197</v>
+        <v>5981896</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="L41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M41">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N41">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="O41">
         <v>3.4</v>
       </c>
       <c r="P41">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="Q41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S41">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
+        <v>0.8</v>
+      </c>
+      <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
-      <c r="AA41">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB41">
-        <v>0.925</v>
-      </c>
-      <c r="AC41">
-        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5981897</v>
+        <v>5982199</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,67 +4455,67 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K45">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L45">
         <v>3.6</v>
       </c>
       <c r="M45">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X45">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4</v>
+        <v>0.4625</v>
       </c>
       <c r="AA45">
         <v>-0.5</v>
@@ -4524,7 +4524,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5982199</v>
+        <v>5981897</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,67 +4544,67 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L46">
         <v>3.6</v>
       </c>
       <c r="M46">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N46">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
       <c r="AA46">
         <v>-0.5</v>
@@ -4613,7 +4613,7 @@
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5982198</v>
+        <v>5982201</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L47">
+        <v>4.333</v>
+      </c>
+      <c r="M47">
+        <v>6.5</v>
+      </c>
+      <c r="N47">
+        <v>1.85</v>
+      </c>
+      <c r="O47">
         <v>3.4</v>
       </c>
-      <c r="M47">
-        <v>2.45</v>
-      </c>
-      <c r="N47">
-        <v>2.05</v>
-      </c>
-      <c r="O47">
-        <v>3.3</v>
-      </c>
       <c r="P47">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q47">
         <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>2.25</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X47">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5982201</v>
+        <v>5982198</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K48">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L48">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M48">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="N48">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P48">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="Q48">
         <v>-0.5</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5982204</v>
+        <v>5981900</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,76 +5167,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>1.666</v>
+        <v>3.4</v>
       </c>
       <c r="L53">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N53">
+        <v>3.25</v>
+      </c>
+      <c r="O53">
+        <v>3.3</v>
+      </c>
+      <c r="P53">
+        <v>2.25</v>
+      </c>
+      <c r="Q53">
+        <v>0.25</v>
+      </c>
+      <c r="R53">
+        <v>1.9</v>
+      </c>
+      <c r="S53">
         <v>1.95</v>
       </c>
-      <c r="O53">
-        <v>3.6</v>
-      </c>
-      <c r="P53">
-        <v>3.75</v>
-      </c>
-      <c r="Q53">
-        <v>-0.5</v>
-      </c>
-      <c r="R53">
+      <c r="T53">
+        <v>2.25</v>
+      </c>
+      <c r="U53">
         <v>1.975</v>
       </c>
-      <c r="S53">
+      <c r="V53">
         <v>1.875</v>
       </c>
-      <c r="T53">
-        <v>2.5</v>
-      </c>
-      <c r="U53">
-        <v>1.85</v>
-      </c>
-      <c r="V53">
-        <v>2</v>
-      </c>
       <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>1.25</v>
+      </c>
+      <c r="Z53">
+        <v>-1</v>
+      </c>
+      <c r="AA53">
         <v>0.95</v>
       </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA53">
-        <v>-1</v>
-      </c>
       <c r="AB53">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>5981900</v>
+        <v>5982204</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,76 +5256,76 @@
         <v>45137.41666666666</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L54">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2</v>
+        <v>4.333</v>
       </c>
       <c r="N54">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5982212</v>
+        <v>5982211</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,49 +5701,49 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="L59">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M59">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N59">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="O59">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P59">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U59">
         <v>2</v>
@@ -5752,25 +5752,25 @@
         <v>1.85</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5982211</v>
+        <v>5982212</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,49 +5790,49 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="L60">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N60">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="O60">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P60">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="Q60">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S60">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T60">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
         <v>2</v>
@@ -5841,25 +5841,25 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA60">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5867,7 +5867,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5982215</v>
+        <v>5981902</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5879,76 +5879,76 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
         <v>0</v>
       </c>
-      <c r="I61">
+      <c r="J61" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61">
+        <v>1.285</v>
+      </c>
+      <c r="L61">
+        <v>5.5</v>
+      </c>
+      <c r="M61">
+        <v>9</v>
+      </c>
+      <c r="N61">
+        <v>1.3</v>
+      </c>
+      <c r="O61">
+        <v>5.5</v>
+      </c>
+      <c r="P61">
+        <v>9.5</v>
+      </c>
+      <c r="Q61">
+        <v>-1.5</v>
+      </c>
+      <c r="R61">
+        <v>1.95</v>
+      </c>
+      <c r="S61">
+        <v>1.9</v>
+      </c>
+      <c r="T61">
         <v>3</v>
       </c>
-      <c r="J61" t="s">
-        <v>45</v>
-      </c>
-      <c r="K61">
-        <v>2.75</v>
-      </c>
-      <c r="L61">
-        <v>3.1</v>
-      </c>
-      <c r="M61">
-        <v>2.5</v>
-      </c>
-      <c r="N61">
-        <v>2.8</v>
-      </c>
-      <c r="O61">
-        <v>3.4</v>
-      </c>
-      <c r="P61">
-        <v>2.5</v>
-      </c>
-      <c r="Q61">
+      <c r="U61">
+        <v>1.975</v>
+      </c>
+      <c r="V61">
+        <v>1.875</v>
+      </c>
+      <c r="W61">
+        <v>0.3</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>-1</v>
+      </c>
+      <c r="Z61">
+        <v>0.95</v>
+      </c>
+      <c r="AA61">
+        <v>-1</v>
+      </c>
+      <c r="AB61">
         <v>0</v>
       </c>
-      <c r="R61">
-        <v>2.06</v>
-      </c>
-      <c r="S61">
-        <v>1.84</v>
-      </c>
-      <c r="T61">
-        <v>2</v>
-      </c>
-      <c r="U61">
-        <v>1.875</v>
-      </c>
-      <c r="V61">
-        <v>1.975</v>
-      </c>
-      <c r="W61">
-        <v>-1</v>
-      </c>
-      <c r="X61">
-        <v>-1</v>
-      </c>
-      <c r="Y61">
-        <v>1.5</v>
-      </c>
-      <c r="Z61">
-        <v>-1</v>
-      </c>
-      <c r="AA61">
-        <v>0.8400000000000001</v>
-      </c>
-      <c r="AB61">
-        <v>0.875</v>
-      </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5981902</v>
+        <v>5982215</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45145.58333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>3</v>
       </c>
-      <c r="I63">
+      <c r="J63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63">
+        <v>2.75</v>
+      </c>
+      <c r="L63">
+        <v>3.1</v>
+      </c>
+      <c r="M63">
+        <v>2.5</v>
+      </c>
+      <c r="N63">
+        <v>2.8</v>
+      </c>
+      <c r="O63">
+        <v>3.4</v>
+      </c>
+      <c r="P63">
+        <v>2.5</v>
+      </c>
+      <c r="Q63">
         <v>0</v>
       </c>
-      <c r="J63" t="s">
-        <v>47</v>
-      </c>
-      <c r="K63">
-        <v>1.285</v>
-      </c>
-      <c r="L63">
-        <v>5.5</v>
-      </c>
-      <c r="M63">
-        <v>9</v>
-      </c>
-      <c r="N63">
-        <v>1.3</v>
-      </c>
-      <c r="O63">
-        <v>5.5</v>
-      </c>
-      <c r="P63">
-        <v>9.5</v>
-      </c>
-      <c r="Q63">
-        <v>-1.5</v>
-      </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="T63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
         <v>1.975</v>
       </c>
-      <c r="V63">
-        <v>1.875</v>
-      </c>
       <c r="W63">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5982217</v>
+        <v>5982219</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>3</v>
       </c>
       <c r="L67">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M67">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="O67">
         <v>3.4</v>
       </c>
       <c r="P67">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q67">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="S67">
-        <v>1.96</v>
+        <v>1.775</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
+        <v>1.825</v>
+      </c>
+      <c r="V67">
+        <v>2.025</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
         <v>1.9</v>
       </c>
-      <c r="V67">
-        <v>1.95</v>
-      </c>
-      <c r="W67">
-        <v>2.3</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>-1</v>
-      </c>
       <c r="Z67">
-        <v>0.9399999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6579,7 +6579,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5982219</v>
+        <v>5982217</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6591,76 +6591,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M69">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N69">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="O69">
         <v>3.4</v>
       </c>
       <c r="P69">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="S69">
-        <v>1.775</v>
+        <v>1.96</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA69">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5982221</v>
+        <v>5981904</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K70">
+        <v>4.5</v>
+      </c>
+      <c r="L70">
+        <v>3.8</v>
+      </c>
+      <c r="M70">
+        <v>1.727</v>
+      </c>
+      <c r="N70">
+        <v>4.333</v>
+      </c>
+      <c r="O70">
+        <v>3.75</v>
+      </c>
+      <c r="P70">
         <v>1.8</v>
       </c>
-      <c r="L70">
-        <v>3.75</v>
-      </c>
-      <c r="M70">
-        <v>4.2</v>
-      </c>
-      <c r="N70">
-        <v>1.75</v>
-      </c>
-      <c r="O70">
-        <v>4</v>
-      </c>
-      <c r="P70">
-        <v>4.333</v>
-      </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
+        <v>2.025</v>
+      </c>
+      <c r="T70">
+        <v>2.5</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
         <v>1.85</v>
       </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
-      <c r="U70">
-        <v>1.925</v>
-      </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
       <c r="W70">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
+        <v>-1</v>
+      </c>
+      <c r="AC70">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
-      <c r="AC70">
-        <v>0.925</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5981904</v>
+        <v>5982221</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>1</v>
       </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L71">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="N71">
+        <v>1.75</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
+      </c>
+      <c r="P71">
         <v>4.333</v>
       </c>
-      <c r="O71">
-        <v>3.75</v>
-      </c>
-      <c r="P71">
-        <v>1.8</v>
-      </c>
       <c r="Q71">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
         <v>3.333</v>
       </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5982227</v>
+        <v>5982226</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,73 +6858,73 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N72">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O72">
         <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5982226</v>
+        <v>5982227</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,73 +6947,73 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L73">
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="N73">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O73">
         <v>3.5</v>
       </c>
       <c r="P73">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T73">
         <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB73">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5981905</v>
+        <v>7068518</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,76 +7125,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M75">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N75">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="O75">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
+        <v>2.01</v>
+      </c>
+      <c r="S75">
+        <v>1.89</v>
+      </c>
+      <c r="T75">
+        <v>3.75</v>
+      </c>
+      <c r="U75">
+        <v>1.9</v>
+      </c>
+      <c r="V75">
         <v>1.95</v>
       </c>
-      <c r="S75">
-        <v>1.9</v>
-      </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.925</v>
-      </c>
-      <c r="V75">
-        <v>1.925</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X75">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA75">
+        <v>0.445</v>
+      </c>
+      <c r="AB75">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB75">
-        <v>-1</v>
-      </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7068518</v>
+        <v>5981905</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,76 +7214,76 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>46</v>
+      </c>
+      <c r="K76">
+        <v>1.8</v>
+      </c>
+      <c r="L76">
+        <v>3.6</v>
+      </c>
+      <c r="M76">
+        <v>4.5</v>
+      </c>
+      <c r="N76">
+        <v>1.571</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>6</v>
+      </c>
+      <c r="Q76">
+        <v>-1</v>
+      </c>
+      <c r="R76">
+        <v>1.95</v>
+      </c>
+      <c r="S76">
+        <v>1.9</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
+        <v>1.925</v>
+      </c>
+      <c r="V76">
+        <v>1.925</v>
+      </c>
+      <c r="W76">
+        <v>-1</v>
+      </c>
+      <c r="X76">
         <v>3</v>
       </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76" t="s">
-        <v>47</v>
-      </c>
-      <c r="K76">
-        <v>1.444</v>
-      </c>
-      <c r="L76">
-        <v>5</v>
-      </c>
-      <c r="M76">
-        <v>6</v>
-      </c>
-      <c r="N76">
-        <v>1.5</v>
-      </c>
-      <c r="O76">
-        <v>4.75</v>
-      </c>
-      <c r="P76">
-        <v>5.75</v>
-      </c>
-      <c r="Q76">
-        <v>-1.25</v>
-      </c>
-      <c r="R76">
-        <v>2.01</v>
-      </c>
-      <c r="S76">
-        <v>1.89</v>
-      </c>
-      <c r="T76">
-        <v>3.75</v>
-      </c>
-      <c r="U76">
-        <v>1.9</v>
-      </c>
-      <c r="V76">
-        <v>1.95</v>
-      </c>
-      <c r="W76">
-        <v>0.5</v>
-      </c>
-      <c r="X76">
-        <v>-1</v>
-      </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.445</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB76">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5982223</v>
+        <v>5982225</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="L77">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="N77">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P77">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R77">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V77">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5982225</v>
+        <v>5982223</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="L78">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M78">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N78">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O78">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P78">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R78">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S78">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V78">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X78">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5982232</v>
+        <v>5982234</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,13 +7570,13 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>3</v>
@@ -7585,40 +7585,40 @@
         <v>45</v>
       </c>
       <c r="K80">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q80">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7627,16 +7627,16 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5982234</v>
+        <v>5982232</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,13 +7659,13 @@
         <v>45165.41666666666</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>3</v>
@@ -7674,40 +7674,40 @@
         <v>45</v>
       </c>
       <c r="K81">
+        <v>2.9</v>
+      </c>
+      <c r="L81">
+        <v>3.2</v>
+      </c>
+      <c r="M81">
         <v>2.375</v>
       </c>
-      <c r="L81">
-        <v>3.4</v>
-      </c>
-      <c r="M81">
-        <v>2.8</v>
-      </c>
       <c r="N81">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U81">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W81">
         <v>-1</v>
@@ -7716,16 +7716,16 @@
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>2.5</v>
+        <v>1.55</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB81">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5982229</v>
+        <v>5982231</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,58 +8015,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="L85">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M85">
         <v>5.5</v>
       </c>
       <c r="N85">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O85">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P85">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q85">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W85">
-        <v>0.333</v>
+        <v>0.571</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,16 +8075,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5982231</v>
+        <v>5982229</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,58 +8104,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>47</v>
       </c>
       <c r="K86">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M86">
         <v>5.5</v>
       </c>
       <c r="N86">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O86">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P86">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R86">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S86">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>0.571</v>
+        <v>0.333</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,16 +8164,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5982237</v>
+        <v>5982235</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,37 +8460,37 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O90">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q90">
         <v>-0.25</v>
@@ -8502,34 +8502,34 @@
         <v>1.825</v>
       </c>
       <c r="T90">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5982235</v>
+        <v>5982237</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,37 +8638,37 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="O92">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P92">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
@@ -8680,34 +8680,34 @@
         <v>1.825</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB92">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5982239</v>
+        <v>5981909</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
         <v>2.375</v>
       </c>
       <c r="N93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O93">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P93">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>5981909</v>
+        <v>5982239</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45172.52083333334</v>
       </c>
       <c r="F94" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="L94">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M94">
         <v>2.375</v>
       </c>
       <c r="N94">
+        <v>4</v>
+      </c>
+      <c r="O94">
+        <v>3.6</v>
+      </c>
+      <c r="P94">
+        <v>1.909</v>
+      </c>
+      <c r="Q94">
+        <v>0.5</v>
+      </c>
+      <c r="R94">
+        <v>1.925</v>
+      </c>
+      <c r="S94">
+        <v>1.925</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
+        <v>1.925</v>
+      </c>
+      <c r="V94">
+        <v>1.925</v>
+      </c>
+      <c r="W94">
         <v>3</v>
       </c>
-      <c r="O94">
-        <v>3.3</v>
-      </c>
-      <c r="P94">
-        <v>2.45</v>
-      </c>
-      <c r="Q94">
-        <v>0.25</v>
-      </c>
-      <c r="R94">
-        <v>1.775</v>
-      </c>
-      <c r="S94">
-        <v>2.1</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>2</v>
-      </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA94">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>5982245</v>
+        <v>5982241</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,13 +8994,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H96">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -9009,43 +9009,43 @@
         <v>47</v>
       </c>
       <c r="K96">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
+        <v>3.4</v>
+      </c>
+      <c r="M96">
         <v>4</v>
       </c>
-      <c r="M96">
-        <v>4.75</v>
-      </c>
       <c r="N96">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O96">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T96">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>0.363</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9054,16 +9054,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>0.5349999999999999</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>5982241</v>
+        <v>5982245</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,13 +9083,13 @@
         <v>45185.41666666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -9098,43 +9098,43 @@
         <v>47</v>
       </c>
       <c r="K97">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N97">
+        <v>1.363</v>
+      </c>
+      <c r="O97">
+        <v>5.5</v>
+      </c>
+      <c r="P97">
+        <v>7</v>
+      </c>
+      <c r="Q97">
+        <v>-1.5</v>
+      </c>
+      <c r="R97">
+        <v>2</v>
+      </c>
+      <c r="S97">
         <v>1.85</v>
       </c>
-      <c r="O97">
-        <v>3.75</v>
-      </c>
-      <c r="P97">
-        <v>4</v>
-      </c>
-      <c r="Q97">
-        <v>-0.75</v>
-      </c>
-      <c r="R97">
-        <v>2.07</v>
-      </c>
-      <c r="S97">
-        <v>1.83</v>
-      </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
-        <v>0.8500000000000001</v>
+        <v>0.363</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9143,16 +9143,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.5349999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>5982244</v>
+        <v>5982243</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>3</v>
       </c>
-      <c r="I100">
-        <v>2</v>
-      </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N100">
-        <v>1.333</v>
+        <v>1.45</v>
       </c>
       <c r="O100">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P100">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q100">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S100">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T100">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>5982243</v>
+        <v>5982244</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9439,76 @@
         <v>45186.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K101">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="L101">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N101">
-        <v>1.45</v>
+        <v>1.333</v>
       </c>
       <c r="O101">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P101">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R101">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.425</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>5982246</v>
+        <v>5982249</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,10 +10240,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10255,41 +10255,41 @@
         <v>45</v>
       </c>
       <c r="K110">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L110">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M110">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="N110">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="O110">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S110">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T110">
         <v>2.75</v>
       </c>
       <c r="U110">
+        <v>1.875</v>
+      </c>
+      <c r="V110">
         <v>1.975</v>
       </c>
-      <c r="V110">
-        <v>1.875</v>
-      </c>
       <c r="W110">
         <v>-1</v>
       </c>
@@ -10297,19 +10297,19 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>5982249</v>
+        <v>5982246</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,10 +10329,10 @@
         <v>45194.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10344,41 +10344,41 @@
         <v>45</v>
       </c>
       <c r="K111">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L111">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>3.25</v>
+        <v>1.75</v>
       </c>
       <c r="N111">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P111">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R111">
+        <v>2.05</v>
+      </c>
+      <c r="S111">
         <v>1.85</v>
-      </c>
-      <c r="S111">
-        <v>2</v>
       </c>
       <c r="T111">
         <v>2.75</v>
       </c>
       <c r="U111">
+        <v>1.975</v>
+      </c>
+      <c r="V111">
         <v>1.875</v>
       </c>
-      <c r="V111">
-        <v>1.975</v>
-      </c>
       <c r="W111">
         <v>-1</v>
       </c>
@@ -10386,19 +10386,19 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10762,7 +10762,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>5982252</v>
+        <v>5982257</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10774,76 +10774,76 @@
         <v>45200.52083333334</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N116">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P116">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z116">
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10851,7 +10851,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>5982257</v>
+        <v>5982252</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10863,76 +10863,76 @@
         <v>45200.52083333334</v>
       </c>
       <c r="F117" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L117">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M117">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O117">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P117">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y117">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5982261</v>
+        <v>5982258</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="Q120">
+        <v>-0.75</v>
+      </c>
+      <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
+        <v>1.85</v>
+      </c>
+      <c r="T120">
+        <v>2.25</v>
+      </c>
+      <c r="U120">
+        <v>1.875</v>
+      </c>
+      <c r="V120">
+        <v>1.975</v>
+      </c>
+      <c r="W120">
+        <v>0.75</v>
+      </c>
+      <c r="X120">
+        <v>-1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
+        <v>0.5</v>
+      </c>
+      <c r="AA120">
         <v>-0.5</v>
       </c>
-      <c r="R120">
-        <v>1.875</v>
-      </c>
-      <c r="S120">
-        <v>1.975</v>
-      </c>
-      <c r="T120">
-        <v>2.5</v>
-      </c>
-      <c r="U120">
-        <v>2.025</v>
-      </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
-      <c r="W120">
-        <v>-1</v>
-      </c>
-      <c r="X120">
-        <v>2.5</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>-1</v>
-      </c>
-      <c r="AA120">
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB120">
-        <v>-1</v>
-      </c>
-      <c r="AC120">
-        <v>0.825</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5982258</v>
+        <v>5982261</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K121">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M121">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N121">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V121">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W121">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5982262</v>
+        <v>5982263</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124" t="s">
+        <v>45</v>
+      </c>
+      <c r="K124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <v>3.6</v>
+      </c>
+      <c r="M124">
+        <v>1.869</v>
+      </c>
+      <c r="N124">
+        <v>3.6</v>
+      </c>
+      <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
+        <v>2</v>
+      </c>
+      <c r="Q124">
+        <v>0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>1.925</v>
+      </c>
+      <c r="V124">
+        <v>1.925</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>-1</v>
+      </c>
+      <c r="Y124">
         <v>1</v>
       </c>
-      <c r="J124" t="s">
-        <v>47</v>
-      </c>
-      <c r="K124">
-        <v>2.35</v>
-      </c>
-      <c r="L124">
-        <v>3.3</v>
-      </c>
-      <c r="M124">
-        <v>2.9</v>
-      </c>
-      <c r="N124">
-        <v>1.95</v>
-      </c>
-      <c r="O124">
-        <v>3.5</v>
-      </c>
-      <c r="P124">
-        <v>3.8</v>
-      </c>
-      <c r="Q124">
-        <v>-0.5</v>
-      </c>
-      <c r="R124">
-        <v>1.975</v>
-      </c>
-      <c r="S124">
-        <v>1.875</v>
-      </c>
-      <c r="T124">
-        <v>2.5</v>
-      </c>
-      <c r="U124">
-        <v>1.85</v>
-      </c>
-      <c r="V124">
-        <v>2</v>
-      </c>
-      <c r="W124">
-        <v>0.95</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
       <c r="Z124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB124">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5982263</v>
+        <v>5982262</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>4</v>
+        <v>2.35</v>
       </c>
       <c r="L125">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>1.869</v>
+        <v>2.9</v>
       </c>
       <c r="N125">
-        <v>3.6</v>
+        <v>1.95</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
+        <v>1.975</v>
+      </c>
+      <c r="S125">
+        <v>1.875</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
         <v>1.85</v>
       </c>
-      <c r="S125">
-        <v>2</v>
-      </c>
-      <c r="T125">
-        <v>3</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>5982274</v>
+        <v>5982273</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,76 +12732,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138" t="s">
+        <v>45</v>
+      </c>
+      <c r="K138">
+        <v>2.15</v>
+      </c>
+      <c r="L138">
+        <v>3.3</v>
+      </c>
+      <c r="M138">
+        <v>3.1</v>
+      </c>
+      <c r="N138">
+        <v>2.1</v>
+      </c>
+      <c r="O138">
+        <v>3.5</v>
+      </c>
+      <c r="P138">
+        <v>3.3</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
+        <v>2</v>
+      </c>
+      <c r="T138">
+        <v>2.5</v>
+      </c>
+      <c r="U138">
+        <v>1.85</v>
+      </c>
+      <c r="V138">
+        <v>2</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>2.3</v>
+      </c>
+      <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
         <v>1</v>
       </c>
-      <c r="J138" t="s">
-        <v>47</v>
-      </c>
-      <c r="K138">
-        <v>4</v>
-      </c>
-      <c r="L138">
-        <v>3.6</v>
-      </c>
-      <c r="M138">
-        <v>1.75</v>
-      </c>
-      <c r="N138">
-        <v>4.75</v>
-      </c>
-      <c r="O138">
-        <v>3.8</v>
-      </c>
-      <c r="P138">
-        <v>1.75</v>
-      </c>
-      <c r="Q138">
-        <v>0.75</v>
-      </c>
-      <c r="R138">
-        <v>1.925</v>
-      </c>
-      <c r="S138">
-        <v>1.925</v>
-      </c>
-      <c r="T138">
-        <v>3</v>
-      </c>
-      <c r="U138">
-        <v>1.925</v>
-      </c>
-      <c r="V138">
-        <v>1.925</v>
-      </c>
-      <c r="W138">
-        <v>3.75</v>
-      </c>
-      <c r="X138">
-        <v>-1</v>
-      </c>
-      <c r="Y138">
-        <v>-1</v>
-      </c>
-      <c r="Z138">
-        <v>0.925</v>
-      </c>
-      <c r="AA138">
-        <v>-1</v>
-      </c>
       <c r="AB138">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>5982273</v>
+        <v>5982274</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,76 +12910,76 @@
         <v>45228.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
+      <c r="J140" t="s">
+        <v>47</v>
+      </c>
+      <c r="K140">
+        <v>4</v>
+      </c>
+      <c r="L140">
+        <v>3.6</v>
+      </c>
+      <c r="M140">
+        <v>1.75</v>
+      </c>
+      <c r="N140">
+        <v>4.75</v>
+      </c>
+      <c r="O140">
+        <v>3.8</v>
+      </c>
+      <c r="P140">
+        <v>1.75</v>
+      </c>
+      <c r="Q140">
+        <v>0.75</v>
+      </c>
+      <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.925</v>
+      </c>
+      <c r="T140">
         <v>3</v>
       </c>
-      <c r="J140" t="s">
-        <v>45</v>
-      </c>
-      <c r="K140">
-        <v>2.15</v>
-      </c>
-      <c r="L140">
-        <v>3.3</v>
-      </c>
-      <c r="M140">
-        <v>3.1</v>
-      </c>
-      <c r="N140">
-        <v>2.1</v>
-      </c>
-      <c r="O140">
-        <v>3.5</v>
-      </c>
-      <c r="P140">
-        <v>3.3</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>1.85</v>
-      </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
       <c r="U140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5981923</v>
+        <v>5982279</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,58 +13444,58 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H146">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>47</v>
       </c>
       <c r="K146">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M146">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O146">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P146">
+        <v>2.9</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>1.8</v>
+      </c>
+      <c r="S146">
         <v>2.05</v>
       </c>
-      <c r="Q146">
-        <v>0.5</v>
-      </c>
-      <c r="R146">
-        <v>1.825</v>
-      </c>
-      <c r="S146">
-        <v>2.025</v>
-      </c>
       <c r="T146">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W146">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="X146">
         <v>-1</v>
@@ -13504,13 +13504,13 @@
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AA146">
         <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>5982279</v>
+        <v>5981923</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,58 +13533,58 @@
         <v>45235.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G147" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
         <v>47</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="L147">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M147">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N147">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O147">
+        <v>3.8</v>
+      </c>
+      <c r="P147">
+        <v>2.05</v>
+      </c>
+      <c r="Q147">
+        <v>0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.825</v>
+      </c>
+      <c r="S147">
+        <v>2.025</v>
+      </c>
+      <c r="T147">
         <v>3.25</v>
       </c>
-      <c r="P147">
-        <v>2.9</v>
-      </c>
-      <c r="Q147">
-        <v>0</v>
-      </c>
-      <c r="R147">
-        <v>1.8</v>
-      </c>
-      <c r="S147">
-        <v>2.05</v>
-      </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13593,13 +13593,13 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AA147">
         <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13966,7 +13966,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5982285</v>
+        <v>5982287</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13978,76 +13978,76 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F152" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="M152">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="N152">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="O152">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P152">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>1.9</v>
+      </c>
+      <c r="T152">
+        <v>3</v>
+      </c>
+      <c r="U152">
         <v>1.975</v>
       </c>
-      <c r="S152">
+      <c r="V152">
         <v>1.875</v>
       </c>
-      <c r="T152">
-        <v>3.75</v>
-      </c>
-      <c r="U152">
-        <v>1.95</v>
-      </c>
-      <c r="V152">
-        <v>1.9</v>
-      </c>
       <c r="W152">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z152">
-        <v>0.9750000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14055,7 +14055,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5982286</v>
+        <v>5982283</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14067,73 +14067,73 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F153" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H153">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>2</v>
+      </c>
+      <c r="J153" t="s">
+        <v>46</v>
+      </c>
+      <c r="K153">
+        <v>1.5</v>
+      </c>
+      <c r="L153">
+        <v>4.333</v>
+      </c>
+      <c r="M153">
+        <v>5</v>
+      </c>
+      <c r="N153">
+        <v>1.533</v>
+      </c>
+      <c r="O153">
+        <v>4.5</v>
+      </c>
+      <c r="P153">
+        <v>5.75</v>
+      </c>
+      <c r="Q153">
+        <v>-1</v>
+      </c>
+      <c r="R153">
+        <v>1.825</v>
+      </c>
+      <c r="S153">
+        <v>2.025</v>
+      </c>
+      <c r="T153">
+        <v>3</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
+        <v>1.85</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
+        <v>3.5</v>
+      </c>
+      <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
+        <v>-1</v>
+      </c>
+      <c r="AA153">
+        <v>1.025</v>
+      </c>
+      <c r="AB153">
         <v>1</v>
-      </c>
-      <c r="I153">
-        <v>2</v>
-      </c>
-      <c r="J153" t="s">
-        <v>45</v>
-      </c>
-      <c r="K153">
-        <v>2.5</v>
-      </c>
-      <c r="L153">
-        <v>3.4</v>
-      </c>
-      <c r="M153">
-        <v>2.5</v>
-      </c>
-      <c r="N153">
-        <v>3.25</v>
-      </c>
-      <c r="O153">
-        <v>3.4</v>
-      </c>
-      <c r="P153">
-        <v>2.2</v>
-      </c>
-      <c r="Q153">
-        <v>0.25</v>
-      </c>
-      <c r="R153">
-        <v>1.975</v>
-      </c>
-      <c r="S153">
-        <v>1.875</v>
-      </c>
-      <c r="T153">
-        <v>2.5</v>
-      </c>
-      <c r="U153">
-        <v>1.825</v>
-      </c>
-      <c r="V153">
-        <v>2.025</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>1.2</v>
-      </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
-      <c r="AA153">
-        <v>0.875</v>
-      </c>
-      <c r="AB153">
-        <v>0.825</v>
       </c>
       <c r="AC153">
         <v>-1</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>5982283</v>
+        <v>5982282</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,73 +14245,73 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K155">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L155">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N155">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="O155">
+        <v>4</v>
+      </c>
+      <c r="P155">
         <v>4.5</v>
       </c>
-      <c r="P155">
-        <v>5.75</v>
-      </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X155">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA155">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC155">
         <v>-1</v>
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>5981924</v>
+        <v>5981925</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,58 +14334,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H156">
+        <v>2</v>
+      </c>
+      <c r="I156">
         <v>1</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
       </c>
       <c r="J156" t="s">
         <v>47</v>
       </c>
       <c r="K156">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L156">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N156">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="O156">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P156">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R156">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S156">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T156">
         <v>2.75</v>
       </c>
       <c r="U156">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="X156">
         <v>-1</v>
@@ -14394,16 +14394,16 @@
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA156">
+        <v>-1</v>
+      </c>
+      <c r="AB156">
+        <v>0.5125</v>
+      </c>
+      <c r="AC156">
         <v>-0.5</v>
-      </c>
-      <c r="AB156">
-        <v>-1</v>
-      </c>
-      <c r="AC156">
-        <v>0.95</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>5981925</v>
+        <v>5981924</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,58 +14423,58 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>47</v>
       </c>
       <c r="K157">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N157">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P157">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="Q157">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S157">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T157">
         <v>2.75</v>
       </c>
       <c r="U157">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14483,16 +14483,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB157">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>5982282</v>
+        <v>5982285</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,13 +14512,13 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -14527,43 +14527,43 @@
         <v>47</v>
       </c>
       <c r="K158">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L158">
+        <v>3.6</v>
+      </c>
+      <c r="M158">
+        <v>3.2</v>
+      </c>
+      <c r="N158">
+        <v>2.2</v>
+      </c>
+      <c r="O158">
+        <v>4.333</v>
+      </c>
+      <c r="P158">
+        <v>2.75</v>
+      </c>
+      <c r="Q158">
+        <v>-0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.975</v>
+      </c>
+      <c r="S158">
+        <v>1.875</v>
+      </c>
+      <c r="T158">
         <v>3.75</v>
       </c>
-      <c r="M158">
-        <v>3.75</v>
-      </c>
-      <c r="N158">
-        <v>1.727</v>
-      </c>
-      <c r="O158">
-        <v>4</v>
-      </c>
-      <c r="P158">
-        <v>4.5</v>
-      </c>
-      <c r="Q158">
-        <v>-0.75</v>
-      </c>
-      <c r="R158">
+      <c r="U158">
+        <v>1.95</v>
+      </c>
+      <c r="V158">
         <v>1.9</v>
       </c>
-      <c r="S158">
-        <v>1.95</v>
-      </c>
-      <c r="T158">
-        <v>2.75</v>
-      </c>
-      <c r="U158">
-        <v>1.9</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
       <c r="W158">
-        <v>0.7270000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -14572,16 +14572,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA158">
+        <v>-1</v>
+      </c>
+      <c r="AB158">
+        <v>-1</v>
+      </c>
+      <c r="AC158">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA158">
-        <v>-1</v>
-      </c>
-      <c r="AB158">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC158">
-        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14589,7 +14589,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>5982287</v>
+        <v>5982286</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14601,10 +14601,10 @@
         <v>45242.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -14616,40 +14616,40 @@
         <v>45</v>
       </c>
       <c r="K159">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L159">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="N159">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="O159">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P159">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q159">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R159">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W159">
         <v>-1</v>
@@ -14658,19 +14658,19 @@
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>0.3999999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="Z159">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
+++ b/Sweden Allsvenskan/Sweden Allsvenskan.xlsx
@@ -109,10 +109,10 @@
     <t>IFK Norrkoping</t>
   </si>
   <si>
-    <t>Halmstad</t>
+    <t>AIK</t>
   </si>
   <si>
-    <t>AIK</t>
+    <t>Halmstad</t>
   </si>
   <si>
     <t>Sirius</t>
@@ -130,16 +130,16 @@
     <t>Hammarby</t>
   </si>
   <si>
+    <t>IFK Varnamo</t>
+  </si>
+  <si>
     <t>Kalmar FF</t>
   </si>
   <si>
-    <t>IFK Varnamo</t>
+    <t>BK Hacken</t>
   </si>
   <si>
     <t>Djurgarden</t>
-  </si>
-  <si>
-    <t>BK Hacken</t>
   </si>
   <si>
     <t>Brommapojkarna</t>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5982170</v>
+        <v>5982167</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
+        <v>2.2</v>
+      </c>
+      <c r="L4">
+        <v>3.2</v>
+      </c>
+      <c r="M4">
         <v>3.1</v>
       </c>
-      <c r="L4">
-        <v>3.3</v>
-      </c>
-      <c r="M4">
-        <v>2.15</v>
-      </c>
       <c r="N4">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.825</v>
+        <v>1.88</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>2.02</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-0.5</v>
+        <v>0.51</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5982167</v>
+        <v>5982170</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>46</v>
       </c>
       <c r="K5">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="L5">
+        <v>3.3</v>
+      </c>
+      <c r="M5">
+        <v>2.15</v>
+      </c>
+      <c r="N5">
         <v>3.2</v>
       </c>
-      <c r="M5">
-        <v>3.1</v>
-      </c>
-      <c r="N5">
-        <v>2.2</v>
-      </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P5">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.88</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>2.02</v>
+        <v>2.025</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.4125</v>
+      </c>
+      <c r="AA5">
         <v>-0.5</v>
       </c>
-      <c r="AA5">
-        <v>0.51</v>
-      </c>
       <c r="AB5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -987,7 +987,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5982177</v>
+        <v>5981891</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1432,73 +1432,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>1.571</v>
+        <v>5.25</v>
       </c>
       <c r="L11">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>5.75</v>
+        <v>1.65</v>
       </c>
       <c r="N11">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="S11">
-        <v>2.05</v>
+        <v>1.89</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AB11">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5981891</v>
+        <v>5982177</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>3</v>
-      </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="L12">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M12">
+        <v>5.75</v>
+      </c>
+      <c r="N12">
         <v>1.65</v>
       </c>
-      <c r="N12">
-        <v>5.25</v>
-      </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>2.01</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA12">
-        <v>0.8899999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1610,7 +1610,7 @@
         <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>45088.41666666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5981890</v>
+        <v>5982175</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,73 +1877,73 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
         <v>5.75</v>
       </c>
       <c r="N16">
-        <v>1.533</v>
+        <v>1.444</v>
       </c>
       <c r="O16">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P16">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.91</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.99</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X16">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="AA16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5982175</v>
+        <v>5981890</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,73 +1966,73 @@
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="L17">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M17">
         <v>5.75</v>
       </c>
       <c r="N17">
-        <v>1.444</v>
+        <v>1.533</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="P17">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q17">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>1.91</v>
+        <v>1.925</v>
       </c>
       <c r="S17">
-        <v>1.99</v>
+        <v>1.925</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.9099999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2055,7 +2055,7 @@
         <v>42</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5982181</v>
+        <v>5982179</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="L21">
+        <v>3.8</v>
+      </c>
+      <c r="M21">
+        <v>1.75</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>4.333</v>
+      </c>
+      <c r="P21">
+        <v>1.571</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
+        <v>1.975</v>
+      </c>
+      <c r="T21">
         <v>3.25</v>
       </c>
-      <c r="M21">
-        <v>2.7</v>
-      </c>
-      <c r="N21">
-        <v>2.3</v>
-      </c>
-      <c r="O21">
-        <v>3.25</v>
-      </c>
-      <c r="P21">
-        <v>3.25</v>
-      </c>
-      <c r="Q21">
-        <v>-0.25</v>
-      </c>
-      <c r="R21">
+      <c r="U21">
+        <v>1.875</v>
+      </c>
+      <c r="V21">
         <v>1.975</v>
       </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>1.825</v>
-      </c>
-      <c r="V21">
-        <v>2.025</v>
-      </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA21">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5982179</v>
+        <v>5982181</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45109.41666666666</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>46</v>
       </c>
       <c r="K22">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="L22">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M22">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="N22">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P22">
-        <v>1.571</v>
+        <v>3.25</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
+        <v>1.975</v>
+      </c>
+      <c r="S22">
         <v>1.875</v>
       </c>
-      <c r="S22">
-        <v>1.975</v>
-      </c>
       <c r="T22">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,7 +2497,7 @@
         <v>45109.52083333334</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5982180</v>
+        <v>5982182</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <v>2.7</v>
+      </c>
+      <c r="L24">
+        <v>3.1</v>
+      </c>
+      <c r="M24">
+        <v>2.7</v>
+      </c>
+      <c r="N24">
+        <v>2.75</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>2.8</v>
+      </c>
+      <c r="Q24">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>1.615</v>
-      </c>
-      <c r="L24">
-        <v>4</v>
-      </c>
-      <c r="M24">
-        <v>5.25</v>
-      </c>
-      <c r="N24">
-        <v>1.55</v>
-      </c>
-      <c r="O24">
-        <v>4.2</v>
-      </c>
-      <c r="P24">
-        <v>6</v>
-      </c>
-      <c r="Q24">
-        <v>-1</v>
-      </c>
       <c r="R24">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S24">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="T24">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="U24">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V24">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W24">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.8899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC24">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5982182</v>
+        <v>5982180</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>45110.58333333334</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N25">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="O25">
+        <v>4.2</v>
+      </c>
+      <c r="P25">
+        <v>6</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
+        <v>1.89</v>
+      </c>
+      <c r="S25">
+        <v>2.01</v>
+      </c>
+      <c r="T25">
         <v>3</v>
       </c>
-      <c r="P25">
-        <v>2.8</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
+      <c r="U25">
+        <v>1.95</v>
+      </c>
+      <c r="V25">
         <v>1.9</v>
       </c>
-      <c r="S25">
-        <v>1.95</v>
-      </c>
-      <c r="T25">
-        <v>1.75</v>
-      </c>
-      <c r="U25">
-        <v>1.75</v>
-      </c>
-      <c r="V25">
-        <v>2.05</v>
-      </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2764,10 +2764,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2853,10 +2853,10 @@
         <v>45115.41666666666</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5982188</v>
+        <v>5981894</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,10 +3031,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3046,41 +3046,41 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>2.8</v>
+        <v>1.3</v>
       </c>
       <c r="L29">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M29">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="N29">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="O29">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P29">
-        <v>2.4</v>
+        <v>9.5</v>
       </c>
       <c r="Q29">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
-        <v>1.775</v>
+        <v>2.08</v>
       </c>
       <c r="S29">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="V29">
         <v>1.85</v>
       </c>
-      <c r="V29">
-        <v>2</v>
-      </c>
       <c r="W29">
         <v>-1</v>
       </c>
@@ -3088,19 +3088,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1.1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5981894</v>
+        <v>5982188</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,10 +3120,10 @@
         <v>45116.41666666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3135,40 +3135,40 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="L30">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="N30">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P30">
-        <v>9.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q30">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>2.08</v>
+        <v>1.775</v>
       </c>
       <c r="S30">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3177,19 +3177,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8200000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB30">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3209,7 +3209,7 @@
         <v>45116.52083333334</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5982187</v>
+        <v>5982186</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,10 +3298,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3313,31 +3313,31 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O32">
         <v>3.6</v>
       </c>
       <c r="P32">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T32">
         <v>2.5</v>
@@ -3355,13 +3355,13 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB32">
         <v>0.95</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5982186</v>
+        <v>5982187</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,10 +3387,10 @@
         <v>45117.58333333334</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3402,31 +3402,31 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="O33">
         <v>3.6</v>
       </c>
       <c r="P33">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
         <v>2.5</v>
@@ -3444,13 +3444,13 @@
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB33">
         <v>0.95</v>
@@ -3476,10 +3476,10 @@
         <v>45122.41666666666</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5982193</v>
+        <v>5982196</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>1.285</v>
+        <v>2.7</v>
       </c>
       <c r="L35">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N35">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="O35">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>7.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q35">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R35">
+        <v>1.95</v>
+      </c>
+      <c r="S35">
         <v>1.9</v>
       </c>
-      <c r="S35">
-        <v>1.95</v>
-      </c>
       <c r="T35">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z35">
+        <v>-1</v>
+      </c>
+      <c r="AA35">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA35">
-        <v>-1</v>
-      </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5982196</v>
+        <v>5982193</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45122.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>2.7</v>
+        <v>1.285</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M36">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N36">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="O36">
+        <v>5.5</v>
+      </c>
+      <c r="P36">
+        <v>7.5</v>
+      </c>
+      <c r="Q36">
+        <v>-1.5</v>
+      </c>
+      <c r="R36">
+        <v>1.9</v>
+      </c>
+      <c r="S36">
+        <v>1.95</v>
+      </c>
+      <c r="T36">
         <v>3.5</v>
       </c>
-      <c r="P36">
-        <v>2.55</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
+      <c r="U36">
         <v>1.95</v>
       </c>
-      <c r="S36">
+      <c r="V36">
         <v>1.9</v>
       </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
-      <c r="U36">
-        <v>1.825</v>
-      </c>
-      <c r="V36">
-        <v>2.025</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3746,7 +3746,7 @@
         <v>37</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4013,7 +4013,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4099,7 +4099,7 @@
         <v>45124.58333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -4277,7 +4277,7 @@
         <v>45129.41666666666</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
@@ -4366,10 +4366,10 @@
         <v>45129.52083333334</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5982199</v>
+        <v>5981897</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,67 +4455,67 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L45">
         <v>3.6</v>
       </c>
       <c r="M45">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="N45">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
       <c r="AA45">
         <v>-0.5</v>
@@ -4524,7 +4524,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5981897</v>
+        <v>5982199</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,67 +4544,67 @@
         <v>45130.41666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="L46">
         <v>3.6</v>
       </c>
       <c r="M46">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N46">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X46">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.4</v>
+        <v>0.4625</v>
       </c>
       <c r="AA46">
         <v>-0.5</v>
@@ -4613,7 +4613,7 @@
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4633,7 +4633,7 @@
         <v>45130.52083333334</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
         <v>35</v>
@@ -4725,7 +4725,7 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4900,7 +4900,7 @@
         <v>45136.41666666666</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
         <v>34</v>
@@ -5078,7 +5078,7 @@
         <v>45136.625</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>35</v>
@@ -5170,7 +5170,7 @@
         <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5437,7 +5437,7 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5526,7 +5526,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5615,7 +5615,7 @@
         <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5982211</v>
+        <v>5982212</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,49 +5701,49 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.285</v>
+        <v>2.8</v>
       </c>
       <c r="L59">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>9</v>
+        <v>2.45</v>
       </c>
       <c r="N59">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="O59">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="P59">
-        <v>8</v>
+        <v>2.375</v>
       </c>
       <c r="Q59">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S59">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
         <v>2</v>
@@ -5752,25 +5752,25 @@
         <v>1.85</v>
       </c>
       <c r="W59">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA59">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5982212</v>
+        <v>5982211</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,49 +5790,49 @@
         <v>45144.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>2.8</v>
+        <v>1.285</v>
       </c>
       <c r="L60">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="M60">
-        <v>2.45</v>
+        <v>9</v>
       </c>
       <c r="N60">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="O60">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="P60">
-        <v>2.375</v>
+        <v>8</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R60">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U60">
         <v>2</v>
@@ -5841,25 +5841,25 @@
         <v>1.85</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X60">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5882,7 +5882,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>3</v>
@@ -6146,7 +6146,7 @@
         <v>45150.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
         <v>42</v>
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5982220</v>
+        <v>5981903</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,58 +6235,58 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
+        <v>3.5</v>
+      </c>
+      <c r="M65">
+        <v>2</v>
+      </c>
+      <c r="N65">
+        <v>3.5</v>
+      </c>
+      <c r="O65">
         <v>3.4</v>
       </c>
-      <c r="M65">
-        <v>3</v>
-      </c>
-      <c r="N65">
-        <v>2.05</v>
-      </c>
-      <c r="O65">
-        <v>3.6</v>
-      </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R65">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V65">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W65">
-        <v>1.05</v>
+        <v>2.5</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6295,16 +6295,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,7 +6312,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5981903</v>
+        <v>5982220</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6324,58 +6324,58 @@
         <v>45151.41666666666</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
       <c r="K66">
+        <v>2.3</v>
+      </c>
+      <c r="L66">
+        <v>3.4</v>
+      </c>
+      <c r="M66">
+        <v>3</v>
+      </c>
+      <c r="N66">
+        <v>2.05</v>
+      </c>
+      <c r="O66">
         <v>3.6</v>
       </c>
-      <c r="L66">
-        <v>3.5</v>
-      </c>
-      <c r="M66">
-        <v>2</v>
-      </c>
-      <c r="N66">
-        <v>3.5</v>
-      </c>
-      <c r="O66">
-        <v>3.4</v>
-      </c>
       <c r="P66">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="Q66">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S66">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W66">
-        <v>2.5</v>
+        <v>1.05</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6384,16 +6384,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>5982219</v>
+        <v>5982218</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,76 +6413,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K67">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="N67">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="O67">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P67">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R67">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="S67">
-        <v>1.775</v>
+        <v>2.06</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="AA67">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5982218</v>
+        <v>5982219</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,76 +6502,76 @@
         <v>45151.52083333334</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K68">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="L68">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
-        <v>1.333</v>
+        <v>2.45</v>
       </c>
       <c r="O68">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P68">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q68">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R68">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="S68">
-        <v>2.06</v>
+        <v>1.775</v>
       </c>
       <c r="T68">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U68">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W68">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z68">
-        <v>0.8400000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5981904</v>
+        <v>5982221</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,76 +6680,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="L70">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>1.727</v>
+        <v>4.2</v>
       </c>
       <c r="N70">
+        <v>1.75</v>
+      </c>
+      <c r="O70">
+        <v>4</v>
+      </c>
+      <c r="P70">
         <v>4.333</v>
       </c>
-      <c r="O70">
-        <v>3.75</v>
-      </c>
-      <c r="P70">
-        <v>1.8</v>
-      </c>
       <c r="Q70">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
+        <v>-1</v>
+      </c>
+      <c r="Y70">
         <v>3.333</v>
       </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
-      <c r="Y70">
-        <v>-1</v>
-      </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5982221</v>
+        <v>5981904</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,76 +6769,76 @@
         <v>45152.58333333334</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K71">
+        <v>4.5</v>
+      </c>
+      <c r="L71">
+        <v>3.8</v>
+      </c>
+      <c r="M71">
+        <v>1.727</v>
+      </c>
+      <c r="N71">
+        <v>4.333</v>
+      </c>
+      <c r="O71">
+        <v>3.75</v>
+      </c>
+      <c r="P71">
         <v>1.8</v>
       </c>
-      <c r="L71">
-        <v>3.75</v>
-      </c>
-      <c r="M71">
-        <v>4.2</v>
-      </c>
-      <c r="N71">
-        <v>1.75</v>
-      </c>
-      <c r="O71">
-        <v>4</v>
-      </c>
-      <c r="P71">
-        <v>4.333</v>
-      </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
+        <v>2.025</v>
+      </c>
+      <c r="T71">
+        <v>2.5</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
         <v>1.85</v>
       </c>
-      <c r="T71">
-        <v>2.75</v>
-      </c>
-      <c r="U71">
-        <v>1.925</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
       <c r="W71">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB71">
-        <v>-1</v>
-      </c>
-      <c r="AC71">
-        <v>0.925</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5982226</v>
+        <v>5982227</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,73 +6858,73 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K72">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="O72">
         <v>3.5</v>
       </c>
       <c r="P72">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S72">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T72">
         <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB72">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5982227</v>
+        <v>5982226</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,73 +6947,73 @@
         <v>45157.41666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L73">
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="N73">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="O73">
         <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T73">
         <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7039,7 +7039,7 @@
         <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -7125,7 +7125,7 @@
         <v>45158.41666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G75" t="s">
         <v>33</v>
@@ -7217,7 +7217,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5982225</v>
+        <v>5982223</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,76 +7303,76 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>2.875</v>
+        <v>1.45</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M77">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="O77">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P77">
-        <v>2.55</v>
+        <v>7</v>
       </c>
       <c r="Q77">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R77">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="S77">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X77">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA77">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
         <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5982223</v>
+        <v>5982225</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7392,76 +7392,76 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78">
-        <v>1.45</v>
+        <v>2.875</v>
       </c>
       <c r="L78">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M78">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="N78">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="O78">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P78">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="S78">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V78">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W78">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y78">
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7484,7 +7484,7 @@
         <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7573,7 +7573,7 @@
         <v>42</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7748,10 +7748,10 @@
         <v>45165.4375</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -7926,7 +7926,7 @@
         <v>45165.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
         <v>43</v>
@@ -8003,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5982231</v>
+        <v>5982229</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8015,58 +8015,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M85">
         <v>5.5</v>
       </c>
       <c r="N85">
-        <v>1.571</v>
+        <v>1.333</v>
       </c>
       <c r="O85">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P85">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
-        <v>0.571</v>
+        <v>0.333</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8075,16 +8075,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8092,7 +8092,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5982229</v>
+        <v>5982231</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8104,58 +8104,58 @@
         <v>45166.58333333334</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>47</v>
       </c>
       <c r="K86">
-        <v>1.533</v>
+        <v>1.55</v>
       </c>
       <c r="L86">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M86">
         <v>5.5</v>
       </c>
       <c r="N86">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="O86">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P86">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W86">
-        <v>0.333</v>
+        <v>0.571</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8164,16 +8164,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8282,7 +8282,7 @@
         <v>45171.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8371,7 +8371,7 @@
         <v>45171.52083333334</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G89" t="s">
         <v>34</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5982235</v>
+        <v>5982238</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,49 +8460,49 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>47</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M90">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N90">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>2.025</v>
+        <v>1.79</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>2.11</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
         <v>2.025</v>
@@ -8511,7 +8511,7 @@
         <v>1.825</v>
       </c>
       <c r="W90">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,16 +8520,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>1.025</v>
+        <v>0.79</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8537,7 +8537,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5982238</v>
+        <v>5982237</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8549,76 +8549,76 @@
         <v>45172.41666666666</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>4